--- a/output/Local Authority.xlsx
+++ b/output/Local Authority.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neu365-my.sharepoint.com/personal/andrew_baisley_neu_org_uk/Documents/Documents/GitHub/school_cuts/school_cuts/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_1339FEBCC69875E6FD0CF09DA99CD92D5D2D9FD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9141FFF-1712-4069-9303-1570D39CA579}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
   <si>
     <t>Schools</t>
   </si>
@@ -503,19 +520,24 @@
   </si>
   <si>
     <t>York</t>
+  </si>
+  <si>
+    <t>All schools</t>
+  </si>
+  <si>
+    <t>Change in spending power with 2015-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;0.0,,&quot; mn&quot;;-&quot;£&quot;0.0,,&quot; mn&quot;"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;0.0,,&quot; mn&quot;;\-&quot;£&quot;0.0,,&quot; mn&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;0.0,,,&quot; bn&quot;;\-&quot;£&quot;0.0,,,&quot; bn&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,17 +589,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,6 +623,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -631,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,9 +709,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,6 +761,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -872,54 +954,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
@@ -949,8 +1038,11 @@
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -958,8 +1050,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -975,29 +1067,33 @@
         <v>38060.5</v>
       </c>
       <c r="F4" s="3">
-        <v>289735472.1272115</v>
+        <v>289735472.12721151</v>
       </c>
       <c r="G4" s="3">
-        <v>279036169.1437897</v>
+        <v>279036169.14378983</v>
       </c>
       <c r="H4" s="4">
-        <v>0.7735849056603774</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="I4" s="5">
-        <v>7752.223364251333</v>
+        <v>7752.2233642513329</v>
       </c>
       <c r="J4" s="5">
-        <v>7331.384746490186</v>
+        <v>7331.3847464901874</v>
       </c>
       <c r="K4" s="5">
-        <v>-420.8386177611474</v>
+        <v>-420.83861776114549</v>
       </c>
       <c r="L4" s="4">
-        <v>-0.05428618320026823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
+        <v>-5.4286183200268012E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f>K4*E4</f>
+        <v>-16017328.211298078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6">
@@ -1013,29 +1109,33 @@
         <v>53960</v>
       </c>
       <c r="F5" s="3">
-        <v>381222814.3001664</v>
+        <v>381222814.30016649</v>
       </c>
       <c r="G5" s="3">
-        <v>372099158.6174908</v>
+        <v>372099158.61749083</v>
       </c>
       <c r="H5" s="4">
-        <v>0.7719298245614035</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="I5" s="5">
-        <v>7418.301682253504</v>
+        <v>7418.3016822535064</v>
       </c>
       <c r="J5" s="5">
-        <v>6895.833184164025</v>
+        <v>6895.8331841640247</v>
       </c>
       <c r="K5" s="5">
-        <v>-522.468498089479</v>
+        <v>-522.46849808948173</v>
       </c>
       <c r="L5" s="4">
-        <v>-0.07042966442566756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
+        <v>-7.0429664425667893E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M68" si="0">K5*E5</f>
+        <v>-28192400.156908434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6">
@@ -1051,29 +1151,33 @@
         <v>29476.5</v>
       </c>
       <c r="F6" s="3">
-        <v>177825979.6729125</v>
+        <v>177825979.67291251</v>
       </c>
       <c r="G6" s="3">
-        <v>183789561.8613422</v>
+        <v>183789561.86134231</v>
       </c>
       <c r="H6" s="4">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="I6" s="5">
-        <v>6425.045332691856</v>
+        <v>6425.045332691855</v>
       </c>
       <c r="J6" s="5">
-        <v>6235.12160064262</v>
+        <v>6235.1216006426221</v>
       </c>
       <c r="K6" s="5">
-        <v>-189.9237320492357</v>
+        <v>-189.923732049233</v>
       </c>
       <c r="L6" s="4">
-        <v>-0.02955990537263098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
+        <v>-2.9559905372630532E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>-5598286.8877492165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6">
@@ -1089,29 +1193,33 @@
         <v>24640</v>
       </c>
       <c r="F7" s="3">
-        <v>143456569.2440358</v>
+        <v>143456569.24403581</v>
       </c>
       <c r="G7" s="3">
-        <v>150065860.2748972</v>
+        <v>150065860.27489719</v>
       </c>
       <c r="H7" s="4">
-        <v>0.4647887323943662</v>
+        <v>0.46478873239436619</v>
       </c>
       <c r="I7" s="5">
-        <v>6014.572217430175</v>
+        <v>6014.5722174301754</v>
       </c>
       <c r="J7" s="5">
-        <v>6090.335238429269</v>
+        <v>6090.3352384292684</v>
       </c>
       <c r="K7" s="5">
-        <v>75.76302099909481</v>
+        <v>75.763020999092987</v>
       </c>
       <c r="L7" s="4">
-        <v>0.01259657682379034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
+        <v>1.2596576823790119E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>1866800.8374176512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6">
@@ -1127,29 +1235,33 @@
         <v>25688.5</v>
       </c>
       <c r="F8" s="3">
-        <v>153095517.9588274</v>
+        <v>153095517.95882741</v>
       </c>
       <c r="G8" s="3">
-        <v>161979159.6275666</v>
+        <v>161979159.62756661</v>
       </c>
       <c r="H8" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I8" s="5">
-        <v>6776.536736846113</v>
+        <v>6776.5367368461129</v>
       </c>
       <c r="J8" s="5">
-        <v>6305.512568953681</v>
+        <v>6305.5125689536808</v>
       </c>
       <c r="K8" s="5">
-        <v>-471.0241678924322</v>
+        <v>-471.02416789243222</v>
       </c>
       <c r="L8" s="4">
-        <v>-0.06950809627155552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
+        <v>-6.950809627155552E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>-12099904.336904746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6">
@@ -1165,16 +1277,16 @@
         <v>42833</v>
       </c>
       <c r="F9" s="3">
-        <v>291132546.8159823</v>
+        <v>291132546.81598228</v>
       </c>
       <c r="G9" s="3">
-        <v>280403537.7154248</v>
+        <v>280403537.71542478</v>
       </c>
       <c r="H9" s="4">
-        <v>0.782051282051282</v>
+        <v>0.78205128205128205</v>
       </c>
       <c r="I9" s="5">
-        <v>6826.40561845766</v>
+        <v>6826.4056184576602</v>
       </c>
       <c r="J9" s="5">
         <v>6546.437039558863</v>
@@ -1183,11 +1295,15 @@
         <v>-279.9685788987972</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.04101259059991991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
+        <v>-4.1012590599919907E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>-11991894.13997218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6">
@@ -1203,29 +1319,33 @@
         <v>192417</v>
       </c>
       <c r="F10" s="3">
-        <v>1393889101.605716</v>
+        <v>1393889101.6057169</v>
       </c>
       <c r="G10" s="3">
-        <v>1339963728.308319</v>
+        <v>1339963728.30832</v>
       </c>
       <c r="H10" s="4">
-        <v>0.8649289099526066</v>
+        <v>0.86492890995260663</v>
       </c>
       <c r="I10" s="5">
-        <v>7617.546351624822</v>
+        <v>7617.5463516248246</v>
       </c>
       <c r="J10" s="5">
-        <v>6963.853133082415</v>
+        <v>6963.8531330824198</v>
       </c>
       <c r="K10" s="5">
-        <v>-653.6932185424066</v>
+        <v>-653.69321854240479</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.08581414386838271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
+        <v>-8.5814143868382486E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>-125781688.0322739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6">
@@ -1241,29 +1361,33 @@
         <v>24925.5</v>
       </c>
       <c r="F11" s="3">
-        <v>166548405.1215513</v>
+        <v>166548405.12155131</v>
       </c>
       <c r="G11" s="3">
-        <v>162901471.852594</v>
+        <v>162901471.85259399</v>
       </c>
       <c r="H11" s="4">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="I11" s="5">
         <v>6914.595525358659</v>
       </c>
       <c r="J11" s="5">
-        <v>6535.53476771154</v>
+        <v>6535.5347677115396</v>
       </c>
       <c r="K11" s="5">
-        <v>-379.0607576471193</v>
+        <v>-379.06075764711932</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.05482038049180871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+        <v>-5.4820380491808707E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>-9448278.914733272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6">
@@ -1288,20 +1412,24 @@
         <v>0.65</v>
       </c>
       <c r="I12" s="5">
-        <v>7114.005522467941</v>
+        <v>7114.0055224679409</v>
       </c>
       <c r="J12" s="5">
-        <v>7052.859236540081</v>
+        <v>7052.8592365400818</v>
       </c>
       <c r="K12" s="5">
-        <v>-61.14628592785994</v>
+        <v>-61.146285927859033</v>
       </c>
       <c r="L12" s="4">
-        <v>-0.008595197984418657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
+        <v>-8.5951979844185455E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>-1099349.0746969776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6">
@@ -1317,29 +1445,33 @@
         <v>47979</v>
       </c>
       <c r="F13" s="3">
-        <v>304790248.3200337</v>
+        <v>304790248.32003361</v>
       </c>
       <c r="G13" s="3">
-        <v>305990879.597658</v>
+        <v>305990879.5976581</v>
       </c>
       <c r="H13" s="4">
-        <v>0.7851239669421488</v>
+        <v>0.78512396694214881</v>
       </c>
       <c r="I13" s="5">
-        <v>6797.663748425619</v>
+        <v>6797.6637484256162</v>
       </c>
       <c r="J13" s="5">
-        <v>6377.600191701746</v>
+        <v>6377.6001917017466</v>
       </c>
       <c r="K13" s="5">
-        <v>-420.0635567238733</v>
+        <v>-420.06355672386962</v>
       </c>
       <c r="L13" s="4">
-        <v>-0.06179528324288808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
+        <v>-6.1795283242887522E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>-20154229.388054542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6">
@@ -1355,29 +1487,33 @@
         <v>44041.5</v>
       </c>
       <c r="F14" s="3">
-        <v>268768190.5287744</v>
+        <v>268768190.52877438</v>
       </c>
       <c r="G14" s="3">
-        <v>266793738.2087209</v>
+        <v>266793738.20872089</v>
       </c>
       <c r="H14" s="4">
-        <v>0.654320987654321</v>
+        <v>0.65432098765432101</v>
       </c>
       <c r="I14" s="5">
-        <v>6348.829898987194</v>
+        <v>6348.8298989871964</v>
       </c>
       <c r="J14" s="5">
-        <v>6057.780461808087</v>
+        <v>6057.7804618080872</v>
       </c>
       <c r="K14" s="5">
-        <v>-291.0494371791065</v>
+        <v>-291.04943717910828</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.04584300442913691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+        <v>-4.5843004429137142E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>-12818253.787523698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6">
@@ -1393,29 +1529,33 @@
         <v>16298</v>
       </c>
       <c r="F15" s="3">
-        <v>91128164.04791772</v>
+        <v>91128164.047917709</v>
       </c>
       <c r="G15" s="3">
-        <v>96265240.3503508</v>
+        <v>96265240.350350797</v>
       </c>
       <c r="H15" s="4">
-        <v>0.5294117647058824</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="I15" s="5">
-        <v>5902.274299551003</v>
+        <v>5902.2742995510034</v>
       </c>
       <c r="J15" s="5">
-        <v>5906.567698512136</v>
+        <v>5906.5676985121363</v>
       </c>
       <c r="K15" s="5">
-        <v>4.29339896113288</v>
+        <v>4.2933989611337893</v>
       </c>
       <c r="L15" s="4">
-        <v>0.0007274143394961907</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
+        <v>7.2741433949619072E-4</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="0"/>
+        <v>69973.816268558498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="6">
@@ -1431,29 +1571,33 @@
         <v>91887</v>
       </c>
       <c r="F16" s="3">
-        <v>659823766.5489395</v>
+        <v>659823766.54893935</v>
       </c>
       <c r="G16" s="3">
-        <v>605441360.5002726</v>
+        <v>605441360.50027275</v>
       </c>
       <c r="H16" s="4">
-        <v>0.9183673469387755</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="I16" s="5">
-        <v>7220.697930596462</v>
+        <v>7220.6979305964614</v>
       </c>
       <c r="J16" s="5">
-        <v>6588.977336296458</v>
+        <v>6588.9773362964588</v>
       </c>
       <c r="K16" s="5">
-        <v>-631.7205943000044</v>
+        <v>-631.72059430000263</v>
       </c>
       <c r="L16" s="4">
-        <v>-0.08748747009942037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+        <v>-8.748747009942015E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="0"/>
+        <v>-58046910.248444341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6">
@@ -1469,29 +1613,33 @@
         <v>44958</v>
       </c>
       <c r="F17" s="3">
-        <v>370880119.9500681</v>
+        <v>370880119.95006812</v>
       </c>
       <c r="G17" s="3">
-        <v>340443220.8140636</v>
+        <v>340443220.81406373</v>
       </c>
       <c r="H17" s="4">
         <v>0.8125</v>
       </c>
       <c r="I17" s="5">
-        <v>8252.325080938268</v>
+        <v>8252.3250809382662</v>
       </c>
       <c r="J17" s="5">
-        <v>7572.472548024014</v>
+        <v>7572.4725480240149</v>
       </c>
       <c r="K17" s="5">
-        <v>-679.852532914254</v>
+        <v>-679.85253291425124</v>
       </c>
       <c r="L17" s="4">
-        <v>-0.08238314974825933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
+        <v>-8.238314974825911E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="0"/>
+        <v>-30564810.174758907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6">
@@ -1507,29 +1655,33 @@
         <v>31767.5</v>
       </c>
       <c r="F18" s="3">
-        <v>194759357.1005979</v>
+        <v>194759357.10059789</v>
       </c>
       <c r="G18" s="3">
-        <v>195351112.0429891</v>
+        <v>195351112.04298899</v>
       </c>
       <c r="H18" s="4">
-        <v>0.5882352941176471</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="I18" s="5">
-        <v>6165.709761791782</v>
+        <v>6165.7097617917816</v>
       </c>
       <c r="J18" s="5">
-        <v>6149.401496592085</v>
+        <v>6149.4014965920842</v>
       </c>
       <c r="K18" s="5">
-        <v>-16.30826519969651</v>
+        <v>-16.30826519969742</v>
       </c>
       <c r="L18" s="4">
-        <v>-0.002644993979566967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+        <v>-2.6449939795670781E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="0"/>
+        <v>-518072.81473138777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6">
@@ -1545,29 +1697,33 @@
         <v>56065</v>
       </c>
       <c r="F19" s="3">
-        <v>381971487.435479</v>
+        <v>381971487.43547881</v>
       </c>
       <c r="G19" s="3">
-        <v>382126253.8578262</v>
+        <v>382126253.85782641</v>
       </c>
       <c r="H19" s="4">
-        <v>0.7518796992481203</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="I19" s="5">
-        <v>7387.872683825327</v>
+        <v>7387.8726838253242</v>
       </c>
       <c r="J19" s="5">
-        <v>6815.771940744247</v>
+        <v>6815.771940744251</v>
       </c>
       <c r="K19" s="5">
-        <v>-572.1007430810796</v>
+        <v>-572.10074308107323</v>
       </c>
       <c r="L19" s="4">
-        <v>-0.07743781837681241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="6" t="s">
+        <v>-7.7437818376811629E-2</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="0"/>
+        <v>-32074828.16084037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6">
@@ -1583,29 +1739,33 @@
         <v>44245</v>
       </c>
       <c r="F20" s="3">
-        <v>296415733.2251984</v>
+        <v>296415733.22519851</v>
       </c>
       <c r="G20" s="3">
-        <v>283630792.5641171</v>
+        <v>283630792.56411707</v>
       </c>
       <c r="H20" s="4">
-        <v>0.9302325581395349</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="I20" s="5">
-        <v>7051.808850578066</v>
+        <v>7051.8088505780679</v>
       </c>
       <c r="J20" s="5">
-        <v>6410.459770914615</v>
+        <v>6410.4597709146146</v>
       </c>
       <c r="K20" s="5">
-        <v>-641.3490796634514</v>
+        <v>-641.34907966345327</v>
       </c>
       <c r="L20" s="4">
-        <v>-0.09094816567679331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="6" t="s">
+        <v>-9.0948165676793535E-2</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="0"/>
+        <v>-28376490.029709488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6">
@@ -1621,29 +1781,33 @@
         <v>83796</v>
       </c>
       <c r="F21" s="3">
-        <v>482245154.909751</v>
+        <v>482245154.90975088</v>
       </c>
       <c r="G21" s="3">
-        <v>502679149.680077</v>
+        <v>502679149.68007672</v>
       </c>
       <c r="H21" s="4">
-        <v>0.6576576576576577</v>
+        <v>0.65765765765765771</v>
       </c>
       <c r="I21" s="5">
-        <v>6078.822605124678</v>
+        <v>6078.8226051246766</v>
       </c>
       <c r="J21" s="5">
-        <v>5998.844213089848</v>
+        <v>5998.8442130898457</v>
       </c>
       <c r="K21" s="5">
-        <v>-79.97839203482999</v>
+        <v>-79.978392034831813</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.0131568886329082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
+        <v>-1.3156888632908431E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="0"/>
+        <v>-6701869.3389507663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6">
@@ -1659,29 +1823,33 @@
         <v>26556</v>
       </c>
       <c r="F22" s="3">
-        <v>167725810.0014873</v>
+        <v>167725810.00148731</v>
       </c>
       <c r="G22" s="3">
-        <v>165801933.6498052</v>
+        <v>165801933.64980519</v>
       </c>
       <c r="H22" s="4">
-        <v>0.6623376623376623</v>
+        <v>0.66233766233766234</v>
       </c>
       <c r="I22" s="5">
-        <v>6413.375776751261</v>
+        <v>6413.3757767512598</v>
       </c>
       <c r="J22" s="5">
-        <v>6243.482966177332</v>
+        <v>6243.4829661773319</v>
       </c>
       <c r="K22" s="5">
-        <v>-169.8928105739287</v>
+        <v>-169.89281057392779</v>
       </c>
       <c r="L22" s="4">
-        <v>-0.02649038766600842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6" t="s">
+        <v>-2.6490387666008312E-2</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="0"/>
+        <v>-4511673.4776012264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="6">
@@ -1697,29 +1865,33 @@
         <v>35845</v>
       </c>
       <c r="F23" s="3">
-        <v>224651857.872877</v>
+        <v>224651857.87287709</v>
       </c>
       <c r="G23" s="3">
-        <v>226535416.6368636</v>
+        <v>226535416.63686359</v>
       </c>
       <c r="H23" s="4">
         <v>0.6767676767676768</v>
       </c>
       <c r="I23" s="5">
-        <v>6601.194695371326</v>
+        <v>6601.1946953713286</v>
       </c>
       <c r="J23" s="5">
-        <v>6319.860974664909</v>
+        <v>6319.8609746649081</v>
       </c>
       <c r="K23" s="5">
-        <v>-281.3337207064169</v>
+        <v>-281.33372070642048</v>
       </c>
       <c r="L23" s="4">
-        <v>-0.04261860673548756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="6" t="s">
+        <v>-4.2618606735488007E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="0"/>
+        <v>-10084407.218721641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="6">
@@ -1735,29 +1907,33 @@
         <v>84081</v>
       </c>
       <c r="F24" s="3">
-        <v>502761947.7104836</v>
+        <v>502761947.71048403</v>
       </c>
       <c r="G24" s="3">
-        <v>515061645.925835</v>
+        <v>515061645.92583501</v>
       </c>
       <c r="H24" s="4">
         <v>0.5967078189300411</v>
       </c>
       <c r="I24" s="5">
-        <v>6250.109679955788</v>
+        <v>6250.1096799557927</v>
       </c>
       <c r="J24" s="5">
-        <v>6125.779259592952</v>
+        <v>6125.7792595929513</v>
       </c>
       <c r="K24" s="5">
-        <v>-124.3304203628359</v>
+        <v>-124.33042036284129</v>
       </c>
       <c r="L24" s="4">
-        <v>-0.01989251816837168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
+        <v>-1.9892518168372449E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="0"/>
+        <v>-10453826.074528059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="6">
@@ -1776,26 +1952,30 @@
         <v>216734008.6419611</v>
       </c>
       <c r="G25" s="3">
-        <v>197065674.4356062</v>
+        <v>197065674.43560621</v>
       </c>
       <c r="H25" s="4">
-        <v>0.8275862068965517</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="I25" s="5">
-        <v>9859.16429249698</v>
+        <v>9859.1642924969801</v>
       </c>
       <c r="J25" s="5">
-        <v>8959.77059881362</v>
+        <v>8959.7705988136222</v>
       </c>
       <c r="K25" s="5">
-        <v>-899.3936936833597</v>
+        <v>-899.39369368335792</v>
       </c>
       <c r="L25" s="4">
-        <v>-0.09122413086957237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+        <v>-9.1224130869572262E-2</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="0"/>
+        <v>-19781714.595718615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="6">
@@ -1811,29 +1991,33 @@
         <v>43112.5</v>
       </c>
       <c r="F26" s="3">
-        <v>253163467.5942089</v>
+        <v>253163467.59420881</v>
       </c>
       <c r="G26" s="3">
-        <v>262436616.1132863</v>
+        <v>262436616.11328641</v>
       </c>
       <c r="H26" s="4">
-        <v>0.7016129032258065</v>
+        <v>0.70161290322580649</v>
       </c>
       <c r="I26" s="5">
-        <v>6485.633672628287</v>
+        <v>6485.6336726282861</v>
       </c>
       <c r="J26" s="5">
-        <v>6087.251171082316</v>
+        <v>6087.2511710823173</v>
       </c>
       <c r="K26" s="5">
-        <v>-398.3825015459715</v>
+        <v>-398.38250154596881</v>
       </c>
       <c r="L26" s="4">
-        <v>-0.06142537825213434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+        <v>-6.14253782521339E-2</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="0"/>
+        <v>-17175265.597900581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="6">
@@ -1849,29 +2033,33 @@
         <v>53225</v>
       </c>
       <c r="F27" s="3">
-        <v>304711496.9042756</v>
+        <v>304711496.90427548</v>
       </c>
       <c r="G27" s="3">
-        <v>310892187.6163303</v>
+        <v>310892187.61633033</v>
       </c>
       <c r="H27" s="4">
-        <v>0.7191780821917808</v>
+        <v>0.71917808219178081</v>
       </c>
       <c r="I27" s="5">
-        <v>6163.071446138883</v>
+        <v>6163.0714461388816</v>
       </c>
       <c r="J27" s="5">
-        <v>5841.093238446789</v>
+        <v>5841.0932384467887</v>
       </c>
       <c r="K27" s="5">
-        <v>-321.9782076920947</v>
+        <v>-321.97820769209369</v>
       </c>
       <c r="L27" s="4">
-        <v>-0.05224314053568391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+        <v>-5.2243140535683803E-2</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="0"/>
+        <v>-17137290.104411688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6">
@@ -1887,29 +2075,33 @@
         <v>49967.5</v>
       </c>
       <c r="F28" s="3">
-        <v>315603286.9041772</v>
+        <v>315603286.90417713</v>
       </c>
       <c r="G28" s="3">
-        <v>309015482.2254443</v>
+        <v>309015482.22544432</v>
       </c>
       <c r="H28" s="4">
-        <v>0.8376623376623377</v>
+        <v>0.83766233766233766</v>
       </c>
       <c r="I28" s="5">
-        <v>6747.047917312694</v>
+        <v>6747.0479173126914</v>
       </c>
       <c r="J28" s="5">
-        <v>6184.329458657014</v>
+        <v>6184.3294586570137</v>
       </c>
       <c r="K28" s="5">
-        <v>-562.7184586556805</v>
+        <v>-562.71845865567775</v>
       </c>
       <c r="L28" s="4">
-        <v>-0.08340217315068477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
+        <v>-8.3402173150684433E-2</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="0"/>
+        <v>-28117634.582877576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="6">
@@ -1925,29 +2117,33 @@
         <v>270</v>
       </c>
       <c r="F29" s="3">
-        <v>2565262.850725572</v>
+        <v>2565262.8507255721</v>
       </c>
       <c r="G29" s="3">
-        <v>2745306.304359702</v>
+        <v>2745306.3043597019</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>10755.81908061036</v>
+        <v>10755.819080610359</v>
       </c>
       <c r="J29" s="5">
-        <v>10167.80112725816</v>
+        <v>10167.801127258161</v>
       </c>
       <c r="K29" s="5">
-        <v>-588.0179533522078</v>
+        <v>-588.01795335220777</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.05466975122445439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+        <v>-5.4669751224454388E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="0"/>
+        <v>-158764.84740509611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="6">
@@ -1963,29 +2159,33 @@
         <v>67026</v>
       </c>
       <c r="F30" s="3">
-        <v>410078116.630512</v>
+        <v>410078116.63051182</v>
       </c>
       <c r="G30" s="3">
-        <v>409229552.5689204</v>
+        <v>409229552.56892031</v>
       </c>
       <c r="H30" s="4">
-        <v>0.5387755102040817</v>
+        <v>0.53877551020408165</v>
       </c>
       <c r="I30" s="5">
-        <v>6344.521027779253</v>
+        <v>6344.5210277792503</v>
       </c>
       <c r="J30" s="5">
-        <v>6105.534457806231</v>
+        <v>6105.5344578062304</v>
       </c>
       <c r="K30" s="5">
-        <v>-238.9865699730217</v>
+        <v>-238.98656997302081</v>
       </c>
       <c r="L30" s="4">
-        <v>-0.03766818155801321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
+        <v>-3.7668181558013103E-2</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="0"/>
+        <v>-16018313.839011693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="6">
@@ -2001,29 +2201,33 @@
         <v>68676.5</v>
       </c>
       <c r="F31" s="3">
-        <v>460319240.6352978</v>
+        <v>460319240.63529801</v>
       </c>
       <c r="G31" s="3">
-        <v>456267781.8852122</v>
+        <v>456267781.88521218</v>
       </c>
       <c r="H31" s="4">
-        <v>0.7075098814229249</v>
+        <v>0.70750988142292492</v>
       </c>
       <c r="I31" s="5">
-        <v>6999.935229131435</v>
+        <v>6999.935229131439</v>
       </c>
       <c r="J31" s="5">
-        <v>6643.725027996654</v>
+        <v>6643.7250279966538</v>
       </c>
       <c r="K31" s="5">
-        <v>-356.2102011347815</v>
+        <v>-356.21020113478522</v>
       </c>
       <c r="L31" s="4">
-        <v>-0.05088764245308319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
+        <v>-5.0887642453083748E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="0"/>
+        <v>-24463269.878233079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="6">
@@ -2039,29 +2243,33 @@
         <v>55230.5</v>
       </c>
       <c r="F32" s="3">
-        <v>355359565.3960699</v>
+        <v>355359565.39606988</v>
       </c>
       <c r="G32" s="3">
-        <v>353262691.5351197</v>
+        <v>353262691.53511989</v>
       </c>
       <c r="H32" s="4">
-        <v>0.9043478260869565</v>
+        <v>0.90434782608695652</v>
       </c>
       <c r="I32" s="5">
-        <v>7021.875520349156</v>
+        <v>7021.8755203491564</v>
       </c>
       <c r="J32" s="5">
-        <v>6396.152334943911</v>
+        <v>6396.1523349439149</v>
       </c>
       <c r="K32" s="5">
-        <v>-625.7231854052452</v>
+        <v>-625.72318540524066</v>
       </c>
       <c r="L32" s="4">
-        <v>-0.08911054939551699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+        <v>-8.9110549395516325E-2</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="0"/>
+        <v>-34559004.391524144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="6">
@@ -2077,29 +2285,33 @@
         <v>53478</v>
       </c>
       <c r="F33" s="3">
-        <v>380510415.9575253</v>
+        <v>380510415.95752519</v>
       </c>
       <c r="G33" s="3">
-        <v>384904280.8701505</v>
+        <v>384904280.87015033</v>
       </c>
       <c r="H33" s="4">
-        <v>0.5727272727272728</v>
+        <v>0.57272727272727275</v>
       </c>
       <c r="I33" s="5">
-        <v>7302.832115412783</v>
+        <v>7302.8321154127798</v>
       </c>
       <c r="J33" s="5">
-        <v>7197.432231387683</v>
+        <v>7197.4322313876792</v>
       </c>
       <c r="K33" s="5">
-        <v>-105.3998840250997</v>
+        <v>-105.3998840251006</v>
       </c>
       <c r="L33" s="4">
-        <v>-0.01443274093658142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
+        <v>-1.4432740936581531E-2</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="0"/>
+        <v>-5636574.99789433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="6">
@@ -2115,29 +2327,33 @@
         <v>66065.5</v>
       </c>
       <c r="F34" s="3">
-        <v>427652976.5617306</v>
+        <v>427652976.56173038</v>
       </c>
       <c r="G34" s="3">
-        <v>417621251.1379074</v>
+        <v>417621251.13790739</v>
       </c>
       <c r="H34" s="4">
-        <v>0.6026058631921825</v>
+        <v>0.60260586319218246</v>
       </c>
       <c r="I34" s="5">
-        <v>6560.402788312556</v>
+        <v>6560.4027883125536</v>
       </c>
       <c r="J34" s="5">
-        <v>6321.32128172658</v>
+        <v>6321.3212817265812</v>
       </c>
       <c r="K34" s="5">
-        <v>-239.0815065859761</v>
+        <v>-239.08150658597239</v>
       </c>
       <c r="L34" s="4">
-        <v>-0.03644311398255962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+        <v>-3.6443113982559061E-2</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="0"/>
+        <v>-15795039.273355559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6">
@@ -2156,26 +2372,30 @@
         <v>101041003.5070404</v>
       </c>
       <c r="G35" s="3">
-        <v>97454048.35478804</v>
+        <v>97454048.354788035</v>
       </c>
       <c r="H35" s="4">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="I35" s="5">
-        <v>6914.696561645192</v>
+        <v>6914.6965616451926</v>
       </c>
       <c r="J35" s="5">
-        <v>6596.990919261332</v>
+        <v>6596.9909192613322</v>
       </c>
       <c r="K35" s="5">
-        <v>-317.7056423838594</v>
+        <v>-317.70564238386032</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.04594643301430257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="6" t="s">
+        <v>-4.594643301430279E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="0"/>
+        <v>-4693306.6021155762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="6">
@@ -2194,26 +2414,30 @@
         <v>232172394.5466139</v>
       </c>
       <c r="G36" s="3">
-        <v>238142399.6473917</v>
+        <v>238142399.64739159</v>
       </c>
       <c r="H36" s="4">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="I36" s="5">
-        <v>6524.903942854322</v>
+        <v>6524.903942854321</v>
       </c>
       <c r="J36" s="5">
-        <v>6420.663242043453</v>
+        <v>6420.6632420434498</v>
       </c>
       <c r="K36" s="5">
-        <v>-104.2407008108685</v>
+        <v>-104.2407008108712</v>
       </c>
       <c r="L36" s="4">
-        <v>-0.01597582151765264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="6" t="s">
+        <v>-1.5975821517653092E-2</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="0"/>
+        <v>-3866287.593075213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="6">
@@ -2229,29 +2453,33 @@
         <v>105958.5</v>
       </c>
       <c r="F37" s="3">
-        <v>678916991.2502013</v>
+        <v>678916991.25020146</v>
       </c>
       <c r="G37" s="3">
-        <v>650311296.2511265</v>
+        <v>650311296.25112653</v>
       </c>
       <c r="H37" s="4">
         <v>0.601965601965602</v>
       </c>
       <c r="I37" s="5">
-        <v>6556.290474835844</v>
+        <v>6556.2904748358451</v>
       </c>
       <c r="J37" s="5">
-        <v>6137.415084690011</v>
+        <v>6137.4150846900111</v>
       </c>
       <c r="K37" s="5">
-        <v>-418.8753901458331</v>
+        <v>-418.87539014583399</v>
       </c>
       <c r="L37" s="4">
-        <v>-0.06388908358370449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="6" t="s">
+        <v>-6.3889083583704709E-2</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="0"/>
+        <v>-44383408.026767351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="6">
@@ -2267,29 +2495,33 @@
         <v>84322.5</v>
       </c>
       <c r="F38" s="3">
-        <v>546759404.8009932</v>
+        <v>546759404.80099285</v>
       </c>
       <c r="G38" s="3">
-        <v>533222847.6417488</v>
+        <v>533222847.64174849</v>
       </c>
       <c r="H38" s="4">
-        <v>0.6678966789667896</v>
+        <v>0.66789667896678961</v>
       </c>
       <c r="I38" s="5">
-        <v>6654.205188194763</v>
+        <v>6654.2051881947591</v>
       </c>
       <c r="J38" s="5">
-        <v>6323.612886735435</v>
+        <v>6323.6128867354319</v>
       </c>
       <c r="K38" s="5">
-        <v>-330.5923014593272</v>
+        <v>-330.59230145932719</v>
       </c>
       <c r="L38" s="4">
-        <v>-0.04968171135537447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6" t="s">
+        <v>-4.9681711355374469E-2</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="0"/>
+        <v>-27876369.339804117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6">
@@ -2305,29 +2537,33 @@
         <v>45605.5</v>
       </c>
       <c r="F39" s="3">
-        <v>309059357.5827674</v>
+        <v>309059357.58276743</v>
       </c>
       <c r="G39" s="3">
-        <v>289280543.8662601</v>
+        <v>289280543.86626011</v>
       </c>
       <c r="H39" s="4">
-        <v>0.6885245901639344</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="I39" s="5">
-        <v>6735.740682004805</v>
+        <v>6735.7406820048027</v>
       </c>
       <c r="J39" s="5">
-        <v>6343.106508343513</v>
+        <v>6343.1065083435133</v>
       </c>
       <c r="K39" s="5">
-        <v>-392.6341736612912</v>
+        <v>-392.63417366128942</v>
       </c>
       <c r="L39" s="4">
-        <v>-0.05829116532206358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6" t="s">
+        <v>-5.8291165322063347E-2</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="0"/>
+        <v>-17906277.806909934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="6">
@@ -2343,29 +2579,33 @@
         <v>47340.5</v>
       </c>
       <c r="F40" s="3">
-        <v>293517503.5668622</v>
+        <v>293517503.56686211</v>
       </c>
       <c r="G40" s="3">
-        <v>285050335.965915</v>
+        <v>285050335.96591502</v>
       </c>
       <c r="H40" s="4">
-        <v>0.6554054054054054</v>
+        <v>0.65540540540540537</v>
       </c>
       <c r="I40" s="5">
-        <v>6216.15476067351</v>
+        <v>6216.1547606735094</v>
       </c>
       <c r="J40" s="5">
         <v>6021.278524010414</v>
       </c>
       <c r="K40" s="5">
-        <v>-194.8762366630963</v>
+        <v>-194.8762366630954</v>
       </c>
       <c r="L40" s="4">
-        <v>-0.03134996539918544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="6" t="s">
+        <v>-3.1349965399185331E-2</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="0"/>
+        <v>-9225538.4817492682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="6">
@@ -2381,29 +2621,33 @@
         <v>44124.5</v>
       </c>
       <c r="F41" s="3">
-        <v>289264869.1945874</v>
+        <v>289264869.19458717</v>
       </c>
       <c r="G41" s="3">
-        <v>279351926.9924322</v>
+        <v>279351926.99243242</v>
       </c>
       <c r="H41" s="4">
-        <v>0.8775510204081632</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="I41" s="5">
-        <v>6754.106406897063</v>
+        <v>6754.1064068970591</v>
       </c>
       <c r="J41" s="5">
-        <v>6330.993597489654</v>
+        <v>6330.9935974896571</v>
       </c>
       <c r="K41" s="5">
-        <v>-423.1128094074083</v>
+        <v>-423.11280940740198</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.06264526851033025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="6" t="s">
+        <v>-6.2645268510329366E-2</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="0"/>
+        <v>-18669641.158696909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="6">
@@ -2419,29 +2663,33 @@
         <v>50811.5</v>
       </c>
       <c r="F42" s="3">
-        <v>370336702.8660032</v>
+        <v>370336702.86600292</v>
       </c>
       <c r="G42" s="3">
-        <v>361530286.7233152</v>
+        <v>361530286.72331542</v>
       </c>
       <c r="H42" s="4">
-        <v>0.6436781609195402</v>
+        <v>0.64367816091954022</v>
       </c>
       <c r="I42" s="5">
-        <v>7375.315214506267</v>
+        <v>7375.3152145062613</v>
       </c>
       <c r="J42" s="5">
-        <v>7115.127219690724</v>
+        <v>7115.1272196907266</v>
       </c>
       <c r="K42" s="5">
-        <v>-260.1879948155429</v>
+        <v>-260.18799481553469</v>
       </c>
       <c r="L42" s="4">
-        <v>-0.03527822028593264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="6" t="s">
+        <v>-3.5278220285931639E-2</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="0"/>
+        <v>-13220542.298569541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="6">
@@ -2457,29 +2705,33 @@
         <v>44222</v>
       </c>
       <c r="F43" s="3">
-        <v>274181108.8602425</v>
+        <v>274181108.86024249</v>
       </c>
       <c r="G43" s="3">
-        <v>266033705.257563</v>
+        <v>266033705.25756299</v>
       </c>
       <c r="H43" s="4">
-        <v>0.6232876712328768</v>
+        <v>0.62328767123287676</v>
       </c>
       <c r="I43" s="5">
-        <v>6177.893892887554</v>
+        <v>6177.8938928875532</v>
       </c>
       <c r="J43" s="5">
-        <v>6015.867786566934</v>
+        <v>6015.8677865669351</v>
       </c>
       <c r="K43" s="5">
-        <v>-162.0261063206199</v>
+        <v>-162.02610632061811</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.02622675447811695</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6" t="s">
+        <v>-2.6226754478116621E-2</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="0"/>
+        <v>-7165118.473710374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="6">
@@ -2495,29 +2747,33 @@
         <v>64556.5</v>
       </c>
       <c r="F44" s="3">
-        <v>398577969.0540949</v>
+        <v>398577969.05409467</v>
       </c>
       <c r="G44" s="3">
-        <v>394139894.7037273</v>
+        <v>394139894.70372742</v>
       </c>
       <c r="H44" s="4">
         <v>0.7134831460674157</v>
       </c>
       <c r="I44" s="5">
-        <v>6421.168296010228</v>
+        <v>6421.1682960102253</v>
       </c>
       <c r="J44" s="5">
-        <v>6105.347946430295</v>
+        <v>6105.3479464302955</v>
       </c>
       <c r="K44" s="5">
-        <v>-315.8203495799335</v>
+        <v>-315.82034957992983</v>
       </c>
       <c r="L44" s="4">
-        <v>-0.04918425043868846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6" t="s">
+        <v>-4.9184250438687897E-2</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="0"/>
+        <v>-20388256.397656739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="6">
@@ -2533,29 +2789,33 @@
         <v>50941</v>
       </c>
       <c r="F45" s="3">
-        <v>390359365.3233531</v>
+        <v>390359365.32335317</v>
       </c>
       <c r="G45" s="3">
-        <v>368696991.4346657</v>
+        <v>368696991.4346658</v>
       </c>
       <c r="H45" s="4">
-        <v>0.8470588235294118</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="I45" s="5">
-        <v>7838.620173362245</v>
+        <v>7838.6201733622456</v>
       </c>
       <c r="J45" s="5">
-        <v>7237.725828599079</v>
+        <v>7237.7258285990811</v>
       </c>
       <c r="K45" s="5">
-        <v>-600.8943447631655</v>
+        <v>-600.89434476316455</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.07665817854080581</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6" t="s">
+        <v>-7.6658178540805699E-2</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="0"/>
+        <v>-30610158.816580366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="6">
@@ -2571,29 +2831,33 @@
         <v>201161.5</v>
       </c>
       <c r="F46" s="3">
-        <v>1196840916.427234</v>
+        <v>1196840916.4272339</v>
       </c>
       <c r="G46" s="3">
-        <v>1204330658.778521</v>
+        <v>1204330658.7785201</v>
       </c>
       <c r="H46" s="4">
-        <v>0.7715930902111324</v>
+        <v>0.77159309021113243</v>
       </c>
       <c r="I46" s="5">
-        <v>6346.696131698106</v>
+        <v>6346.6961316981069</v>
       </c>
       <c r="J46" s="5">
-        <v>5986.884462377348</v>
+        <v>5986.8844623773439</v>
       </c>
       <c r="K46" s="5">
-        <v>-359.8116693207576</v>
+        <v>-359.81166932076297</v>
       </c>
       <c r="L46" s="4">
-        <v>-0.0566927519223277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="6" t="s">
+        <v>-5.6692751922328588E-2</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="0"/>
+        <v>-72380255.118068665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="6">
@@ -2612,26 +2876,30 @@
         <v>185505011.7439281</v>
       </c>
       <c r="G47" s="3">
-        <v>184192861.6994714</v>
+        <v>184192861.69947141</v>
       </c>
       <c r="H47" s="4">
-        <v>0.8095238095238095</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="I47" s="5">
-        <v>6836.626068546035</v>
+        <v>6836.6260685460356</v>
       </c>
       <c r="J47" s="5">
-        <v>6482.126364113648</v>
+        <v>6482.1263641136493</v>
       </c>
       <c r="K47" s="5">
-        <v>-354.4997044323864</v>
+        <v>-354.49970443238641</v>
       </c>
       <c r="L47" s="4">
-        <v>-0.05185301943942344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="6" t="s">
+        <v>-5.1853019439423442E-2</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="0"/>
+        <v>-10073286.351298476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="6">
@@ -2647,29 +2915,33 @@
         <v>88165.5</v>
       </c>
       <c r="F48" s="3">
-        <v>527206421.0476373</v>
+        <v>527206421.04763722</v>
       </c>
       <c r="G48" s="3">
-        <v>541111593.5392804</v>
+        <v>541111593.53928065</v>
       </c>
       <c r="H48" s="4">
-        <v>0.6395759717314488</v>
+        <v>0.63957597173144876</v>
       </c>
       <c r="I48" s="5">
-        <v>6329.6545391503</v>
+        <v>6329.6545391502996</v>
       </c>
       <c r="J48" s="5">
-        <v>6137.452785264989</v>
+        <v>6137.4527852649917</v>
       </c>
       <c r="K48" s="5">
-        <v>-192.2017538853115</v>
+        <v>-192.20175388530879</v>
       </c>
       <c r="L48" s="4">
-        <v>-0.03036528339682709</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="6" t="s">
+        <v>-3.0365283396826651E-2</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="0"/>
+        <v>-16945563.732175194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="6">
@@ -2685,29 +2957,33 @@
         <v>41837.5</v>
       </c>
       <c r="F49" s="3">
-        <v>338370100.2820334</v>
+        <v>338370100.28203338</v>
       </c>
       <c r="G49" s="3">
-        <v>331038861.3773521</v>
+        <v>331038861.377352</v>
       </c>
       <c r="H49" s="4">
         <v>0.8</v>
       </c>
       <c r="I49" s="5">
-        <v>8492.692483705425</v>
+        <v>8492.6924837054266</v>
       </c>
       <c r="J49" s="5">
-        <v>7912.491458078328</v>
+        <v>7912.491458078327</v>
       </c>
       <c r="K49" s="5">
-        <v>-580.2010256270969</v>
+        <v>-580.20102562709963</v>
       </c>
       <c r="L49" s="4">
-        <v>-0.06831767743154538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="6" t="s">
+        <v>-6.8317677431545598E-2</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="0"/>
+        <v>-24274160.40967378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="6">
@@ -2723,29 +2999,33 @@
         <v>27816.5</v>
       </c>
       <c r="F50" s="3">
-        <v>286036875.5276159</v>
+        <v>286036875.52761602</v>
       </c>
       <c r="G50" s="3">
-        <v>261883716.8737801</v>
+        <v>261883716.87378019</v>
       </c>
       <c r="H50" s="4">
-        <v>0.9016393442622951</v>
+        <v>0.90163934426229508</v>
       </c>
       <c r="I50" s="5">
-        <v>10425.60415248636</v>
+        <v>10425.60415248637</v>
       </c>
       <c r="J50" s="5">
-        <v>9414.689729972502</v>
+        <v>9414.6897299725042</v>
       </c>
       <c r="K50" s="5">
         <v>-1010.914422513863</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.09696458907590244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="6" t="s">
+        <v>-9.6964589075902441E-2</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="0"/>
+        <v>-28120101.033856869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="6">
@@ -2761,7 +3041,7 @@
         <v>19130.5</v>
       </c>
       <c r="F51" s="3">
-        <v>140014085.732976</v>
+        <v>140014085.73297599</v>
       </c>
       <c r="G51" s="3">
         <v>130743757.9250734</v>
@@ -2770,20 +3050,24 @@
         <v>0.625</v>
       </c>
       <c r="I51" s="5">
-        <v>7459.461147201706</v>
+        <v>7459.4611472017059</v>
       </c>
       <c r="J51" s="5">
-        <v>6834.309501846443</v>
+        <v>6834.3095018464419</v>
       </c>
       <c r="K51" s="5">
-        <v>-625.1516453552631</v>
+        <v>-625.15164535526401</v>
       </c>
       <c r="L51" s="4">
-        <v>-0.0838065421910239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="6" t="s">
+        <v>-8.3806542191024014E-2</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="0"/>
+        <v>-11959463.551468879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="6">
@@ -2802,26 +3086,30 @@
         <v>191678839.5152964</v>
       </c>
       <c r="G52" s="3">
-        <v>170770427.6201487</v>
+        <v>170770427.62014869</v>
       </c>
       <c r="H52" s="4">
         <v>0.8392857142857143</v>
       </c>
       <c r="I52" s="5">
-        <v>9844.577155969104</v>
+        <v>9844.5771559691038</v>
       </c>
       <c r="J52" s="5">
-        <v>8670.310094442966</v>
+        <v>8670.310094442968</v>
       </c>
       <c r="K52" s="5">
-        <v>-1174.267061526138</v>
+        <v>-1174.2670615261361</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.1192805991483483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="6" t="s">
+        <v>-0.1192805991483481</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="0"/>
+        <v>-23128364.043818776</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="6">
@@ -2837,29 +3125,33 @@
         <v>180480.5</v>
       </c>
       <c r="F53" s="3">
-        <v>1039070689.159726</v>
+        <v>1039070689.159727</v>
       </c>
       <c r="G53" s="3">
-        <v>1065641306.18473</v>
+        <v>1065641306.1847301</v>
       </c>
       <c r="H53" s="4">
-        <v>0.6827852998065764</v>
+        <v>0.68278529980657643</v>
       </c>
       <c r="I53" s="5">
-        <v>6144.148165955967</v>
+        <v>6144.1481659559677</v>
       </c>
       <c r="J53" s="5">
-        <v>5904.467829957975</v>
+        <v>5904.4678299579746</v>
       </c>
       <c r="K53" s="5">
-        <v>-239.6803359979913</v>
+        <v>-239.68033599799219</v>
       </c>
       <c r="L53" s="4">
-        <v>-0.03900953061744716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="6" t="s">
+        <v>-3.9009530617447392E-2</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="0"/>
+        <v>-43257626.881085627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="6">
@@ -2875,29 +3167,33 @@
         <v>37243.5</v>
       </c>
       <c r="F54" s="3">
-        <v>315383441.170257</v>
+        <v>315383441.17025697</v>
       </c>
       <c r="G54" s="3">
-        <v>299891694.4853379</v>
+        <v>299891694.48533797</v>
       </c>
       <c r="H54" s="4">
-        <v>0.7804878048780488</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="I54" s="5">
-        <v>8753.96408771791</v>
+        <v>8753.9640877179099</v>
       </c>
       <c r="J54" s="5">
-        <v>8052.188824501937</v>
+        <v>8052.1888245019391</v>
       </c>
       <c r="K54" s="5">
-        <v>-701.7752632159727</v>
+        <v>-701.77526321597088</v>
       </c>
       <c r="L54" s="4">
-        <v>-0.08016656867493732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="6" t="s">
+        <v>-8.01665686749371E-2</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="0"/>
+        <v>-26136567.015584011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="6">
@@ -2913,29 +3209,33 @@
         <v>34298</v>
       </c>
       <c r="F55" s="3">
-        <v>225715247.9314424</v>
+        <v>225715247.93144241</v>
       </c>
       <c r="G55" s="3">
-        <v>227200033.7815774</v>
+        <v>227200033.78157741</v>
       </c>
       <c r="H55" s="4">
-        <v>0.7307692307692307</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="I55" s="5">
-        <v>7073.052391935395</v>
+        <v>7073.0523919353946</v>
       </c>
       <c r="J55" s="5">
-        <v>6624.293946631798</v>
+        <v>6624.2939466317976</v>
       </c>
       <c r="K55" s="5">
         <v>-448.758445303597</v>
       </c>
       <c r="L55" s="4">
-        <v>-0.06344622101417852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="6" t="s">
+        <v>-6.3446221014178517E-2</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="0"/>
+        <v>-15391517.15702277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="6">
@@ -2951,29 +3251,33 @@
         <v>14630</v>
       </c>
       <c r="F56" s="3">
-        <v>104799820.1604126</v>
+        <v>104799820.16041259</v>
       </c>
       <c r="G56" s="3">
-        <v>98477817.24437441</v>
+        <v>98477817.244374409</v>
       </c>
       <c r="H56" s="4">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="I56" s="5">
-        <v>7234.558895513776</v>
+        <v>7234.5588955137764</v>
       </c>
       <c r="J56" s="5">
         <v>6731.224692028326</v>
       </c>
       <c r="K56" s="5">
-        <v>-503.3342034854504</v>
+        <v>-503.33420348545042</v>
       </c>
       <c r="L56" s="4">
-        <v>-0.06957358572304573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="6" t="s">
+        <v>-6.9573585723045728E-2</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="0"/>
+        <v>-7363779.3969921395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="6">
@@ -2989,7 +3293,7 @@
         <v>35097.5</v>
       </c>
       <c r="F57" s="3">
-        <v>231139198.4443448</v>
+        <v>231139198.44434479</v>
       </c>
       <c r="G57" s="3">
         <v>228770638.1665763</v>
@@ -2998,20 +3302,24 @@
         <v>0.6901408450704225</v>
       </c>
       <c r="I57" s="5">
-        <v>6906.996920448381</v>
+        <v>6906.9969204483796</v>
       </c>
       <c r="J57" s="5">
-        <v>6518.146254478988</v>
+        <v>6518.1462544789892</v>
       </c>
       <c r="K57" s="5">
-        <v>-388.850665969393</v>
+        <v>-388.85066596939117</v>
       </c>
       <c r="L57" s="4">
-        <v>-0.05629808011325277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="6" t="s">
+        <v>-5.6298080113252547E-2</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="0"/>
+        <v>-13647686.248860708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="6">
@@ -3030,26 +3338,30 @@
         <v>149660051.1598618</v>
       </c>
       <c r="G58" s="3">
-        <v>145366740.5159257</v>
+        <v>145366740.51592571</v>
       </c>
       <c r="H58" s="4">
-        <v>0.6804123711340206</v>
+        <v>0.68041237113402064</v>
       </c>
       <c r="I58" s="5">
-        <v>6560.009255714114</v>
+        <v>6560.0092557141152</v>
       </c>
       <c r="J58" s="5">
-        <v>6204.696865609225</v>
+        <v>6204.6968656092249</v>
       </c>
       <c r="K58" s="5">
-        <v>-355.3123901048893</v>
+        <v>-355.31239010489031</v>
       </c>
       <c r="L58" s="4">
-        <v>-0.05416339768048251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="6" t="s">
+        <v>-5.4163397680482617E-2</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="0"/>
+        <v>-8324436.3315724228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="6">
@@ -3068,26 +3380,30 @@
         <v>1161407360.047421</v>
       </c>
       <c r="G59" s="3">
-        <v>1149762658.46337</v>
+        <v>1149762658.4633689</v>
       </c>
       <c r="H59" s="4">
-        <v>0.7391304347826086</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="I59" s="5">
-        <v>6431.147510382137</v>
+        <v>6431.1475103821394</v>
       </c>
       <c r="J59" s="5">
-        <v>6035.911418959666</v>
+        <v>6035.911418959663</v>
       </c>
       <c r="K59" s="5">
-        <v>-395.236091422471</v>
+        <v>-395.23609142247642</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.0614565426752256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="6" t="s">
+        <v>-6.1456542675226489E-2</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="0"/>
+        <v>-75287337.346793264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="6">
@@ -3103,29 +3419,33 @@
         <v>50764</v>
       </c>
       <c r="F60" s="3">
-        <v>356822116.5193308</v>
+        <v>356822116.51933068</v>
       </c>
       <c r="G60" s="3">
-        <v>355511434.5171795</v>
+        <v>355511434.51717949</v>
       </c>
       <c r="H60" s="4">
-        <v>0.6530612244897959</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="I60" s="5">
-        <v>7236.450070358977</v>
+        <v>7236.4500703589747</v>
       </c>
       <c r="J60" s="5">
-        <v>7003.219496438018</v>
+        <v>7003.2194964380169</v>
       </c>
       <c r="K60" s="5">
-        <v>-233.2305739209596</v>
+        <v>-233.2305739209578</v>
       </c>
       <c r="L60" s="4">
-        <v>-0.03222997072505052</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="6" t="s">
+        <v>-3.2229970725050287E-2</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="0"/>
+        <v>-11839716.854523502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="6">
@@ -3141,29 +3461,33 @@
         <v>41024</v>
       </c>
       <c r="F61" s="3">
-        <v>293387053.2691871</v>
+        <v>293387053.26918697</v>
       </c>
       <c r="G61" s="3">
-        <v>297542056.5854701</v>
+        <v>297542056.5854702</v>
       </c>
       <c r="H61" s="4">
-        <v>0.8028169014084507</v>
+        <v>0.80281690140845074</v>
       </c>
       <c r="I61" s="5">
-        <v>7533.078794479276</v>
+        <v>7533.0787944792737</v>
       </c>
       <c r="J61" s="5">
-        <v>7252.877744380608</v>
+        <v>7252.8777443806111</v>
       </c>
       <c r="K61" s="5">
-        <v>-280.2010500986671</v>
+        <v>-280.20105009866262</v>
       </c>
       <c r="L61" s="4">
-        <v>-0.03719608645325956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="6" t="s">
+        <v>-3.7196086453258892E-2</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="0"/>
+        <v>-11494967.879247535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="6">
@@ -3185,23 +3509,27 @@
         <v>104065248.9861432</v>
       </c>
       <c r="H62" s="4">
-        <v>0.7659574468085106</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="I62" s="5">
-        <v>6757.199074072849</v>
+        <v>6757.1990740728488</v>
       </c>
       <c r="J62" s="5">
-        <v>6184.972154535863</v>
+        <v>6184.9721545358652</v>
       </c>
       <c r="K62" s="5">
-        <v>-572.2269195369854</v>
+        <v>-572.22691953698359</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.08468404042328737</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="6" t="s">
+        <v>-8.4684040423287144E-2</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="0"/>
+        <v>-9628004.0346695166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="6">
@@ -3217,29 +3545,33 @@
         <v>259</v>
       </c>
       <c r="F63" s="3">
-        <v>3366490.03072293</v>
+        <v>3366490.0307229301</v>
       </c>
       <c r="G63" s="3">
-        <v>3108332.021269494</v>
+        <v>3108332.0212694942</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
       </c>
       <c r="I63" s="5">
-        <v>12066.27251155172</v>
+        <v>12066.272511551721</v>
       </c>
       <c r="J63" s="5">
-        <v>12001.28193540345</v>
+        <v>12001.281935403449</v>
       </c>
       <c r="K63" s="5">
-        <v>-64.99057614826597</v>
+        <v>-64.990576148265973</v>
       </c>
       <c r="L63" s="4">
-        <v>-0.005386135286273963</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="6" t="s">
+        <v>-5.3861352862739631E-3</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="0"/>
+        <v>-16832.559222400887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="6">
@@ -3255,29 +3587,33 @@
         <v>22923</v>
       </c>
       <c r="F64" s="3">
-        <v>231914222.2977993</v>
+        <v>231914222.29779929</v>
       </c>
       <c r="G64" s="3">
-        <v>211000821.0160438</v>
+        <v>211000821.01604369</v>
       </c>
       <c r="H64" s="4">
-        <v>0.7936507936507936</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="I64" s="5">
         <v>9705.148238106769</v>
       </c>
       <c r="J64" s="5">
-        <v>9204.764691185435</v>
+        <v>9204.7646911854354</v>
       </c>
       <c r="K64" s="5">
-        <v>-500.3835469213336</v>
+        <v>-500.38354692133362</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.05155856815835158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="6" t="s">
+        <v>-5.1558568158351581E-2</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="0"/>
+        <v>-11470292.04607773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="6">
@@ -3293,13 +3629,13 @@
         <v>13174</v>
       </c>
       <c r="F65" s="3">
-        <v>128919836.0639532</v>
+        <v>128919836.0639533</v>
       </c>
       <c r="G65" s="3">
         <v>115996508.6307629</v>
       </c>
       <c r="H65" s="4">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="I65" s="5">
         <v>10378.34777523372</v>
@@ -3308,14 +3644,18 @@
         <v>8804.957388094952</v>
       </c>
       <c r="K65" s="5">
-        <v>-1573.390387138765</v>
+        <v>-1573.3903871387679</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.1516031666324973</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="6" t="s">
+        <v>-0.15160316663249759</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="0"/>
+        <v>-20727844.960166126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="6">
@@ -3331,29 +3671,33 @@
         <v>228882</v>
       </c>
       <c r="F66" s="3">
-        <v>1381850085.416574</v>
+        <v>1381850085.4165721</v>
       </c>
       <c r="G66" s="3">
-        <v>1431744658.776673</v>
+        <v>1431744658.776674</v>
       </c>
       <c r="H66" s="4">
-        <v>0.6886446886446886</v>
+        <v>0.68864468864468864</v>
       </c>
       <c r="I66" s="5">
-        <v>6478.206745738307</v>
+        <v>6478.2067457382982</v>
       </c>
       <c r="J66" s="5">
-        <v>6255.383379980396</v>
+        <v>6255.3833799804006</v>
       </c>
       <c r="K66" s="5">
-        <v>-222.8233657579112</v>
+        <v>-222.82336575789759</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.03439584046997202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="6" t="s">
+        <v>-3.4395840469969907E-2</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="0"/>
+        <v>-51000257.601399116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="6">
@@ -3369,29 +3713,33 @@
         <v>37557.5</v>
       </c>
       <c r="F67" s="3">
-        <v>243130552.2535217</v>
+        <v>243130552.25352171</v>
       </c>
       <c r="G67" s="3">
-        <v>257622633.7075745</v>
+        <v>257622633.70757449</v>
       </c>
       <c r="H67" s="4">
-        <v>0.7176470588235294</v>
+        <v>0.71764705882352942</v>
       </c>
       <c r="I67" s="5">
-        <v>7131.705916534083</v>
+        <v>7131.7059165340834</v>
       </c>
       <c r="J67" s="5">
-        <v>6859.419122880237</v>
+        <v>6859.4191228802374</v>
       </c>
       <c r="K67" s="5">
-        <v>-272.2867936538469</v>
+        <v>-272.28679365384602</v>
       </c>
       <c r="L67" s="4">
-        <v>-0.03817975626596992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="6" t="s">
+        <v>-3.8179756265969811E-2</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="0"/>
+        <v>-10226411.252654321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="6">
@@ -3407,29 +3755,33 @@
         <v>24667</v>
       </c>
       <c r="F68" s="3">
-        <v>152236300.8852187</v>
+        <v>152236300.88521871</v>
       </c>
       <c r="G68" s="3">
-        <v>165284815.5977834</v>
+        <v>165284815.59778339</v>
       </c>
       <c r="H68" s="4">
-        <v>0.7872340425531915</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="I68" s="5">
-        <v>6793.988659387199</v>
+        <v>6793.9886593871997</v>
       </c>
       <c r="J68" s="5">
-        <v>6700.645218218</v>
+        <v>6700.6452182180019</v>
       </c>
       <c r="K68" s="5">
-        <v>-93.34344116919874</v>
+        <v>-93.343441169197831</v>
       </c>
       <c r="L68" s="4">
-        <v>-0.01373912231075436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="6" t="s">
+        <v>-1.373912231075425E-2</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="0"/>
+        <v>-2302502.6633206028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="6">
@@ -3445,29 +3797,33 @@
         <v>63525.5</v>
       </c>
       <c r="F69" s="3">
-        <v>417350945.3312942</v>
+        <v>417350945.33129412</v>
       </c>
       <c r="G69" s="3">
-        <v>408605856.5944613</v>
+        <v>408605856.59446108</v>
       </c>
       <c r="H69" s="4">
-        <v>0.7928994082840237</v>
+        <v>0.79289940828402372</v>
       </c>
       <c r="I69" s="5">
-        <v>6746.483226072454</v>
+        <v>6746.4832260724525</v>
       </c>
       <c r="J69" s="5">
-        <v>6432.154907784453</v>
+        <v>6432.1549077844511</v>
       </c>
       <c r="K69" s="5">
-        <v>-314.3283182880014</v>
+        <v>-314.32831828800141</v>
       </c>
       <c r="L69" s="4">
-        <v>-0.04659143256641451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="6" t="s">
+        <v>-4.6591432566414508E-2</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" ref="M69:M132" si="1">K69*E69</f>
+        <v>-19967863.583404433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="6">
@@ -3483,29 +3839,33 @@
         <v>20097.5</v>
       </c>
       <c r="F70" s="3">
-        <v>141226027.8783748</v>
+        <v>141226027.87837479</v>
       </c>
       <c r="G70" s="3">
-        <v>144717559.9638704</v>
+        <v>144717559.96387041</v>
       </c>
       <c r="H70" s="4">
-        <v>0.7288135593220338</v>
+        <v>0.72881355932203384</v>
       </c>
       <c r="I70" s="5">
-        <v>7404.694081970106</v>
+        <v>7404.6940819701058</v>
       </c>
       <c r="J70" s="5">
-        <v>7200.774223852242</v>
+        <v>7200.7742238522424</v>
       </c>
       <c r="K70" s="5">
-        <v>-203.9198581178634</v>
+        <v>-203.91985811786341</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.02753926845058918</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="6" t="s">
+        <v>-2.7539268450589179E-2</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="1"/>
+        <v>-4098279.3485237597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="6">
@@ -3521,10 +3881,10 @@
         <v>36379.5</v>
       </c>
       <c r="F71" s="3">
-        <v>355932373.8677502</v>
+        <v>355932373.86775023</v>
       </c>
       <c r="G71" s="3">
-        <v>322232334.6785825</v>
+        <v>322232334.67858249</v>
       </c>
       <c r="H71" s="4">
         <v>0.8314606741573034</v>
@@ -3533,17 +3893,21 @@
         <v>9778.89922159872</v>
       </c>
       <c r="J71" s="5">
-        <v>8857.525108332509</v>
+        <v>8857.5251083325093</v>
       </c>
       <c r="K71" s="5">
-        <v>-921.3741132662108</v>
+        <v>-921.37411326621077</v>
       </c>
       <c r="L71" s="4">
-        <v>-0.09422063694359029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="6" t="s">
+        <v>-9.4220636943590286E-2</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="1"/>
+        <v>-33519129.553568114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="6">
@@ -3565,23 +3929,27 @@
         <v>1086496338.437464</v>
       </c>
       <c r="H72" s="4">
-        <v>0.8200972447325769</v>
+        <v>0.82009724473257695</v>
       </c>
       <c r="I72" s="5">
-        <v>6604.055390380415</v>
+        <v>6604.0553903804148</v>
       </c>
       <c r="J72" s="5">
-        <v>6205.78449855187</v>
+        <v>6205.7844985518686</v>
       </c>
       <c r="K72" s="5">
-        <v>-398.2708918285452</v>
+        <v>-398.27089182854621</v>
       </c>
       <c r="L72" s="4">
-        <v>-0.06030701868562061</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="6" t="s">
+        <v>-6.0307018685620717E-2</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="1"/>
+        <v>-69728471.199558213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="6">
@@ -3597,29 +3965,33 @@
         <v>119924</v>
       </c>
       <c r="F73" s="3">
-        <v>731622420.451207</v>
+        <v>731622420.45120704</v>
       </c>
       <c r="G73" s="3">
-        <v>756607569.2704282</v>
+        <v>756607569.27042758</v>
       </c>
       <c r="H73" s="4">
         <v>0.7414448669201521</v>
       </c>
       <c r="I73" s="5">
-        <v>6608.637398278402</v>
+        <v>6608.6373982784016</v>
       </c>
       <c r="J73" s="5">
-        <v>6309.058814502753</v>
+        <v>6309.0588145027486</v>
       </c>
       <c r="K73" s="5">
-        <v>-299.5785837756484</v>
+        <v>-299.57858377565299</v>
       </c>
       <c r="L73" s="4">
-        <v>-0.04533136949739303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="6" t="s">
+        <v>-4.5331369497393692E-2</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="1"/>
+        <v>-35926662.080711409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="6">
@@ -3635,29 +4007,33 @@
         <v>53836.5</v>
       </c>
       <c r="F74" s="3">
-        <v>341480484.0717547</v>
+        <v>341480484.07175469</v>
       </c>
       <c r="G74" s="3">
-        <v>362512850.4484563</v>
+        <v>362512850.44845653</v>
       </c>
       <c r="H74" s="4">
-        <v>0.5377358490566038</v>
+        <v>0.53773584905660377</v>
       </c>
       <c r="I74" s="5">
-        <v>6839.526995578683</v>
+        <v>6839.5269955786835</v>
       </c>
       <c r="J74" s="5">
-        <v>6733.588744596255</v>
+        <v>6733.588744596258</v>
       </c>
       <c r="K74" s="5">
-        <v>-105.9382509824272</v>
+        <v>-105.93825098242451</v>
       </c>
       <c r="L74" s="4">
-        <v>-0.01548911950357235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="6" t="s">
+        <v>-1.54891195035719E-2</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="1"/>
+        <v>-5703344.6490152972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="6">
@@ -3673,29 +4049,33 @@
         <v>93955.5</v>
       </c>
       <c r="F75" s="3">
-        <v>520891256.2915524</v>
+        <v>520891256.29155219</v>
       </c>
       <c r="G75" s="3">
-        <v>550309699.3342502</v>
+        <v>550309699.33425033</v>
       </c>
       <c r="H75" s="4">
-        <v>0.6828358208955224</v>
+        <v>0.68283582089552242</v>
       </c>
       <c r="I75" s="5">
-        <v>6039.669039266651</v>
+        <v>6039.6690392666515</v>
       </c>
       <c r="J75" s="5">
-        <v>5857.131294434602</v>
+        <v>5857.1312944346028</v>
       </c>
       <c r="K75" s="5">
-        <v>-182.5377448320496</v>
+        <v>-182.53774483204779</v>
       </c>
       <c r="L75" s="4">
-        <v>-0.03022313700391333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="6" t="s">
+        <v>-3.0223137003912989E-2</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="1"/>
+        <v>-17150425.084567465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="6">
@@ -3711,29 +4091,33 @@
         <v>36845.5</v>
       </c>
       <c r="F76" s="3">
-        <v>331325088.6740235</v>
+        <v>331325088.67402351</v>
       </c>
       <c r="G76" s="3">
-        <v>296780462.1863994</v>
+        <v>296780462.18639928</v>
       </c>
       <c r="H76" s="4">
-        <v>0.8536585365853658</v>
+        <v>0.85365853658536583</v>
       </c>
       <c r="I76" s="5">
-        <v>8714.838530558111</v>
+        <v>8714.8385305581105</v>
       </c>
       <c r="J76" s="5">
-        <v>8054.727502310985</v>
+        <v>8054.7275023109833</v>
       </c>
       <c r="K76" s="5">
-        <v>-660.1110282471254</v>
+        <v>-660.11102824712725</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.07574564071755108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="6" t="s">
+        <v>-7.5745640717551299E-2</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="1"/>
+        <v>-24322120.891279526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="6">
@@ -3749,29 +4133,33 @@
         <v>99878</v>
       </c>
       <c r="F77" s="3">
-        <v>618203368.7912613</v>
+        <v>618203368.79126132</v>
       </c>
       <c r="G77" s="3">
-        <v>637613177.3920544</v>
+        <v>637613177.39205456</v>
       </c>
       <c r="H77" s="4">
         <v>0.4599406528189911</v>
       </c>
       <c r="I77" s="5">
-        <v>6463.249681557166</v>
+        <v>6463.2496815571658</v>
       </c>
       <c r="J77" s="5">
-        <v>6383.920156511488</v>
+        <v>6383.9201565114899</v>
       </c>
       <c r="K77" s="5">
-        <v>-79.32952504567766</v>
+        <v>-79.329525045675837</v>
       </c>
       <c r="L77" s="4">
-        <v>-0.01227393787246744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="6" t="s">
+        <v>-1.2273937872467109E-2</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="1"/>
+        <v>-7923274.3025120115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="6">
@@ -3787,29 +4175,33 @@
         <v>70604</v>
       </c>
       <c r="F78" s="3">
-        <v>485083272.0645698</v>
+        <v>485083272.06456977</v>
       </c>
       <c r="G78" s="3">
-        <v>472292629.4995593</v>
+        <v>472292629.49955952</v>
       </c>
       <c r="H78" s="4">
-        <v>0.8827160493827161</v>
+        <v>0.88271604938271608</v>
       </c>
       <c r="I78" s="5">
-        <v>7399.130134680249</v>
+        <v>7399.1301346802493</v>
       </c>
       <c r="J78" s="5">
-        <v>6689.318303489312</v>
+        <v>6689.3183034893127</v>
       </c>
       <c r="K78" s="5">
-        <v>-709.8118311909375</v>
+        <v>-709.81183119093657</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.09593179445026911</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="6" t="s">
+        <v>-9.5931794450269003E-2</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="1"/>
+        <v>-50115554.529404886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="6">
@@ -3825,29 +4217,33 @@
         <v>38466.5</v>
       </c>
       <c r="F79" s="3">
-        <v>265441652.7180386</v>
+        <v>265441652.71803859</v>
       </c>
       <c r="G79" s="3">
-        <v>248947561.9901302</v>
+        <v>248947561.99013031</v>
       </c>
       <c r="H79" s="4">
-        <v>0.8656716417910447</v>
+        <v>0.86567164179104472</v>
       </c>
       <c r="I79" s="5">
-        <v>7220.740804603753</v>
+        <v>7220.7408046037544</v>
       </c>
       <c r="J79" s="5">
-        <v>6471.801749317723</v>
+        <v>6471.8017493177258</v>
       </c>
       <c r="K79" s="5">
-        <v>-748.9390552860295</v>
+        <v>-748.93905528602863</v>
       </c>
       <c r="L79" s="4">
-        <v>-0.1037205288976064</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="6" t="s">
+        <v>-0.1037205288976063</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="1"/>
+        <v>-28809064.170160022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="6">
@@ -3863,29 +4259,33 @@
         <v>81963.5</v>
       </c>
       <c r="F80" s="3">
-        <v>569819070.059013</v>
+        <v>569819070.05901301</v>
       </c>
       <c r="G80" s="3">
-        <v>587158657.1232413</v>
+        <v>587158657.12324142</v>
       </c>
       <c r="H80" s="4">
-        <v>0.8154761904761905</v>
+        <v>0.81547619047619047</v>
       </c>
       <c r="I80" s="5">
-        <v>7527.282779625141</v>
+        <v>7527.2827796251413</v>
       </c>
       <c r="J80" s="5">
-        <v>7163.660130707465</v>
+        <v>7163.6601307074661</v>
       </c>
       <c r="K80" s="5">
-        <v>-363.6226489176761</v>
+        <v>-363.62264891767518</v>
       </c>
       <c r="L80" s="4">
-        <v>-0.04830729222793784</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="6" t="s">
+        <v>-4.8307292227937733E-2</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="1"/>
+        <v>-29803784.984563868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="6">
@@ -3907,23 +4307,27 @@
         <v>252344468.5186609</v>
       </c>
       <c r="H81" s="4">
-        <v>0.7976190476190477</v>
+        <v>0.79761904761904767</v>
       </c>
       <c r="I81" s="5">
-        <v>6748.925476054172</v>
+        <v>6748.9254760541726</v>
       </c>
       <c r="J81" s="5">
-        <v>6232.189489353326</v>
+        <v>6232.1894893533272</v>
       </c>
       <c r="K81" s="5">
-        <v>-516.7359867008454</v>
+        <v>-516.73598670084539</v>
       </c>
       <c r="L81" s="4">
-        <v>-0.07656566790287933</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="6" t="s">
+        <v>-7.6565667902879331E-2</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="1"/>
+        <v>-20922898.469510581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="6">
@@ -3939,29 +4343,33 @@
         <v>26918.5</v>
       </c>
       <c r="F82" s="3">
-        <v>195156339.6066368</v>
+        <v>195156339.60663679</v>
       </c>
       <c r="G82" s="3">
-        <v>193665522.2591819</v>
+        <v>193665522.25918189</v>
       </c>
       <c r="H82" s="4">
-        <v>0.4727272727272727</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="I82" s="5">
-        <v>7121.714396476181</v>
+        <v>7121.7143964761826</v>
       </c>
       <c r="J82" s="5">
-        <v>7194.513894131615</v>
+        <v>7194.5138941316154</v>
       </c>
       <c r="K82" s="5">
-        <v>72.7994976554337</v>
+        <v>72.799497655432788</v>
       </c>
       <c r="L82" s="4">
-        <v>0.01022218718732315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="6" t="s">
+        <v>1.022218718732293E-2</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="1"/>
+        <v>1959653.2776377676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="6">
@@ -3980,26 +4388,30 @@
         <v>145802332.2429775</v>
       </c>
       <c r="G83" s="3">
-        <v>145224857.8504702</v>
+        <v>145224857.85047019</v>
       </c>
       <c r="H83" s="4">
-        <v>0.9069767441860465</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="I83" s="5">
-        <v>7875.034823677523</v>
+        <v>7875.0348236775244</v>
       </c>
       <c r="J83" s="5">
-        <v>7242.954432581245</v>
+        <v>7242.9544325812449</v>
       </c>
       <c r="K83" s="5">
-        <v>-632.0803910962777</v>
+        <v>-632.08039109627953</v>
       </c>
       <c r="L83" s="4">
-        <v>-0.0802638217161693</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="6" t="s">
+        <v>-8.0263821716169526E-2</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="1"/>
+        <v>-12673527.881675953</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="6">
@@ -4015,29 +4427,33 @@
         <v>46448.5</v>
       </c>
       <c r="F84" s="3">
-        <v>297437125.9378016</v>
+        <v>297437125.93780148</v>
       </c>
       <c r="G84" s="3">
-        <v>301256662.1097491</v>
+        <v>301256662.10974902</v>
       </c>
       <c r="H84" s="4">
-        <v>0.5514018691588785</v>
+        <v>0.55140186915887845</v>
       </c>
       <c r="I84" s="5">
-        <v>6694.511049691686</v>
+        <v>6694.5110496916841</v>
       </c>
       <c r="J84" s="5">
-        <v>6485.82111606939</v>
+        <v>6485.8211160693891</v>
       </c>
       <c r="K84" s="5">
-        <v>-208.6899336222959</v>
+        <v>-208.689933622295</v>
       </c>
       <c r="L84" s="4">
-        <v>-0.03117328988976831</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="6" t="s">
+        <v>-3.11732898897682E-2</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="1"/>
+        <v>-9693334.3818551693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="6">
@@ -4053,29 +4469,33 @@
         <v>38977.5</v>
       </c>
       <c r="F85" s="3">
-        <v>248102338.6347112</v>
+        <v>248102338.63471121</v>
       </c>
       <c r="G85" s="3">
-        <v>254858752.310654</v>
+        <v>254858752.31065401</v>
       </c>
       <c r="H85" s="4">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="I85" s="5">
-        <v>6881.123230428401</v>
+        <v>6881.1232304284013</v>
       </c>
       <c r="J85" s="5">
-        <v>6538.612079036728</v>
+        <v>6538.6120790367249</v>
       </c>
       <c r="K85" s="5">
-        <v>-342.5111513916736</v>
+        <v>-342.51115139167632</v>
       </c>
       <c r="L85" s="4">
-        <v>-0.04977547123078474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="6" t="s">
+        <v>-4.9775471230785177E-2</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="1"/>
+        <v>-13350228.403369064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="6">
@@ -4091,29 +4511,33 @@
         <v>58405</v>
       </c>
       <c r="F86" s="3">
-        <v>496905427.5420594</v>
+        <v>496905427.5420596</v>
       </c>
       <c r="G86" s="3">
         <v>491710763.4967097</v>
       </c>
       <c r="H86" s="4">
-        <v>0.6736842105263158</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="I86" s="5">
-        <v>8947.608310832078</v>
+        <v>8947.60831083208</v>
       </c>
       <c r="J86" s="5">
-        <v>8418.984050966694</v>
+        <v>8418.9840509666938</v>
       </c>
       <c r="K86" s="5">
-        <v>-528.6242598653844</v>
+        <v>-528.62425986538619</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.05907995092112217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="6" t="s">
+        <v>-5.9079950921122393E-2</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="1"/>
+        <v>-30874299.897437882</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="6">
@@ -4129,29 +4553,33 @@
         <v>106334.5</v>
       </c>
       <c r="F87" s="3">
-        <v>684184706.6174477</v>
+        <v>684184706.61744738</v>
       </c>
       <c r="G87" s="3">
-        <v>668662132.2271316</v>
+        <v>668662132.22713149</v>
       </c>
       <c r="H87" s="4">
-        <v>0.8075801749271136</v>
+        <v>0.80758017492711365</v>
       </c>
       <c r="I87" s="5">
-        <v>6800.060693214673</v>
+        <v>6800.0606932146693</v>
       </c>
       <c r="J87" s="5">
-        <v>6288.289616513282</v>
+        <v>6288.2896165132806</v>
       </c>
       <c r="K87" s="5">
-        <v>-511.7710767013905</v>
+        <v>-511.77107670138872</v>
       </c>
       <c r="L87" s="4">
-        <v>-0.07525978072696504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="6" t="s">
+        <v>-7.525978072696482E-2</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="1"/>
+        <v>-54418921.555503815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="6">
@@ -4167,29 +4595,33 @@
         <v>21535</v>
       </c>
       <c r="F88" s="3">
-        <v>151446541.4903342</v>
+        <v>151446541.49033421</v>
       </c>
       <c r="G88" s="3">
         <v>142631372.9679687</v>
       </c>
       <c r="H88" s="4">
-        <v>0.8103448275862069</v>
+        <v>0.81034482758620685</v>
       </c>
       <c r="I88" s="5">
-        <v>7282.134033290099</v>
+        <v>7282.1340332901</v>
       </c>
       <c r="J88" s="5">
-        <v>6623.235336334745</v>
+        <v>6623.2353363347438</v>
       </c>
       <c r="K88" s="5">
-        <v>-658.8986969553544</v>
+        <v>-658.89869695535617</v>
       </c>
       <c r="L88" s="4">
-        <v>-0.09048153933218128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="6" t="s">
+        <v>-9.0481539332181615E-2</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="1"/>
+        <v>-14189383.438933596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="6">
@@ -4205,29 +4637,33 @@
         <v>22510.5</v>
       </c>
       <c r="F89" s="3">
-        <v>138729255.1435331</v>
+        <v>138729255.14353311</v>
       </c>
       <c r="G89" s="3">
-        <v>139702767.6585408</v>
+        <v>139702767.65854079</v>
       </c>
       <c r="H89" s="4">
-        <v>0.803030303030303</v>
+        <v>0.80303030303030298</v>
       </c>
       <c r="I89" s="5">
-        <v>6565.045318294165</v>
+        <v>6565.0453182941646</v>
       </c>
       <c r="J89" s="5">
-        <v>6206.115708604467</v>
+        <v>6206.115708604465</v>
       </c>
       <c r="K89" s="5">
-        <v>-358.9296096896978</v>
+        <v>-358.92960968969959</v>
       </c>
       <c r="L89" s="4">
-        <v>-0.05467283046615146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="6" t="s">
+        <v>-5.4672830466151678E-2</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="1"/>
+        <v>-8079684.9789199829</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="6">
@@ -4243,29 +4679,33 @@
         <v>52585.5</v>
       </c>
       <c r="F90" s="3">
-        <v>324674331.5144954</v>
+        <v>324674331.51449537</v>
       </c>
       <c r="G90" s="3">
-        <v>319620012.5550364</v>
+        <v>319620012.55503643</v>
       </c>
       <c r="H90" s="4">
-        <v>0.6940298507462687</v>
+        <v>0.69402985074626866</v>
       </c>
       <c r="I90" s="5">
-        <v>6433.398686557462</v>
+        <v>6433.3986865574607</v>
       </c>
       <c r="J90" s="5">
-        <v>6078.101616510946</v>
+        <v>6078.1016165109477</v>
       </c>
       <c r="K90" s="5">
-        <v>-355.2970700465157</v>
+        <v>-355.297070046513</v>
       </c>
       <c r="L90" s="4">
-        <v>-0.0552269628165446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="6" t="s">
+        <v>-5.5226962816544163E-2</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="1"/>
+        <v>-18683474.07693091</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="6">
@@ -4281,29 +4721,33 @@
         <v>29434</v>
       </c>
       <c r="F91" s="3">
-        <v>176730153.5492528</v>
+        <v>176730153.54925281</v>
       </c>
       <c r="G91" s="3">
-        <v>177561902.1462916</v>
+        <v>177561902.14629161</v>
       </c>
       <c r="H91" s="4">
-        <v>0.6301369863013698</v>
+        <v>0.63013698630136983</v>
       </c>
       <c r="I91" s="5">
-        <v>6192.475465556608</v>
+        <v>6192.4754655566076</v>
       </c>
       <c r="J91" s="5">
-        <v>6032.544069657255</v>
+        <v>6032.5440696572541</v>
       </c>
       <c r="K91" s="5">
-        <v>-159.9313958993525</v>
+        <v>-159.93139589935339</v>
       </c>
       <c r="L91" s="4">
-        <v>-0.02582673064898078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="6" t="s">
+        <v>-2.5826730648981E-2</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="1"/>
+        <v>-4707420.706901568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="6">
@@ -4319,29 +4763,33 @@
         <v>28998.5</v>
       </c>
       <c r="F92" s="3">
-        <v>183592335.3202238</v>
+        <v>183592335.3202239</v>
       </c>
       <c r="G92" s="3">
-        <v>182697373.2577764</v>
+        <v>182697373.25777629</v>
       </c>
       <c r="H92" s="4">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="I92" s="5">
-        <v>6484.726535867892</v>
+        <v>6484.7265358678942</v>
       </c>
       <c r="J92" s="5">
-        <v>6300.23529692144</v>
+        <v>6300.2352969214389</v>
       </c>
       <c r="K92" s="5">
-        <v>-184.4912389464525</v>
+        <v>-184.4912389464553</v>
       </c>
       <c r="L92" s="4">
-        <v>-0.02845011858649804</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="6" t="s">
+        <v>-2.8450118586498489E-2</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="1"/>
+        <v>-5349969.1925887838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="6">
@@ -4357,29 +4805,33 @@
         <v>77465</v>
       </c>
       <c r="F93" s="3">
-        <v>496119908.8312814</v>
+        <v>496119908.83128119</v>
       </c>
       <c r="G93" s="3">
         <v>478850684.7271989</v>
       </c>
       <c r="H93" s="4">
-        <v>0.5769230769230769</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="I93" s="5">
-        <v>6460.315239680726</v>
+        <v>6460.3152396807254</v>
       </c>
       <c r="J93" s="5">
-        <v>6181.510162359761</v>
+        <v>6181.5101623597611</v>
       </c>
       <c r="K93" s="5">
-        <v>-278.8050773209652</v>
+        <v>-278.80507732096339</v>
       </c>
       <c r="L93" s="4">
-        <v>-0.04315657471457135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="6" t="s">
+        <v>-4.3156574714571128E-2</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="1"/>
+        <v>-21597635.314668428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="6">
@@ -4398,26 +4850,30 @@
         <v>285148469.0121066</v>
       </c>
       <c r="G94" s="3">
-        <v>268282930.9257196</v>
+        <v>268282930.92571959</v>
       </c>
       <c r="H94" s="4">
-        <v>0.7088607594936709</v>
+        <v>0.70886075949367089</v>
       </c>
       <c r="I94" s="5">
-        <v>6677.402765864779</v>
+        <v>6677.4027658647792</v>
       </c>
       <c r="J94" s="5">
         <v>6243.929781593306</v>
       </c>
       <c r="K94" s="5">
-        <v>-433.4729842714733</v>
+        <v>-433.47298427147331</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.06491640529569509</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="6" t="s">
+        <v>-6.491640529569509E-2</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="1"/>
+        <v>-18625033.715192392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="6">
@@ -4433,29 +4889,33 @@
         <v>42803</v>
       </c>
       <c r="F95" s="3">
-        <v>316694032.1450231</v>
+        <v>316694032.14502323</v>
       </c>
       <c r="G95" s="3">
-        <v>306910728.4591559</v>
+        <v>306910728.45915592</v>
       </c>
       <c r="H95" s="4">
-        <v>0.8229166666666666</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="I95" s="5">
-        <v>7608.630616366507</v>
+        <v>7608.6306163665085</v>
       </c>
       <c r="J95" s="5">
-        <v>7170.308820857321</v>
+        <v>7170.3088208573199</v>
       </c>
       <c r="K95" s="5">
-        <v>-438.3217955091859</v>
+        <v>-438.32179550918858</v>
       </c>
       <c r="L95" s="4">
-        <v>-0.05760849982207517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="6" t="s">
+        <v>-5.7608499822075609E-2</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="1"/>
+        <v>-18761487.813179798</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="6">
@@ -4471,29 +4931,33 @@
         <v>117131</v>
       </c>
       <c r="F96" s="3">
-        <v>695470322.4855865</v>
+        <v>695470322.48558629</v>
       </c>
       <c r="G96" s="3">
-        <v>707147542.5633086</v>
+        <v>707147542.56330836</v>
       </c>
       <c r="H96" s="4">
-        <v>0.7027863777089783</v>
+        <v>0.70278637770897834</v>
       </c>
       <c r="I96" s="5">
-        <v>6344.60591962475</v>
+        <v>6344.605919624747</v>
       </c>
       <c r="J96" s="5">
-        <v>6037.236449473739</v>
+        <v>6037.2364494737376</v>
       </c>
       <c r="K96" s="5">
-        <v>-307.3694701510103</v>
+        <v>-307.36947015100941</v>
       </c>
       <c r="L96" s="4">
-        <v>-0.04844579380419411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="6" t="s">
+        <v>-4.8445793804193997E-2</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="1"/>
+        <v>-36002493.408257887</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="6">
@@ -4509,29 +4973,33 @@
         <v>42665</v>
       </c>
       <c r="F97" s="3">
-        <v>284437287.1935658</v>
+        <v>284437287.19356573</v>
       </c>
       <c r="G97" s="3">
-        <v>282599573.2481797</v>
+        <v>282599573.24817991</v>
       </c>
       <c r="H97" s="4">
         <v>0.9</v>
       </c>
       <c r="I97" s="5">
-        <v>6991.723297614813</v>
+        <v>6991.7232976148107</v>
       </c>
       <c r="J97" s="5">
-        <v>6623.686235747797</v>
+        <v>6623.6862357478003</v>
       </c>
       <c r="K97" s="5">
-        <v>-368.0370618670158</v>
+        <v>-368.03706186701038</v>
       </c>
       <c r="L97" s="4">
-        <v>-0.05263896269930612</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="6" t="s">
+        <v>-5.2638962699305347E-2</v>
+      </c>
+      <c r="M97" s="3">
+        <f t="shared" si="1"/>
+        <v>-15702301.244555999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="6">
@@ -4547,29 +5015,33 @@
         <v>87899.5</v>
       </c>
       <c r="F98" s="3">
-        <v>515881634.0683977</v>
+        <v>515881634.06839752</v>
       </c>
       <c r="G98" s="3">
-        <v>523067416.1548267</v>
+        <v>523067416.15482652</v>
       </c>
       <c r="H98" s="4">
-        <v>0.6311787072243346</v>
+        <v>0.63117870722433456</v>
       </c>
       <c r="I98" s="5">
-        <v>6174.525841632528</v>
+        <v>6174.525841632526</v>
       </c>
       <c r="J98" s="5">
-        <v>5950.743930907761</v>
+        <v>5950.7439309077581</v>
       </c>
       <c r="K98" s="5">
-        <v>-223.7819107247669</v>
+        <v>-223.78191072476781</v>
       </c>
       <c r="L98" s="4">
-        <v>-0.03624276850797015</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="6" t="s">
+        <v>-3.6242768507970258E-2</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" si="1"/>
+        <v>-19670318.061751727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="6">
@@ -4585,29 +5057,33 @@
         <v>37458</v>
       </c>
       <c r="F99" s="3">
-        <v>235674139.9466934</v>
+        <v>235674139.94669339</v>
       </c>
       <c r="G99" s="3">
-        <v>242730853.2159055</v>
+        <v>242730853.21590561</v>
       </c>
       <c r="H99" s="4">
-        <v>0.7162162162162162</v>
+        <v>0.71621621621621623</v>
       </c>
       <c r="I99" s="5">
-        <v>6804.901104342488</v>
+        <v>6804.9011043424871</v>
       </c>
       <c r="J99" s="5">
-        <v>6480.080442519769</v>
+        <v>6480.0804425197712</v>
       </c>
       <c r="K99" s="5">
-        <v>-324.8206618227186</v>
+        <v>-324.82066182271592</v>
       </c>
       <c r="L99" s="4">
-        <v>-0.04773334055000988</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="6" t="s">
+        <v>-4.7733340550009551E-2</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="1"/>
+        <v>-12167132.350555293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="6">
@@ -4623,29 +5099,33 @@
         <v>35846.5</v>
       </c>
       <c r="F100" s="3">
-        <v>240226221.4423658</v>
+        <v>240226221.44236571</v>
       </c>
       <c r="G100" s="3">
-        <v>237416610.3620557</v>
+        <v>237416610.36205569</v>
       </c>
       <c r="H100" s="4">
-        <v>0.5652173913043478</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="I100" s="5">
-        <v>6846.002320956562</v>
+        <v>6846.0023209565607</v>
       </c>
       <c r="J100" s="5">
-        <v>6623.146202894443</v>
+        <v>6623.1462028944443</v>
       </c>
       <c r="K100" s="5">
-        <v>-222.8561180621191</v>
+        <v>-222.85611806211639</v>
       </c>
       <c r="L100" s="4">
-        <v>-0.03255273773132172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="6" t="s">
+        <v>-3.2552737731321391E-2</v>
+      </c>
+      <c r="M100" s="3">
+        <f t="shared" si="1"/>
+        <v>-7988611.836113655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="6">
@@ -4664,26 +5144,30 @@
         <v>145456965.3804833</v>
       </c>
       <c r="G101" s="3">
-        <v>154227938.697084</v>
+        <v>154227938.69708401</v>
       </c>
       <c r="H101" s="4">
         <v>0.625</v>
       </c>
       <c r="I101" s="5">
-        <v>7080.265059408259</v>
+        <v>7080.2650594082606</v>
       </c>
       <c r="J101" s="5">
-        <v>6920.861526939531</v>
+        <v>6920.8615269395314</v>
       </c>
       <c r="K101" s="5">
-        <v>-159.4035324687275</v>
+        <v>-159.40353246872931</v>
       </c>
       <c r="L101" s="4">
-        <v>-0.02251378036432572</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="6" t="s">
+        <v>-2.2513780364326049E-2</v>
+      </c>
+      <c r="M101" s="3">
+        <f t="shared" si="1"/>
+        <v>-3552228.0192993982</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="6">
@@ -4699,29 +5183,33 @@
         <v>21871.5</v>
       </c>
       <c r="F102" s="3">
-        <v>134536346.5335923</v>
+        <v>134536346.53359231</v>
       </c>
       <c r="G102" s="3">
-        <v>143316666.5542002</v>
+        <v>143316666.55420011</v>
       </c>
       <c r="H102" s="4">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="I102" s="5">
-        <v>6963.759234638182</v>
+        <v>6963.7592346381816</v>
       </c>
       <c r="J102" s="5">
-        <v>6552.667469272806</v>
+        <v>6552.6674692728047</v>
       </c>
       <c r="K102" s="5">
-        <v>-411.091765365376</v>
+        <v>-411.09176536537689</v>
       </c>
       <c r="L102" s="4">
-        <v>-0.05903302390475818</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="6" t="s">
+        <v>-5.9033023904758293E-2</v>
+      </c>
+      <c r="M102" s="3">
+        <f t="shared" si="1"/>
+        <v>-8991193.5461888406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="6">
@@ -4737,29 +5225,33 @@
         <v>55843</v>
       </c>
       <c r="F103" s="3">
-        <v>355909673.5008952</v>
+        <v>355909673.50089508</v>
       </c>
       <c r="G103" s="3">
-        <v>356704670.9585025</v>
+        <v>356704670.95850247</v>
       </c>
       <c r="H103" s="4">
-        <v>0.7702702702702703</v>
+        <v>0.77027027027027029</v>
       </c>
       <c r="I103" s="5">
-        <v>6682.118421810547</v>
+        <v>6682.1184218105454</v>
       </c>
       <c r="J103" s="5">
-        <v>6387.634456574727</v>
+        <v>6387.6344565747268</v>
       </c>
       <c r="K103" s="5">
-        <v>-294.4839652358205</v>
+        <v>-294.48396523581869</v>
       </c>
       <c r="L103" s="4">
-        <v>-0.04407044991519748</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="6" t="s">
+        <v>-4.4070449915197263E-2</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="1"/>
+        <v>-16444868.070663823</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="6">
@@ -4775,7 +5267,7 @@
         <v>19868</v>
       </c>
       <c r="F104" s="3">
-        <v>136437415.9222394</v>
+        <v>136437415.92223939</v>
       </c>
       <c r="G104" s="3">
         <v>129957921.0328889</v>
@@ -4784,20 +5276,24 @@
         <v>0.7321428571428571</v>
       </c>
       <c r="I104" s="5">
-        <v>6899.6645135017</v>
+        <v>6899.6645135016997</v>
       </c>
       <c r="J104" s="5">
-        <v>6541.067094467932</v>
+        <v>6541.0670944679314</v>
       </c>
       <c r="K104" s="5">
-        <v>-358.5974190337674</v>
+        <v>-358.59741903376829</v>
       </c>
       <c r="L104" s="4">
-        <v>-0.05197316743908942</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="6" t="s">
+        <v>-5.1973167439089529E-2</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="1"/>
+        <v>-7124613.5213629082</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="6">
@@ -4813,29 +5309,33 @@
         <v>26069.5</v>
       </c>
       <c r="F105" s="3">
-        <v>161271537.1392942</v>
+        <v>161271537.13929409</v>
       </c>
       <c r="G105" s="3">
-        <v>167398206.7405018</v>
+        <v>167398206.74050191</v>
       </c>
       <c r="H105" s="4">
-        <v>0.5471698113207547</v>
+        <v>0.54716981132075471</v>
       </c>
       <c r="I105" s="5">
-        <v>6555.087374831589</v>
+        <v>6555.0873748315871</v>
       </c>
       <c r="J105" s="5">
-        <v>6421.228130209702</v>
+        <v>6421.2281302097026</v>
       </c>
       <c r="K105" s="5">
-        <v>-133.8592446218872</v>
+        <v>-133.8592446218845</v>
       </c>
       <c r="L105" s="4">
-        <v>-0.02042066519751407</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="6" t="s">
+        <v>-2.0420665197513621E-2</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="1"/>
+        <v>-3489643.577670218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="6">
@@ -4851,29 +5351,33 @@
         <v>35919.5</v>
       </c>
       <c r="F106" s="3">
-        <v>219523999.0786195</v>
+        <v>219523999.07861939</v>
       </c>
       <c r="G106" s="3">
-        <v>223944840.3542052</v>
+        <v>223944840.35420531</v>
       </c>
       <c r="H106" s="4">
-        <v>0.9176470588235294</v>
+        <v>0.91764705882352937</v>
       </c>
       <c r="I106" s="5">
-        <v>6822.0706085933</v>
+        <v>6822.070608593297</v>
       </c>
       <c r="J106" s="5">
-        <v>6234.631338248171</v>
+        <v>6234.6313382481731</v>
       </c>
       <c r="K106" s="5">
-        <v>-587.4392703451285</v>
+        <v>-587.43927034512399</v>
       </c>
       <c r="L106" s="4">
-        <v>-0.08610864707339305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="6" t="s">
+        <v>-8.6108647073392497E-2</v>
+      </c>
+      <c r="M106" s="3">
+        <f t="shared" si="1"/>
+        <v>-21100524.871161681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="6">
@@ -4889,29 +5393,33 @@
         <v>40369</v>
       </c>
       <c r="F107" s="3">
-        <v>275265417.0044802</v>
+        <v>275265417.00448018</v>
       </c>
       <c r="G107" s="3">
-        <v>268375216.5544355</v>
+        <v>268375216.5544354</v>
       </c>
       <c r="H107" s="4">
-        <v>0.7739130434782608</v>
+        <v>0.77391304347826084</v>
       </c>
       <c r="I107" s="5">
-        <v>6962.751479852285</v>
+        <v>6962.7514798522852</v>
       </c>
       <c r="J107" s="5">
-        <v>6648.052132934566</v>
+        <v>6648.0521329345638</v>
       </c>
       <c r="K107" s="5">
-        <v>-314.6993469177196</v>
+        <v>-314.69934691772141</v>
       </c>
       <c r="L107" s="4">
-        <v>-0.04519755556813243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="6" t="s">
+        <v>-4.5197555568132652E-2</v>
+      </c>
+      <c r="M107" s="3">
+        <f t="shared" si="1"/>
+        <v>-12704097.935721496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="6">
@@ -4927,29 +5435,33 @@
         <v>5657</v>
       </c>
       <c r="F108" s="3">
-        <v>34158567.6944904</v>
+        <v>34158567.694490403</v>
       </c>
       <c r="G108" s="3">
-        <v>34902525.06252219</v>
+        <v>34902525.062522203</v>
       </c>
       <c r="H108" s="4">
         <v>0.75</v>
       </c>
       <c r="I108" s="5">
-        <v>6385.972648063264</v>
+        <v>6385.9726480632644</v>
       </c>
       <c r="J108" s="5">
-        <v>6169.794071508253</v>
+        <v>6169.7940715082541</v>
       </c>
       <c r="K108" s="5">
-        <v>-216.1785765550112</v>
+        <v>-216.1785765550103</v>
       </c>
       <c r="L108" s="4">
-        <v>-0.03385209872775974</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="6" t="s">
+        <v>-3.3852098727759627E-2</v>
+      </c>
+      <c r="M108" s="3">
+        <f t="shared" si="1"/>
+        <v>-1222922.2075716932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="6">
@@ -4968,26 +5480,30 @@
         <v>240290764.3380926</v>
       </c>
       <c r="G109" s="3">
-        <v>245771078.6449955</v>
+        <v>245771078.64499551</v>
       </c>
       <c r="H109" s="4">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="I109" s="5">
-        <v>7089.059604026806</v>
+        <v>7089.0596040268056</v>
       </c>
       <c r="J109" s="5">
         <v>6782.792053015648</v>
       </c>
       <c r="K109" s="5">
-        <v>-306.2675510111585</v>
+        <v>-306.26755101115759</v>
       </c>
       <c r="L109" s="4">
-        <v>-0.04320284609219383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="6" t="s">
+        <v>-4.3202846092193707E-2</v>
+      </c>
+      <c r="M109" s="3">
+        <f t="shared" si="1"/>
+        <v>-11097451.57711379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="6">
@@ -5003,29 +5519,33 @@
         <v>56784</v>
       </c>
       <c r="F110" s="3">
-        <v>379355085.0395698</v>
+        <v>379355085.03956991</v>
       </c>
       <c r="G110" s="3">
-        <v>372113851.4158403</v>
+        <v>372113851.41584033</v>
       </c>
       <c r="H110" s="4">
-        <v>0.8807339449541285</v>
+        <v>0.88073394495412849</v>
       </c>
       <c r="I110" s="5">
-        <v>7137.50994909773</v>
+        <v>7137.5099490977318</v>
       </c>
       <c r="J110" s="5">
-        <v>6553.146157647229</v>
+        <v>6553.1461576472302</v>
       </c>
       <c r="K110" s="5">
-        <v>-584.3637914505007</v>
+        <v>-584.36379145050159</v>
       </c>
       <c r="L110" s="4">
-        <v>-0.08187222093110658</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="6" t="s">
+        <v>-8.1872220931106687E-2</v>
+      </c>
+      <c r="M110" s="3">
+        <f t="shared" si="1"/>
+        <v>-33182513.533725284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="6">
@@ -5050,20 +5570,24 @@
         <v>0.88</v>
       </c>
       <c r="I111" s="5">
-        <v>6668.970608743121</v>
+        <v>6668.9706087431214</v>
       </c>
       <c r="J111" s="5">
-        <v>6187.537494400012</v>
+        <v>6187.5374944000123</v>
       </c>
       <c r="K111" s="5">
-        <v>-481.4331143431091</v>
+        <v>-481.43311434310908</v>
       </c>
       <c r="L111" s="4">
-        <v>-0.07219001890815702</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="6" t="s">
+        <v>-7.2190018908157016E-2</v>
+      </c>
+      <c r="M111" s="3">
+        <f t="shared" si="1"/>
+        <v>-18878195.996179163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="6">
@@ -5079,29 +5603,33 @@
         <v>69406.5</v>
       </c>
       <c r="F112" s="3">
-        <v>445370678.8043668</v>
+        <v>445370678.80436659</v>
       </c>
       <c r="G112" s="3">
-        <v>445089724.7673689</v>
+        <v>445089724.76736897</v>
       </c>
       <c r="H112" s="4">
-        <v>0.6258064516129033</v>
+        <v>0.62580645161290327</v>
       </c>
       <c r="I112" s="5">
-        <v>6704.057905022607</v>
+        <v>6704.0579050226042</v>
       </c>
       <c r="J112" s="5">
-        <v>6412.795988378161</v>
+        <v>6412.7959883781632</v>
       </c>
       <c r="K112" s="5">
-        <v>-291.2619166444456</v>
+        <v>-291.26191664444099</v>
       </c>
       <c r="L112" s="4">
-        <v>-0.04344561469647146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="6" t="s">
+        <v>-4.3445614696470791E-2</v>
+      </c>
+      <c r="M112" s="3">
+        <f t="shared" si="1"/>
+        <v>-20215470.217582393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="6">
@@ -5117,29 +5645,33 @@
         <v>35557</v>
       </c>
       <c r="F113" s="3">
-        <v>208798156.0253483</v>
+        <v>208798156.02534819</v>
       </c>
       <c r="G113" s="3">
-        <v>207427008.9926868</v>
+        <v>207427008.99268681</v>
       </c>
       <c r="H113" s="4">
-        <v>0.7605633802816901</v>
+        <v>0.76056338028169013</v>
       </c>
       <c r="I113" s="5">
-        <v>6174.080932783781</v>
+        <v>6174.0809327837787</v>
       </c>
       <c r="J113" s="5">
-        <v>5833.647635984104</v>
+        <v>5833.6476359841045</v>
       </c>
       <c r="K113" s="5">
-        <v>-340.433296799677</v>
+        <v>-340.43329679967428</v>
       </c>
       <c r="L113" s="4">
-        <v>-0.05513910499488417</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="6" t="s">
+        <v>-5.5139104994883732E-2</v>
+      </c>
+      <c r="M113" s="3">
+        <f t="shared" si="1"/>
+        <v>-12104786.734306019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="6">
@@ -5155,7 +5687,7 @@
         <v>31969</v>
       </c>
       <c r="F114" s="3">
-        <v>200855510.6424145</v>
+        <v>200855510.64241451</v>
       </c>
       <c r="G114" s="3">
         <v>209687022.2790029</v>
@@ -5164,20 +5696,24 @@
         <v>0.74</v>
       </c>
       <c r="I114" s="5">
-        <v>7176.999594169029</v>
+        <v>7176.9995941690304</v>
       </c>
       <c r="J114" s="5">
-        <v>6559.073548719163</v>
+        <v>6559.0735487191614</v>
       </c>
       <c r="K114" s="5">
-        <v>-617.9260454498663</v>
+        <v>-617.92604544986898</v>
       </c>
       <c r="L114" s="4">
-        <v>-0.08609810232564341</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="6" t="s">
+        <v>-8.6098102325643744E-2</v>
+      </c>
+      <c r="M114" s="3">
+        <f t="shared" si="1"/>
+        <v>-19754477.746986862</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="6">
@@ -5199,23 +5735,27 @@
         <v>222511010.9003163</v>
       </c>
       <c r="H115" s="4">
-        <v>0.5540540540540541</v>
+        <v>0.55405405405405406</v>
       </c>
       <c r="I115" s="5">
         <v>6102.367502899966</v>
       </c>
       <c r="J115" s="5">
-        <v>6033.869645044779</v>
+        <v>6033.8696450447787</v>
       </c>
       <c r="K115" s="5">
-        <v>-68.49785785518725</v>
+        <v>-68.497857855187249</v>
       </c>
       <c r="L115" s="4">
-        <v>-0.01122480050941466</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="6" t="s">
+        <v>-1.122480050941466E-2</v>
+      </c>
+      <c r="M115" s="3">
+        <f t="shared" si="1"/>
+        <v>-2525995.5041257404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="6">
@@ -5234,26 +5774,30 @@
         <v>410259402.8197878</v>
       </c>
       <c r="G116" s="3">
-        <v>425700737.1044124</v>
+        <v>425700737.10441279</v>
       </c>
       <c r="H116" s="4">
-        <v>0.4563492063492063</v>
+        <v>0.45634920634920628</v>
       </c>
       <c r="I116" s="5">
-        <v>6142.573350897788</v>
+        <v>6142.5733508977883</v>
       </c>
       <c r="J116" s="5">
-        <v>6224.605016879842</v>
+        <v>6224.6050168798474</v>
       </c>
       <c r="K116" s="5">
-        <v>82.03166598205371</v>
+        <v>82.031665982059167</v>
       </c>
       <c r="L116" s="4">
-        <v>0.01335460910207353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="6" t="s">
+        <v>1.335460910207442E-2</v>
+      </c>
+      <c r="M116" s="3">
+        <f t="shared" si="1"/>
+        <v>5610145.6365130264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="6">
@@ -5272,26 +5816,30 @@
         <v>217544071.7667906</v>
       </c>
       <c r="G117" s="3">
-        <v>214114769.4645498</v>
+        <v>214114769.46454981</v>
       </c>
       <c r="H117" s="4">
-        <v>0.5925925925925926</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="I117" s="5">
-        <v>6150.003442365381</v>
+        <v>6150.0034423653806</v>
       </c>
       <c r="J117" s="5">
-        <v>5965.03049072433</v>
+        <v>5965.030490724329</v>
       </c>
       <c r="K117" s="5">
-        <v>-184.9729516410516</v>
+        <v>-184.9729516410525</v>
       </c>
       <c r="L117" s="4">
-        <v>-0.03007688587080015</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="6" t="s">
+        <v>-3.0076885870800259E-2</v>
+      </c>
+      <c r="M117" s="3">
+        <f t="shared" si="1"/>
+        <v>-6639604.0991555797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="6">
@@ -5307,29 +5855,33 @@
         <v>20964</v>
       </c>
       <c r="F118" s="3">
-        <v>138649555.5139299</v>
+        <v>138649555.51392999</v>
       </c>
       <c r="G118" s="3">
-        <v>138487369.2676257</v>
+        <v>138487369.26762581</v>
       </c>
       <c r="H118" s="4">
-        <v>0.6290322580645161</v>
+        <v>0.62903225806451613</v>
       </c>
       <c r="I118" s="5">
-        <v>6982.75360162822</v>
+        <v>6982.7536016282211</v>
       </c>
       <c r="J118" s="5">
-        <v>6605.961136597298</v>
+        <v>6605.9611365972987</v>
       </c>
       <c r="K118" s="5">
-        <v>-376.7924650309224</v>
+        <v>-376.79246503092241</v>
       </c>
       <c r="L118" s="4">
-        <v>-0.05396044118513121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="6" t="s">
+        <v>-5.3960441185131103E-2</v>
+      </c>
+      <c r="M118" s="3">
+        <f t="shared" si="1"/>
+        <v>-7899077.2369082579</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="6">
@@ -5345,29 +5897,33 @@
         <v>30044</v>
       </c>
       <c r="F119" s="3">
-        <v>186791265.7409492</v>
+        <v>186791265.74094921</v>
       </c>
       <c r="G119" s="3">
-        <v>190336506.9865764</v>
+        <v>190336506.98657629</v>
       </c>
       <c r="H119" s="4">
-        <v>0.803030303030303</v>
+        <v>0.80303030303030298</v>
       </c>
       <c r="I119" s="5">
-        <v>6703.316493188682</v>
+        <v>6703.3164931886822</v>
       </c>
       <c r="J119" s="5">
-        <v>6335.25852038931</v>
+        <v>6335.2585203893077</v>
       </c>
       <c r="K119" s="5">
-        <v>-368.0579727993727</v>
+        <v>-368.05797279937451</v>
       </c>
       <c r="L119" s="4">
-        <v>-0.05490684695752623</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="6" t="s">
+        <v>-5.4906846957526567E-2</v>
+      </c>
+      <c r="M119" s="3">
+        <f t="shared" si="1"/>
+        <v>-11057933.734784408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="6">
@@ -5383,10 +5939,10 @@
         <v>29875.5</v>
       </c>
       <c r="F120" s="3">
-        <v>187960795.1652023</v>
+        <v>187960795.16520229</v>
       </c>
       <c r="G120" s="3">
-        <v>183700822.5190591</v>
+        <v>183700822.519059</v>
       </c>
       <c r="H120" s="4">
         <v>0.72</v>
@@ -5395,17 +5951,21 @@
         <v>6849.758392347163</v>
       </c>
       <c r="J120" s="5">
-        <v>6148.878596812072</v>
+        <v>6148.8785968120701</v>
       </c>
       <c r="K120" s="5">
-        <v>-700.879795535091</v>
+        <v>-700.87979553509285</v>
       </c>
       <c r="L120" s="4">
-        <v>-0.1023218273389238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="6" t="s">
+        <v>-0.1023218273389241</v>
+      </c>
+      <c r="M120" s="3">
+        <f t="shared" si="1"/>
+        <v>-20939134.331508666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="6">
@@ -5421,29 +5981,33 @@
         <v>39996.5</v>
       </c>
       <c r="F121" s="3">
-        <v>395395201.0124268</v>
+        <v>395395201.01242667</v>
       </c>
       <c r="G121" s="3">
-        <v>360099822.5485727</v>
+        <v>360099822.5485726</v>
       </c>
       <c r="H121" s="4">
-        <v>0.801980198019802</v>
+        <v>0.80198019801980203</v>
       </c>
       <c r="I121" s="5">
-        <v>9962.211693582101</v>
+        <v>9962.2116935820995</v>
       </c>
       <c r="J121" s="5">
-        <v>9003.283351007531</v>
+        <v>9003.2833510075288</v>
       </c>
       <c r="K121" s="5">
-        <v>-958.9283425745707</v>
+        <v>-958.92834257457071</v>
       </c>
       <c r="L121" s="4">
-        <v>-0.09625657153946399</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="6" t="s">
+        <v>-9.6256571539464097E-2</v>
+      </c>
+      <c r="M121" s="3">
+        <f t="shared" si="1"/>
+        <v>-38353777.453783818</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="6">
@@ -5459,29 +6023,33 @@
         <v>26613</v>
       </c>
       <c r="F122" s="3">
-        <v>168529256.8881668</v>
+        <v>168529256.88816679</v>
       </c>
       <c r="G122" s="3">
-        <v>167539996.8217706</v>
+        <v>167539996.82177061</v>
       </c>
       <c r="H122" s="4">
-        <v>0.8208955223880597</v>
+        <v>0.82089552238805974</v>
       </c>
       <c r="I122" s="5">
-        <v>6730.267242593671</v>
+        <v>6730.2672425936717</v>
       </c>
       <c r="J122" s="5">
-        <v>6295.419412383821</v>
+        <v>6295.4194123838206</v>
       </c>
       <c r="K122" s="5">
-        <v>-434.8478302098501</v>
+        <v>-434.84783020985111</v>
       </c>
       <c r="L122" s="4">
-        <v>-0.06461078208868731</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="6" t="s">
+        <v>-6.4610782088687424E-2</v>
+      </c>
+      <c r="M122" s="3">
+        <f t="shared" si="1"/>
+        <v>-11572605.305374768</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="6">
@@ -5497,29 +6065,33 @@
         <v>112285.5</v>
       </c>
       <c r="F123" s="3">
-        <v>687298530.8092934</v>
+        <v>687298530.80929315</v>
       </c>
       <c r="G123" s="3">
-        <v>697232392.007424</v>
+        <v>697232392.00742412</v>
       </c>
       <c r="H123" s="4">
-        <v>0.4277929155313351</v>
+        <v>0.42779291553133508</v>
       </c>
       <c r="I123" s="5">
-        <v>6195.925544245506</v>
+        <v>6195.9255442455042</v>
       </c>
       <c r="J123" s="5">
-        <v>6209.460633896843</v>
+        <v>6209.4606338968442</v>
       </c>
       <c r="K123" s="5">
-        <v>13.53508965133733</v>
+        <v>13.53508965134006</v>
       </c>
       <c r="L123" s="4">
-        <v>0.002184514574083085</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="6" t="s">
+        <v>2.1845145740835288E-3</v>
+      </c>
+      <c r="M123" s="3">
+        <f t="shared" si="1"/>
+        <v>1519794.3090455444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B124" s="6">
@@ -5535,29 +6107,33 @@
         <v>39956.5</v>
       </c>
       <c r="F124" s="3">
-        <v>230867324.0537817</v>
+        <v>230867324.05378169</v>
       </c>
       <c r="G124" s="3">
-        <v>230997910.9797648</v>
+        <v>230997910.9797647</v>
       </c>
       <c r="H124" s="4">
-        <v>0.7314814814814815</v>
+        <v>0.73148148148148151</v>
       </c>
       <c r="I124" s="5">
-        <v>6118.040679301499</v>
+        <v>6118.0406793014972</v>
       </c>
       <c r="J124" s="5">
-        <v>5781.23486741243</v>
+        <v>5781.2348674124296</v>
       </c>
       <c r="K124" s="5">
-        <v>-336.8058118890694</v>
+        <v>-336.80581188906763</v>
       </c>
       <c r="L124" s="4">
-        <v>-0.05505125407690536</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="6" t="s">
+        <v>-5.5051254076905032E-2</v>
+      </c>
+      <c r="M124" s="3">
+        <f t="shared" si="1"/>
+        <v>-13457581.422745531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="6">
@@ -5576,26 +6152,30 @@
         <v>191521620.6742605</v>
       </c>
       <c r="G125" s="3">
-        <v>195370564.0846441</v>
+        <v>195370564.0846442</v>
       </c>
       <c r="H125" s="4">
-        <v>0.618421052631579</v>
+        <v>0.61842105263157898</v>
       </c>
       <c r="I125" s="5">
-        <v>6588.744346850848</v>
+        <v>6588.7443468508509</v>
       </c>
       <c r="J125" s="5">
-        <v>6378.093272763139</v>
+        <v>6378.0932727631434</v>
       </c>
       <c r="K125" s="5">
-        <v>-210.6510740877093</v>
+        <v>-210.65107408770751</v>
       </c>
       <c r="L125" s="4">
-        <v>-0.03197135341704249</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="6" t="s">
+        <v>-3.1971353417042159E-2</v>
+      </c>
+      <c r="M125" s="3">
+        <f t="shared" si="1"/>
+        <v>-6452558.3759176126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="6">
@@ -5611,29 +6191,33 @@
         <v>38987</v>
       </c>
       <c r="F126" s="3">
-        <v>248616554.3408071</v>
+        <v>248616554.3408072</v>
       </c>
       <c r="G126" s="3">
-        <v>250737842.6434008</v>
+        <v>250737842.64340079</v>
       </c>
       <c r="H126" s="4">
-        <v>0.6704545454545454</v>
+        <v>0.67045454545454541</v>
       </c>
       <c r="I126" s="5">
-        <v>6896.437013614623</v>
+        <v>6896.4370136146244</v>
       </c>
       <c r="J126" s="5">
-        <v>6431.31922547005</v>
+        <v>6431.3192254700489</v>
       </c>
       <c r="K126" s="5">
-        <v>-465.1177881445728</v>
+        <v>-465.11778814457472</v>
       </c>
       <c r="L126" s="4">
-        <v>-0.06744320106547175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="6" t="s">
+        <v>-6.744320106547208E-2</v>
+      </c>
+      <c r="M126" s="3">
+        <f t="shared" si="1"/>
+        <v>-18133547.206392534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="6">
@@ -5649,29 +6233,33 @@
         <v>96491.5</v>
       </c>
       <c r="F127" s="3">
-        <v>581219353.5006976</v>
+        <v>581219353.50069761</v>
       </c>
       <c r="G127" s="3">
-        <v>589941164.5860387</v>
+        <v>589941164.58603907</v>
       </c>
       <c r="H127" s="4">
         <v>0.5140845070422535</v>
       </c>
       <c r="I127" s="5">
-        <v>6173.038500557038</v>
+        <v>6173.0385005570379</v>
       </c>
       <c r="J127" s="5">
-        <v>6113.91847557597</v>
+        <v>6113.9184755759734</v>
       </c>
       <c r="K127" s="5">
-        <v>-59.12002498106813</v>
+        <v>-59.120024981064489</v>
       </c>
       <c r="L127" s="4">
-        <v>-0.009577135307957896</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="6" t="s">
+        <v>-9.5771353079572297E-3</v>
+      </c>
+      <c r="M127" s="3">
+        <f t="shared" si="1"/>
+        <v>-5704579.8904603841</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="6">
@@ -5687,29 +6275,33 @@
         <v>39827</v>
       </c>
       <c r="F128" s="3">
-        <v>265496312.084177</v>
+        <v>265496312.0841769</v>
       </c>
       <c r="G128" s="3">
-        <v>255238962.2767805</v>
+        <v>255238962.2767804</v>
       </c>
       <c r="H128" s="4">
-        <v>0.7657657657657657</v>
+        <v>0.76576576576576572</v>
       </c>
       <c r="I128" s="5">
-        <v>6795.922699059998</v>
+        <v>6795.9226990599973</v>
       </c>
       <c r="J128" s="5">
-        <v>6408.691648298403</v>
+        <v>6408.6916482984007</v>
       </c>
       <c r="K128" s="5">
-        <v>-387.2310507615948</v>
+        <v>-387.23105076159658</v>
       </c>
       <c r="L128" s="4">
-        <v>-0.05697990808741193</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="6" t="s">
+        <v>-5.6979908087412157E-2</v>
+      </c>
+      <c r="M128" s="3">
+        <f t="shared" si="1"/>
+        <v>-15422251.058682106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="6">
@@ -5725,29 +6317,33 @@
         <v>150293</v>
       </c>
       <c r="F129" s="3">
-        <v>891770662.2260025</v>
+        <v>891770662.22600317</v>
       </c>
       <c r="G129" s="3">
-        <v>903975690.7074989</v>
+        <v>903975690.70749938</v>
       </c>
       <c r="H129" s="4">
-        <v>0.6358543417366946</v>
+        <v>0.63585434173669464</v>
       </c>
       <c r="I129" s="5">
-        <v>6274.176476523849</v>
+        <v>6274.176476523854</v>
       </c>
       <c r="J129" s="5">
-        <v>6014.755781756296</v>
+        <v>6014.7557817562983</v>
       </c>
       <c r="K129" s="5">
-        <v>-259.420694767553</v>
+        <v>-259.42069476755569</v>
       </c>
       <c r="L129" s="4">
-        <v>-0.04134736976848352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="6" t="s">
+        <v>-4.1347369768483973E-2</v>
+      </c>
+      <c r="M129" s="3">
+        <f t="shared" si="1"/>
+        <v>-38989114.47870025</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="6">
@@ -5763,29 +6359,33 @@
         <v>38258</v>
       </c>
       <c r="F130" s="3">
-        <v>233491737.3106472</v>
+        <v>233491737.31064719</v>
       </c>
       <c r="G130" s="3">
-        <v>249686872.727813</v>
+        <v>249686872.72781301</v>
       </c>
       <c r="H130" s="4">
-        <v>0.8620689655172413</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="I130" s="5">
-        <v>6757.984321808577</v>
+        <v>6757.9843218085762</v>
       </c>
       <c r="J130" s="5">
-        <v>6526.396380569109</v>
+        <v>6526.396380569111</v>
       </c>
       <c r="K130" s="5">
-        <v>-231.5879412394679</v>
+        <v>-231.58794123946521</v>
       </c>
       <c r="L130" s="4">
-        <v>-0.03426878936254918</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="6" t="s">
+        <v>-3.4268789362548728E-2</v>
+      </c>
+      <c r="M130" s="3">
+        <f t="shared" si="1"/>
+        <v>-8860091.4559394605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B131" s="6">
@@ -5801,29 +6401,33 @@
         <v>32251</v>
       </c>
       <c r="F131" s="3">
-        <v>199533581.7092678</v>
+        <v>199533581.70926771</v>
       </c>
       <c r="G131" s="3">
-        <v>204693332.9266129</v>
+        <v>204693332.92661279</v>
       </c>
       <c r="H131" s="4">
-        <v>0.6710526315789473</v>
+        <v>0.67105263157894735</v>
       </c>
       <c r="I131" s="5">
-        <v>6626.160851103104</v>
+        <v>6626.1608511031027</v>
       </c>
       <c r="J131" s="5">
-        <v>6346.88328816511</v>
+        <v>6346.883288165106</v>
       </c>
       <c r="K131" s="5">
-        <v>-279.2775629379939</v>
+        <v>-279.27756293799672</v>
       </c>
       <c r="L131" s="4">
-        <v>-0.04214771859809296</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="6" t="s">
+        <v>-4.2147718598093409E-2</v>
+      </c>
+      <c r="M131" s="3">
+        <f t="shared" si="1"/>
+        <v>-9006980.6823133323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B132" s="6">
@@ -5839,29 +6443,33 @@
         <v>34735</v>
       </c>
       <c r="F132" s="3">
-        <v>225678360.1274224</v>
+        <v>225678360.12742239</v>
       </c>
       <c r="G132" s="3">
-        <v>218392938.0541549</v>
+        <v>218392938.05415481</v>
       </c>
       <c r="H132" s="4">
-        <v>0.8478260869565217</v>
+        <v>0.84782608695652173</v>
       </c>
       <c r="I132" s="5">
-        <v>6750.369709482602</v>
+        <v>6750.369709482603</v>
       </c>
       <c r="J132" s="5">
-        <v>6287.402851710231</v>
+        <v>6287.4028517102297</v>
       </c>
       <c r="K132" s="5">
-        <v>-462.9668577723714</v>
+        <v>-462.96685777237332</v>
       </c>
       <c r="L132" s="4">
-        <v>-0.06858392616955744</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="6" t="s">
+        <v>-6.8583926169557663E-2</v>
+      </c>
+      <c r="M132" s="3">
+        <f t="shared" si="1"/>
+        <v>-16081153.804723388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B133" s="6">
@@ -5877,29 +6485,33 @@
         <v>28821.5</v>
       </c>
       <c r="F133" s="3">
-        <v>176421820.0605571</v>
+        <v>176421820.06055701</v>
       </c>
       <c r="G133" s="3">
-        <v>188835942.0186885</v>
+        <v>188835942.01868859</v>
       </c>
       <c r="H133" s="4">
-        <v>0.5211267605633803</v>
+        <v>0.52112676056338025</v>
       </c>
       <c r="I133" s="5">
-        <v>6525.68226597215</v>
+        <v>6525.6822659721474</v>
       </c>
       <c r="J133" s="5">
-        <v>6551.912357742953</v>
+        <v>6551.9123577429546</v>
       </c>
       <c r="K133" s="5">
-        <v>26.23009177080257</v>
+        <v>26.230091770807121</v>
       </c>
       <c r="L133" s="4">
-        <v>0.004019517148050156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="6" t="s">
+        <v>4.0195171480510439E-3</v>
+      </c>
+      <c r="M133" s="3">
+        <f t="shared" ref="M133:M155" si="2">K133*E133</f>
+        <v>755990.58997231745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B134" s="6">
@@ -5915,29 +6527,33 @@
         <v>28995.5</v>
       </c>
       <c r="F134" s="3">
-        <v>184333978.9153093</v>
+        <v>184333978.91530931</v>
       </c>
       <c r="G134" s="3">
         <v>180572709.7302579</v>
       </c>
       <c r="H134" s="4">
-        <v>0.8846153846153846</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="I134" s="5">
-        <v>6925.683007037469</v>
+        <v>6925.6830070374717</v>
       </c>
       <c r="J134" s="5">
-        <v>6227.61151662354</v>
+        <v>6227.6115166235413</v>
       </c>
       <c r="K134" s="5">
-        <v>-698.0714904139286</v>
+        <v>-698.07149041393041</v>
       </c>
       <c r="L134" s="4">
-        <v>-0.1007946060633428</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="6" t="s">
+        <v>-0.10079460606334301</v>
+      </c>
+      <c r="M134" s="3">
+        <f t="shared" si="2"/>
+        <v>-20240931.90029712</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B135" s="6">
@@ -5953,29 +6569,33 @@
         <v>18220.5</v>
       </c>
       <c r="F135" s="3">
-        <v>112265146.0090826</v>
+        <v>112265146.0090825</v>
       </c>
       <c r="G135" s="3">
         <v>119713447.4846012</v>
       </c>
       <c r="H135" s="4">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I135" s="5">
-        <v>6560.992695288561</v>
+        <v>6560.9926952885598</v>
       </c>
       <c r="J135" s="5">
         <v>6570.261380565913</v>
       </c>
       <c r="K135" s="5">
-        <v>9.268685277352233</v>
+        <v>9.2686852773531427</v>
       </c>
       <c r="L135" s="4">
-        <v>0.001412695564195321</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="6" t="s">
+        <v>1.412695564195543E-3</v>
+      </c>
+      <c r="M135" s="3">
+        <f t="shared" si="2"/>
+        <v>168880.08009601294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="6">
@@ -5991,29 +6611,33 @@
         <v>44503.5</v>
       </c>
       <c r="F136" s="3">
-        <v>444962195.4314587</v>
+        <v>444962195.43145871</v>
       </c>
       <c r="G136" s="3">
-        <v>404751392.7735734</v>
+        <v>404751392.77357328</v>
       </c>
       <c r="H136" s="4">
-        <v>0.8762886597938144</v>
+        <v>0.87628865979381443</v>
       </c>
       <c r="I136" s="5">
         <v>10467.23583701385</v>
       </c>
       <c r="J136" s="5">
-        <v>9094.821593213419</v>
+        <v>9094.8215932134171</v>
       </c>
       <c r="K136" s="5">
-        <v>-1372.414243800429</v>
+        <v>-1372.414243800431</v>
       </c>
       <c r="L136" s="4">
-        <v>-0.1311152500211517</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="6" t="s">
+        <v>-0.13111525002115179</v>
+      </c>
+      <c r="M136" s="3">
+        <f t="shared" si="2"/>
+        <v>-61077237.29897248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B137" s="6">
@@ -6032,26 +6656,30 @@
         <v>219496649.5000087</v>
       </c>
       <c r="G137" s="3">
-        <v>233306388.446873</v>
+        <v>233306388.44687289</v>
       </c>
       <c r="H137" s="4">
-        <v>0.5238095238095238</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="I137" s="5">
-        <v>6002.424237038086</v>
+        <v>6002.4242370380862</v>
       </c>
       <c r="J137" s="5">
-        <v>5913.677087267389</v>
+        <v>5913.6770872673869</v>
       </c>
       <c r="K137" s="5">
-        <v>-88.74714977069743</v>
+        <v>-88.747149770699252</v>
       </c>
       <c r="L137" s="4">
-        <v>-0.01478521781634179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="6" t="s">
+        <v>-1.478521781634212E-2</v>
+      </c>
+      <c r="M137" s="3">
+        <f t="shared" si="2"/>
+        <v>-3501252.5527536268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B138" s="6">
@@ -6067,29 +6695,33 @@
         <v>51224</v>
       </c>
       <c r="F138" s="3">
-        <v>320612831.6936579</v>
+        <v>320612831.69365799</v>
       </c>
       <c r="G138" s="3">
-        <v>312912745.9473868</v>
+        <v>312912745.94738668</v>
       </c>
       <c r="H138" s="4">
-        <v>0.9044117647058824</v>
+        <v>0.90441176470588236</v>
       </c>
       <c r="I138" s="5">
-        <v>6627.997967722526</v>
+        <v>6627.9979677225283</v>
       </c>
       <c r="J138" s="5">
-        <v>6108.713609780314</v>
+        <v>6108.7136097803113</v>
       </c>
       <c r="K138" s="5">
-        <v>-519.2843579422115</v>
+        <v>-519.28435794221696</v>
       </c>
       <c r="L138" s="4">
-        <v>-0.07834709070085077</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="6" t="s">
+        <v>-7.8347090700851552E-2</v>
+      </c>
+      <c r="M138" s="3">
+        <f t="shared" si="2"/>
+        <v>-26599821.95123212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B139" s="6">
@@ -6105,29 +6737,33 @@
         <v>49939</v>
       </c>
       <c r="F139" s="3">
-        <v>319950982.6262023</v>
+        <v>319950982.62620229</v>
       </c>
       <c r="G139" s="3">
-        <v>329082176.7726806</v>
+        <v>329082176.77268052</v>
       </c>
       <c r="H139" s="4">
-        <v>0.6896551724137931</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="I139" s="5">
-        <v>6875.343446497386</v>
+        <v>6875.3434464973861</v>
       </c>
       <c r="J139" s="5">
-        <v>6589.682948650966</v>
+        <v>6589.6829486509632</v>
       </c>
       <c r="K139" s="5">
-        <v>-285.6604978464202</v>
+        <v>-285.66049784642291</v>
       </c>
       <c r="L139" s="4">
-        <v>-0.04154854227565152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="6" t="s">
+        <v>-4.1548542275651863E-2</v>
+      </c>
+      <c r="M139" s="3">
+        <f t="shared" si="2"/>
+        <v>-14265599.601952514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B140" s="6">
@@ -6143,29 +6779,33 @@
         <v>40579.5</v>
       </c>
       <c r="F140" s="3">
-        <v>329049034.8530513</v>
+        <v>329049034.85305119</v>
       </c>
       <c r="G140" s="3">
-        <v>298600083.7046832</v>
+        <v>298600083.70468318</v>
       </c>
       <c r="H140" s="4">
-        <v>0.8450704225352113</v>
+        <v>0.84507042253521125</v>
       </c>
       <c r="I140" s="5">
-        <v>8098.472468141353</v>
+        <v>8098.4724681413509</v>
       </c>
       <c r="J140" s="5">
-        <v>7358.397311565771</v>
+        <v>7358.3973115657709</v>
       </c>
       <c r="K140" s="5">
-        <v>-740.0751565755818</v>
+        <v>-740.07515657557997</v>
       </c>
       <c r="L140" s="4">
-        <v>-0.09138453695891036</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="6" t="s">
+        <v>-9.1384536958910245E-2</v>
+      </c>
+      <c r="M140" s="3">
+        <f t="shared" si="2"/>
+        <v>-30031879.816258747</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B141" s="6">
@@ -6181,29 +6821,33 @@
         <v>33188</v>
       </c>
       <c r="F141" s="3">
-        <v>299767414.6657523</v>
+        <v>299767414.66575229</v>
       </c>
       <c r="G141" s="3">
-        <v>285410963.8564162</v>
+        <v>285410963.85641623</v>
       </c>
       <c r="H141" s="4">
-        <v>0.7195121951219512</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="I141" s="5">
-        <v>9289.928556642875</v>
+        <v>9289.9285566428753</v>
       </c>
       <c r="J141" s="5">
-        <v>8599.824148982048</v>
+        <v>8599.8241489820466</v>
       </c>
       <c r="K141" s="5">
-        <v>-690.1044076608268</v>
+        <v>-690.10440766082866</v>
       </c>
       <c r="L141" s="4">
-        <v>-0.0742852222654995</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="6" t="s">
+        <v>-7.4285222265499717E-2</v>
+      </c>
+      <c r="M141" s="3">
+        <f t="shared" si="2"/>
+        <v>-22903185.081447583</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B142" s="6">
@@ -6219,29 +6863,33 @@
         <v>31755.5</v>
       </c>
       <c r="F142" s="3">
-        <v>195387202.2689523</v>
+        <v>195387202.26895231</v>
       </c>
       <c r="G142" s="3">
-        <v>191479212.2271185</v>
+        <v>191479212.22711849</v>
       </c>
       <c r="H142" s="4">
-        <v>0.7176470588235294</v>
+        <v>0.71764705882352942</v>
       </c>
       <c r="I142" s="5">
-        <v>6288.612882811468</v>
+        <v>6288.6128828114661</v>
       </c>
       <c r="J142" s="5">
-        <v>6029.796798259151</v>
+        <v>6029.7967982591517</v>
       </c>
       <c r="K142" s="5">
-        <v>-258.8160845523171</v>
+        <v>-258.81608455231441</v>
       </c>
       <c r="L142" s="4">
-        <v>-0.04115630734080222</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="6" t="s">
+        <v>-4.1156307340801779E-2</v>
+      </c>
+      <c r="M142" s="3">
+        <f t="shared" si="2"/>
+        <v>-8218834.1730010202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="6">
@@ -6257,29 +6905,33 @@
         <v>79463.5</v>
       </c>
       <c r="F143" s="3">
-        <v>462199107.29445</v>
+        <v>462199107.29444981</v>
       </c>
       <c r="G143" s="3">
-        <v>469517119.9448968</v>
+        <v>469517119.9448967</v>
       </c>
       <c r="H143" s="4">
-        <v>0.6724137931034483</v>
+        <v>0.67241379310344829</v>
       </c>
       <c r="I143" s="5">
-        <v>6210.767509566778</v>
+        <v>6210.7675095667746</v>
       </c>
       <c r="J143" s="5">
-        <v>5908.588470743131</v>
+        <v>5908.5884707431296</v>
       </c>
       <c r="K143" s="5">
-        <v>-302.1790388236477</v>
+        <v>-302.17903882364499</v>
       </c>
       <c r="L143" s="4">
-        <v>-0.0486540573863351</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="6" t="s">
+        <v>-4.8654057386334659E-2</v>
+      </c>
+      <c r="M143" s="3">
+        <f t="shared" si="2"/>
+        <v>-24012204.051562712</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B144" s="6">
@@ -6295,29 +6947,33 @@
         <v>23547.5</v>
       </c>
       <c r="F144" s="3">
-        <v>148309150.8379394</v>
+        <v>148309150.83793929</v>
       </c>
       <c r="G144" s="3">
         <v>146254718.5714879</v>
       </c>
       <c r="H144" s="4">
-        <v>0.6818181818181818</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="I144" s="5">
-        <v>6556.694482103466</v>
+        <v>6556.6944821034649</v>
       </c>
       <c r="J144" s="5">
-        <v>6211.050793990355</v>
+        <v>6211.0507939903546</v>
       </c>
       <c r="K144" s="5">
-        <v>-345.6436881131103</v>
+        <v>-345.64368811311027</v>
       </c>
       <c r="L144" s="4">
-        <v>-0.05271614973925454</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="6" t="s">
+        <v>-5.2716149739254543E-2</v>
+      </c>
+      <c r="M144" s="3">
+        <f t="shared" si="2"/>
+        <v>-8139044.7458434645</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="6">
@@ -6333,29 +6989,33 @@
         <v>61592.5</v>
       </c>
       <c r="F145" s="3">
-        <v>376539734.4402468</v>
+        <v>376539734.44024688</v>
       </c>
       <c r="G145" s="3">
-        <v>374531051.8457567</v>
+        <v>374531051.84575683</v>
       </c>
       <c r="H145" s="4">
-        <v>0.6337209302325582</v>
+        <v>0.63372093023255816</v>
       </c>
       <c r="I145" s="5">
-        <v>6304.083148866922</v>
+        <v>6304.0831488669237</v>
       </c>
       <c r="J145" s="5">
-        <v>6080.789898863607</v>
+        <v>6080.789898863608</v>
       </c>
       <c r="K145" s="5">
-        <v>-223.2932500033148</v>
+        <v>-223.29325000331571</v>
       </c>
       <c r="L145" s="4">
-        <v>-0.0354204163762416</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="6" t="s">
+        <v>-3.5420416376241708E-2</v>
+      </c>
+      <c r="M145" s="3">
+        <f t="shared" si="2"/>
+        <v>-13753189.500829222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B146" s="6">
@@ -6371,29 +7031,33 @@
         <v>107674.5</v>
       </c>
       <c r="F146" s="3">
-        <v>603562461.0731354</v>
+        <v>603562461.07313585</v>
       </c>
       <c r="G146" s="3">
-        <v>620516848.8238112</v>
+        <v>620516848.82381189</v>
       </c>
       <c r="H146" s="4">
         <v>0.6074074074074074</v>
       </c>
       <c r="I146" s="5">
-        <v>5999.984701603827</v>
+        <v>5999.984701603832</v>
       </c>
       <c r="J146" s="5">
-        <v>5762.895103518578</v>
+        <v>5762.8951035185864</v>
       </c>
       <c r="K146" s="5">
-        <v>-237.0895980852483</v>
+        <v>-237.08959808524651</v>
       </c>
       <c r="L146" s="4">
-        <v>-0.03951503376698162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="6" t="s">
+        <v>-3.9515033766981289E-2</v>
+      </c>
+      <c r="M146" s="3">
+        <f t="shared" si="2"/>
+        <v>-25528503.929029875</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B147" s="6">
@@ -6409,29 +7073,33 @@
         <v>21902</v>
       </c>
       <c r="F147" s="3">
-        <v>207823820.5466048</v>
+        <v>207823820.54660481</v>
       </c>
       <c r="G147" s="3">
-        <v>190131663.953342</v>
+        <v>190131663.95334199</v>
       </c>
       <c r="H147" s="4">
-        <v>0.7586206896551724</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="I147" s="5">
-        <v>9497.261306825307</v>
+        <v>9497.2613068253049</v>
       </c>
       <c r="J147" s="5">
-        <v>8681.018352357867</v>
+        <v>8681.0183523578671</v>
       </c>
       <c r="K147" s="5">
-        <v>-816.2429544674396</v>
+        <v>-816.24295446743781</v>
       </c>
       <c r="L147" s="4">
-        <v>-0.08594508754653707</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="6" t="s">
+        <v>-8.5945087546536847E-2</v>
+      </c>
+      <c r="M147" s="3">
+        <f t="shared" si="2"/>
+        <v>-17877353.188745823</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B148" s="6">
@@ -6447,29 +7115,33 @@
         <v>47285.5</v>
       </c>
       <c r="F148" s="3">
-        <v>307421968.1721219</v>
+        <v>307421968.172122</v>
       </c>
       <c r="G148" s="3">
-        <v>294520314.7050261</v>
+        <v>294520314.70502609</v>
       </c>
       <c r="H148" s="4">
         <v>0.8828125</v>
       </c>
       <c r="I148" s="5">
-        <v>6829.85388560972</v>
+        <v>6829.8538856097221</v>
       </c>
       <c r="J148" s="5">
-        <v>6228.554518933417</v>
+        <v>6228.554518933418</v>
       </c>
       <c r="K148" s="5">
-        <v>-601.2993666763032</v>
+        <v>-601.29936667630409</v>
       </c>
       <c r="L148" s="4">
-        <v>-0.08803985806244274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="6" t="s">
+        <v>-8.8039858062442855E-2</v>
+      </c>
+      <c r="M148" s="3">
+        <f t="shared" si="2"/>
+        <v>-28432741.202972379</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B149" s="6">
@@ -6485,29 +7157,33 @@
         <v>65694</v>
       </c>
       <c r="F149" s="3">
-        <v>389053533.0706299</v>
+        <v>389053533.07062989</v>
       </c>
       <c r="G149" s="3">
-        <v>391343670.2174916</v>
+        <v>391343670.21749181</v>
       </c>
       <c r="H149" s="4">
-        <v>0.5616438356164384</v>
+        <v>0.56164383561643838</v>
       </c>
       <c r="I149" s="5">
-        <v>6120.465863364533</v>
+        <v>6120.4658633645331</v>
       </c>
       <c r="J149" s="5">
-        <v>5957.068685382099</v>
+        <v>5957.0686853821016</v>
       </c>
       <c r="K149" s="5">
-        <v>-163.3971779824342</v>
+        <v>-163.39717798243149</v>
       </c>
       <c r="L149" s="4">
-        <v>-0.02669685308768499</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="6" t="s">
+        <v>-2.669685308768455E-2</v>
+      </c>
+      <c r="M149" s="3">
+        <f t="shared" si="2"/>
+        <v>-10734214.210377853</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B150" s="6">
@@ -6523,29 +7199,33 @@
         <v>20507.5</v>
       </c>
       <c r="F150" s="3">
-        <v>124910829.6274445</v>
+        <v>124910829.62744451</v>
       </c>
       <c r="G150" s="3">
-        <v>128817451.3363607</v>
+        <v>128817451.33636069</v>
       </c>
       <c r="H150" s="4">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="I150" s="5">
-        <v>6481.298722399507</v>
+        <v>6481.2987223995069</v>
       </c>
       <c r="J150" s="5">
-        <v>6281.480011525572</v>
+        <v>6281.480011525573</v>
       </c>
       <c r="K150" s="5">
-        <v>-199.8187108739348</v>
+        <v>-199.8187108739339</v>
       </c>
       <c r="L150" s="4">
-        <v>-0.0308300418530868</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="6" t="s">
+        <v>-3.0830041853086691E-2</v>
+      </c>
+      <c r="M150" s="3">
+        <f t="shared" si="2"/>
+        <v>-4097782.2132471995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B151" s="6">
@@ -6561,29 +7241,33 @@
         <v>49208</v>
       </c>
       <c r="F151" s="3">
-        <v>319016528.9823347</v>
+        <v>319016528.98233467</v>
       </c>
       <c r="G151" s="3">
-        <v>319023009.9539593</v>
+        <v>319023009.95395929</v>
       </c>
       <c r="H151" s="4">
-        <v>0.7540983606557377</v>
+        <v>0.75409836065573765</v>
       </c>
       <c r="I151" s="5">
-        <v>6776.555797103325</v>
+        <v>6776.5557971033259</v>
       </c>
       <c r="J151" s="5">
-        <v>6483.1533481133</v>
+        <v>6483.1533481133019</v>
       </c>
       <c r="K151" s="5">
-        <v>-293.4024489900248</v>
+        <v>-293.40244899002391</v>
       </c>
       <c r="L151" s="4">
-        <v>-0.04329669197373709</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="6" t="s">
+        <v>-4.3296691973736867E-2</v>
+      </c>
+      <c r="M151" s="3">
+        <f t="shared" si="2"/>
+        <v>-14437747.709901096</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="6">
@@ -6599,29 +7283,33 @@
         <v>25807</v>
       </c>
       <c r="F152" s="3">
-        <v>150016697.3432296</v>
+        <v>150016697.34322959</v>
       </c>
       <c r="G152" s="3">
-        <v>147069765.2544439</v>
+        <v>147069765.25444391</v>
       </c>
       <c r="H152" s="4">
-        <v>0.6721311475409836</v>
+        <v>0.67213114754098358</v>
       </c>
       <c r="I152" s="5">
-        <v>6128.383403865747</v>
+        <v>6128.3834038657469</v>
       </c>
       <c r="J152" s="5">
-        <v>5698.832303423252</v>
+        <v>5698.8323034232517</v>
       </c>
       <c r="K152" s="5">
-        <v>-429.5511004424952</v>
+        <v>-429.55110044249523</v>
       </c>
       <c r="L152" s="4">
-        <v>-0.07009207357547786</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="6" t="s">
+        <v>-7.0092073575477865E-2</v>
+      </c>
+      <c r="M152" s="3">
+        <f t="shared" si="2"/>
+        <v>-11085425.249119474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B153" s="6">
@@ -6640,26 +7328,30 @@
         <v>257146816.948926</v>
       </c>
       <c r="G153" s="3">
-        <v>271467264.1615614</v>
+        <v>271467264.16156131</v>
       </c>
       <c r="H153" s="4">
-        <v>0.7473684210526316</v>
+        <v>0.74736842105263157</v>
       </c>
       <c r="I153" s="5">
-        <v>7271.120638727743</v>
+        <v>7271.1206387277443</v>
       </c>
       <c r="J153" s="5">
-        <v>6715.580396590136</v>
+        <v>6715.580396590135</v>
       </c>
       <c r="K153" s="5">
-        <v>-555.5402421376066</v>
+        <v>-555.54024213760931</v>
       </c>
       <c r="L153" s="4">
-        <v>-0.07640366179302061</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="6" t="s">
+        <v>-7.6403661793020938E-2</v>
+      </c>
+      <c r="M153" s="3">
+        <f t="shared" si="2"/>
+        <v>-22456880.978049651</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B154" s="6">
@@ -6675,29 +7367,33 @@
         <v>79722</v>
       </c>
       <c r="F154" s="3">
-        <v>481917631.6906644</v>
+        <v>481917631.69066441</v>
       </c>
       <c r="G154" s="3">
-        <v>484321405.2593085</v>
+        <v>484321405.25930828</v>
       </c>
       <c r="H154" s="4">
         <v>0.6566523605150214</v>
       </c>
       <c r="I154" s="5">
-        <v>6317.165856445586</v>
+        <v>6317.1658564455856</v>
       </c>
       <c r="J154" s="5">
-        <v>6075.128637757563</v>
+        <v>6075.1286377575607</v>
       </c>
       <c r="K154" s="5">
-        <v>-242.0372186880222</v>
+        <v>-242.03721868802501</v>
       </c>
       <c r="L154" s="4">
-        <v>-0.03831420991441359</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="6" t="s">
+        <v>-3.8314209914414032E-2</v>
+      </c>
+      <c r="M154" s="3">
+        <f t="shared" si="2"/>
+        <v>-19295691.148246728</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B155" s="6">
@@ -6716,22 +7412,74 @@
         <v>148121759.7768161</v>
       </c>
       <c r="G155" s="3">
-        <v>152911987.6377701</v>
+        <v>152911987.63777009</v>
       </c>
       <c r="H155" s="4">
-        <v>0.4126984126984127</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="I155" s="5">
-        <v>6061.000461436507</v>
+        <v>6061.000461436508</v>
       </c>
       <c r="J155" s="5">
-        <v>5980.717224514327</v>
+        <v>5980.7172245143274</v>
       </c>
       <c r="K155" s="5">
-        <v>-80.28323692217964</v>
+        <v>-80.283236922180549</v>
       </c>
       <c r="L155" s="4">
-        <v>-0.0132458721019717</v>
+        <v>-1.3245872101971919E-2</v>
+      </c>
+      <c r="M155" s="3">
+        <f t="shared" si="2"/>
+        <v>-2052641.6600078512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="10">
+        <f>SUM(C4:C155)</f>
+        <v>20319</v>
+      </c>
+      <c r="D156" s="10">
+        <f t="shared" ref="D156:E156" si="3">SUM(D4:D155)</f>
+        <v>7423423</v>
+      </c>
+      <c r="E156" s="10">
+        <f t="shared" si="3"/>
+        <v>7786222</v>
+      </c>
+      <c r="F156" s="11">
+        <f t="shared" ref="F156" si="4">SUM(F4:F155)</f>
+        <v>50754171277.276894</v>
+      </c>
+      <c r="G156" s="11">
+        <f t="shared" ref="G156" si="5">SUM(G4:G155)</f>
+        <v>50417490276.69075</v>
+      </c>
+      <c r="H156" s="12">
+        <v>0.70018209557556965</v>
+      </c>
+      <c r="I156" s="13">
+        <f>F156/D156</f>
+        <v>6837.0307440754614</v>
+      </c>
+      <c r="J156" s="13">
+        <f>G156/E156</f>
+        <v>6475.218697423571</v>
+      </c>
+      <c r="K156" s="13">
+        <f>J156-I156</f>
+        <v>-361.81204665189034</v>
+      </c>
+      <c r="L156" s="12">
+        <f>K156/J156</f>
+        <v>-5.5876421100008865E-2</v>
+      </c>
+      <c r="M156" s="11">
+        <f t="shared" ref="M156" si="6">SUM(M4:M155)</f>
+        <v>-2774655280.3610401</v>
       </c>
     </row>
   </sheetData>
@@ -6741,5 +7489,6 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/Local Authority.xlsx
+++ b/output/Local Authority.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neu365-my.sharepoint.com/personal/andrew_baisley_neu_org_uk/Documents/Documents/GitHub/school_cuts/school_cuts/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_1339FEBCC69875E6FD0CF09DA99CD92D5D2D9FD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9141FFF-1712-4069-9303-1570D39CA579}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>Schools</t>
   </si>
@@ -520,24 +503,19 @@
   </si>
   <si>
     <t>York</t>
-  </si>
-  <si>
-    <t>All schools</t>
-  </si>
-  <si>
-    <t>Change in spending power with 2015-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;0.0,,&quot; mn&quot;;\-&quot;£&quot;0.0,,&quot; mn&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="&quot;£&quot;0.0,,,&quot; bn&quot;;\-&quot;£&quot;0.0,,,&quot; bn&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;0.0,,&quot; mn&quot;;-&quot;£&quot;0.0,,&quot; mn&quot;"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,33 +567,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,14 +585,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -677,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,27 +663,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,24 +697,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,61 +872,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
@@ -1038,11 +949,8 @@
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +958,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -1067,33 +975,29 @@
         <v>38060.5</v>
       </c>
       <c r="F4" s="3">
-        <v>289735472.12721151</v>
+        <v>281752183.9965823</v>
       </c>
       <c r="G4" s="3">
-        <v>279036169.14378983</v>
+        <v>277832558.777396</v>
       </c>
       <c r="H4" s="4">
-        <v>0.77358490566037741</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="I4" s="5">
-        <v>7752.2233642513329</v>
+        <v>7538.620824267408</v>
       </c>
       <c r="J4" s="5">
-        <v>7331.3847464901874</v>
+        <v>7299.761137593989</v>
       </c>
       <c r="K4" s="5">
-        <v>-420.83861776114549</v>
+        <v>-238.8596866734197</v>
       </c>
       <c r="L4" s="4">
-        <v>-5.4286183200268012E-2</v>
-      </c>
-      <c r="M4" s="3">
-        <f>K4*E4</f>
-        <v>-16017328.211298078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>-0.03168479914847444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6">
@@ -1109,33 +1013,29 @@
         <v>53960</v>
       </c>
       <c r="F5" s="3">
-        <v>381222814.30016649</v>
+        <v>370718710.173105</v>
       </c>
       <c r="G5" s="3">
-        <v>372099158.61749083</v>
+        <v>370494125.0979559</v>
       </c>
       <c r="H5" s="4">
-        <v>0.77192982456140347</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="I5" s="5">
-        <v>7418.3016822535064</v>
+        <v>7213.899924558616</v>
       </c>
       <c r="J5" s="5">
-        <v>6895.8331841640247</v>
+        <v>6866.08830796805</v>
       </c>
       <c r="K5" s="5">
-        <v>-522.46849808948173</v>
+        <v>-347.8116165905667</v>
       </c>
       <c r="L5" s="4">
-        <v>-7.0429664425667893E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M5:M68" si="0">K5*E5</f>
-        <v>-28192400.156908434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>-0.04821408949776185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6">
@@ -1151,33 +1051,29 @@
         <v>29476.5</v>
       </c>
       <c r="F6" s="3">
-        <v>177825979.67291251</v>
+        <v>172926213.6124524</v>
       </c>
       <c r="G6" s="3">
-        <v>183789561.86134231</v>
+        <v>182996793.5884332</v>
       </c>
       <c r="H6" s="4">
-        <v>0.65789473684210531</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="I6" s="5">
-        <v>6425.045332691855</v>
+        <v>6248.011475682063</v>
       </c>
       <c r="J6" s="5">
-        <v>6235.1216006426221</v>
+        <v>6208.226675094847</v>
       </c>
       <c r="K6" s="5">
-        <v>-189.923732049233</v>
+        <v>-39.78480058721652</v>
       </c>
       <c r="L6" s="4">
-        <v>-2.9559905372630532E-2</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="0"/>
-        <v>-5598286.8877492165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>-0.006367594032447466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6">
@@ -1193,33 +1089,29 @@
         <v>24640</v>
       </c>
       <c r="F7" s="3">
-        <v>143456569.24403581</v>
+        <v>139503808.0646803</v>
       </c>
       <c r="G7" s="3">
-        <v>150065860.27489719</v>
+        <v>149418557.7204545</v>
       </c>
       <c r="H7" s="4">
-        <v>0.46478873239436619</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="I7" s="5">
-        <v>6014.5722174301754</v>
+        <v>5848.848418953956</v>
       </c>
       <c r="J7" s="5">
-        <v>6090.3352384292684</v>
+        <v>6064.064842550912</v>
       </c>
       <c r="K7" s="5">
-        <v>75.763020999092987</v>
+        <v>215.2164235969558</v>
       </c>
       <c r="L7" s="4">
-        <v>1.2596576823790119E-2</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="0"/>
-        <v>1866800.8374176512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+        <v>0.03679637565909877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6">
@@ -1235,33 +1127,29 @@
         <v>25688.5</v>
       </c>
       <c r="F8" s="3">
-        <v>153095517.95882741</v>
+        <v>148877167.9501111</v>
       </c>
       <c r="G8" s="3">
-        <v>161979159.62756661</v>
+        <v>161280469.5750702</v>
       </c>
       <c r="H8" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="I8" s="5">
-        <v>6776.5367368461129</v>
+        <v>6589.8179864603</v>
       </c>
       <c r="J8" s="5">
-        <v>6305.5125689536808</v>
+        <v>6278.314015028913</v>
       </c>
       <c r="K8" s="5">
-        <v>-471.02416789243222</v>
+        <v>-311.5039714313871</v>
       </c>
       <c r="L8" s="4">
-        <v>-6.950809627155552E-2</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="0"/>
-        <v>-12099904.336904746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>-0.04727049701090613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6">
@@ -1277,33 +1165,29 @@
         <v>42833</v>
       </c>
       <c r="F9" s="3">
-        <v>291132546.81598228</v>
+        <v>283110764.0899257</v>
       </c>
       <c r="G9" s="3">
-        <v>280403537.71542478</v>
+        <v>279194029.2642324</v>
       </c>
       <c r="H9" s="4">
-        <v>0.78205128205128205</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I9" s="5">
-        <v>6826.4056184576602</v>
+        <v>6638.312795205537</v>
       </c>
       <c r="J9" s="5">
-        <v>6546.437039558863</v>
+        <v>6518.199268419966</v>
       </c>
       <c r="K9" s="5">
-        <v>-279.9685788987972</v>
+        <v>-120.1135267855707</v>
       </c>
       <c r="L9" s="4">
-        <v>-4.1012590599919907E-2</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>-11991894.13997218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+        <v>-0.01809398419314046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6">
@@ -1319,33 +1203,29 @@
         <v>192417</v>
       </c>
       <c r="F10" s="3">
-        <v>1393889101.6057169</v>
+        <v>1355482280.93387</v>
       </c>
       <c r="G10" s="3">
-        <v>1339963728.30832</v>
+        <v>1334183853.108154</v>
       </c>
       <c r="H10" s="4">
-        <v>0.86492890995260663</v>
+        <v>0.7867298578199052</v>
       </c>
       <c r="I10" s="5">
-        <v>7617.5463516248246</v>
+        <v>7407.654663434342</v>
       </c>
       <c r="J10" s="5">
-        <v>6963.8531330824198</v>
+        <v>6933.814855798363</v>
       </c>
       <c r="K10" s="5">
-        <v>-653.69321854240479</v>
+        <v>-473.839807635979</v>
       </c>
       <c r="L10" s="4">
-        <v>-8.5814143868382486E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="0"/>
-        <v>-125781688.0322739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>-0.0639662388657164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6">
@@ -1361,33 +1241,29 @@
         <v>24925.5</v>
       </c>
       <c r="F11" s="3">
-        <v>166548405.12155131</v>
+        <v>161959378.116952</v>
       </c>
       <c r="G11" s="3">
-        <v>162901471.85259399</v>
+        <v>162198803.4464723</v>
       </c>
       <c r="H11" s="4">
-        <v>0.74285714285714288</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="I11" s="5">
-        <v>6914.595525358659</v>
+        <v>6724.072742696199</v>
       </c>
       <c r="J11" s="5">
-        <v>6535.5347677115396</v>
+        <v>6507.344023047574</v>
       </c>
       <c r="K11" s="5">
-        <v>-379.06075764711932</v>
+        <v>-216.7287196486259</v>
       </c>
       <c r="L11" s="4">
-        <v>-5.4820380491808707E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="0"/>
-        <v>-9448278.914733272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>-0.03223176309090947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6">
@@ -1403,75 +1279,67 @@
         <v>17979</v>
       </c>
       <c r="F12" s="3">
-        <v>129425102.4702592</v>
+        <v>125858960.3035085</v>
       </c>
       <c r="G12" s="3">
-        <v>126803356.2137541</v>
+        <v>126256395.4577321</v>
       </c>
       <c r="H12" s="4">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="I12" s="5">
-        <v>7114.0055224679409</v>
+        <v>6917.988253916807</v>
       </c>
       <c r="J12" s="5">
-        <v>7052.8592365400818</v>
+        <v>7022.437035304079</v>
       </c>
       <c r="K12" s="5">
-        <v>-61.146285927859033</v>
+        <v>104.448781387272</v>
       </c>
       <c r="L12" s="4">
-        <v>-8.5951979844185455E-3</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="0"/>
-        <v>-1099349.0746969776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>0.01509814378885888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>350</v>
       </c>
       <c r="C13" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2">
-        <v>44837.5</v>
+        <v>44644</v>
       </c>
       <c r="E13" s="2">
-        <v>47979</v>
+        <v>47866</v>
       </c>
       <c r="F13" s="3">
-        <v>304790248.32003361</v>
+        <v>292539975.0639135</v>
       </c>
       <c r="G13" s="3">
-        <v>305990879.5976581</v>
+        <v>300994929.2328218</v>
       </c>
       <c r="H13" s="4">
-        <v>0.78512396694214881</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I13" s="5">
-        <v>6797.6637484256162</v>
+        <v>6552.727691602757</v>
       </c>
       <c r="J13" s="5">
-        <v>6377.6001917017466</v>
+        <v>6288.282480943086</v>
       </c>
       <c r="K13" s="5">
-        <v>-420.06355672386962</v>
+        <v>-264.4452106596709</v>
       </c>
       <c r="L13" s="4">
-        <v>-6.1795283242887522E-2</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="0"/>
-        <v>-20154229.388054542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>-0.04035650848097261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6">
@@ -1487,33 +1355,29 @@
         <v>44041.5</v>
       </c>
       <c r="F14" s="3">
-        <v>268768190.52877438</v>
+        <v>261362628.8639017</v>
       </c>
       <c r="G14" s="3">
-        <v>266793738.20872089</v>
+        <v>265642935.0351312</v>
       </c>
       <c r="H14" s="4">
-        <v>0.65432098765432101</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="I14" s="5">
-        <v>6348.8298989871964</v>
+        <v>6173.896060186418</v>
       </c>
       <c r="J14" s="5">
-        <v>6057.7804618080872</v>
+        <v>6031.650489541255</v>
       </c>
       <c r="K14" s="5">
-        <v>-291.04943717910828</v>
+        <v>-142.2455706451638</v>
       </c>
       <c r="L14" s="4">
-        <v>-4.5843004429137142E-2</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="0"/>
-        <v>-12818253.787523698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>-0.02303983890536521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6">
@@ -1529,33 +1393,29 @@
         <v>16298</v>
       </c>
       <c r="F15" s="3">
-        <v>91128164.047917709</v>
+        <v>88617244.74256475</v>
       </c>
       <c r="G15" s="3">
-        <v>96265240.350350797</v>
+        <v>95850004.42747885</v>
       </c>
       <c r="H15" s="4">
-        <v>0.52941176470588236</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="I15" s="5">
-        <v>5902.2742995510034</v>
+        <v>5739.644725707746</v>
       </c>
       <c r="J15" s="5">
-        <v>5906.5676985121363</v>
+        <v>5881.089975915993</v>
       </c>
       <c r="K15" s="5">
-        <v>4.2933989611337893</v>
+        <v>141.4452502082468</v>
       </c>
       <c r="L15" s="4">
-        <v>7.2741433949619072E-4</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="0"/>
-        <v>69973.816268558498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+        <v>0.02464355495292536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="6">
@@ -1565,39 +1425,35 @@
         <v>196</v>
       </c>
       <c r="D16" s="2">
-        <v>91379.5</v>
+        <v>91414</v>
       </c>
       <c r="E16" s="2">
-        <v>91887</v>
+        <v>91875.5</v>
       </c>
       <c r="F16" s="3">
-        <v>659823766.54893935</v>
+        <v>641881951.0139626</v>
       </c>
       <c r="G16" s="3">
-        <v>605441360.50027275</v>
+        <v>602068901.25957</v>
       </c>
       <c r="H16" s="4">
-        <v>0.91836734693877553</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="I16" s="5">
-        <v>7220.6979305964614</v>
+        <v>7021.702923118588</v>
       </c>
       <c r="J16" s="5">
-        <v>6588.9773362964588</v>
+        <v>6553.095234960027</v>
       </c>
       <c r="K16" s="5">
-        <v>-631.72059430000263</v>
+        <v>-468.6076881585604</v>
       </c>
       <c r="L16" s="4">
-        <v>-8.748747009942015E-2</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="0"/>
-        <v>-58046910.248444341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>-0.06673704275008474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6">
@@ -1613,33 +1469,29 @@
         <v>44958</v>
       </c>
       <c r="F17" s="3">
-        <v>370880119.95006812</v>
+        <v>360660995.4578356</v>
       </c>
       <c r="G17" s="3">
-        <v>340443220.81406373</v>
+        <v>338974733.8039472</v>
       </c>
       <c r="H17" s="4">
-        <v>0.8125</v>
+        <v>0.7625</v>
       </c>
       <c r="I17" s="5">
-        <v>8252.3250809382662</v>
+        <v>8024.942881633991</v>
       </c>
       <c r="J17" s="5">
-        <v>7572.4725480240149</v>
+        <v>7539.809017392838</v>
       </c>
       <c r="K17" s="5">
-        <v>-679.85253291425124</v>
+        <v>-485.1338642411529</v>
       </c>
       <c r="L17" s="4">
-        <v>-8.238314974825911E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="0"/>
-        <v>-30564810.174758907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>-0.06045324825319787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6">
@@ -1655,33 +1507,29 @@
         <v>31767.5</v>
       </c>
       <c r="F18" s="3">
-        <v>194759357.10059789</v>
+        <v>189393013.6133651</v>
       </c>
       <c r="G18" s="3">
-        <v>195351112.04298899</v>
+        <v>194508473.5267602</v>
       </c>
       <c r="H18" s="4">
-        <v>0.58823529411764708</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="5">
-        <v>6165.7097617917816</v>
+        <v>5995.821562749984</v>
       </c>
       <c r="J18" s="5">
-        <v>6149.4014965920842</v>
+        <v>6122.876320980884</v>
       </c>
       <c r="K18" s="5">
-        <v>-16.30826519969742</v>
+        <v>127.0547582309</v>
       </c>
       <c r="L18" s="4">
-        <v>-2.6449939795670781E-3</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="0"/>
-        <v>-518072.81473138777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>0.02119055026924888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6">
@@ -1697,33 +1545,29 @@
         <v>56065</v>
       </c>
       <c r="F19" s="3">
-        <v>381971487.43547881</v>
+        <v>371446754.5834946</v>
       </c>
       <c r="G19" s="3">
-        <v>382126253.85782641</v>
+        <v>380477968.8995512</v>
       </c>
       <c r="H19" s="4">
-        <v>0.75187969924812026</v>
+        <v>0.6691729323308271</v>
       </c>
       <c r="I19" s="5">
-        <v>7387.8726838253242</v>
+        <v>7184.309358029004</v>
       </c>
       <c r="J19" s="5">
-        <v>6815.771940744251</v>
+        <v>6786.372405235908</v>
       </c>
       <c r="K19" s="5">
-        <v>-572.10074308107323</v>
+        <v>-397.9369527930958</v>
       </c>
       <c r="L19" s="4">
-        <v>-7.7437818376811629E-2</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="0"/>
-        <v>-32074828.16084037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+        <v>-0.05538972961240474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6">
@@ -1739,75 +1583,67 @@
         <v>44245</v>
       </c>
       <c r="F20" s="3">
-        <v>296415733.22519851</v>
+        <v>288248379.095534</v>
       </c>
       <c r="G20" s="3">
-        <v>283630792.56411707</v>
+        <v>282407363.4896493</v>
       </c>
       <c r="H20" s="4">
-        <v>0.93023255813953487</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I20" s="5">
-        <v>7051.8088505780679</v>
+        <v>6857.505331292145</v>
       </c>
       <c r="J20" s="5">
-        <v>6410.4597709146146</v>
+        <v>6382.808531803577</v>
       </c>
       <c r="K20" s="5">
-        <v>-641.34907966345327</v>
+        <v>-474.6967994885681</v>
       </c>
       <c r="L20" s="4">
-        <v>-9.0948165676793535E-2</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="0"/>
-        <v>-28376490.029709488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+        <v>-0.06922295741024553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>825</v>
       </c>
       <c r="C21" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D21" s="2">
-        <v>79332</v>
+        <v>79579</v>
       </c>
       <c r="E21" s="2">
-        <v>83796</v>
+        <v>84335</v>
       </c>
       <c r="F21" s="3">
-        <v>482245154.90975088</v>
+        <v>471129886.5715791</v>
       </c>
       <c r="G21" s="3">
-        <v>502679149.68007672</v>
+        <v>503904095.3839955</v>
       </c>
       <c r="H21" s="4">
-        <v>0.65765765765765771</v>
+        <v>0.5919282511210763</v>
       </c>
       <c r="I21" s="5">
-        <v>6078.8226051246766</v>
+        <v>5920.279050648778</v>
       </c>
       <c r="J21" s="5">
-        <v>5998.8442130898457</v>
+        <v>5975.029292511953</v>
       </c>
       <c r="K21" s="5">
-        <v>-79.978392034831813</v>
+        <v>54.75024186317478</v>
       </c>
       <c r="L21" s="4">
-        <v>-1.3156888632908431E-2</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" si="0"/>
-        <v>-6701869.3389507663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+        <v>0.009247915747683466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6">
@@ -1823,33 +1659,29 @@
         <v>26556</v>
       </c>
       <c r="F22" s="3">
-        <v>167725810.00148731</v>
+        <v>163104341.1203931</v>
       </c>
       <c r="G22" s="3">
-        <v>165801933.64980519</v>
+        <v>165086754.228007</v>
       </c>
       <c r="H22" s="4">
-        <v>0.66233766233766234</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="I22" s="5">
-        <v>6413.3757767512598</v>
+        <v>6236.663459340143</v>
       </c>
       <c r="J22" s="5">
-        <v>6243.4829661773319</v>
+        <v>6216.551974243372</v>
       </c>
       <c r="K22" s="5">
-        <v>-169.89281057392779</v>
+        <v>-20.1114850967715</v>
       </c>
       <c r="L22" s="4">
-        <v>-2.6490387666008312E-2</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="0"/>
-        <v>-4511673.4776012264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>-0.003224718670149174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="6">
@@ -1865,33 +1697,29 @@
         <v>35845</v>
       </c>
       <c r="F23" s="3">
-        <v>224651857.87287709</v>
+        <v>218461864.9896691</v>
       </c>
       <c r="G23" s="3">
-        <v>226535416.63686359</v>
+        <v>225558265.9805308</v>
       </c>
       <c r="H23" s="4">
-        <v>0.6767676767676768</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="I23" s="5">
-        <v>6601.1946953713286</v>
+        <v>6419.30726932502</v>
       </c>
       <c r="J23" s="5">
-        <v>6319.8609746649081</v>
+        <v>6292.60052951683</v>
       </c>
       <c r="K23" s="5">
-        <v>-281.33372070642048</v>
+        <v>-126.7067398081899</v>
       </c>
       <c r="L23" s="4">
-        <v>-4.2618606735488007E-2</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="0"/>
-        <v>-10084407.218721641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>-0.01973838211697143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="6">
@@ -1907,33 +1735,29 @@
         <v>84081</v>
       </c>
       <c r="F24" s="3">
-        <v>502761947.71048403</v>
+        <v>488908989.1472091</v>
       </c>
       <c r="G24" s="3">
-        <v>515061645.92583501</v>
+        <v>512839949.9418685</v>
       </c>
       <c r="H24" s="4">
-        <v>0.5967078189300411</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="I24" s="5">
-        <v>6250.1096799557927</v>
+        <v>6077.895949766711</v>
       </c>
       <c r="J24" s="5">
-        <v>6125.7792595929513</v>
+        <v>6099.355977472538</v>
       </c>
       <c r="K24" s="5">
-        <v>-124.33042036284129</v>
+        <v>21.46002770582709</v>
       </c>
       <c r="L24" s="4">
-        <v>-1.9892518168372449E-2</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="0"/>
-        <v>-10453826.074528059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>0.003530831702811765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="6">
@@ -1949,75 +1773,67 @@
         <v>21994.5</v>
       </c>
       <c r="F25" s="3">
-        <v>216734008.6419611</v>
+        <v>210762181.9063815</v>
       </c>
       <c r="G25" s="3">
-        <v>197065674.43560621</v>
+        <v>196215640.2291487</v>
       </c>
       <c r="H25" s="4">
-        <v>0.82758620689655171</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="I25" s="5">
-        <v>9859.1642924969801</v>
+        <v>9587.507706244896</v>
       </c>
       <c r="J25" s="5">
-        <v>8959.7705988136222</v>
+        <v>8921.12301844319</v>
       </c>
       <c r="K25" s="5">
-        <v>-899.39369368335792</v>
+        <v>-666.3846878017066</v>
       </c>
       <c r="L25" s="4">
-        <v>-9.1224130869572262E-2</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="0"/>
-        <v>-19781714.595718615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>-0.06950551782791803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="6">
         <v>823</v>
       </c>
       <c r="C26" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2">
-        <v>39034.5</v>
+        <v>37917.5</v>
       </c>
       <c r="E26" s="2">
-        <v>43112.5</v>
+        <v>42243.5</v>
       </c>
       <c r="F26" s="3">
-        <v>253163467.59420881</v>
+        <v>238505139.0114396</v>
       </c>
       <c r="G26" s="3">
-        <v>262436616.11328641</v>
+        <v>255896775.8316411</v>
       </c>
       <c r="H26" s="4">
-        <v>0.70161290322580649</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="I26" s="5">
-        <v>6485.6336726282861</v>
+        <v>6290.107180363673</v>
       </c>
       <c r="J26" s="5">
-        <v>6087.2511710823173</v>
+        <v>6057.660369799876</v>
       </c>
       <c r="K26" s="5">
-        <v>-398.38250154596881</v>
+        <v>-232.446810563797</v>
       </c>
       <c r="L26" s="4">
-        <v>-6.14253782521339E-2</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="0"/>
-        <v>-17175265.597900581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>-0.03695434813725351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="6">
@@ -2033,33 +1849,29 @@
         <v>53225</v>
       </c>
       <c r="F27" s="3">
-        <v>304711496.90427548</v>
+        <v>296315563.6806276</v>
       </c>
       <c r="G27" s="3">
-        <v>310892187.61633033</v>
+        <v>309551167.7012634</v>
       </c>
       <c r="H27" s="4">
-        <v>0.71917808219178081</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="I27" s="5">
-        <v>6163.0714461388816</v>
+        <v>5993.255942490168</v>
       </c>
       <c r="J27" s="5">
-        <v>5841.0932384467887</v>
+        <v>5815.897937083389</v>
       </c>
       <c r="K27" s="5">
-        <v>-321.97820769209369</v>
+        <v>-177.3580054067797</v>
       </c>
       <c r="L27" s="4">
-        <v>-5.2243140535683803E-2</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="0"/>
-        <v>-17137290.104411688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>-0.02959293030510701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6">
@@ -2075,33 +1887,29 @@
         <v>49967.5</v>
       </c>
       <c r="F28" s="3">
-        <v>315603286.90417713</v>
+        <v>306907244.4215935</v>
       </c>
       <c r="G28" s="3">
-        <v>309015482.22544432</v>
+        <v>307682557.3973693</v>
       </c>
       <c r="H28" s="4">
-        <v>0.83766233766233766</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="I28" s="5">
-        <v>6747.0479173126914</v>
+        <v>6561.141693405738</v>
       </c>
       <c r="J28" s="5">
-        <v>6184.3294586570137</v>
+        <v>6157.653622802208</v>
       </c>
       <c r="K28" s="5">
-        <v>-562.71845865567775</v>
+        <v>-403.4880706035301</v>
       </c>
       <c r="L28" s="4">
-        <v>-8.3402173150684433E-2</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="0"/>
-        <v>-28117634.582877576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+        <v>-0.06149662504759723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="6">
@@ -2117,75 +1925,67 @@
         <v>270</v>
       </c>
       <c r="F29" s="3">
-        <v>2565262.8507255721</v>
+        <v>2494580.3336082</v>
       </c>
       <c r="G29" s="3">
-        <v>2745306.3043597019</v>
+        <v>2733464.54514622</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>10755.819080610359</v>
+        <v>10459.45632540126</v>
       </c>
       <c r="J29" s="5">
-        <v>10167.801127258161</v>
+        <v>10123.94275980082</v>
       </c>
       <c r="K29" s="5">
-        <v>-588.01795335220777</v>
+        <v>-335.5135656004422</v>
       </c>
       <c r="L29" s="4">
-        <v>-5.4669751224454388E-2</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="0"/>
-        <v>-158764.84740509611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+        <v>-0.0320775339714009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="6">
         <v>908</v>
       </c>
       <c r="C30" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D30" s="2">
-        <v>64635</v>
+        <v>64926.5</v>
       </c>
       <c r="E30" s="2">
-        <v>67026</v>
+        <v>67204.5</v>
       </c>
       <c r="F30" s="3">
-        <v>410078116.63051182</v>
+        <v>400661634.9951108</v>
       </c>
       <c r="G30" s="3">
-        <v>409229552.56892031</v>
+        <v>408145102.2414246</v>
       </c>
       <c r="H30" s="4">
-        <v>0.53877551020408165</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="I30" s="5">
-        <v>6344.5210277792503</v>
+        <v>6171.003134238113</v>
       </c>
       <c r="J30" s="5">
-        <v>6105.5344578062304</v>
+        <v>6073.18114473621</v>
       </c>
       <c r="K30" s="5">
-        <v>-238.98656997302081</v>
+        <v>-97.82198950190286</v>
       </c>
       <c r="L30" s="4">
-        <v>-3.7668181558013103E-2</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="0"/>
-        <v>-16018313.839011693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+        <v>-0.01585187811024835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="6">
@@ -2201,33 +2001,29 @@
         <v>68676.5</v>
       </c>
       <c r="F31" s="3">
-        <v>460319240.63529801</v>
+        <v>447635736.2542725</v>
       </c>
       <c r="G31" s="3">
-        <v>456267781.88521218</v>
+        <v>454299690.6739057</v>
       </c>
       <c r="H31" s="4">
-        <v>0.70750988142292492</v>
+        <v>0.6324110671936759</v>
       </c>
       <c r="I31" s="5">
-        <v>6999.935229131439</v>
+        <v>6807.061020738475</v>
       </c>
       <c r="J31" s="5">
-        <v>6643.7250279966538</v>
+        <v>6615.067609355539</v>
       </c>
       <c r="K31" s="5">
-        <v>-356.21020113478522</v>
+        <v>-191.9934113829358</v>
       </c>
       <c r="L31" s="4">
-        <v>-5.0887642453083748E-2</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="0"/>
-        <v>-24463269.878233079</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+        <v>-0.02820503750414549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="6">
@@ -2243,33 +2039,29 @@
         <v>55230.5</v>
       </c>
       <c r="F32" s="3">
-        <v>355359565.39606988</v>
+        <v>345568089.814211</v>
       </c>
       <c r="G32" s="3">
-        <v>353262691.53511989</v>
+        <v>351738908.2962069</v>
       </c>
       <c r="H32" s="4">
-        <v>0.90434782608695652</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="I32" s="5">
-        <v>7021.8755203491564</v>
+        <v>6828.396775462352</v>
       </c>
       <c r="J32" s="5">
-        <v>6396.1523349439149</v>
+        <v>6368.562810334995</v>
       </c>
       <c r="K32" s="5">
-        <v>-625.72318540524066</v>
+        <v>-459.8339651273573</v>
       </c>
       <c r="L32" s="4">
-        <v>-8.9110549395516325E-2</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="0"/>
-        <v>-34559004.391524144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+        <v>-0.06734142438526092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="6">
@@ -2285,75 +2077,67 @@
         <v>53478</v>
       </c>
       <c r="F33" s="3">
-        <v>380510415.95752519</v>
+        <v>370025941.050149</v>
       </c>
       <c r="G33" s="3">
-        <v>384904280.87015033</v>
+        <v>383244013.0133125</v>
       </c>
       <c r="H33" s="4">
-        <v>0.57272727272727275</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="I33" s="5">
-        <v>7302.8321154127798</v>
+        <v>7101.61197305701</v>
       </c>
       <c r="J33" s="5">
-        <v>7197.4322313876792</v>
+        <v>7166.386420833099</v>
       </c>
       <c r="K33" s="5">
-        <v>-105.3998840251006</v>
+        <v>64.77444777608889</v>
       </c>
       <c r="L33" s="4">
-        <v>-1.4432740936581531E-2</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="0"/>
-        <v>-5636574.99789433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+        <v>0.009121090820202182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="6">
         <v>909</v>
       </c>
       <c r="C34" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D34" s="2">
-        <v>65187</v>
+        <v>65231.5</v>
       </c>
       <c r="E34" s="2">
-        <v>66065.5</v>
+        <v>66135</v>
       </c>
       <c r="F34" s="3">
-        <v>427652976.56173038</v>
+        <v>415977975.9169489</v>
       </c>
       <c r="G34" s="3">
-        <v>417621251.13790739</v>
+        <v>415555525.7543927</v>
       </c>
       <c r="H34" s="4">
-        <v>0.60260586319218246</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="I34" s="5">
-        <v>6560.4027883125536</v>
+        <v>6376.949417335933</v>
       </c>
       <c r="J34" s="5">
-        <v>6321.3212817265812</v>
+        <v>6283.443347008282</v>
       </c>
       <c r="K34" s="5">
-        <v>-239.08150658597239</v>
+        <v>-93.50607032765038</v>
       </c>
       <c r="L34" s="4">
-        <v>-3.6443113982559061E-2</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="0"/>
-        <v>-15795039.273355559</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+        <v>-0.01466313502086924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6">
@@ -2369,33 +2153,29 @@
         <v>14772.5</v>
       </c>
       <c r="F35" s="3">
-        <v>101041003.5070404</v>
+        <v>98256948.66528298</v>
       </c>
       <c r="G35" s="3">
-        <v>97454048.354788035</v>
+        <v>97033684.56034958</v>
       </c>
       <c r="H35" s="4">
-        <v>0.72972972972972971</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="I35" s="5">
-        <v>6914.6965616451926</v>
+        <v>6724.17099505786</v>
       </c>
       <c r="J35" s="5">
-        <v>6596.9909192613322</v>
+        <v>6568.535086163452</v>
       </c>
       <c r="K35" s="5">
-        <v>-317.70564238386032</v>
+        <v>-155.6359088944082</v>
       </c>
       <c r="L35" s="4">
-        <v>-4.594643301430279E-2</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="0"/>
-        <v>-4693306.6021155762</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+        <v>-0.02314573930508279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="6">
@@ -2411,33 +2191,29 @@
         <v>37090</v>
       </c>
       <c r="F36" s="3">
-        <v>232172394.5466139</v>
+        <v>225775182.952067</v>
       </c>
       <c r="G36" s="3">
-        <v>238142399.64739159</v>
+        <v>237115182.7752098</v>
       </c>
       <c r="H36" s="4">
-        <v>0.48888888888888887</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="I36" s="5">
-        <v>6524.903942854321</v>
+        <v>6345.118610329992</v>
       </c>
       <c r="J36" s="5">
-        <v>6420.6632420434498</v>
+        <v>6392.967990703957</v>
       </c>
       <c r="K36" s="5">
-        <v>-104.2407008108712</v>
+        <v>47.84938037396478</v>
       </c>
       <c r="L36" s="4">
-        <v>-1.5975821517653092E-2</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="0"/>
-        <v>-3866287.593075213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+        <v>0.007541132532347783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="6">
@@ -2453,75 +2229,67 @@
         <v>105958.5</v>
       </c>
       <c r="F37" s="3">
-        <v>678916991.25020146</v>
+        <v>660210307.1216162</v>
       </c>
       <c r="G37" s="3">
-        <v>650311296.25112653</v>
+        <v>647506206.7892385</v>
       </c>
       <c r="H37" s="4">
-        <v>0.601965601965602</v>
+        <v>0.538083538083538</v>
       </c>
       <c r="I37" s="5">
-        <v>6556.2904748358451</v>
+        <v>6375.640326807944</v>
       </c>
       <c r="J37" s="5">
-        <v>6137.4150846900111</v>
+        <v>6110.941611944661</v>
       </c>
       <c r="K37" s="5">
-        <v>-418.87539014583399</v>
+        <v>-264.6987148632825</v>
       </c>
       <c r="L37" s="4">
-        <v>-6.3889083583704709E-2</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="0"/>
-        <v>-44383408.026767351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>-0.04151719690809597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="6">
         <v>878</v>
       </c>
       <c r="C38" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D38" s="2">
-        <v>82167.5</v>
+        <v>81052.5</v>
       </c>
       <c r="E38" s="2">
-        <v>84322.5</v>
+        <v>83279.5</v>
       </c>
       <c r="F38" s="3">
-        <v>546759404.80099285</v>
+        <v>524160039.4459019</v>
       </c>
       <c r="G38" s="3">
-        <v>533222847.64174849</v>
+        <v>524993882.6185985</v>
       </c>
       <c r="H38" s="4">
-        <v>0.66789667896678961</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="I38" s="5">
-        <v>6654.2051881947591</v>
+        <v>6466.920075826186</v>
       </c>
       <c r="J38" s="5">
-        <v>6323.6128867354319</v>
+        <v>6303.998974760878</v>
       </c>
       <c r="K38" s="5">
-        <v>-330.59230145932719</v>
+        <v>-162.921101065308</v>
       </c>
       <c r="L38" s="4">
-        <v>-4.9681711355374469E-2</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" si="0"/>
-        <v>-27876369.339804117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+        <v>-0.02519299746324666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6">
@@ -2537,33 +2305,29 @@
         <v>45605.5</v>
       </c>
       <c r="F39" s="3">
-        <v>309059357.58276743</v>
+        <v>300543624.6525341</v>
       </c>
       <c r="G39" s="3">
-        <v>289280543.86626011</v>
+        <v>288032744.8355402</v>
       </c>
       <c r="H39" s="4">
-        <v>0.68852459016393441</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="I39" s="5">
-        <v>6735.7406820048027</v>
+        <v>6550.146014417691</v>
       </c>
       <c r="J39" s="5">
-        <v>6343.1065083435133</v>
+        <v>6315.745794598024</v>
       </c>
       <c r="K39" s="5">
-        <v>-392.63417366128942</v>
+        <v>-234.4002198196667</v>
       </c>
       <c r="L39" s="4">
-        <v>-5.8291165322063347E-2</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="0"/>
-        <v>-17906277.806909934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+        <v>-0.03578549536204578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="6">
@@ -2579,33 +2343,29 @@
         <v>47340.5</v>
       </c>
       <c r="F40" s="3">
-        <v>293517503.56686211</v>
+        <v>285430006.426269</v>
       </c>
       <c r="G40" s="3">
-        <v>285050335.96591502</v>
+        <v>283820783.7527903</v>
       </c>
       <c r="H40" s="4">
-        <v>0.65540540540540537</v>
+        <v>0.5743243243243243</v>
       </c>
       <c r="I40" s="5">
-        <v>6216.1547606735094</v>
+        <v>6044.876614595318</v>
       </c>
       <c r="J40" s="5">
-        <v>6021.278524010414</v>
+        <v>5995.306001262985</v>
       </c>
       <c r="K40" s="5">
-        <v>-194.8762366630954</v>
+        <v>-49.57061333233287</v>
       </c>
       <c r="L40" s="4">
-        <v>-3.1349965399185331E-2</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="0"/>
-        <v>-9225538.4817492682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+        <v>-0.008200434267367052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="6">
@@ -2621,33 +2381,29 @@
         <v>44124.5</v>
       </c>
       <c r="F41" s="3">
-        <v>289264869.19458717</v>
+        <v>281294547.9222397</v>
       </c>
       <c r="G41" s="3">
-        <v>279351926.99243242</v>
+        <v>278146954.6183066</v>
       </c>
       <c r="H41" s="4">
-        <v>0.87755102040816324</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="I41" s="5">
-        <v>6754.1064068970591</v>
+        <v>6568.005695391793</v>
       </c>
       <c r="J41" s="5">
-        <v>6330.9935974896571</v>
+        <v>6303.685132257739</v>
       </c>
       <c r="K41" s="5">
-        <v>-423.11280940740198</v>
+        <v>-264.3205631340543</v>
       </c>
       <c r="L41" s="4">
-        <v>-6.2645268510329366E-2</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" si="0"/>
-        <v>-18669641.158696909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+        <v>-0.04024365620138015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="6">
@@ -2663,33 +2419,29 @@
         <v>50811.5</v>
       </c>
       <c r="F42" s="3">
-        <v>370336702.86600292</v>
+        <v>360132551.5323048</v>
       </c>
       <c r="G42" s="3">
-        <v>361530286.72331542</v>
+        <v>359970841.5725284</v>
       </c>
       <c r="H42" s="4">
-        <v>0.64367816091954022</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="I42" s="5">
-        <v>7375.3152145062613</v>
+        <v>7172.097893619279</v>
       </c>
       <c r="J42" s="5">
-        <v>7115.1272196907266</v>
+        <v>7084.436428220549</v>
       </c>
       <c r="K42" s="5">
-        <v>-260.18799481553469</v>
+        <v>-87.66146539872989</v>
       </c>
       <c r="L42" s="4">
-        <v>-3.5278220285931639E-2</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" si="0"/>
-        <v>-13220542.298569541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+        <v>-0.0122225695603958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="6">
@@ -2705,33 +2457,29 @@
         <v>44222</v>
       </c>
       <c r="F43" s="3">
-        <v>274181108.86024249</v>
+        <v>266626401.1955708</v>
       </c>
       <c r="G43" s="3">
-        <v>266033705.25756299</v>
+        <v>264886180.4530164</v>
       </c>
       <c r="H43" s="4">
-        <v>0.62328767123287676</v>
+        <v>0.4863013698630137</v>
       </c>
       <c r="I43" s="5">
-        <v>6177.8938928875532</v>
+        <v>6007.669975790785</v>
       </c>
       <c r="J43" s="5">
-        <v>6015.8677865669351</v>
+        <v>5989.918602799882</v>
       </c>
       <c r="K43" s="5">
-        <v>-162.02610632061811</v>
+        <v>-17.75137299090238</v>
       </c>
       <c r="L43" s="4">
-        <v>-2.6226754478116621E-2</v>
-      </c>
-      <c r="M43" s="3">
-        <f t="shared" si="0"/>
-        <v>-7165118.473710374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+        <v>-0.002954784976943681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="6">
@@ -2747,33 +2495,29 @@
         <v>64556.5</v>
       </c>
       <c r="F44" s="3">
-        <v>398577969.05409467</v>
+        <v>387595665.9687381</v>
       </c>
       <c r="G44" s="3">
-        <v>394139894.70372742</v>
+        <v>392439789.4287359</v>
       </c>
       <c r="H44" s="4">
-        <v>0.7134831460674157</v>
+        <v>0.5786516853932584</v>
       </c>
       <c r="I44" s="5">
-        <v>6421.1682960102253</v>
+        <v>6244.241265757592</v>
       </c>
       <c r="J44" s="5">
-        <v>6105.3479464302955</v>
+        <v>6079.01279388963</v>
       </c>
       <c r="K44" s="5">
-        <v>-315.82034957992983</v>
+        <v>-165.2284718679621</v>
       </c>
       <c r="L44" s="4">
-        <v>-4.9184250438687897E-2</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="0"/>
-        <v>-20388256.397656739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+        <v>-0.02646093653908732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="6">
@@ -2789,33 +2533,29 @@
         <v>50941</v>
       </c>
       <c r="F45" s="3">
-        <v>390359365.32335317</v>
+        <v>379603515.2888858</v>
       </c>
       <c r="G45" s="3">
-        <v>368696991.4346658</v>
+        <v>367106633.015144</v>
       </c>
       <c r="H45" s="4">
-        <v>0.84705882352941175</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="I45" s="5">
-        <v>7838.6201733622456</v>
+        <v>7622.637080470403</v>
       </c>
       <c r="J45" s="5">
-        <v>7237.7258285990811</v>
+        <v>7206.506213367307</v>
       </c>
       <c r="K45" s="5">
-        <v>-600.89434476316455</v>
+        <v>-416.1308671030956</v>
       </c>
       <c r="L45" s="4">
-        <v>-7.6658178540805699E-2</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="0"/>
-        <v>-30610158.816580366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+        <v>-0.05459145735394444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="6">
@@ -2831,33 +2571,29 @@
         <v>201161.5</v>
       </c>
       <c r="F46" s="3">
-        <v>1196840916.4272339</v>
+        <v>1163863504.955263</v>
       </c>
       <c r="G46" s="3">
-        <v>1204330658.7785201</v>
+        <v>1199135830.918321</v>
       </c>
       <c r="H46" s="4">
-        <v>0.77159309021113243</v>
+        <v>0.6717850287907869</v>
       </c>
       <c r="I46" s="5">
-        <v>6346.6961316981069</v>
+        <v>6171.821086109459</v>
       </c>
       <c r="J46" s="5">
-        <v>5986.8844623773439</v>
+        <v>5961.060296917258</v>
       </c>
       <c r="K46" s="5">
-        <v>-359.81166932076297</v>
+        <v>-210.7607891922007</v>
       </c>
       <c r="L46" s="4">
-        <v>-5.6692751922328588E-2</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="0"/>
-        <v>-72380255.118068665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+        <v>-0.03414888186997955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="6">
@@ -2873,33 +2609,29 @@
         <v>28415.5</v>
       </c>
       <c r="F47" s="3">
-        <v>185505011.7439281</v>
+        <v>180393659.8353937</v>
       </c>
       <c r="G47" s="3">
-        <v>184192861.69947141</v>
+        <v>183398353.8102703</v>
       </c>
       <c r="H47" s="4">
-        <v>0.80952380952380953</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="I47" s="5">
-        <v>6836.6260685460356</v>
+        <v>6648.251633942424</v>
       </c>
       <c r="J47" s="5">
-        <v>6482.1263641136493</v>
+        <v>6454.165994273207</v>
       </c>
       <c r="K47" s="5">
-        <v>-354.49970443238641</v>
+        <v>-194.085639669217</v>
       </c>
       <c r="L47" s="4">
-        <v>-5.1853019439423442E-2</v>
-      </c>
-      <c r="M47" s="3">
-        <f t="shared" si="0"/>
-        <v>-10073286.351298476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+        <v>-0.02919348579983339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="6">
@@ -2915,33 +2647,29 @@
         <v>88165.5</v>
       </c>
       <c r="F48" s="3">
-        <v>527206421.04763722</v>
+        <v>512679926.4743629</v>
       </c>
       <c r="G48" s="3">
-        <v>541111593.53928065</v>
+        <v>538777532.2404956</v>
       </c>
       <c r="H48" s="4">
-        <v>0.63957597173144876</v>
+        <v>0.5229681978798587</v>
       </c>
       <c r="I48" s="5">
-        <v>6329.6545391502996</v>
+        <v>6155.249052716818</v>
       </c>
       <c r="J48" s="5">
-        <v>6137.4527852649917</v>
+        <v>6110.979149899854</v>
       </c>
       <c r="K48" s="5">
-        <v>-192.20175388530879</v>
+        <v>-44.26990281696453</v>
       </c>
       <c r="L48" s="4">
-        <v>-3.0365283396826651E-2</v>
-      </c>
-      <c r="M48" s="3">
-        <f t="shared" si="0"/>
-        <v>-16945563.732175194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+        <v>-0.007192219589786442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="6">
@@ -2957,33 +2685,29 @@
         <v>41837.5</v>
       </c>
       <c r="F49" s="3">
-        <v>338370100.28203338</v>
+        <v>329046747.5509762</v>
       </c>
       <c r="G49" s="3">
-        <v>331038861.377352</v>
+        <v>329610939.662201</v>
       </c>
       <c r="H49" s="4">
-        <v>0.8</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="I49" s="5">
-        <v>8492.6924837054266</v>
+        <v>8258.687269899634</v>
       </c>
       <c r="J49" s="5">
-        <v>7912.491458078327</v>
+        <v>7878.361270683024</v>
       </c>
       <c r="K49" s="5">
-        <v>-580.20102562709963</v>
+        <v>-380.3259992166104</v>
       </c>
       <c r="L49" s="4">
-        <v>-6.8317677431545598E-2</v>
-      </c>
-      <c r="M49" s="3">
-        <f t="shared" si="0"/>
-        <v>-24274160.40967378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+        <v>-0.04605162864112577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="6">
@@ -2999,33 +2723,29 @@
         <v>27816.5</v>
       </c>
       <c r="F50" s="3">
-        <v>286036875.52761602</v>
+        <v>278155497.4672889</v>
       </c>
       <c r="G50" s="3">
-        <v>261883716.87378019</v>
+        <v>260754092.863437</v>
       </c>
       <c r="H50" s="4">
-        <v>0.90163934426229508</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="I50" s="5">
-        <v>10425.60415248637</v>
+        <v>10138.34004473279</v>
       </c>
       <c r="J50" s="5">
-        <v>9414.6897299725042</v>
+        <v>9374.079875736956</v>
       </c>
       <c r="K50" s="5">
-        <v>-1010.914422513863</v>
+        <v>-764.2601689958374</v>
       </c>
       <c r="L50" s="4">
-        <v>-9.6964589075902441E-2</v>
-      </c>
-      <c r="M50" s="3">
-        <f t="shared" si="0"/>
-        <v>-28120101.033856869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+        <v>-0.07538316584605942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="6">
@@ -3041,33 +2761,29 @@
         <v>19130.5</v>
       </c>
       <c r="F51" s="3">
-        <v>140014085.73297599</v>
+        <v>136156177.7573099</v>
       </c>
       <c r="G51" s="3">
-        <v>130743757.9250734</v>
+        <v>130179800.4178342</v>
       </c>
       <c r="H51" s="4">
-        <v>0.625</v>
+        <v>0.578125</v>
       </c>
       <c r="I51" s="5">
-        <v>7459.4611472017059</v>
+        <v>7253.925293410223</v>
       </c>
       <c r="J51" s="5">
-        <v>6834.3095018464419</v>
+        <v>6804.830005375406</v>
       </c>
       <c r="K51" s="5">
-        <v>-625.15164535526401</v>
+        <v>-449.0952880348177</v>
       </c>
       <c r="L51" s="4">
-        <v>-8.3806542191024014E-2</v>
-      </c>
-      <c r="M51" s="3">
-        <f t="shared" si="0"/>
-        <v>-11959463.551468879</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+        <v>-0.06191065800509343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="6">
@@ -3083,75 +2799,67 @@
         <v>19696</v>
       </c>
       <c r="F52" s="3">
-        <v>191678839.5152964</v>
+        <v>186397375.7264118</v>
       </c>
       <c r="G52" s="3">
-        <v>170770427.62014869</v>
+        <v>170033816.8159373</v>
       </c>
       <c r="H52" s="4">
-        <v>0.8392857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="I52" s="5">
-        <v>9844.5771559691038</v>
+        <v>9573.322499494716</v>
       </c>
       <c r="J52" s="5">
-        <v>8670.310094442968</v>
+        <v>8632.911089355059</v>
       </c>
       <c r="K52" s="5">
-        <v>-1174.2670615261361</v>
+        <v>-940.4114101396572</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.1192805991483481</v>
-      </c>
-      <c r="M52" s="3">
-        <f t="shared" si="0"/>
-        <v>-23128364.043818776</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+        <v>-0.09823250080515855</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="6">
         <v>850</v>
       </c>
       <c r="C53" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D53" s="2">
-        <v>169115.5</v>
+        <v>169035.5</v>
       </c>
       <c r="E53" s="2">
-        <v>180480.5</v>
+        <v>180439.5</v>
       </c>
       <c r="F53" s="3">
-        <v>1039070689.159727</v>
+        <v>1009831595.524058</v>
       </c>
       <c r="G53" s="3">
-        <v>1065641306.1847301</v>
+        <v>1060573096.402934</v>
       </c>
       <c r="H53" s="4">
-        <v>0.68278529980657643</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="I53" s="5">
-        <v>6144.1481659559677</v>
+        <v>5974.079974467247</v>
       </c>
       <c r="J53" s="5">
-        <v>5904.4678299579746</v>
+        <v>5877.721321567252</v>
       </c>
       <c r="K53" s="5">
-        <v>-239.68033599799219</v>
+        <v>-96.35865289999492</v>
       </c>
       <c r="L53" s="4">
-        <v>-3.9009530617447392E-2</v>
-      </c>
-      <c r="M53" s="3">
-        <f t="shared" si="0"/>
-        <v>-43257626.881085627</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+        <v>-0.01612945479669248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="6">
@@ -3167,33 +2875,29 @@
         <v>37243.5</v>
       </c>
       <c r="F54" s="3">
-        <v>315383441.17025697</v>
+        <v>306693456.2539949</v>
       </c>
       <c r="G54" s="3">
-        <v>299891694.48533797</v>
+        <v>298598124.7184312</v>
       </c>
       <c r="H54" s="4">
-        <v>0.78048780487804881</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="I54" s="5">
-        <v>8753.9640877179099</v>
+        <v>8512.759871042812</v>
       </c>
       <c r="J54" s="5">
-        <v>8052.1888245019391</v>
+        <v>8017.456058598982</v>
       </c>
       <c r="K54" s="5">
-        <v>-701.77526321597088</v>
+        <v>-495.3038124438299</v>
       </c>
       <c r="L54" s="4">
-        <v>-8.01665686749371E-2</v>
-      </c>
-      <c r="M54" s="3">
-        <f t="shared" si="0"/>
-        <v>-26136567.015584011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+        <v>-0.05818369364894993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="6">
@@ -3209,33 +2913,29 @@
         <v>34298</v>
       </c>
       <c r="F55" s="3">
-        <v>225715247.93144241</v>
+        <v>219495954.703439</v>
       </c>
       <c r="G55" s="3">
-        <v>227200033.78157741</v>
+        <v>226220016.3281282</v>
       </c>
       <c r="H55" s="4">
-        <v>0.73076923076923073</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I55" s="5">
-        <v>7073.0523919353946</v>
+        <v>6878.163534201522</v>
       </c>
       <c r="J55" s="5">
-        <v>6624.2939466317976</v>
+        <v>6595.720343114124</v>
       </c>
       <c r="K55" s="5">
-        <v>-448.758445303597</v>
+        <v>-282.4431910873982</v>
       </c>
       <c r="L55" s="4">
-        <v>-6.3446221014178517E-2</v>
-      </c>
-      <c r="M55" s="3">
-        <f t="shared" si="0"/>
-        <v>-15391517.15702277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+        <v>-0.04106375047393906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="6">
@@ -3251,75 +2951,67 @@
         <v>14630</v>
       </c>
       <c r="F56" s="3">
-        <v>104799820.16041259</v>
+        <v>101912195.9622565</v>
       </c>
       <c r="G56" s="3">
-        <v>98477817.244374409</v>
+        <v>98053037.4674055</v>
       </c>
       <c r="H56" s="4">
-        <v>0.89189189189189189</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="I56" s="5">
-        <v>7234.5588955137764</v>
+        <v>7035.219933884891</v>
       </c>
       <c r="J56" s="5">
-        <v>6731.224692028326</v>
+        <v>6702.189847396138</v>
       </c>
       <c r="K56" s="5">
-        <v>-503.33420348545042</v>
+        <v>-333.0300864887531</v>
       </c>
       <c r="L56" s="4">
-        <v>-6.9573585723045728E-2</v>
-      </c>
-      <c r="M56" s="3">
-        <f t="shared" si="0"/>
-        <v>-7363779.3969921395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+        <v>-0.04733755157883912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="6">
         <v>311</v>
       </c>
       <c r="C57" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2">
-        <v>33464.5</v>
+        <v>33099.5</v>
       </c>
       <c r="E57" s="2">
-        <v>35097.5</v>
+        <v>34555.5</v>
       </c>
       <c r="F57" s="3">
-        <v>231139198.44434479</v>
+        <v>222613161.1561811</v>
       </c>
       <c r="G57" s="3">
-        <v>228770638.1665763</v>
+        <v>222914355.371369</v>
       </c>
       <c r="H57" s="4">
-        <v>0.6901408450704225</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="I57" s="5">
-        <v>6906.9969204483796</v>
+        <v>6725.574741497036</v>
       </c>
       <c r="J57" s="5">
-        <v>6518.1462544789892</v>
+        <v>6450.908115100896</v>
       </c>
       <c r="K57" s="5">
-        <v>-388.85066596939117</v>
+        <v>-274.6666263961397</v>
       </c>
       <c r="L57" s="4">
-        <v>-5.6298080113252547E-2</v>
-      </c>
-      <c r="M57" s="3">
-        <f t="shared" si="0"/>
-        <v>-13647686.248860708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+        <v>-0.04083913077367751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="6">
@@ -3335,33 +3027,29 @@
         <v>23428.5</v>
       </c>
       <c r="F58" s="3">
-        <v>149660051.1598618</v>
+        <v>145536361.0183616</v>
       </c>
       <c r="G58" s="3">
-        <v>145366740.51592571</v>
+        <v>144739707.4099641</v>
       </c>
       <c r="H58" s="4">
-        <v>0.68041237113402064</v>
+        <v>0.6288659793814433</v>
       </c>
       <c r="I58" s="5">
-        <v>6560.0092557141152</v>
+        <v>6379.256641464085</v>
       </c>
       <c r="J58" s="5">
-        <v>6204.6968656092249</v>
+        <v>6177.933175831323</v>
       </c>
       <c r="K58" s="5">
-        <v>-355.31239010489031</v>
+        <v>-201.3234656327622</v>
       </c>
       <c r="L58" s="4">
-        <v>-5.4163397680482617E-2</v>
-      </c>
-      <c r="M58" s="3">
-        <f t="shared" si="0"/>
-        <v>-8324436.3315724228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+        <v>-0.03155907920747281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="6">
@@ -3371,39 +3059,35 @@
         <v>506</v>
       </c>
       <c r="D59" s="2">
-        <v>180591</v>
+        <v>180672.5</v>
       </c>
       <c r="E59" s="2">
-        <v>190487</v>
+        <v>190562.5</v>
       </c>
       <c r="F59" s="3">
-        <v>1161407360.047421</v>
+        <v>1130410712.394587</v>
       </c>
       <c r="G59" s="3">
-        <v>1149762658.4633689</v>
+        <v>1143386695.216489</v>
       </c>
       <c r="H59" s="4">
-        <v>0.73913043478260865</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="I59" s="5">
-        <v>6431.1475103821394</v>
+        <v>6256.683847262795</v>
       </c>
       <c r="J59" s="5">
-        <v>6035.911418959663</v>
+        <v>6000.061372077345</v>
       </c>
       <c r="K59" s="5">
-        <v>-395.23609142247642</v>
+        <v>-256.6224751854497</v>
       </c>
       <c r="L59" s="4">
-        <v>-6.1456542675226489E-2</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="0"/>
-        <v>-75287337.346793264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+        <v>-0.04101573316633511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="6">
@@ -3419,33 +3103,29 @@
         <v>50764</v>
       </c>
       <c r="F60" s="3">
-        <v>356822116.51933068</v>
+        <v>346990342.2231408</v>
       </c>
       <c r="G60" s="3">
-        <v>355511434.51717949</v>
+        <v>353977951.4233233</v>
       </c>
       <c r="H60" s="4">
-        <v>0.65306122448979587</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="I60" s="5">
-        <v>7236.4500703589747</v>
+        <v>7037.058999840614</v>
       </c>
       <c r="J60" s="5">
-        <v>7003.2194964380169</v>
+        <v>6973.011414059634</v>
       </c>
       <c r="K60" s="5">
-        <v>-233.2305739209578</v>
+        <v>-64.04758578097972</v>
       </c>
       <c r="L60" s="4">
-        <v>-3.2229970725050287E-2</v>
-      </c>
-      <c r="M60" s="3">
-        <f t="shared" si="0"/>
-        <v>-11839716.854523502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+        <v>-0.009101470626071251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="6">
@@ -3461,75 +3141,67 @@
         <v>41024</v>
       </c>
       <c r="F61" s="3">
-        <v>293387053.26918697</v>
+        <v>285303150.5186953</v>
       </c>
       <c r="G61" s="3">
-        <v>297542056.5854702</v>
+        <v>296258621.8793414</v>
       </c>
       <c r="H61" s="4">
-        <v>0.80281690140845074</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="I61" s="5">
-        <v>7533.0787944792737</v>
+        <v>7325.514501141189</v>
       </c>
       <c r="J61" s="5">
-        <v>7252.8777443806111</v>
+        <v>7221.592772019827</v>
       </c>
       <c r="K61" s="5">
-        <v>-280.20105009866262</v>
+        <v>-103.9217291213618</v>
       </c>
       <c r="L61" s="4">
-        <v>-3.7196086453258892E-2</v>
-      </c>
-      <c r="M61" s="3">
-        <f t="shared" si="0"/>
-        <v>-11494967.879247535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+        <v>-0.01418627034390174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="6">
         <v>921</v>
       </c>
       <c r="C62" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2">
-        <v>15297</v>
+        <v>15146</v>
       </c>
       <c r="E62" s="2">
-        <v>16825.5</v>
+        <v>16696.5</v>
       </c>
       <c r="F62" s="3">
-        <v>103364874.2360924</v>
+        <v>99849972.42594895</v>
       </c>
       <c r="G62" s="3">
-        <v>104065248.9861432</v>
+        <v>102757625.9892685</v>
       </c>
       <c r="H62" s="4">
-        <v>0.76595744680851063</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="I62" s="5">
-        <v>6757.1990740728488</v>
+        <v>6592.497849329787</v>
       </c>
       <c r="J62" s="5">
-        <v>6184.9721545358652</v>
+        <v>6154.441109769621</v>
       </c>
       <c r="K62" s="5">
-        <v>-572.22691953698359</v>
+        <v>-438.0567395601656</v>
       </c>
       <c r="L62" s="4">
-        <v>-8.4684040423287144E-2</v>
-      </c>
-      <c r="M62" s="3">
-        <f t="shared" si="0"/>
-        <v>-9628004.0346695166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+        <v>-0.06644776374173555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="6">
@@ -3545,33 +3217,29 @@
         <v>259</v>
       </c>
       <c r="F63" s="3">
-        <v>3366490.0307229301</v>
+        <v>3273730.729603073</v>
       </c>
       <c r="G63" s="3">
-        <v>3108332.0212694942</v>
+        <v>3094924.366432226</v>
       </c>
       <c r="H63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>12066.272511551721</v>
+        <v>11733.8018982189</v>
       </c>
       <c r="J63" s="5">
-        <v>12001.281935403449</v>
+        <v>11949.51492830975</v>
       </c>
       <c r="K63" s="5">
-        <v>-64.990576148265973</v>
+        <v>215.7130300908557</v>
       </c>
       <c r="L63" s="4">
-        <v>-5.3861352862739631E-3</v>
-      </c>
-      <c r="M63" s="3">
-        <f t="shared" si="0"/>
-        <v>-16832.559222400887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+        <v>0.01838389909442739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="6">
@@ -3587,33 +3255,29 @@
         <v>22923</v>
       </c>
       <c r="F64" s="3">
-        <v>231914222.29779929</v>
+        <v>225524124.3073771</v>
       </c>
       <c r="G64" s="3">
-        <v>211000821.01604369</v>
+        <v>210090678.1615465</v>
       </c>
       <c r="H64" s="4">
-        <v>0.79365079365079361</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I64" s="5">
-        <v>9705.148238106769</v>
+        <v>9437.735366060308</v>
       </c>
       <c r="J64" s="5">
-        <v>9204.7646911854354</v>
+        <v>9165.060339464575</v>
       </c>
       <c r="K64" s="5">
-        <v>-500.38354692133362</v>
+        <v>-272.6750265957326</v>
       </c>
       <c r="L64" s="4">
-        <v>-5.1558568158351581E-2</v>
-      </c>
-      <c r="M64" s="3">
-        <f t="shared" si="0"/>
-        <v>-11470292.04607773</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+        <v>-0.02889199749934901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="6">
@@ -3629,75 +3293,67 @@
         <v>13174</v>
       </c>
       <c r="F65" s="3">
-        <v>128919836.0639533</v>
+        <v>125367615.8628999</v>
       </c>
       <c r="G65" s="3">
-        <v>115996508.6307629</v>
+        <v>115496162.741261</v>
       </c>
       <c r="H65" s="4">
-        <v>0.81081081081081086</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="I65" s="5">
-        <v>10378.34777523372</v>
+        <v>10092.38575615037</v>
       </c>
       <c r="J65" s="5">
-        <v>8804.957388094952</v>
+        <v>8766.977587768406</v>
       </c>
       <c r="K65" s="5">
-        <v>-1573.3903871387679</v>
+        <v>-1325.408168381962</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.15160316663249759</v>
-      </c>
-      <c r="M65" s="3">
-        <f t="shared" si="0"/>
-        <v>-20727844.960166126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+        <v>-0.1313275374530992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>886</v>
       </c>
       <c r="C66" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D66" s="2">
-        <v>213307.5</v>
+        <v>213215.5</v>
       </c>
       <c r="E66" s="2">
-        <v>228882</v>
+        <v>228814</v>
       </c>
       <c r="F66" s="3">
-        <v>1381850085.4165721</v>
+        <v>1343244020.951736</v>
       </c>
       <c r="G66" s="3">
-        <v>1431744658.776674</v>
+        <v>1424976616.468885</v>
       </c>
       <c r="H66" s="4">
-        <v>0.68864468864468864</v>
+        <v>0.5669724770642202</v>
       </c>
       <c r="I66" s="5">
-        <v>6478.2067457382982</v>
+        <v>6299.936078529639</v>
       </c>
       <c r="J66" s="5">
-        <v>6255.3833799804006</v>
+        <v>6227.663589067473</v>
       </c>
       <c r="K66" s="5">
-        <v>-222.82336575789759</v>
+        <v>-72.27248946216514</v>
       </c>
       <c r="L66" s="4">
-        <v>-3.4395840469969907E-2</v>
-      </c>
-      <c r="M66" s="3">
-        <f t="shared" si="0"/>
-        <v>-51000257.601399116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+        <v>-0.01147194012149932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="6">
@@ -3713,33 +3369,29 @@
         <v>37557.5</v>
       </c>
       <c r="F67" s="3">
-        <v>243130552.25352171</v>
+        <v>236431402.7232679</v>
       </c>
       <c r="G67" s="3">
-        <v>257622633.70757449</v>
+        <v>256511389.6939416</v>
       </c>
       <c r="H67" s="4">
-        <v>0.71764705882352942</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="I67" s="5">
-        <v>7131.7059165340834</v>
+        <v>6935.200936399629</v>
       </c>
       <c r="J67" s="5">
-        <v>6859.4191228802374</v>
+        <v>6829.831317152143</v>
       </c>
       <c r="K67" s="5">
-        <v>-272.28679365384602</v>
+        <v>-105.3696192474854</v>
       </c>
       <c r="L67" s="4">
-        <v>-3.8179756265969811E-2</v>
-      </c>
-      <c r="M67" s="3">
-        <f t="shared" si="0"/>
-        <v>-10226411.252654321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+        <v>-0.01519344864176164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="6">
@@ -3755,75 +3407,67 @@
         <v>24667</v>
       </c>
       <c r="F68" s="3">
-        <v>152236300.88521871</v>
+        <v>148041625.4974075</v>
       </c>
       <c r="G68" s="3">
-        <v>165284815.59778339</v>
+        <v>164571866.7421874</v>
       </c>
       <c r="H68" s="4">
-        <v>0.78723404255319152</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="I68" s="5">
-        <v>6793.9886593871997</v>
+        <v>6606.789043731227</v>
       </c>
       <c r="J68" s="5">
-        <v>6700.6452182180019</v>
+        <v>6671.742276814665</v>
       </c>
       <c r="K68" s="5">
-        <v>-93.343441169197831</v>
+        <v>64.95323308343814</v>
       </c>
       <c r="L68" s="4">
-        <v>-1.373912231075425E-2</v>
-      </c>
-      <c r="M68" s="3">
-        <f t="shared" si="0"/>
-        <v>-2302502.6633206028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+        <v>0.009831286068543221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="6">
         <v>382</v>
       </c>
       <c r="C69" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2">
-        <v>61862</v>
+        <v>61733</v>
       </c>
       <c r="E69" s="2">
-        <v>63525.5</v>
+        <v>63406.5</v>
       </c>
       <c r="F69" s="3">
-        <v>417350945.33129412</v>
+        <v>402790372.8724791</v>
       </c>
       <c r="G69" s="3">
-        <v>408605856.59446108</v>
+        <v>402531762.9272217</v>
       </c>
       <c r="H69" s="4">
-        <v>0.79289940828402372</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I69" s="5">
-        <v>6746.4832260724525</v>
+        <v>6524.717296623833</v>
       </c>
       <c r="J69" s="5">
-        <v>6432.1549077844511</v>
+        <v>6348.430569850437</v>
       </c>
       <c r="K69" s="5">
-        <v>-314.32831828800141</v>
+        <v>-176.2867267733964</v>
       </c>
       <c r="L69" s="4">
-        <v>-4.6591432566414508E-2</v>
-      </c>
-      <c r="M69" s="3">
-        <f t="shared" ref="M69:M132" si="1">K69*E69</f>
-        <v>-19967863.583404433</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+        <v>-0.02701829347680929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="6">
@@ -3839,33 +3483,29 @@
         <v>20097.5</v>
       </c>
       <c r="F70" s="3">
-        <v>141226027.87837479</v>
+        <v>137334726.3963032</v>
       </c>
       <c r="G70" s="3">
-        <v>144717559.96387041</v>
+        <v>144093327.069955</v>
       </c>
       <c r="H70" s="4">
-        <v>0.72881355932203384</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I70" s="5">
-        <v>7404.6940819701058</v>
+        <v>7200.667264192069</v>
       </c>
       <c r="J70" s="5">
-        <v>7200.7742238522424</v>
+        <v>7169.713997758675</v>
       </c>
       <c r="K70" s="5">
-        <v>-203.91985811786341</v>
+        <v>-30.95326643339376</v>
       </c>
       <c r="L70" s="4">
-        <v>-2.7539268450589179E-2</v>
-      </c>
-      <c r="M70" s="3">
-        <f t="shared" si="1"/>
-        <v>-4098279.3485237597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+        <v>-0.004298666401004292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="6">
@@ -3881,117 +3521,105 @@
         <v>36379.5</v>
       </c>
       <c r="F71" s="3">
-        <v>355932373.86775023</v>
+        <v>346125115.2854891</v>
       </c>
       <c r="G71" s="3">
-        <v>322232334.67858249</v>
+        <v>320842399.5329115</v>
       </c>
       <c r="H71" s="4">
-        <v>0.8314606741573034</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="I71" s="5">
-        <v>9778.89922159872</v>
+        <v>9509.454236097838</v>
       </c>
       <c r="J71" s="5">
-        <v>8857.5251083325093</v>
+        <v>8819.318559433514</v>
       </c>
       <c r="K71" s="5">
-        <v>-921.37411326621077</v>
+        <v>-690.1356766643239</v>
       </c>
       <c r="L71" s="4">
-        <v>-9.4220636943590286E-2</v>
-      </c>
-      <c r="M71" s="3">
-        <f t="shared" si="1"/>
-        <v>-33519129.553568114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+        <v>-0.07257363667039618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="6">
         <v>888</v>
       </c>
       <c r="C72" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D72" s="2">
-        <v>166056</v>
+        <v>166019</v>
       </c>
       <c r="E72" s="2">
-        <v>175078</v>
+        <v>175055</v>
       </c>
       <c r="F72" s="3">
-        <v>1096643021.90501</v>
+        <v>1065990732.515613</v>
       </c>
       <c r="G72" s="3">
-        <v>1086496338.437464</v>
+        <v>1081403321.19724</v>
       </c>
       <c r="H72" s="4">
-        <v>0.82009724473257695</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="I72" s="5">
-        <v>6604.0553903804148</v>
+        <v>6420.895996937781</v>
       </c>
       <c r="J72" s="5">
-        <v>6205.7844985518686</v>
+        <v>6177.50604779778</v>
       </c>
       <c r="K72" s="5">
-        <v>-398.27089182854621</v>
+        <v>-243.3899491400016</v>
       </c>
       <c r="L72" s="4">
-        <v>-6.0307018685620717E-2</v>
-      </c>
-      <c r="M72" s="3">
-        <f t="shared" si="1"/>
-        <v>-69728471.199558213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+        <v>-0.03790591675306343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="6">
         <v>383</v>
       </c>
       <c r="C73" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D73" s="2">
-        <v>110707</v>
+        <v>110756</v>
       </c>
       <c r="E73" s="2">
-        <v>119924</v>
+        <v>120207</v>
       </c>
       <c r="F73" s="3">
-        <v>731622420.45120704</v>
+        <v>715079065.2026104</v>
       </c>
       <c r="G73" s="3">
-        <v>756607569.27042758</v>
+        <v>763933837.1505518</v>
       </c>
       <c r="H73" s="4">
-        <v>0.7414448669201521</v>
+        <v>0.6022727272727273</v>
       </c>
       <c r="I73" s="5">
-        <v>6608.6373982784016</v>
+        <v>6456.346068859569</v>
       </c>
       <c r="J73" s="5">
-        <v>6309.0588145027486</v>
+        <v>6355.15267123006</v>
       </c>
       <c r="K73" s="5">
-        <v>-299.57858377565299</v>
+        <v>-101.1933976295086</v>
       </c>
       <c r="L73" s="4">
-        <v>-4.5331369497393692E-2</v>
-      </c>
-      <c r="M73" s="3">
-        <f t="shared" si="1"/>
-        <v>-35926662.080711409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+        <v>-0.01567347793167218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="6">
@@ -4007,33 +3635,29 @@
         <v>53836.5</v>
       </c>
       <c r="F74" s="3">
-        <v>341480484.07175469</v>
+        <v>332071428.7175155</v>
       </c>
       <c r="G74" s="3">
-        <v>362512850.44845653</v>
+        <v>360949167.0518218</v>
       </c>
       <c r="H74" s="4">
-        <v>0.53773584905660377</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="I74" s="5">
-        <v>6839.5269955786835</v>
+        <v>6651.072629663322</v>
       </c>
       <c r="J74" s="5">
-        <v>6733.588744596258</v>
+        <v>6704.543702726251</v>
       </c>
       <c r="K74" s="5">
-        <v>-105.93825098242451</v>
+        <v>53.47107306292855</v>
       </c>
       <c r="L74" s="4">
-        <v>-1.54891195035719E-2</v>
-      </c>
-      <c r="M74" s="3">
-        <f t="shared" si="1"/>
-        <v>-5703344.6490152972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+        <v>0.008039466119261984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="6">
@@ -4049,33 +3673,29 @@
         <v>93955.5</v>
       </c>
       <c r="F75" s="3">
-        <v>520891256.29155219</v>
+        <v>506538767.9573826</v>
       </c>
       <c r="G75" s="3">
-        <v>550309699.33425033</v>
+        <v>547935962.4066032</v>
       </c>
       <c r="H75" s="4">
-        <v>0.68283582089552242</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="I75" s="5">
-        <v>6039.6690392666515</v>
+        <v>5873.253730156909</v>
       </c>
       <c r="J75" s="5">
-        <v>5857.1312944346028</v>
+        <v>5831.86681361499</v>
       </c>
       <c r="K75" s="5">
-        <v>-182.53774483204779</v>
+        <v>-41.38691654191916</v>
       </c>
       <c r="L75" s="4">
-        <v>-3.0223137003912989E-2</v>
-      </c>
-      <c r="M75" s="3">
-        <f t="shared" si="1"/>
-        <v>-17150425.084567465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+        <v>-0.007046676074866864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="6">
@@ -4091,159 +3711,143 @@
         <v>36845.5</v>
       </c>
       <c r="F76" s="3">
-        <v>331325088.67402351</v>
+        <v>322195852.1729792</v>
       </c>
       <c r="G76" s="3">
-        <v>296780462.18639928</v>
+        <v>295500312.5845512</v>
       </c>
       <c r="H76" s="4">
-        <v>0.85365853658536583</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I76" s="5">
-        <v>8714.8385305581105</v>
+        <v>8474.712368267534</v>
       </c>
       <c r="J76" s="5">
-        <v>8054.7275023109833</v>
+        <v>8019.983785931828</v>
       </c>
       <c r="K76" s="5">
-        <v>-660.11102824712725</v>
+        <v>-454.7285823357061</v>
       </c>
       <c r="L76" s="4">
-        <v>-7.5745640717551299E-2</v>
-      </c>
-      <c r="M76" s="3">
-        <f t="shared" si="1"/>
-        <v>-24322120.891279526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+        <v>-0.05365711101162307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="6">
         <v>925</v>
       </c>
       <c r="C77" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D77" s="2">
-        <v>95649</v>
+        <v>95491.5</v>
       </c>
       <c r="E77" s="2">
-        <v>99878</v>
+        <v>99788</v>
       </c>
       <c r="F77" s="3">
-        <v>618203368.79126132</v>
+        <v>600215029.6857222</v>
       </c>
       <c r="G77" s="3">
-        <v>637613177.39205456</v>
+        <v>634044452.0887105</v>
       </c>
       <c r="H77" s="4">
-        <v>0.4599406528189911</v>
+        <v>0.3869047619047619</v>
       </c>
       <c r="I77" s="5">
-        <v>6463.2496815571658</v>
+        <v>6285.533578231803</v>
       </c>
       <c r="J77" s="5">
-        <v>6383.9201565114899</v>
+        <v>6353.914820306154</v>
       </c>
       <c r="K77" s="5">
-        <v>-79.329525045675837</v>
+        <v>68.38124207435067</v>
       </c>
       <c r="L77" s="4">
-        <v>-1.2273937872467109E-2</v>
-      </c>
-      <c r="M77" s="3">
-        <f t="shared" si="1"/>
-        <v>-7923274.3025120115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+        <v>0.01087914673006751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="6">
         <v>341</v>
       </c>
       <c r="C78" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2">
-        <v>65559.5</v>
+        <v>65601.5</v>
       </c>
       <c r="E78" s="2">
-        <v>70604</v>
+        <v>70695</v>
       </c>
       <c r="F78" s="3">
-        <v>485083272.06456977</v>
+        <v>473767622.1602097</v>
       </c>
       <c r="G78" s="3">
-        <v>472292629.49955952</v>
+        <v>472507211.5128249</v>
       </c>
       <c r="H78" s="4">
-        <v>0.88271604938271608</v>
+        <v>0.7975460122699386</v>
       </c>
       <c r="I78" s="5">
-        <v>7399.1301346802493</v>
+        <v>7221.902276018226</v>
       </c>
       <c r="J78" s="5">
-        <v>6689.3183034893127</v>
+        <v>6683.743001808118</v>
       </c>
       <c r="K78" s="5">
-        <v>-709.81183119093657</v>
+        <v>-538.1592742101084</v>
       </c>
       <c r="L78" s="4">
-        <v>-9.5931794450269003E-2</v>
-      </c>
-      <c r="M78" s="3">
-        <f t="shared" si="1"/>
-        <v>-50115554.529404886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+        <v>-0.0745176621950665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>821</v>
       </c>
       <c r="C79" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D79" s="2">
-        <v>36761</v>
+        <v>36876.5</v>
       </c>
       <c r="E79" s="2">
-        <v>38466.5</v>
+        <v>38622.5</v>
       </c>
       <c r="F79" s="3">
-        <v>265441652.71803859</v>
+        <v>259682818.2140457</v>
       </c>
       <c r="G79" s="3">
-        <v>248947561.99013031</v>
+        <v>248935209.5724192</v>
       </c>
       <c r="H79" s="4">
-        <v>0.86567164179104472</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="I79" s="5">
-        <v>7220.7408046037544</v>
+        <v>7041.959465080626</v>
       </c>
       <c r="J79" s="5">
-        <v>6471.8017493177258</v>
+        <v>6445.341693893954</v>
       </c>
       <c r="K79" s="5">
-        <v>-748.93905528602863</v>
+        <v>-596.6177711866721</v>
       </c>
       <c r="L79" s="4">
-        <v>-0.1037205288976063</v>
-      </c>
-      <c r="M79" s="3">
-        <f t="shared" si="1"/>
-        <v>-28809064.170160022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+        <v>-0.08472326120949081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="6">
@@ -4259,33 +3863,29 @@
         <v>81963.5</v>
       </c>
       <c r="F80" s="3">
-        <v>569819070.05901301</v>
+        <v>554118438.7721024</v>
       </c>
       <c r="G80" s="3">
-        <v>587158657.12324142</v>
+        <v>584625973.8205718</v>
       </c>
       <c r="H80" s="4">
-        <v>0.81547619047619047</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I80" s="5">
-        <v>7527.2827796251413</v>
+        <v>7319.878188018604</v>
       </c>
       <c r="J80" s="5">
-        <v>7163.6601307074661</v>
+        <v>7132.759994638733</v>
       </c>
       <c r="K80" s="5">
-        <v>-363.62264891767518</v>
+        <v>-187.1181933798716</v>
       </c>
       <c r="L80" s="4">
-        <v>-4.8307292227937733E-2</v>
-      </c>
-      <c r="M80" s="3">
-        <f t="shared" si="1"/>
-        <v>-29803784.984563868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+        <v>-0.0255630201177599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="6">
@@ -4301,75 +3901,67 @@
         <v>40490.5</v>
       </c>
       <c r="F81" s="3">
-        <v>251630311.9119418</v>
+        <v>244696962.4409763</v>
       </c>
       <c r="G81" s="3">
-        <v>252344468.5186609</v>
+        <v>251255991.6407596</v>
       </c>
       <c r="H81" s="4">
-        <v>0.79761904761904767</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="I81" s="5">
-        <v>6748.9254760541726</v>
+        <v>6562.967518431957</v>
       </c>
       <c r="J81" s="5">
-        <v>6232.1894893533272</v>
+        <v>6205.307211339934</v>
       </c>
       <c r="K81" s="5">
-        <v>-516.73598670084539</v>
+        <v>-357.6603070920228</v>
       </c>
       <c r="L81" s="4">
-        <v>-7.6565667902879331E-2</v>
-      </c>
-      <c r="M81" s="3">
-        <f t="shared" si="1"/>
-        <v>-20922898.469510581</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+        <v>-0.05449673582682546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="6">
         <v>315</v>
       </c>
       <c r="C82" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D82" s="2">
-        <v>27403</v>
+        <v>27429</v>
       </c>
       <c r="E82" s="2">
-        <v>26918.5</v>
+        <v>26966.5</v>
       </c>
       <c r="F82" s="3">
-        <v>195156339.60663679</v>
+        <v>191607928.2329461</v>
       </c>
       <c r="G82" s="3">
-        <v>193665522.25918189</v>
+        <v>194547061.6818042</v>
       </c>
       <c r="H82" s="4">
-        <v>0.47272727272727272</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I82" s="5">
-        <v>7121.7143964761826</v>
+        <v>6985.596566879804</v>
       </c>
       <c r="J82" s="5">
-        <v>7194.5138941316154</v>
+        <v>7214.397926382891</v>
       </c>
       <c r="K82" s="5">
-        <v>72.799497655432788</v>
+        <v>228.801359503087</v>
       </c>
       <c r="L82" s="4">
-        <v>1.022218718732293E-2</v>
-      </c>
-      <c r="M82" s="3">
-        <f t="shared" si="1"/>
-        <v>1959653.2776377676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+        <v>0.03275330278703503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="6">
@@ -4385,75 +3977,67 @@
         <v>20050.5</v>
       </c>
       <c r="F83" s="3">
-        <v>145802332.2429775</v>
+        <v>141784936.5824891</v>
       </c>
       <c r="G83" s="3">
-        <v>145224857.85047019</v>
+        <v>144598436.7492086</v>
       </c>
       <c r="H83" s="4">
-        <v>0.90697674418604646</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="I83" s="5">
-        <v>7875.0348236775244</v>
+        <v>7658.048371951127</v>
       </c>
       <c r="J83" s="5">
-        <v>7242.9544325812449</v>
+        <v>7211.712263993844</v>
       </c>
       <c r="K83" s="5">
-        <v>-632.08039109627953</v>
+        <v>-446.3361079572824</v>
       </c>
       <c r="L83" s="4">
-        <v>-8.0263821716169526E-2</v>
-      </c>
-      <c r="M83" s="3">
-        <f t="shared" si="1"/>
-        <v>-12673527.881675953</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+        <v>-0.05828327091691698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="6">
         <v>826</v>
       </c>
       <c r="C84" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D84" s="2">
-        <v>44430</v>
+        <v>44352</v>
       </c>
       <c r="E84" s="2">
-        <v>46448.5</v>
+        <v>46389.5</v>
       </c>
       <c r="F84" s="3">
-        <v>297437125.93780148</v>
+        <v>288492718.6215647</v>
       </c>
       <c r="G84" s="3">
-        <v>301256662.10974902</v>
+        <v>299105400.2232704</v>
       </c>
       <c r="H84" s="4">
-        <v>0.55140186915887845</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="I84" s="5">
-        <v>6694.5110496916841</v>
+        <v>6504.615769786361</v>
       </c>
       <c r="J84" s="5">
-        <v>6485.8211160693891</v>
+        <v>6447.696142947658</v>
       </c>
       <c r="K84" s="5">
-        <v>-208.689933622295</v>
+        <v>-56.91962683870315</v>
       </c>
       <c r="L84" s="4">
-        <v>-3.11732898897682E-2</v>
-      </c>
-      <c r="M84" s="3">
-        <f t="shared" si="1"/>
-        <v>-9693334.3818551693</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+        <v>-0.008750651668480103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="6">
@@ -4469,33 +4053,29 @@
         <v>38977.5</v>
       </c>
       <c r="F85" s="3">
-        <v>248102338.63471121</v>
+        <v>241266197.927942</v>
       </c>
       <c r="G85" s="3">
-        <v>254858752.31065401</v>
+        <v>253759430.1790876</v>
       </c>
       <c r="H85" s="4">
-        <v>0.70967741935483875</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="I85" s="5">
-        <v>6881.1232304284013</v>
+        <v>6691.522733783805</v>
       </c>
       <c r="J85" s="5">
-        <v>6538.6120790367249</v>
+        <v>6510.408060524344</v>
       </c>
       <c r="K85" s="5">
-        <v>-342.51115139167632</v>
+        <v>-181.1146732594607</v>
       </c>
       <c r="L85" s="4">
-        <v>-4.9775471230785177E-2</v>
-      </c>
-      <c r="M85" s="3">
-        <f t="shared" si="1"/>
-        <v>-13350228.403369064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+        <v>-0.02706628677282352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="6">
@@ -4511,75 +4091,67 @@
         <v>58405</v>
       </c>
       <c r="F86" s="3">
-        <v>496905427.5420596</v>
+        <v>483213837.8564166</v>
       </c>
       <c r="G86" s="3">
-        <v>491710763.4967097</v>
+        <v>489589790.527406</v>
       </c>
       <c r="H86" s="4">
-        <v>0.67368421052631577</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="I86" s="5">
-        <v>8947.60831083208</v>
+        <v>8701.068476751898</v>
       </c>
       <c r="J86" s="5">
-        <v>8418.9840509666938</v>
+        <v>8382.669129824604</v>
       </c>
       <c r="K86" s="5">
-        <v>-528.62425986538619</v>
+        <v>-318.3993469272937</v>
       </c>
       <c r="L86" s="4">
-        <v>-5.9079950921122393E-2</v>
-      </c>
-      <c r="M86" s="3">
-        <f t="shared" si="1"/>
-        <v>-30874299.897437882</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+        <v>-0.03659313195592184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="6">
         <v>926</v>
       </c>
       <c r="C87" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D87" s="2">
-        <v>100614.5</v>
+        <v>100469.5</v>
       </c>
       <c r="E87" s="2">
-        <v>106334.5</v>
+        <v>106174.5</v>
       </c>
       <c r="F87" s="3">
-        <v>684184706.61744738</v>
+        <v>662791514.6539793</v>
       </c>
       <c r="G87" s="3">
-        <v>668662132.22713149</v>
+        <v>661618176.3043414</v>
       </c>
       <c r="H87" s="4">
-        <v>0.80758017492711365</v>
+        <v>0.7565982404692082</v>
       </c>
       <c r="I87" s="5">
-        <v>6800.0606932146693</v>
+        <v>6596.942501495273</v>
       </c>
       <c r="J87" s="5">
-        <v>6288.2896165132806</v>
+        <v>6231.42257608316</v>
       </c>
       <c r="K87" s="5">
-        <v>-511.77107670138872</v>
+        <v>-365.5199254121135</v>
       </c>
       <c r="L87" s="4">
-        <v>-7.525978072696482E-2</v>
-      </c>
-      <c r="M87" s="3">
-        <f t="shared" si="1"/>
-        <v>-54418921.555503815</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+        <v>-0.05540747480052532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="6">
@@ -4595,33 +4167,29 @@
         <v>21535</v>
       </c>
       <c r="F88" s="3">
-        <v>151446541.49033421</v>
+        <v>147273626.9064624</v>
       </c>
       <c r="G88" s="3">
-        <v>142631372.9679687</v>
+        <v>142016138.7508277</v>
       </c>
       <c r="H88" s="4">
-        <v>0.81034482758620685</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I88" s="5">
-        <v>7282.1340332901</v>
+        <v>7081.484199954915</v>
       </c>
       <c r="J88" s="5">
-        <v>6623.2353363347438</v>
+        <v>6594.666299086495</v>
       </c>
       <c r="K88" s="5">
-        <v>-658.89869695535617</v>
+        <v>-486.8179008684201</v>
       </c>
       <c r="L88" s="4">
-        <v>-9.0481539332181615E-2</v>
-      </c>
-      <c r="M88" s="3">
-        <f t="shared" si="1"/>
-        <v>-14189383.438933596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+        <v>-0.06874517927633295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="6">
@@ -4637,33 +4205,29 @@
         <v>22510.5</v>
       </c>
       <c r="F89" s="3">
-        <v>138729255.14353311</v>
+        <v>134906749.0215622</v>
       </c>
       <c r="G89" s="3">
-        <v>139702767.65854079</v>
+        <v>139100165.8528908</v>
       </c>
       <c r="H89" s="4">
-        <v>0.80303030303030298</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="I89" s="5">
-        <v>6565.0453182941646</v>
+        <v>6384.153941819665</v>
       </c>
       <c r="J89" s="5">
-        <v>6206.115708604465</v>
+        <v>6179.345898709081</v>
       </c>
       <c r="K89" s="5">
-        <v>-358.92960968969959</v>
+        <v>-204.8080431105845</v>
       </c>
       <c r="L89" s="4">
-        <v>-5.4672830466151678E-2</v>
-      </c>
-      <c r="M89" s="3">
-        <f t="shared" si="1"/>
-        <v>-8079684.9789199829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+        <v>-0.03208068680314569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="6">
@@ -4679,33 +4243,29 @@
         <v>52585.5</v>
       </c>
       <c r="F90" s="3">
-        <v>324674331.51449537</v>
+        <v>315728348.0694249</v>
       </c>
       <c r="G90" s="3">
-        <v>319620012.55503643</v>
+        <v>318241345.547105</v>
       </c>
       <c r="H90" s="4">
-        <v>0.69402985074626866</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="I90" s="5">
-        <v>6433.3986865574607</v>
+        <v>6256.134663630191</v>
       </c>
       <c r="J90" s="5">
-        <v>6078.1016165109477</v>
+        <v>6051.883989828089</v>
       </c>
       <c r="K90" s="5">
-        <v>-355.297070046513</v>
+        <v>-204.250673802102</v>
       </c>
       <c r="L90" s="4">
-        <v>-5.5226962816544163E-2</v>
-      </c>
-      <c r="M90" s="3">
-        <f t="shared" si="1"/>
-        <v>-18683474.07693091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+        <v>-0.03264806222754535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="6">
@@ -4721,33 +4281,29 @@
         <v>29434</v>
       </c>
       <c r="F91" s="3">
-        <v>176730153.54925281</v>
+        <v>171860581.5676262</v>
       </c>
       <c r="G91" s="3">
-        <v>177561902.14629161</v>
+        <v>176795996.6124118</v>
       </c>
       <c r="H91" s="4">
-        <v>0.63013698630136983</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="I91" s="5">
-        <v>6192.4754655566076</v>
+        <v>6021.849771987114</v>
       </c>
       <c r="J91" s="5">
-        <v>6032.5440696572541</v>
+        <v>6006.522953469177</v>
       </c>
       <c r="K91" s="5">
-        <v>-159.93139589935339</v>
+        <v>-15.32681851793677</v>
       </c>
       <c r="L91" s="4">
-        <v>-2.5826730648981E-2</v>
-      </c>
-      <c r="M91" s="3">
-        <f t="shared" si="1"/>
-        <v>-4707420.706901568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+        <v>-0.002545201075794923</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="6">
@@ -4763,75 +4319,67 @@
         <v>28998.5</v>
       </c>
       <c r="F92" s="3">
-        <v>183592335.3202239</v>
+        <v>178533684.749496</v>
       </c>
       <c r="G92" s="3">
-        <v>182697373.25777629</v>
+        <v>181909316.092855</v>
       </c>
       <c r="H92" s="4">
-        <v>0.54545454545454541</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I92" s="5">
-        <v>6484.7265358678942</v>
+        <v>6306.048240096638</v>
       </c>
       <c r="J92" s="5">
-        <v>6300.2352969214389</v>
+        <v>6273.059506279807</v>
       </c>
       <c r="K92" s="5">
-        <v>-184.4912389464553</v>
+        <v>-32.98873381683097</v>
       </c>
       <c r="L92" s="4">
-        <v>-2.8450118586498489E-2</v>
-      </c>
-      <c r="M92" s="3">
-        <f t="shared" si="1"/>
-        <v>-5349969.1925887838</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+        <v>-0.005231284722351792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="6">
         <v>815</v>
       </c>
       <c r="C93" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D93" s="2">
-        <v>76795</v>
+        <v>76431.5</v>
       </c>
       <c r="E93" s="2">
-        <v>77465</v>
+        <v>77168.5</v>
       </c>
       <c r="F93" s="3">
-        <v>496119908.83128119</v>
+        <v>480336005.7178634</v>
       </c>
       <c r="G93" s="3">
-        <v>478850684.7271989</v>
+        <v>474168140.7909439</v>
       </c>
       <c r="H93" s="4">
-        <v>0.57692307692307687</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="I93" s="5">
-        <v>6460.3152396807254</v>
+        <v>6284.529359202205</v>
       </c>
       <c r="J93" s="5">
-        <v>6181.5101623597611</v>
+        <v>6144.581542869744</v>
       </c>
       <c r="K93" s="5">
-        <v>-278.80507732096339</v>
+        <v>-139.9478163324611</v>
       </c>
       <c r="L93" s="4">
-        <v>-4.3156574714571128E-2</v>
-      </c>
-      <c r="M93" s="3">
-        <f t="shared" si="1"/>
-        <v>-21597635.314668428</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+        <v>-0.02226862320685008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="6">
@@ -4847,33 +4395,29 @@
         <v>42967</v>
       </c>
       <c r="F94" s="3">
-        <v>285148469.0121066</v>
+        <v>277291569.850198</v>
       </c>
       <c r="G94" s="3">
-        <v>268282930.92571959</v>
+        <v>267125704.1841845</v>
       </c>
       <c r="H94" s="4">
-        <v>0.70886075949367089</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="I94" s="5">
-        <v>6677.4027658647792</v>
+        <v>6493.415524493263</v>
       </c>
       <c r="J94" s="5">
-        <v>6243.929781593306</v>
+        <v>6216.996862340506</v>
       </c>
       <c r="K94" s="5">
-        <v>-433.47298427147331</v>
+        <v>-276.418662152757</v>
       </c>
       <c r="L94" s="4">
-        <v>-6.491640529569509E-2</v>
-      </c>
-      <c r="M94" s="3">
-        <f t="shared" si="1"/>
-        <v>-18625033.715192392</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+        <v>-0.04256907033133817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="6">
@@ -4889,33 +4433,29 @@
         <v>42803</v>
       </c>
       <c r="F95" s="3">
-        <v>316694032.14502323</v>
+        <v>307967935.5807944</v>
       </c>
       <c r="G95" s="3">
-        <v>306910728.45915592</v>
+        <v>305586882.3948109</v>
       </c>
       <c r="H95" s="4">
-        <v>0.82291666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="I95" s="5">
-        <v>7608.6306163665085</v>
+        <v>7398.984589789165</v>
       </c>
       <c r="J95" s="5">
-        <v>7170.3088208573199</v>
+        <v>7139.380005953108</v>
       </c>
       <c r="K95" s="5">
-        <v>-438.32179550918858</v>
+        <v>-259.6045838360569</v>
       </c>
       <c r="L95" s="4">
-        <v>-5.7608499822075609E-2</v>
-      </c>
-      <c r="M95" s="3">
-        <f t="shared" si="1"/>
-        <v>-18761487.813179798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+        <v>-0.0350865150056292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="6">
@@ -4931,33 +4471,29 @@
         <v>117131</v>
       </c>
       <c r="F96" s="3">
-        <v>695470322.48558629</v>
+        <v>676307532.6140501</v>
       </c>
       <c r="G96" s="3">
-        <v>707147542.56330836</v>
+        <v>704097292.427597</v>
       </c>
       <c r="H96" s="4">
-        <v>0.70278637770897834</v>
+        <v>0.5634674922600619</v>
       </c>
       <c r="I96" s="5">
-        <v>6344.605919624747</v>
+        <v>6169.788467140291</v>
       </c>
       <c r="J96" s="5">
-        <v>6037.2364494737376</v>
+        <v>6011.195092909623</v>
       </c>
       <c r="K96" s="5">
-        <v>-307.36947015100941</v>
+        <v>-158.5933742306679</v>
       </c>
       <c r="L96" s="4">
-        <v>-4.8445793804193997E-2</v>
-      </c>
-      <c r="M96" s="3">
-        <f t="shared" si="1"/>
-        <v>-36002493.408257887</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+        <v>-0.02570483170943727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="6">
@@ -4973,75 +4509,67 @@
         <v>42665</v>
       </c>
       <c r="F97" s="3">
-        <v>284437287.19356573</v>
+        <v>276599983.7315866</v>
       </c>
       <c r="G97" s="3">
-        <v>282599573.24817991</v>
+        <v>281380592.2933321</v>
       </c>
       <c r="H97" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I97" s="5">
-        <v>6991.7232976148107</v>
+        <v>6799.075358428459</v>
       </c>
       <c r="J97" s="5">
-        <v>6623.6862357478003</v>
+        <v>6595.115253564563</v>
       </c>
       <c r="K97" s="5">
-        <v>-368.03706186701038</v>
+        <v>-203.960104863896</v>
       </c>
       <c r="L97" s="4">
-        <v>-5.2638962699305347E-2</v>
-      </c>
-      <c r="M97" s="3">
-        <f t="shared" si="1"/>
-        <v>-15702301.244555999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+        <v>-0.02999821212616172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="6">
         <v>931</v>
       </c>
       <c r="C98" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D98" s="2">
-        <v>83550</v>
+        <v>82662</v>
       </c>
       <c r="E98" s="2">
-        <v>87899.5</v>
+        <v>87105.5</v>
       </c>
       <c r="F98" s="3">
-        <v>515881634.06839752</v>
+        <v>496355975.7141911</v>
       </c>
       <c r="G98" s="3">
-        <v>523067416.15482652</v>
+        <v>516682550.2384503</v>
       </c>
       <c r="H98" s="4">
-        <v>0.63117870722433456</v>
+        <v>0.5343511450381679</v>
       </c>
       <c r="I98" s="5">
-        <v>6174.525841632526</v>
+        <v>6004.645129735442</v>
       </c>
       <c r="J98" s="5">
-        <v>5950.7439309077581</v>
+        <v>5931.68686522034</v>
       </c>
       <c r="K98" s="5">
-        <v>-223.78191072476781</v>
+        <v>-72.95826451510129</v>
       </c>
       <c r="L98" s="4">
-        <v>-3.6242768507970258E-2</v>
-      </c>
-      <c r="M98" s="3">
-        <f t="shared" si="1"/>
-        <v>-19670318.061751727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+        <v>-0.01215030412934925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="6">
@@ -5057,33 +4585,29 @@
         <v>37458</v>
       </c>
       <c r="F99" s="3">
-        <v>235674139.94669339</v>
+        <v>229180442.2633575</v>
       </c>
       <c r="G99" s="3">
-        <v>242730853.21590561</v>
+        <v>241683844.2490368</v>
       </c>
       <c r="H99" s="4">
-        <v>0.71621621621621623</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="I99" s="5">
-        <v>6804.9011043424871</v>
+        <v>6617.40081030686</v>
       </c>
       <c r="J99" s="5">
-        <v>6480.0804425197712</v>
+        <v>6452.128897673041</v>
       </c>
       <c r="K99" s="5">
-        <v>-324.82066182271592</v>
+        <v>-165.2719126338188</v>
       </c>
       <c r="L99" s="4">
-        <v>-4.7733340550009551E-2</v>
-      </c>
-      <c r="M99" s="3">
-        <f t="shared" si="1"/>
-        <v>-12167132.350555293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+        <v>-0.02497535170854415</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="6">
@@ -5099,33 +4623,29 @@
         <v>35846.5</v>
       </c>
       <c r="F100" s="3">
-        <v>240226221.44236571</v>
+        <v>233607097.0105989</v>
       </c>
       <c r="G100" s="3">
-        <v>237416610.36205569</v>
+        <v>236392524.1503553</v>
       </c>
       <c r="H100" s="4">
-        <v>0.56521739130434778</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="I100" s="5">
-        <v>6846.0023209565607</v>
+        <v>6657.369535782242</v>
       </c>
       <c r="J100" s="5">
-        <v>6623.1462028944443</v>
+        <v>6594.577550119408</v>
       </c>
       <c r="K100" s="5">
-        <v>-222.85611806211639</v>
+        <v>-62.79198566283412</v>
       </c>
       <c r="L100" s="4">
-        <v>-3.2552737731321391E-2</v>
-      </c>
-      <c r="M100" s="3">
-        <f t="shared" si="1"/>
-        <v>-7988611.836113655</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+        <v>-0.009431951362371849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="6">
@@ -5141,33 +4661,29 @@
         <v>22284.5</v>
       </c>
       <c r="F101" s="3">
-        <v>145456965.3804833</v>
+        <v>141449085.859506</v>
       </c>
       <c r="G101" s="3">
-        <v>154227938.69708401</v>
+        <v>153562683.1985838</v>
       </c>
       <c r="H101" s="4">
-        <v>0.625</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I101" s="5">
-        <v>7080.2650594082606</v>
+        <v>6885.177465902744</v>
       </c>
       <c r="J101" s="5">
-        <v>6920.8615269395314</v>
+        <v>6891.008692076725</v>
       </c>
       <c r="K101" s="5">
-        <v>-159.40353246872931</v>
+        <v>5.831226173981122</v>
       </c>
       <c r="L101" s="4">
-        <v>-2.2513780364326049E-2</v>
-      </c>
-      <c r="M101" s="3">
-        <f t="shared" si="1"/>
-        <v>-3552228.0192993982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+        <v>0.0008469246003983688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="6">
@@ -5183,33 +4699,29 @@
         <v>21871.5</v>
       </c>
       <c r="F102" s="3">
-        <v>134536346.53359231</v>
+        <v>130829370.6133354</v>
       </c>
       <c r="G102" s="3">
-        <v>143316666.55420011</v>
+        <v>142698476.3530125</v>
       </c>
       <c r="H102" s="4">
-        <v>0.78947368421052633</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="I102" s="5">
-        <v>6963.7592346381816</v>
+        <v>6771.881809225674</v>
       </c>
       <c r="J102" s="5">
-        <v>6552.6674692728047</v>
+        <v>6524.40282344661</v>
       </c>
       <c r="K102" s="5">
-        <v>-411.09176536537689</v>
+        <v>-247.4789857790638</v>
       </c>
       <c r="L102" s="4">
-        <v>-5.9033023904758293E-2</v>
-      </c>
-      <c r="M102" s="3">
-        <f t="shared" si="1"/>
-        <v>-8991193.5461888406</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+        <v>-0.03654508344222884</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="6">
@@ -5225,33 +4737,29 @@
         <v>55843</v>
       </c>
       <c r="F103" s="3">
-        <v>355909673.50089508</v>
+        <v>346103040.3980339</v>
       </c>
       <c r="G103" s="3">
-        <v>356704670.95850247</v>
+        <v>355166040.8912101</v>
       </c>
       <c r="H103" s="4">
-        <v>0.77027027027027029</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="I103" s="5">
-        <v>6682.1184218105454</v>
+        <v>6498.001246607098</v>
       </c>
       <c r="J103" s="5">
-        <v>6387.6344565747268</v>
+        <v>6360.081673463283</v>
       </c>
       <c r="K103" s="5">
-        <v>-294.48396523581869</v>
+        <v>-137.9195731438149</v>
       </c>
       <c r="L103" s="4">
-        <v>-4.4070449915197263E-2</v>
-      </c>
-      <c r="M103" s="3">
-        <f t="shared" si="1"/>
-        <v>-16444868.070663823</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+        <v>-0.02122492254304031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="6">
@@ -5267,33 +4775,29 @@
         <v>19868</v>
       </c>
       <c r="F104" s="3">
-        <v>136437415.92223939</v>
+        <v>132678058.4810921</v>
       </c>
       <c r="G104" s="3">
-        <v>129957921.0328889</v>
+        <v>129397353.1988689</v>
       </c>
       <c r="H104" s="4">
-        <v>0.7321428571428571</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I104" s="5">
-        <v>6899.6645135016997</v>
+        <v>6709.553135659164</v>
       </c>
       <c r="J104" s="5">
-        <v>6541.0670944679314</v>
+        <v>6512.852486353377</v>
       </c>
       <c r="K104" s="5">
-        <v>-358.59741903376829</v>
+        <v>-196.700649305787</v>
       </c>
       <c r="L104" s="4">
-        <v>-5.1973167439089529E-2</v>
-      </c>
-      <c r="M104" s="3">
-        <f t="shared" si="1"/>
-        <v>-7124613.5213629082</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+        <v>-0.0293165051872657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="6">
@@ -5309,33 +4813,29 @@
         <v>26069.5</v>
       </c>
       <c r="F105" s="3">
-        <v>161271537.13929409</v>
+        <v>156827907.442178</v>
       </c>
       <c r="G105" s="3">
-        <v>167398206.74050191</v>
+        <v>166676141.8642285</v>
       </c>
       <c r="H105" s="4">
-        <v>0.54716981132075471</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="I105" s="5">
-        <v>6555.0873748315871</v>
+        <v>6374.470376676274</v>
       </c>
       <c r="J105" s="5">
-        <v>6421.2281302097026</v>
+        <v>6393.530442249697</v>
       </c>
       <c r="K105" s="5">
-        <v>-133.8592446218845</v>
+        <v>19.06006557342334</v>
       </c>
       <c r="L105" s="4">
-        <v>-2.0420665197513621E-2</v>
-      </c>
-      <c r="M105" s="3">
-        <f t="shared" si="1"/>
-        <v>-3489643.577670218</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+        <v>0.002990062616521572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="6">
@@ -5351,33 +4851,29 @@
         <v>35919.5</v>
       </c>
       <c r="F106" s="3">
-        <v>219523999.07861939</v>
+        <v>213475297.7464501</v>
       </c>
       <c r="G106" s="3">
-        <v>223944840.35420531</v>
+        <v>222978864.0358743</v>
       </c>
       <c r="H106" s="4">
-        <v>0.91764705882352937</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I106" s="5">
-        <v>6822.070608593297</v>
+        <v>6634.097230960115</v>
       </c>
       <c r="J106" s="5">
-        <v>6234.6313382481731</v>
+        <v>6207.73852742589</v>
       </c>
       <c r="K106" s="5">
-        <v>-587.43927034512399</v>
+        <v>-426.3587035342243</v>
       </c>
       <c r="L106" s="4">
-        <v>-8.6108647073392497E-2</v>
-      </c>
-      <c r="M106" s="3">
-        <f t="shared" si="1"/>
-        <v>-21100524.871161681</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+        <v>-0.06426778033105796</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="6">
@@ -5393,33 +4889,29 @@
         <v>40369</v>
       </c>
       <c r="F107" s="3">
-        <v>275265417.00448018</v>
+        <v>267680832.6240777</v>
       </c>
       <c r="G107" s="3">
-        <v>268375216.5544354</v>
+        <v>267217591.7428589</v>
       </c>
       <c r="H107" s="4">
-        <v>0.77391304347826084</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="I107" s="5">
-        <v>6962.7514798522852</v>
+        <v>6770.901821826217</v>
       </c>
       <c r="J107" s="5">
-        <v>6648.0521329345638</v>
+        <v>6619.376049514701</v>
       </c>
       <c r="K107" s="5">
-        <v>-314.69934691772141</v>
+        <v>-151.5257723115164</v>
       </c>
       <c r="L107" s="4">
-        <v>-4.5197555568132652E-2</v>
-      </c>
-      <c r="M107" s="3">
-        <f t="shared" si="1"/>
-        <v>-12704097.935721496</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+        <v>-0.02237896461931677</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="6">
@@ -5435,33 +4927,29 @@
         <v>5657</v>
       </c>
       <c r="F108" s="3">
-        <v>34158567.694490403</v>
+        <v>33217372.31363973</v>
       </c>
       <c r="G108" s="3">
-        <v>34902525.062522203</v>
+        <v>34751974.5403176</v>
       </c>
       <c r="H108" s="4">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="I108" s="5">
-        <v>6385.9726480632644</v>
+        <v>6210.015388603426</v>
       </c>
       <c r="J108" s="5">
-        <v>6169.7940715082541</v>
+        <v>6143.180933413045</v>
       </c>
       <c r="K108" s="5">
-        <v>-216.1785765550103</v>
+        <v>-66.83445519038105</v>
       </c>
       <c r="L108" s="4">
-        <v>-3.3852098727759627E-2</v>
-      </c>
-      <c r="M108" s="3">
-        <f t="shared" si="1"/>
-        <v>-1222922.2075716932</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+        <v>-0.01076236547062914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="6">
@@ -5477,33 +4965,29 @@
         <v>36234.5</v>
       </c>
       <c r="F109" s="3">
-        <v>240290764.3380926</v>
+        <v>233669861.5098815</v>
       </c>
       <c r="G109" s="3">
-        <v>245771078.64499551</v>
+        <v>244710955.7981095</v>
       </c>
       <c r="H109" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="I109" s="5">
-        <v>7089.0596040268056</v>
+        <v>6893.7296881603</v>
       </c>
       <c r="J109" s="5">
-        <v>6782.792053015648</v>
+        <v>6753.53477481708</v>
       </c>
       <c r="K109" s="5">
-        <v>-306.26755101115759</v>
+        <v>-140.1949133432199</v>
       </c>
       <c r="L109" s="4">
-        <v>-4.3202846092193707E-2</v>
-      </c>
-      <c r="M109" s="3">
-        <f t="shared" si="1"/>
-        <v>-11097451.57711379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+        <v>-0.02033658406769256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="6">
@@ -5519,33 +5003,29 @@
         <v>56784</v>
       </c>
       <c r="F110" s="3">
-        <v>379355085.03956991</v>
+        <v>368902443.7890691</v>
       </c>
       <c r="G110" s="3">
-        <v>372113851.41584033</v>
+        <v>370508754.5195593</v>
       </c>
       <c r="H110" s="4">
-        <v>0.88073394495412849</v>
+        <v>0.7798165137614679</v>
       </c>
       <c r="I110" s="5">
-        <v>7137.5099490977318</v>
+        <v>6940.845046314059</v>
       </c>
       <c r="J110" s="5">
-        <v>6553.1461576472302</v>
+        <v>6524.879447019571</v>
       </c>
       <c r="K110" s="5">
-        <v>-584.36379145050159</v>
+        <v>-415.9655992944881</v>
       </c>
       <c r="L110" s="4">
-        <v>-8.1872220931106687E-2</v>
-      </c>
-      <c r="M110" s="3">
-        <f t="shared" si="1"/>
-        <v>-33182513.533725284</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+        <v>-0.05993010887274985</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="6">
@@ -5561,33 +5041,29 @@
         <v>39212.5</v>
       </c>
       <c r="F111" s="3">
-        <v>256545295.8624348</v>
+        <v>249476520.3328438</v>
       </c>
       <c r="G111" s="3">
-        <v>242628813.9991605</v>
+        <v>241582245.1740104</v>
       </c>
       <c r="H111" s="4">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="I111" s="5">
-        <v>6668.9706087431214</v>
+        <v>6485.215704611403</v>
       </c>
       <c r="J111" s="5">
-        <v>6187.5374944000123</v>
+        <v>6160.847820822707</v>
       </c>
       <c r="K111" s="5">
-        <v>-481.43311434310908</v>
+        <v>-324.3678837886955</v>
       </c>
       <c r="L111" s="4">
-        <v>-7.2190018908157016E-2</v>
-      </c>
-      <c r="M111" s="3">
-        <f t="shared" si="1"/>
-        <v>-18878195.996179163</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+        <v>-0.05001651426305664</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="6">
@@ -5603,33 +5079,29 @@
         <v>69406.5</v>
       </c>
       <c r="F112" s="3">
-        <v>445370678.80436659</v>
+        <v>433099062.8102157</v>
       </c>
       <c r="G112" s="3">
-        <v>445089724.76736897</v>
+        <v>443169849.6187485</v>
       </c>
       <c r="H112" s="4">
-        <v>0.62580645161290327</v>
+        <v>0.4967741935483871</v>
       </c>
       <c r="I112" s="5">
-        <v>6704.0579050226042</v>
+        <v>6519.336215588874</v>
       </c>
       <c r="J112" s="5">
-        <v>6412.7959883781632</v>
+        <v>6385.13467209481</v>
       </c>
       <c r="K112" s="5">
-        <v>-291.26191664444099</v>
+        <v>-134.201543494064</v>
       </c>
       <c r="L112" s="4">
-        <v>-4.3445614696470791E-2</v>
-      </c>
-      <c r="M112" s="3">
-        <f t="shared" si="1"/>
-        <v>-20215470.217582393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+        <v>-0.02058515453968524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="6">
@@ -5645,75 +5117,67 @@
         <v>35557</v>
       </c>
       <c r="F113" s="3">
-        <v>208798156.02534819</v>
+        <v>203044991.4975249</v>
       </c>
       <c r="G113" s="3">
-        <v>207427008.99268681</v>
+        <v>206532281.6207489</v>
       </c>
       <c r="H113" s="4">
-        <v>0.76056338028169013</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="I113" s="5">
-        <v>6174.0809327837787</v>
+        <v>6003.962076896518</v>
       </c>
       <c r="J113" s="5">
-        <v>5833.6476359841045</v>
+        <v>5808.484450902745</v>
       </c>
       <c r="K113" s="5">
-        <v>-340.43329679967428</v>
+        <v>-195.4776259937726</v>
       </c>
       <c r="L113" s="4">
-        <v>-5.5139104994883732E-2</v>
-      </c>
-      <c r="M113" s="3">
-        <f t="shared" si="1"/>
-        <v>-12104786.734306019</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+        <v>-0.03255810471321563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="6">
         <v>871</v>
       </c>
       <c r="C114" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D114" s="2">
-        <v>27986</v>
+        <v>27739</v>
       </c>
       <c r="E114" s="2">
-        <v>31969</v>
+        <v>31430</v>
       </c>
       <c r="F114" s="3">
-        <v>200855510.64241451</v>
+        <v>193148819.0897619</v>
       </c>
       <c r="G114" s="3">
-        <v>209687022.2790029</v>
+        <v>205389316.1086934</v>
       </c>
       <c r="H114" s="4">
-        <v>0.74</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="I114" s="5">
-        <v>7176.9995941690304</v>
+        <v>6963.07794404131</v>
       </c>
       <c r="J114" s="5">
-        <v>6559.0735487191614</v>
+        <v>6534.81756629632</v>
       </c>
       <c r="K114" s="5">
-        <v>-617.92604544986898</v>
+        <v>-428.2603777449895</v>
       </c>
       <c r="L114" s="4">
-        <v>-8.6098102325643744E-2</v>
-      </c>
-      <c r="M114" s="3">
-        <f t="shared" si="1"/>
-        <v>-19754477.746986862</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+        <v>-0.06150446414454913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="6">
@@ -5729,75 +5193,67 @@
         <v>36877</v>
       </c>
       <c r="F115" s="3">
-        <v>211465341.0779925</v>
+        <v>205638685.6979215</v>
       </c>
       <c r="G115" s="3">
-        <v>222511010.9003163</v>
+        <v>221551219.3429058</v>
       </c>
       <c r="H115" s="4">
-        <v>0.55405405405405406</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="I115" s="5">
-        <v>6102.367502899966</v>
+        <v>5934.224618299182</v>
       </c>
       <c r="J115" s="5">
-        <v>6033.8696450447787</v>
+        <v>6007.842811044982</v>
       </c>
       <c r="K115" s="5">
-        <v>-68.497857855187249</v>
+        <v>73.61819274580012</v>
       </c>
       <c r="L115" s="4">
-        <v>-1.122480050941466E-2</v>
-      </c>
-      <c r="M115" s="3">
-        <f t="shared" si="1"/>
-        <v>-2525995.5041257404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+        <v>0.0124056970339117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="6">
         <v>933</v>
       </c>
       <c r="C116" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D116" s="2">
-        <v>66789.5</v>
+        <v>66775.5</v>
       </c>
       <c r="E116" s="2">
-        <v>68390</v>
+        <v>68437</v>
       </c>
       <c r="F116" s="3">
-        <v>410259402.8197878</v>
+        <v>398930593.3808069</v>
       </c>
       <c r="G116" s="3">
-        <v>425700737.10441279</v>
+        <v>423304948.0997292</v>
       </c>
       <c r="H116" s="4">
-        <v>0.45634920634920628</v>
+        <v>0.3705179282868526</v>
       </c>
       <c r="I116" s="5">
-        <v>6142.5733508977883</v>
+        <v>5974.206009401754</v>
       </c>
       <c r="J116" s="5">
-        <v>6224.6050168798474</v>
+        <v>6185.322970026874</v>
       </c>
       <c r="K116" s="5">
-        <v>82.031665982059167</v>
+        <v>211.1169606251196</v>
       </c>
       <c r="L116" s="4">
-        <v>1.335460910207442E-2</v>
-      </c>
-      <c r="M116" s="3">
-        <f t="shared" si="1"/>
-        <v>5610145.6365130264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+        <v>0.03533807844806147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="6">
@@ -5813,33 +5269,29 @@
         <v>35895</v>
       </c>
       <c r="F117" s="3">
-        <v>217544071.7667906</v>
+        <v>211549924.7841179</v>
       </c>
       <c r="G117" s="3">
-        <v>214114769.46454981</v>
+        <v>213191194.729001</v>
       </c>
       <c r="H117" s="4">
-        <v>0.59259259259259256</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I117" s="5">
-        <v>6150.0034423653806</v>
+        <v>5980.548010745991</v>
       </c>
       <c r="J117" s="5">
-        <v>5965.030490724329</v>
+        <v>5939.300591419445</v>
       </c>
       <c r="K117" s="5">
-        <v>-184.9729516410525</v>
+        <v>-41.24741932654615</v>
       </c>
       <c r="L117" s="4">
-        <v>-3.0076885870800259E-2</v>
-      </c>
-      <c r="M117" s="3">
-        <f t="shared" si="1"/>
-        <v>-6639604.0991555797</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+        <v>-0.006896929721562639</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="6">
@@ -5855,75 +5307,67 @@
         <v>20964</v>
       </c>
       <c r="F118" s="3">
-        <v>138649555.51392999</v>
+        <v>134829245.4127029</v>
       </c>
       <c r="G118" s="3">
-        <v>138487369.26762581</v>
+        <v>137890010.0300166</v>
       </c>
       <c r="H118" s="4">
-        <v>0.62903225806451613</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I118" s="5">
-        <v>6982.7536016282211</v>
+        <v>6790.352810873434</v>
       </c>
       <c r="J118" s="5">
-        <v>6605.9611365972987</v>
+        <v>6577.4666108575</v>
       </c>
       <c r="K118" s="5">
-        <v>-376.79246503092241</v>
+        <v>-212.8862000159343</v>
       </c>
       <c r="L118" s="4">
-        <v>-5.3960441185131103E-2</v>
-      </c>
-      <c r="M118" s="3">
-        <f t="shared" si="1"/>
-        <v>-7899077.2369082579</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+        <v>-0.03135127230429591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="6">
         <v>852</v>
       </c>
       <c r="C119" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D119" s="2">
-        <v>27865.5</v>
+        <v>27932.5</v>
       </c>
       <c r="E119" s="2">
-        <v>30044</v>
+        <v>30114</v>
       </c>
       <c r="F119" s="3">
-        <v>186791265.74094921</v>
+        <v>184600557.8780812</v>
       </c>
       <c r="G119" s="3">
-        <v>190336506.98657629</v>
+        <v>191074449.8568541</v>
       </c>
       <c r="H119" s="4">
-        <v>0.80303030303030298</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="I119" s="5">
-        <v>6703.3164931886822</v>
+        <v>6608.809017384094</v>
       </c>
       <c r="J119" s="5">
-        <v>6335.2585203893077</v>
+        <v>6345.037187250254</v>
       </c>
       <c r="K119" s="5">
-        <v>-368.05797279937451</v>
+        <v>-263.77183013384</v>
       </c>
       <c r="L119" s="4">
-        <v>-5.4906846957526567E-2</v>
-      </c>
-      <c r="M119" s="3">
-        <f t="shared" si="1"/>
-        <v>-11057933.734784408</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+        <v>-0.0399121580666052</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="6">
@@ -5939,75 +5383,67 @@
         <v>29875.5</v>
       </c>
       <c r="F120" s="3">
-        <v>187960795.16520229</v>
+        <v>182781777.3043614</v>
       </c>
       <c r="G120" s="3">
-        <v>183700822.519059</v>
+        <v>182908437.0194393</v>
       </c>
       <c r="H120" s="4">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="I120" s="5">
-        <v>6849.758392347163</v>
+        <v>6661.022113458625</v>
       </c>
       <c r="J120" s="5">
-        <v>6148.8785968120701</v>
+        <v>6122.355676706306</v>
       </c>
       <c r="K120" s="5">
-        <v>-700.87979553509285</v>
+        <v>-538.666436752319</v>
       </c>
       <c r="L120" s="4">
-        <v>-0.1023218273389241</v>
-      </c>
-      <c r="M120" s="3">
-        <f t="shared" si="1"/>
-        <v>-20939134.331508666</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+        <v>-0.08086843544085243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="6">
         <v>210</v>
       </c>
       <c r="C121" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D121" s="2">
-        <v>39689.5</v>
+        <v>40079.5</v>
       </c>
       <c r="E121" s="2">
-        <v>39996.5</v>
+        <v>40356.5</v>
       </c>
       <c r="F121" s="3">
-        <v>395395201.01242667</v>
+        <v>387322973.7906579</v>
       </c>
       <c r="G121" s="3">
-        <v>360099822.5485726</v>
+        <v>359970751.4592687</v>
       </c>
       <c r="H121" s="4">
-        <v>0.80198019801980203</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I121" s="5">
-        <v>9962.2116935820995</v>
+        <v>9663.867408292466</v>
       </c>
       <c r="J121" s="5">
-        <v>9003.2833510075288</v>
+        <v>8919.77132455165</v>
       </c>
       <c r="K121" s="5">
-        <v>-958.92834257457071</v>
+        <v>-744.0960837408165</v>
       </c>
       <c r="L121" s="4">
-        <v>-9.6256571539464097E-2</v>
-      </c>
-      <c r="M121" s="3">
-        <f t="shared" si="1"/>
-        <v>-38353777.453783818</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+        <v>-0.07699775382910523</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="6">
@@ -6023,33 +5459,29 @@
         <v>26613</v>
       </c>
       <c r="F122" s="3">
-        <v>168529256.88816679</v>
+        <v>163885650.0619086</v>
       </c>
       <c r="G122" s="3">
-        <v>167539996.82177061</v>
+        <v>166817320.3401553</v>
       </c>
       <c r="H122" s="4">
-        <v>0.82089552238805974</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="I122" s="5">
-        <v>6730.2672425936717</v>
+        <v>6544.823388586835</v>
       </c>
       <c r="J122" s="5">
-        <v>6295.4194123838206</v>
+        <v>6268.264394850459</v>
       </c>
       <c r="K122" s="5">
-        <v>-434.84783020985111</v>
+        <v>-276.5589937363757</v>
       </c>
       <c r="L122" s="4">
-        <v>-6.4610782088687424E-2</v>
-      </c>
-      <c r="M122" s="3">
-        <f t="shared" si="1"/>
-        <v>-11572605.305374768</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+        <v>-0.04225614310978232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="6">
@@ -6065,33 +5497,29 @@
         <v>112285.5</v>
       </c>
       <c r="F123" s="3">
-        <v>687298530.80929315</v>
+        <v>668360904.1427194</v>
       </c>
       <c r="G123" s="3">
-        <v>697232392.00742412</v>
+        <v>694224910.4419316</v>
       </c>
       <c r="H123" s="4">
-        <v>0.42779291553133508</v>
+        <v>0.3651226158038147</v>
       </c>
       <c r="I123" s="5">
-        <v>6195.9255442455042</v>
+        <v>6025.20478819697</v>
       </c>
       <c r="J123" s="5">
-        <v>6209.4606338968442</v>
+        <v>6182.676395811851</v>
       </c>
       <c r="K123" s="5">
-        <v>13.53508965134006</v>
+        <v>157.4716076148807</v>
       </c>
       <c r="L123" s="4">
-        <v>2.1845145740835288E-3</v>
-      </c>
-      <c r="M123" s="3">
-        <f t="shared" si="1"/>
-        <v>1519794.3090455444</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+        <v>0.02613547807094596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B124" s="6">
@@ -6107,75 +5535,67 @@
         <v>39956.5</v>
       </c>
       <c r="F124" s="3">
-        <v>230867324.05378169</v>
+        <v>224506071.997425</v>
       </c>
       <c r="G124" s="3">
-        <v>230997910.9797647</v>
+        <v>230001511.5483803</v>
       </c>
       <c r="H124" s="4">
-        <v>0.73148148148148151</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="I124" s="5">
-        <v>6118.0406793014972</v>
+        <v>5949.465940491714</v>
       </c>
       <c r="J124" s="5">
-        <v>5781.2348674124296</v>
+        <v>5756.297762526256</v>
       </c>
       <c r="K124" s="5">
-        <v>-336.80581188906763</v>
+        <v>-193.1681779654582</v>
       </c>
       <c r="L124" s="4">
-        <v>-5.5051254076905032E-2</v>
-      </c>
-      <c r="M124" s="3">
-        <f t="shared" si="1"/>
-        <v>-13457581.422745531</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+        <v>-0.03246815426755656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="6">
         <v>808</v>
       </c>
       <c r="C125" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D125" s="2">
-        <v>29068</v>
+        <v>29110</v>
       </c>
       <c r="E125" s="2">
-        <v>30631.5</v>
+        <v>30690.5</v>
       </c>
       <c r="F125" s="3">
-        <v>191521620.6742605</v>
+        <v>188473604.1628329</v>
       </c>
       <c r="G125" s="3">
-        <v>195370564.0846442</v>
+        <v>196130327.8310761</v>
       </c>
       <c r="H125" s="4">
-        <v>0.61842105263157898</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="I125" s="5">
-        <v>6588.7443468508509</v>
+        <v>6474.531231976397</v>
       </c>
       <c r="J125" s="5">
-        <v>6378.0932727631434</v>
+        <v>6390.587570455878</v>
       </c>
       <c r="K125" s="5">
-        <v>-210.65107408770751</v>
+        <v>-83.94366152051953</v>
       </c>
       <c r="L125" s="4">
-        <v>-3.1971353417042159E-2</v>
-      </c>
-      <c r="M125" s="3">
-        <f t="shared" si="1"/>
-        <v>-6452558.3759176126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+        <v>-0.01296521068675038</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="6">
@@ -6191,33 +5611,29 @@
         <v>38987</v>
       </c>
       <c r="F126" s="3">
-        <v>248616554.3408072</v>
+        <v>241766245.0818999</v>
       </c>
       <c r="G126" s="3">
-        <v>250737842.64340079</v>
+        <v>249656295.8762602</v>
       </c>
       <c r="H126" s="4">
-        <v>0.67045454545454541</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="I126" s="5">
-        <v>6896.4370136146244</v>
+        <v>6706.414565378638</v>
       </c>
       <c r="J126" s="5">
-        <v>6431.3192254700489</v>
+        <v>6403.578010010007</v>
       </c>
       <c r="K126" s="5">
-        <v>-465.11778814457472</v>
+        <v>-302.8365553686308</v>
       </c>
       <c r="L126" s="4">
-        <v>-6.744320106547208E-2</v>
-      </c>
-      <c r="M126" s="3">
-        <f t="shared" si="1"/>
-        <v>-18133547.206392534</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+        <v>-0.04515625337747564</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="6">
@@ -6233,33 +5649,29 @@
         <v>96491.5</v>
       </c>
       <c r="F127" s="3">
-        <v>581219353.50069761</v>
+        <v>565204602.0723436</v>
       </c>
       <c r="G127" s="3">
-        <v>589941164.58603907</v>
+        <v>587396479.0585785</v>
       </c>
       <c r="H127" s="4">
-        <v>0.5140845070422535</v>
+        <v>0.426056338028169</v>
       </c>
       <c r="I127" s="5">
-        <v>6173.0385005570379</v>
+        <v>6002.948367548483</v>
       </c>
       <c r="J127" s="5">
-        <v>6113.9184755759734</v>
+        <v>6087.546354430997</v>
       </c>
       <c r="K127" s="5">
-        <v>-59.120024981064489</v>
+        <v>84.59798688251431</v>
       </c>
       <c r="L127" s="4">
-        <v>-9.5771353079572297E-3</v>
-      </c>
-      <c r="M127" s="3">
-        <f t="shared" si="1"/>
-        <v>-5704579.8904603841</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+        <v>0.01409273938450739</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="6">
@@ -6275,33 +5687,29 @@
         <v>39827</v>
       </c>
       <c r="F128" s="3">
-        <v>265496312.0841769</v>
+        <v>258180902.8199055</v>
       </c>
       <c r="G128" s="3">
-        <v>255238962.2767804</v>
+        <v>254138000.1260795</v>
       </c>
       <c r="H128" s="4">
-        <v>0.76576576576576572</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="I128" s="5">
-        <v>6795.9226990599973</v>
+        <v>6608.669793429379</v>
       </c>
       <c r="J128" s="5">
-        <v>6408.6916482984007</v>
+        <v>6381.048035907285</v>
       </c>
       <c r="K128" s="5">
-        <v>-387.23105076159658</v>
+        <v>-227.6217575220935</v>
       </c>
       <c r="L128" s="4">
-        <v>-5.6979908087412157E-2</v>
-      </c>
-      <c r="M128" s="3">
-        <f t="shared" si="1"/>
-        <v>-15422251.058682106</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+        <v>-0.03444290071027678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="6">
@@ -6317,33 +5725,29 @@
         <v>150293</v>
       </c>
       <c r="F129" s="3">
-        <v>891770662.22600317</v>
+        <v>867199069.073383</v>
       </c>
       <c r="G129" s="3">
-        <v>903975690.70749938</v>
+        <v>900076430.9246472</v>
       </c>
       <c r="H129" s="4">
-        <v>0.63585434173669464</v>
+        <v>0.5350140056022409</v>
       </c>
       <c r="I129" s="5">
-        <v>6274.176476523854</v>
+        <v>6101.299616722187</v>
       </c>
       <c r="J129" s="5">
-        <v>6014.7557817562983</v>
+        <v>5988.811394573581</v>
       </c>
       <c r="K129" s="5">
-        <v>-259.42069476755569</v>
+        <v>-112.4882221486059</v>
       </c>
       <c r="L129" s="4">
-        <v>-4.1347369768483973E-2</v>
-      </c>
-      <c r="M129" s="3">
-        <f t="shared" si="1"/>
-        <v>-38989114.47870025</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+        <v>-0.01843676416747386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="6">
@@ -6359,33 +5763,29 @@
         <v>38258</v>
       </c>
       <c r="F130" s="3">
-        <v>233491737.31064719</v>
+        <v>227058172.9238411</v>
       </c>
       <c r="G130" s="3">
-        <v>249686872.72781301</v>
+        <v>248609859.2736441</v>
       </c>
       <c r="H130" s="4">
-        <v>0.86206896551724133</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I130" s="5">
-        <v>6757.9843218085762</v>
+        <v>6571.776759347653</v>
       </c>
       <c r="J130" s="5">
-        <v>6526.396380569111</v>
+        <v>6498.245053940197</v>
       </c>
       <c r="K130" s="5">
-        <v>-231.58794123946521</v>
+        <v>-73.53170540745577</v>
       </c>
       <c r="L130" s="4">
-        <v>-3.4268789362548728E-2</v>
-      </c>
-      <c r="M130" s="3">
-        <f t="shared" si="1"/>
-        <v>-8860091.4559394605</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+        <v>-0.0111890144933583</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B131" s="6">
@@ -6401,33 +5801,29 @@
         <v>32251</v>
       </c>
       <c r="F131" s="3">
-        <v>199533581.70926771</v>
+        <v>194035690.6059577</v>
       </c>
       <c r="G131" s="3">
-        <v>204693332.92661279</v>
+        <v>203810397.147362</v>
       </c>
       <c r="H131" s="4">
-        <v>0.67105263157894735</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="I131" s="5">
-        <v>6626.1608511031027</v>
+        <v>6443.58551475966</v>
       </c>
       <c r="J131" s="5">
-        <v>6346.883288165106</v>
+        <v>6319.506283444295</v>
       </c>
       <c r="K131" s="5">
-        <v>-279.27756293799672</v>
+        <v>-124.0792313153652</v>
       </c>
       <c r="L131" s="4">
-        <v>-4.2147718598093409E-2</v>
-      </c>
-      <c r="M131" s="3">
-        <f t="shared" si="1"/>
-        <v>-9006980.6823133323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+        <v>-0.01925624033872908</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B132" s="6">
@@ -6443,33 +5839,29 @@
         <v>34735</v>
       </c>
       <c r="F132" s="3">
-        <v>225678360.12742239</v>
+        <v>219460083.2953951</v>
       </c>
       <c r="G132" s="3">
-        <v>218392938.05415481</v>
+        <v>217450909.6246657</v>
       </c>
       <c r="H132" s="4">
-        <v>0.84782608695652173</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="I132" s="5">
-        <v>6750.369709482603</v>
+        <v>6564.371957866568</v>
       </c>
       <c r="J132" s="5">
-        <v>6287.4028517102297</v>
+        <v>6260.282413262292</v>
       </c>
       <c r="K132" s="5">
-        <v>-462.96685777237332</v>
+        <v>-304.0895446042759</v>
       </c>
       <c r="L132" s="4">
-        <v>-6.8583926169557663E-2</v>
-      </c>
-      <c r="M132" s="3">
-        <f t="shared" si="1"/>
-        <v>-16081153.804723388</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+        <v>-0.04632424039284722</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B133" s="6">
@@ -6485,33 +5877,29 @@
         <v>28821.5</v>
       </c>
       <c r="F133" s="3">
-        <v>176421820.06055701</v>
+        <v>171560743.8114775</v>
       </c>
       <c r="G133" s="3">
-        <v>188835942.01868859</v>
+        <v>188021406.4046898</v>
       </c>
       <c r="H133" s="4">
-        <v>0.52112676056338025</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="I133" s="5">
-        <v>6525.6822659721474</v>
+        <v>6345.875487755779</v>
       </c>
       <c r="J133" s="5">
-        <v>6551.9123577429546</v>
+        <v>6523.650969057466</v>
       </c>
       <c r="K133" s="5">
-        <v>26.230091770807121</v>
+        <v>177.7754813016873</v>
       </c>
       <c r="L133" s="4">
-        <v>4.0195171480510439E-3</v>
-      </c>
-      <c r="M133" s="3">
-        <f t="shared" ref="M133:M155" si="2">K133*E133</f>
-        <v>755990.58997231745</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+        <v>0.02801433492426719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B134" s="6">
@@ -6527,33 +5915,29 @@
         <v>28995.5</v>
       </c>
       <c r="F134" s="3">
-        <v>184333978.91530931</v>
+        <v>179254893.3095948</v>
       </c>
       <c r="G134" s="3">
-        <v>180572709.7302579</v>
+        <v>179793817.2089549</v>
       </c>
       <c r="H134" s="4">
-        <v>0.88461538461538458</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="I134" s="5">
-        <v>6925.6830070374717</v>
+        <v>6734.854723083662</v>
       </c>
       <c r="J134" s="5">
-        <v>6227.6115166235413</v>
+        <v>6200.748985496194</v>
       </c>
       <c r="K134" s="5">
-        <v>-698.07149041393041</v>
+        <v>-534.105737587468</v>
       </c>
       <c r="L134" s="4">
-        <v>-0.10079460606334301</v>
-      </c>
-      <c r="M134" s="3">
-        <f t="shared" si="2"/>
-        <v>-20240931.90029712</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+        <v>-0.0793047154761668</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B135" s="6">
@@ -6569,33 +5953,29 @@
         <v>18220.5</v>
       </c>
       <c r="F135" s="3">
-        <v>112265146.0090825</v>
+        <v>109171824.3628322</v>
       </c>
       <c r="G135" s="3">
-        <v>119713447.4846012</v>
+        <v>119197068.7411884</v>
       </c>
       <c r="H135" s="4">
-        <v>0.44444444444444442</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I135" s="5">
-        <v>6560.9926952885598</v>
+        <v>6380.212983626452</v>
       </c>
       <c r="J135" s="5">
-        <v>6570.261380565913</v>
+        <v>6541.920844169391</v>
       </c>
       <c r="K135" s="5">
-        <v>9.2686852773531427</v>
+        <v>161.7078605429388</v>
       </c>
       <c r="L135" s="4">
-        <v>1.412695564195543E-3</v>
-      </c>
-      <c r="M135" s="3">
-        <f t="shared" si="2"/>
-        <v>168880.08009601294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+        <v>0.02534521354662145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="6">
@@ -6611,75 +5991,67 @@
         <v>44503.5</v>
       </c>
       <c r="F136" s="3">
-        <v>444962195.43145871</v>
+        <v>432701834.6710508</v>
       </c>
       <c r="G136" s="3">
-        <v>404751392.77357328</v>
+        <v>403005515.2636813</v>
       </c>
       <c r="H136" s="4">
-        <v>0.87628865979381443</v>
+        <v>0.8350515463917526</v>
       </c>
       <c r="I136" s="5">
-        <v>10467.23583701385</v>
+        <v>10178.82462176078</v>
       </c>
       <c r="J136" s="5">
-        <v>9094.8215932134171</v>
+        <v>9055.591476258751</v>
       </c>
       <c r="K136" s="5">
-        <v>-1372.414243800431</v>
+        <v>-1123.23314550203</v>
       </c>
       <c r="L136" s="4">
-        <v>-0.13111525002115179</v>
-      </c>
-      <c r="M136" s="3">
-        <f t="shared" si="2"/>
-        <v>-61077237.29897248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+        <v>-0.1103499851152488</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B137" s="6">
         <v>358</v>
       </c>
       <c r="C137" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D137" s="2">
-        <v>36568</v>
+        <v>36950</v>
       </c>
       <c r="E137" s="2">
-        <v>39452</v>
+        <v>39928</v>
       </c>
       <c r="F137" s="3">
-        <v>219496649.5000087</v>
+        <v>215668728.6997319</v>
       </c>
       <c r="G137" s="3">
-        <v>233306388.44687289</v>
+        <v>233704555.4077095</v>
       </c>
       <c r="H137" s="4">
-        <v>0.52380952380952384</v>
+        <v>0.3882352941176471</v>
       </c>
       <c r="I137" s="5">
-        <v>6002.4242370380862</v>
+        <v>5836.772089302623</v>
       </c>
       <c r="J137" s="5">
-        <v>5913.6770872673869</v>
+        <v>5853.149554390641</v>
       </c>
       <c r="K137" s="5">
-        <v>-88.747149770699252</v>
+        <v>16.37746508801774</v>
       </c>
       <c r="L137" s="4">
-        <v>-1.478521781634212E-2</v>
-      </c>
-      <c r="M137" s="3">
-        <f t="shared" si="2"/>
-        <v>-3501252.5527536268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+        <v>0.002805911356044577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B138" s="6">
@@ -6695,33 +6067,29 @@
         <v>51224</v>
       </c>
       <c r="F138" s="3">
-        <v>320612831.69365799</v>
+        <v>311778757.6502022</v>
       </c>
       <c r="G138" s="3">
-        <v>312912745.94738668</v>
+        <v>311563010.4419334</v>
       </c>
       <c r="H138" s="4">
-        <v>0.90441176470588236</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="I138" s="5">
-        <v>6627.9979677225283</v>
+        <v>6445.372011994464</v>
       </c>
       <c r="J138" s="5">
-        <v>6108.7136097803113</v>
+        <v>6082.363939597325</v>
       </c>
       <c r="K138" s="5">
-        <v>-519.28435794221696</v>
+        <v>-363.0080723971387</v>
       </c>
       <c r="L138" s="4">
-        <v>-7.8347090700851552E-2</v>
-      </c>
-      <c r="M138" s="3">
-        <f t="shared" si="2"/>
-        <v>-26599821.95123212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+        <v>-0.05632073241414171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B139" s="6">
@@ -6737,33 +6105,29 @@
         <v>49939</v>
       </c>
       <c r="F139" s="3">
-        <v>319950982.62620229</v>
+        <v>311135144.9821966</v>
       </c>
       <c r="G139" s="3">
-        <v>329082176.77268052</v>
+        <v>327662695.131378</v>
       </c>
       <c r="H139" s="4">
-        <v>0.68965517241379315</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="I139" s="5">
-        <v>6875.3434464973861</v>
+        <v>6685.902204362141</v>
       </c>
       <c r="J139" s="5">
-        <v>6589.6829486509632</v>
+        <v>6561.258638166122</v>
       </c>
       <c r="K139" s="5">
-        <v>-285.66049784642291</v>
+        <v>-124.6435661960186</v>
       </c>
       <c r="L139" s="4">
-        <v>-4.1548542275651863E-2</v>
-      </c>
-      <c r="M139" s="3">
-        <f t="shared" si="2"/>
-        <v>-14265599.601952514</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+        <v>-0.01864274444736813</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B140" s="6">
@@ -6779,33 +6143,29 @@
         <v>40579.5</v>
       </c>
       <c r="F140" s="3">
-        <v>329049034.85305119</v>
+        <v>319982512.086436</v>
       </c>
       <c r="G140" s="3">
-        <v>298600083.70468318</v>
+        <v>297312085.2446419</v>
       </c>
       <c r="H140" s="4">
-        <v>0.84507042253521125</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="I140" s="5">
-        <v>8098.4724681413509</v>
+        <v>7875.329479619897</v>
       </c>
       <c r="J140" s="5">
-        <v>7358.3973115657709</v>
+        <v>7326.657185146241</v>
       </c>
       <c r="K140" s="5">
-        <v>-740.07515657557997</v>
+        <v>-548.6722944736557</v>
       </c>
       <c r="L140" s="4">
-        <v>-9.1384536958910245E-2</v>
-      </c>
-      <c r="M140" s="3">
-        <f t="shared" si="2"/>
-        <v>-30031879.816258747</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+        <v>-0.06966975742329673</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B141" s="6">
@@ -6821,33 +6181,29 @@
         <v>33188</v>
       </c>
       <c r="F141" s="3">
-        <v>299767414.66575229</v>
+        <v>291507709.2666157</v>
       </c>
       <c r="G141" s="3">
-        <v>285410963.85641623</v>
+        <v>284179856.0905874</v>
       </c>
       <c r="H141" s="4">
-        <v>0.71951219512195119</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="I141" s="5">
-        <v>9289.9285566428753</v>
+        <v>9033.956528654262</v>
       </c>
       <c r="J141" s="5">
-        <v>8599.8241489820466</v>
+        <v>8562.729181950928</v>
       </c>
       <c r="K141" s="5">
-        <v>-690.10440766082866</v>
+        <v>-471.2273467033338</v>
       </c>
       <c r="L141" s="4">
-        <v>-7.4285222265499717E-2</v>
-      </c>
-      <c r="M141" s="3">
-        <f t="shared" si="2"/>
-        <v>-22903185.081447583</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+        <v>-0.05216179037486801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B142" s="6">
@@ -6863,33 +6219,29 @@
         <v>31755.5</v>
       </c>
       <c r="F142" s="3">
-        <v>195387202.26895231</v>
+        <v>190003559.3159565</v>
       </c>
       <c r="G142" s="3">
-        <v>191479212.22711849</v>
+        <v>190653274.9821633</v>
       </c>
       <c r="H142" s="4">
-        <v>0.71764705882352942</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="I142" s="5">
-        <v>6288.6128828114661</v>
+        <v>6115.338246409929</v>
       </c>
       <c r="J142" s="5">
-        <v>6029.7967982591517</v>
+        <v>6003.787532306634</v>
       </c>
       <c r="K142" s="5">
-        <v>-258.81608455231441</v>
+        <v>-111.5507141032949</v>
       </c>
       <c r="L142" s="4">
-        <v>-4.1156307340801779E-2</v>
-      </c>
-      <c r="M142" s="3">
-        <f t="shared" si="2"/>
-        <v>-8218834.1730010202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+        <v>-0.01824113558539164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="6">
@@ -6905,33 +6257,29 @@
         <v>79463.5</v>
       </c>
       <c r="F143" s="3">
-        <v>462199107.29444981</v>
+        <v>449463805.6064635</v>
       </c>
       <c r="G143" s="3">
-        <v>469517119.9448967</v>
+        <v>467491878.2907445</v>
       </c>
       <c r="H143" s="4">
-        <v>0.67241379310344829</v>
+        <v>0.5646551724137931</v>
       </c>
       <c r="I143" s="5">
-        <v>6210.7675095667746</v>
+        <v>6039.637802261029</v>
       </c>
       <c r="J143" s="5">
-        <v>5908.5884707431296</v>
+        <v>5883.102031633952</v>
       </c>
       <c r="K143" s="5">
-        <v>-302.17903882364499</v>
+        <v>-156.535770627077</v>
       </c>
       <c r="L143" s="4">
-        <v>-4.8654057386334659E-2</v>
-      </c>
-      <c r="M143" s="3">
-        <f t="shared" si="2"/>
-        <v>-24012204.051562712</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+        <v>-0.02591807253217659</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B144" s="6">
@@ -6947,33 +6295,29 @@
         <v>23547.5</v>
       </c>
       <c r="F144" s="3">
-        <v>148309150.83793929</v>
+        <v>144222683.0166007</v>
       </c>
       <c r="G144" s="3">
-        <v>146254718.5714879</v>
+        <v>145623855.2108461</v>
       </c>
       <c r="H144" s="4">
-        <v>0.68181818181818177</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="I144" s="5">
-        <v>6556.6944821034649</v>
+        <v>6376.033202175144</v>
       </c>
       <c r="J144" s="5">
-        <v>6211.0507939903546</v>
+        <v>6184.259696819031</v>
       </c>
       <c r="K144" s="5">
-        <v>-345.64368811311027</v>
+        <v>-191.7735053561128</v>
       </c>
       <c r="L144" s="4">
-        <v>-5.2716149739254543E-2</v>
-      </c>
-      <c r="M144" s="3">
-        <f t="shared" si="2"/>
-        <v>-8139044.7458434645</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+        <v>-0.03007724384036936</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="6">
@@ -6989,33 +6333,29 @@
         <v>61592.5</v>
       </c>
       <c r="F145" s="3">
-        <v>376539734.44024688</v>
+        <v>366164666.5529871</v>
       </c>
       <c r="G145" s="3">
-        <v>374531051.84575683</v>
+        <v>372915528.4606661</v>
       </c>
       <c r="H145" s="4">
-        <v>0.63372093023255816</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="I145" s="5">
-        <v>6304.0831488669237</v>
+        <v>6130.382249189883</v>
       </c>
       <c r="J145" s="5">
-        <v>6080.789898863608</v>
+        <v>6054.560676391867</v>
       </c>
       <c r="K145" s="5">
-        <v>-223.29325000331571</v>
+        <v>-75.82157279801595</v>
       </c>
       <c r="L145" s="4">
-        <v>-3.5420416376241708E-2</v>
-      </c>
-      <c r="M145" s="3">
-        <f t="shared" si="2"/>
-        <v>-13753189.500829222</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+        <v>-0.01236816396041795</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B146" s="6">
@@ -7025,39 +6365,35 @@
         <v>270</v>
       </c>
       <c r="D146" s="2">
-        <v>100594</v>
+        <v>99041</v>
       </c>
       <c r="E146" s="2">
         <v>107674.5</v>
       </c>
       <c r="F146" s="3">
-        <v>603562461.07313585</v>
+        <v>577542443.5808789</v>
       </c>
       <c r="G146" s="3">
-        <v>620516848.82381189</v>
+        <v>617840276.4136544</v>
       </c>
       <c r="H146" s="4">
-        <v>0.6074074074074074</v>
+        <v>0.4925925925925926</v>
       </c>
       <c r="I146" s="5">
-        <v>5999.984701603832</v>
+        <v>5831.347054057197</v>
       </c>
       <c r="J146" s="5">
-        <v>5762.8951035185864</v>
+        <v>5738.037106405458</v>
       </c>
       <c r="K146" s="5">
-        <v>-237.08959808524651</v>
+        <v>-93.30994765173909</v>
       </c>
       <c r="L146" s="4">
-        <v>-3.9515033766981289E-2</v>
-      </c>
-      <c r="M146" s="3">
-        <f t="shared" si="2"/>
-        <v>-25528503.929029875</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+        <v>-0.01600143959650246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B147" s="6">
@@ -7073,33 +6409,29 @@
         <v>21902</v>
       </c>
       <c r="F147" s="3">
-        <v>207823820.54660481</v>
+        <v>202097502.5792167</v>
       </c>
       <c r="G147" s="3">
-        <v>190131663.95334199</v>
+        <v>189311539.2991937</v>
       </c>
       <c r="H147" s="4">
-        <v>0.75862068965517238</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="I147" s="5">
-        <v>9497.2613068253049</v>
+        <v>9235.576491681328</v>
       </c>
       <c r="J147" s="5">
-        <v>8681.0183523578671</v>
+        <v>8643.573157665678</v>
       </c>
       <c r="K147" s="5">
-        <v>-816.24295446743781</v>
+        <v>-592.0033340156497</v>
       </c>
       <c r="L147" s="4">
-        <v>-8.5945087546536847E-2</v>
-      </c>
-      <c r="M147" s="3">
-        <f t="shared" si="2"/>
-        <v>-17877353.188745823</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+        <v>-0.06410031193492671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B148" s="6">
@@ -7109,123 +6441,111 @@
         <v>128</v>
       </c>
       <c r="D148" s="2">
-        <v>45011.5</v>
+        <v>45052.5</v>
       </c>
       <c r="E148" s="2">
         <v>47285.5</v>
       </c>
       <c r="F148" s="3">
-        <v>307421968.172122</v>
+        <v>298889412.9293899</v>
       </c>
       <c r="G148" s="3">
-        <v>294520314.70502609</v>
+        <v>293249914.1509322</v>
       </c>
       <c r="H148" s="4">
-        <v>0.8828125</v>
+        <v>0.78125</v>
       </c>
       <c r="I148" s="5">
-        <v>6829.8538856097221</v>
+        <v>6634.246999154096</v>
       </c>
       <c r="J148" s="5">
-        <v>6228.554518933418</v>
+        <v>6201.687920206664</v>
       </c>
       <c r="K148" s="5">
-        <v>-601.29936667630409</v>
+        <v>-432.5590789474318</v>
       </c>
       <c r="L148" s="4">
-        <v>-8.8039858062442855E-2</v>
-      </c>
-      <c r="M148" s="3">
-        <f t="shared" si="2"/>
-        <v>-28432741.202972379</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+        <v>-0.0652009307164152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B149" s="6">
         <v>865</v>
       </c>
       <c r="C149" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D149" s="2">
-        <v>63566</v>
+        <v>63647</v>
       </c>
       <c r="E149" s="2">
-        <v>65694</v>
+        <v>66039.5</v>
       </c>
       <c r="F149" s="3">
-        <v>389053533.07062989</v>
+        <v>379059567.6212713</v>
       </c>
       <c r="G149" s="3">
-        <v>391343670.21749181</v>
+        <v>391240376.7636693</v>
       </c>
       <c r="H149" s="4">
-        <v>0.56164383561643838</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I149" s="5">
-        <v>6120.4658633645331</v>
+        <v>5955.654903157592</v>
       </c>
       <c r="J149" s="5">
-        <v>5957.0686853821016</v>
+        <v>5924.338869368624</v>
       </c>
       <c r="K149" s="5">
-        <v>-163.39717798243149</v>
+        <v>-31.31603378896853</v>
       </c>
       <c r="L149" s="4">
-        <v>-2.669685308768455E-2</v>
-      </c>
-      <c r="M149" s="3">
-        <f t="shared" si="2"/>
-        <v>-10734214.210377853</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+        <v>-0.005258201540919605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B150" s="6">
         <v>868</v>
       </c>
       <c r="C150" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D150" s="2">
-        <v>19272.5</v>
+        <v>19306</v>
       </c>
       <c r="E150" s="2">
-        <v>20507.5</v>
+        <v>20560.5</v>
       </c>
       <c r="F150" s="3">
-        <v>124910829.62744451</v>
+        <v>121904184.282536</v>
       </c>
       <c r="G150" s="3">
-        <v>128817451.33636069</v>
+        <v>128609446.3593094</v>
       </c>
       <c r="H150" s="4">
-        <v>0.76666666666666672</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="I150" s="5">
-        <v>6481.2987223995069</v>
+        <v>6314.315978583654</v>
       </c>
       <c r="J150" s="5">
-        <v>6281.480011525573</v>
+        <v>6255.171146582495</v>
       </c>
       <c r="K150" s="5">
-        <v>-199.8187108739339</v>
+        <v>-59.14483200115956</v>
       </c>
       <c r="L150" s="4">
-        <v>-3.0830041853086691E-2</v>
-      </c>
-      <c r="M150" s="3">
-        <f t="shared" si="2"/>
-        <v>-4097782.2132471995</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+        <v>-0.009366783702583481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B151" s="6">
@@ -7241,33 +6561,29 @@
         <v>49208</v>
       </c>
       <c r="F151" s="3">
-        <v>319016528.98233467</v>
+        <v>310226439.0061201</v>
       </c>
       <c r="G151" s="3">
-        <v>319023009.95395929</v>
+        <v>317646918.0907541</v>
       </c>
       <c r="H151" s="4">
-        <v>0.75409836065573765</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="I151" s="5">
-        <v>6776.5557971033259</v>
+        <v>6589.836521536651</v>
       </c>
       <c r="J151" s="5">
-        <v>6483.1533481133019</v>
+        <v>6455.188548422087</v>
       </c>
       <c r="K151" s="5">
-        <v>-293.40244899002391</v>
+        <v>-134.6479731145637</v>
       </c>
       <c r="L151" s="4">
-        <v>-4.3296691973736867E-2</v>
-      </c>
-      <c r="M151" s="3">
-        <f t="shared" si="2"/>
-        <v>-14437747.709901096</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+        <v>-0.02043267274909055</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="6">
@@ -7283,75 +6599,67 @@
         <v>25807</v>
       </c>
       <c r="F152" s="3">
-        <v>150016697.34322959</v>
+        <v>145883180.2750449</v>
       </c>
       <c r="G152" s="3">
-        <v>147069765.25444391</v>
+        <v>146435386.2254223</v>
       </c>
       <c r="H152" s="4">
-        <v>0.67213114754098358</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="I152" s="5">
-        <v>6128.3834038657469</v>
+        <v>5959.523684588621</v>
       </c>
       <c r="J152" s="5">
-        <v>5698.8323034232517</v>
+        <v>5674.250638409048</v>
       </c>
       <c r="K152" s="5">
-        <v>-429.55110044249523</v>
+        <v>-285.2730461795727</v>
       </c>
       <c r="L152" s="4">
-        <v>-7.0092073575477865E-2</v>
-      </c>
-      <c r="M152" s="3">
-        <f t="shared" si="2"/>
-        <v>-11085425.249119474</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+        <v>-0.04786843064610868</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B153" s="6">
         <v>336</v>
       </c>
       <c r="C153" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D153" s="2">
-        <v>35365.5</v>
+        <v>34313.5</v>
       </c>
       <c r="E153" s="2">
-        <v>40423.5</v>
+        <v>39132.5</v>
       </c>
       <c r="F153" s="3">
-        <v>257146816.948926</v>
+        <v>243395277.3864517</v>
       </c>
       <c r="G153" s="3">
-        <v>271467264.16156131</v>
+        <v>265197134.3817216</v>
       </c>
       <c r="H153" s="4">
-        <v>0.74736842105263157</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="I153" s="5">
-        <v>7271.1206387277443</v>
+        <v>7093.280411105009</v>
       </c>
       <c r="J153" s="5">
-        <v>6715.580396590135</v>
+        <v>6776.902431015693</v>
       </c>
       <c r="K153" s="5">
-        <v>-555.54024213760931</v>
+        <v>-316.3779800893162</v>
       </c>
       <c r="L153" s="4">
-        <v>-7.6403661793020938E-2</v>
-      </c>
-      <c r="M153" s="3">
-        <f t="shared" si="2"/>
-        <v>-22456880.978049651</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+        <v>-0.04460249161925212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B154" s="6">
@@ -7367,33 +6675,29 @@
         <v>79722</v>
       </c>
       <c r="F154" s="3">
-        <v>481917631.69066441</v>
+        <v>468639011.4348475</v>
       </c>
       <c r="G154" s="3">
-        <v>484321405.25930828</v>
+        <v>482232305.9650297</v>
       </c>
       <c r="H154" s="4">
-        <v>0.6566523605150214</v>
+        <v>0.5107296137339056</v>
       </c>
       <c r="I154" s="5">
-        <v>6317.1658564455856</v>
+        <v>6143.104479594787</v>
       </c>
       <c r="J154" s="5">
-        <v>6075.1286377575607</v>
+        <v>6048.92383488911</v>
       </c>
       <c r="K154" s="5">
-        <v>-242.03721868802501</v>
+        <v>-94.18064470567697</v>
       </c>
       <c r="L154" s="4">
-        <v>-3.8314209914414032E-2</v>
-      </c>
-      <c r="M154" s="3">
-        <f t="shared" si="2"/>
-        <v>-19295691.148246728</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+        <v>-0.01533111556518563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B155" s="6">
@@ -7409,77 +6713,25 @@
         <v>25567.5</v>
       </c>
       <c r="F155" s="3">
-        <v>148121759.7768161</v>
+        <v>144040455.2750498</v>
       </c>
       <c r="G155" s="3">
-        <v>152911987.63777009</v>
+        <v>152252408.4368678</v>
       </c>
       <c r="H155" s="4">
-        <v>0.41269841269841268</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="I155" s="5">
-        <v>6061.000461436508</v>
+        <v>5893.997392436107</v>
       </c>
       <c r="J155" s="5">
-        <v>5980.7172245143274</v>
+        <v>5954.919661166238</v>
       </c>
       <c r="K155" s="5">
-        <v>-80.283236922180549</v>
+        <v>60.92226873013078</v>
       </c>
       <c r="L155" s="4">
-        <v>-1.3245872101971919E-2</v>
-      </c>
-      <c r="M155" s="3">
-        <f t="shared" si="2"/>
-        <v>-2052641.6600078512</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C156" s="10">
-        <f>SUM(C4:C155)</f>
-        <v>20319</v>
-      </c>
-      <c r="D156" s="10">
-        <f t="shared" ref="D156:E156" si="3">SUM(D4:D155)</f>
-        <v>7423423</v>
-      </c>
-      <c r="E156" s="10">
-        <f t="shared" si="3"/>
-        <v>7786222</v>
-      </c>
-      <c r="F156" s="11">
-        <f t="shared" ref="F156" si="4">SUM(F4:F155)</f>
-        <v>50754171277.276894</v>
-      </c>
-      <c r="G156" s="11">
-        <f t="shared" ref="G156" si="5">SUM(G4:G155)</f>
-        <v>50417490276.69075</v>
-      </c>
-      <c r="H156" s="12">
-        <v>0.70018209557556965</v>
-      </c>
-      <c r="I156" s="13">
-        <f>F156/D156</f>
-        <v>6837.0307440754614</v>
-      </c>
-      <c r="J156" s="13">
-        <f>G156/E156</f>
-        <v>6475.218697423571</v>
-      </c>
-      <c r="K156" s="13">
-        <f>J156-I156</f>
-        <v>-361.81204665189034</v>
-      </c>
-      <c r="L156" s="12">
-        <f>K156/J156</f>
-        <v>-5.5876421100008865E-2</v>
-      </c>
-      <c r="M156" s="11">
-        <f t="shared" ref="M156" si="6">SUM(M4:M155)</f>
-        <v>-2774655280.3610401</v>
+        <v>0.01033632434386789</v>
       </c>
     </row>
   </sheetData>
@@ -7489,6 +6741,5 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/Local Authority.xlsx
+++ b/output/Local Authority.xlsx
@@ -975,25 +975,25 @@
         <v>38060.5</v>
       </c>
       <c r="F4" s="3">
-        <v>281752183.9965823</v>
+        <v>282414249.2745076</v>
       </c>
       <c r="G4" s="3">
-        <v>277832558.777396</v>
+        <v>277838998.8329501</v>
       </c>
       <c r="H4" s="4">
-        <v>0.6226415094339622</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="I4" s="5">
-        <v>7538.620824267408</v>
+        <v>7556.335182397293</v>
       </c>
       <c r="J4" s="5">
-        <v>7299.761137593989</v>
+        <v>7299.93034334678</v>
       </c>
       <c r="K4" s="5">
-        <v>-238.8596866734197</v>
+        <v>-256.4048390505131</v>
       </c>
       <c r="L4" s="4">
-        <v>-0.03168479914847444</v>
+        <v>-0.03393243323136541</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1013,25 +1013,25 @@
         <v>53960</v>
       </c>
       <c r="F5" s="3">
-        <v>370718710.173105</v>
+        <v>371589830.256014</v>
       </c>
       <c r="G5" s="3">
-        <v>370494125.0979559</v>
+        <v>370502713.0142123</v>
       </c>
       <c r="H5" s="4">
-        <v>0.7017543859649122</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="I5" s="5">
-        <v>7213.899924558616</v>
+        <v>7230.851248912988</v>
       </c>
       <c r="J5" s="5">
-        <v>6866.08830796805</v>
+        <v>6866.247461345668</v>
       </c>
       <c r="K5" s="5">
-        <v>-347.8116165905667</v>
+        <v>-364.6037875673201</v>
       </c>
       <c r="L5" s="4">
-        <v>-0.04821408949776185</v>
+        <v>-0.0504233561189813</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1051,25 +1051,25 @@
         <v>29476.5</v>
       </c>
       <c r="F6" s="3">
-        <v>172926213.6124524</v>
+        <v>173332558.0817372</v>
       </c>
       <c r="G6" s="3">
-        <v>182996793.5884332</v>
+        <v>183001035.3861624</v>
       </c>
       <c r="H6" s="4">
         <v>0.5921052631578947</v>
       </c>
       <c r="I6" s="5">
-        <v>6248.011475682063</v>
+        <v>6262.693141660482</v>
       </c>
       <c r="J6" s="5">
-        <v>6208.226675094847</v>
+        <v>6208.370579484078</v>
       </c>
       <c r="K6" s="5">
-        <v>-39.78480058721652</v>
+        <v>-54.32256217640406</v>
       </c>
       <c r="L6" s="4">
-        <v>-0.006367594032447466</v>
+        <v>-0.008673993910868982</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1089,25 +1089,25 @@
         <v>24640</v>
       </c>
       <c r="F7" s="3">
-        <v>139503808.0646803</v>
+        <v>139831616.0913932</v>
       </c>
       <c r="G7" s="3">
-        <v>149418557.7204545</v>
+        <v>149422021.1871439</v>
       </c>
       <c r="H7" s="4">
         <v>0.3943661971830986</v>
       </c>
       <c r="I7" s="5">
-        <v>5848.848418953956</v>
+        <v>5862.592125920518</v>
       </c>
       <c r="J7" s="5">
-        <v>6064.064842550912</v>
+        <v>6064.205405322397</v>
       </c>
       <c r="K7" s="5">
-        <v>215.2164235969558</v>
+        <v>201.6132794018795</v>
       </c>
       <c r="L7" s="4">
-        <v>0.03679637565909877</v>
+        <v>0.03438978442837226</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1127,25 +1127,25 @@
         <v>25688.5</v>
       </c>
       <c r="F8" s="3">
-        <v>148877167.9501111</v>
+        <v>149227001.6308213</v>
       </c>
       <c r="G8" s="3">
-        <v>161280469.5750702</v>
+        <v>161284207.996472</v>
       </c>
       <c r="H8" s="4">
-        <v>0.5873015873015873</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="I8" s="5">
-        <v>6589.8179864603</v>
+        <v>6605.302834225446</v>
       </c>
       <c r="J8" s="5">
-        <v>6278.314015028913</v>
+        <v>6278.45954401666</v>
       </c>
       <c r="K8" s="5">
-        <v>-311.5039714313871</v>
+        <v>-326.8432902087852</v>
       </c>
       <c r="L8" s="4">
-        <v>-0.04727049701090613</v>
+        <v>-0.04948195388033438</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1165,25 +1165,25 @@
         <v>42833</v>
       </c>
       <c r="F9" s="3">
-        <v>283110764.0899257</v>
+        <v>283776021.7786229</v>
       </c>
       <c r="G9" s="3">
-        <v>279194029.2642324</v>
+        <v>279200500.8781666</v>
       </c>
       <c r="H9" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I9" s="5">
-        <v>6638.312795205537</v>
+        <v>6653.911596760056</v>
       </c>
       <c r="J9" s="5">
-        <v>6518.199268419966</v>
+        <v>6518.350357858815</v>
       </c>
       <c r="K9" s="5">
-        <v>-120.1135267855707</v>
+        <v>-135.5612389012404</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.01809398419314046</v>
+        <v>-0.02037316500676811</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1203,25 +1203,25 @@
         <v>192417</v>
       </c>
       <c r="F10" s="3">
-        <v>1355482280.93387</v>
+        <v>1358667412.421833</v>
       </c>
       <c r="G10" s="3">
-        <v>1334183853.108154</v>
+        <v>1334214778.994491</v>
       </c>
       <c r="H10" s="4">
-        <v>0.7867298578199052</v>
+        <v>0.7914691943127962</v>
       </c>
       <c r="I10" s="5">
-        <v>7407.654663434342</v>
+        <v>7425.061275422077</v>
       </c>
       <c r="J10" s="5">
-        <v>6933.814855798363</v>
+        <v>6933.975579052218</v>
       </c>
       <c r="K10" s="5">
-        <v>-473.839807635979</v>
+        <v>-491.0856963698589</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.0639662388657164</v>
+        <v>-0.06613894190953229</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1241,25 +1241,25 @@
         <v>24925.5</v>
       </c>
       <c r="F11" s="3">
-        <v>161959378.116952</v>
+        <v>162339952.5606516</v>
       </c>
       <c r="G11" s="3">
-        <v>162198803.4464723</v>
+        <v>162202563.1545123</v>
       </c>
       <c r="H11" s="4">
         <v>0.6285714285714286</v>
       </c>
       <c r="I11" s="5">
-        <v>6724.072742696199</v>
+        <v>6739.873064191625</v>
       </c>
       <c r="J11" s="5">
-        <v>6507.344023047574</v>
+        <v>6507.494860865871</v>
       </c>
       <c r="K11" s="5">
-        <v>-216.7287196486259</v>
+        <v>-232.3782033257539</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.03223176309090947</v>
+        <v>-0.03447812757192115</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1279,25 +1279,25 @@
         <v>17979</v>
       </c>
       <c r="F12" s="3">
-        <v>125858960.3035085</v>
+        <v>126154705.4734332</v>
       </c>
       <c r="G12" s="3">
-        <v>126256395.4577321</v>
+        <v>126259322.0341001</v>
       </c>
       <c r="H12" s="4">
         <v>0.625</v>
       </c>
       <c r="I12" s="5">
-        <v>6917.988253916807</v>
+        <v>6934.244240830717</v>
       </c>
       <c r="J12" s="5">
-        <v>7022.437035304079</v>
+        <v>7022.599812787149</v>
       </c>
       <c r="K12" s="5">
-        <v>104.448781387272</v>
+        <v>88.35557195643196</v>
       </c>
       <c r="L12" s="4">
-        <v>0.01509814378885888</v>
+        <v>0.01274191806457736</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1317,25 +1317,25 @@
         <v>47866</v>
       </c>
       <c r="F13" s="3">
-        <v>292539975.0639135</v>
+        <v>293227389.6462874</v>
       </c>
       <c r="G13" s="3">
-        <v>300994929.2328218</v>
+        <v>301001906.1835229</v>
       </c>
       <c r="H13" s="4">
-        <v>0.6470588235294118</v>
+        <v>0.6554621848739496</v>
       </c>
       <c r="I13" s="5">
-        <v>6552.727691602757</v>
+        <v>6568.125384067005</v>
       </c>
       <c r="J13" s="5">
-        <v>6288.282480943086</v>
+        <v>6288.428240996174</v>
       </c>
       <c r="K13" s="5">
-        <v>-264.4452106596709</v>
+        <v>-279.6971430708309</v>
       </c>
       <c r="L13" s="4">
-        <v>-0.04035650848097261</v>
+        <v>-0.04258401396375922</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1355,25 +1355,25 @@
         <v>44041.5</v>
       </c>
       <c r="F14" s="3">
-        <v>261362628.8639017</v>
+        <v>261976782.476</v>
       </c>
       <c r="G14" s="3">
-        <v>265642935.0351312</v>
+        <v>265649092.5397329</v>
       </c>
       <c r="H14" s="4">
         <v>0.5679012345679012</v>
       </c>
       <c r="I14" s="5">
-        <v>6173.896060186418</v>
+        <v>6188.403568710361</v>
       </c>
       <c r="J14" s="5">
-        <v>6031.650489541255</v>
+        <v>6031.79030096007</v>
       </c>
       <c r="K14" s="5">
-        <v>-142.2455706451638</v>
+        <v>-156.613267750291</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.02303983890536521</v>
+        <v>-0.02530753949890319</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1393,25 +1393,25 @@
         <v>16298</v>
       </c>
       <c r="F15" s="3">
-        <v>88617244.74256475</v>
+        <v>88825478.80108114</v>
       </c>
       <c r="G15" s="3">
-        <v>95850004.42747885</v>
+        <v>95852226.19499271</v>
       </c>
       <c r="H15" s="4">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="I15" s="5">
-        <v>5739.644725707746</v>
+        <v>5753.131824287129</v>
       </c>
       <c r="J15" s="5">
-        <v>5881.089975915993</v>
+        <v>5881.226297398006</v>
       </c>
       <c r="K15" s="5">
-        <v>141.4452502082468</v>
+        <v>128.0944731108766</v>
       </c>
       <c r="L15" s="4">
-        <v>0.02464355495292536</v>
+        <v>0.02226517260913785</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1431,25 +1431,25 @@
         <v>91875.5</v>
       </c>
       <c r="F16" s="3">
-        <v>641881951.0139626</v>
+        <v>643390254.325991</v>
       </c>
       <c r="G16" s="3">
-        <v>602068901.25957</v>
+        <v>602082856.9931546</v>
       </c>
       <c r="H16" s="4">
-        <v>0.8928571428571429</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="I16" s="5">
-        <v>7021.702923118588</v>
+        <v>7038.202620233126</v>
       </c>
       <c r="J16" s="5">
-        <v>6553.095234960027</v>
+        <v>6553.247133274427</v>
       </c>
       <c r="K16" s="5">
-        <v>-468.6076881585604</v>
+        <v>-484.9554869586991</v>
       </c>
       <c r="L16" s="4">
-        <v>-0.06673704275008474</v>
+        <v>-0.06890331425875262</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1469,25 +1469,25 @@
         <v>44958</v>
       </c>
       <c r="F17" s="3">
-        <v>360660995.4578356</v>
+        <v>361508481.7800624</v>
       </c>
       <c r="G17" s="3">
-        <v>338974733.8039472</v>
+        <v>338982591.1124167</v>
       </c>
       <c r="H17" s="4">
-        <v>0.7625</v>
+        <v>0.7875</v>
       </c>
       <c r="I17" s="5">
-        <v>8024.942881633991</v>
+        <v>8043.800006231571</v>
       </c>
       <c r="J17" s="5">
-        <v>7539.809017392838</v>
+        <v>7539.983787366358</v>
       </c>
       <c r="K17" s="5">
-        <v>-485.1338642411529</v>
+        <v>-503.8162188652132</v>
       </c>
       <c r="L17" s="4">
-        <v>-0.06045324825319787</v>
+        <v>-0.06263410558130533</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1507,25 +1507,25 @@
         <v>31767.5</v>
       </c>
       <c r="F18" s="3">
-        <v>189393013.6133651</v>
+        <v>189838052.0028335</v>
       </c>
       <c r="G18" s="3">
-        <v>194508473.5267602</v>
+        <v>194512982.1609561</v>
       </c>
       <c r="H18" s="4">
-        <v>0.5</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="I18" s="5">
-        <v>5995.821562749984</v>
+        <v>6009.910629294294</v>
       </c>
       <c r="J18" s="5">
-        <v>6122.876320980884</v>
+        <v>6123.018246980598</v>
       </c>
       <c r="K18" s="5">
-        <v>127.0547582309</v>
+        <v>113.1076176863035</v>
       </c>
       <c r="L18" s="4">
-        <v>0.02119055026924888</v>
+        <v>0.01882018297160348</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1545,25 +1545,25 @@
         <v>56065</v>
       </c>
       <c r="F19" s="3">
-        <v>371446754.5834946</v>
+        <v>372319585.4354846</v>
       </c>
       <c r="G19" s="3">
-        <v>380477968.8995512</v>
+        <v>380486788.2375999</v>
       </c>
       <c r="H19" s="4">
         <v>0.6691729323308271</v>
       </c>
       <c r="I19" s="5">
-        <v>7184.309358029004</v>
+        <v>7201.191150050473</v>
       </c>
       <c r="J19" s="5">
-        <v>6786.372405235908</v>
+        <v>6786.529710828501</v>
       </c>
       <c r="K19" s="5">
-        <v>-397.9369527930958</v>
+        <v>-414.6614392219717</v>
       </c>
       <c r="L19" s="4">
-        <v>-0.05538972961240474</v>
+        <v>-0.05758234027978348</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1583,25 +1583,25 @@
         <v>44245</v>
       </c>
       <c r="F20" s="3">
-        <v>288248379.095534</v>
+        <v>288925709.2248356</v>
       </c>
       <c r="G20" s="3">
-        <v>282407363.4896493</v>
+        <v>282413909.5874779</v>
       </c>
       <c r="H20" s="4">
         <v>0.8953488372093024</v>
       </c>
       <c r="I20" s="5">
-        <v>6857.505331292145</v>
+        <v>6873.619194576666</v>
       </c>
       <c r="J20" s="5">
-        <v>6382.808531803577</v>
+        <v>6382.956482935425</v>
       </c>
       <c r="K20" s="5">
-        <v>-474.6967994885681</v>
+        <v>-490.662711641241</v>
       </c>
       <c r="L20" s="4">
-        <v>-0.06922295741024553</v>
+        <v>-0.07138345866299622</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1621,25 +1621,25 @@
         <v>84335</v>
       </c>
       <c r="F21" s="3">
-        <v>471129886.5715791</v>
+        <v>472236954.2608776</v>
       </c>
       <c r="G21" s="3">
-        <v>503904095.3839955</v>
+        <v>503915775.6938283</v>
       </c>
       <c r="H21" s="4">
         <v>0.5919282511210763</v>
       </c>
       <c r="I21" s="5">
-        <v>5920.279050648778</v>
+        <v>5934.190606326764</v>
       </c>
       <c r="J21" s="5">
-        <v>5975.029292511953</v>
+        <v>5975.167791472441</v>
       </c>
       <c r="K21" s="5">
-        <v>54.75024186317478</v>
+        <v>40.97718514567623</v>
       </c>
       <c r="L21" s="4">
-        <v>0.009247915747683466</v>
+        <v>0.006905269456964902</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1659,25 +1659,25 @@
         <v>26556</v>
       </c>
       <c r="F22" s="3">
-        <v>163104341.1203931</v>
+        <v>163487606.0143966</v>
       </c>
       <c r="G22" s="3">
-        <v>165086754.228007</v>
+        <v>165090580.8776738</v>
       </c>
       <c r="H22" s="4">
         <v>0.5324675324675324</v>
       </c>
       <c r="I22" s="5">
-        <v>6236.663459340143</v>
+        <v>6251.318459588821</v>
       </c>
       <c r="J22" s="5">
-        <v>6216.551974243372</v>
+        <v>6216.69607160995</v>
       </c>
       <c r="K22" s="5">
-        <v>-20.1114850967715</v>
+        <v>-34.62238797887039</v>
       </c>
       <c r="L22" s="4">
-        <v>-0.003224718670149174</v>
+        <v>-0.005538413728669256</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1697,25 +1697,25 @@
         <v>35845</v>
       </c>
       <c r="F23" s="3">
-        <v>218461864.9896691</v>
+        <v>218975209.7783727</v>
       </c>
       <c r="G23" s="3">
-        <v>225558265.9805308</v>
+        <v>225563494.3373872</v>
       </c>
       <c r="H23" s="4">
         <v>0.5656565656565656</v>
       </c>
       <c r="I23" s="5">
-        <v>6419.30726932502</v>
+        <v>6434.39144858876</v>
       </c>
       <c r="J23" s="5">
-        <v>6292.60052951683</v>
+        <v>6292.746389660683</v>
       </c>
       <c r="K23" s="5">
-        <v>-126.7067398081899</v>
+        <v>-141.6450589280767</v>
       </c>
       <c r="L23" s="4">
-        <v>-0.01973838211697143</v>
+        <v>-0.02201374598667649</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1735,25 +1735,25 @@
         <v>84081</v>
       </c>
       <c r="F24" s="3">
-        <v>488908989.1472091</v>
+        <v>490057834.4238932</v>
       </c>
       <c r="G24" s="3">
-        <v>512839949.9418685</v>
+        <v>512851837.381492</v>
       </c>
       <c r="H24" s="4">
-        <v>0.5061728395061729</v>
+        <v>0.5144032921810699</v>
       </c>
       <c r="I24" s="5">
-        <v>6077.895949766711</v>
+        <v>6092.177875869658</v>
       </c>
       <c r="J24" s="5">
-        <v>6099.355977472538</v>
+        <v>6099.497358279421</v>
       </c>
       <c r="K24" s="5">
-        <v>21.46002770582709</v>
+        <v>7.319482409762713</v>
       </c>
       <c r="L24" s="4">
-        <v>0.003530831702811765</v>
+        <v>0.001201455794446638</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1773,25 +1773,25 @@
         <v>21994.5</v>
       </c>
       <c r="F25" s="3">
-        <v>210762181.9063815</v>
+        <v>211257433.8705746</v>
       </c>
       <c r="G25" s="3">
-        <v>196215640.2291487</v>
+        <v>196220188.434835</v>
       </c>
       <c r="H25" s="4">
         <v>0.7241379310344828</v>
       </c>
       <c r="I25" s="5">
-        <v>9587.507706244896</v>
+        <v>9610.036567828532</v>
       </c>
       <c r="J25" s="5">
-        <v>8921.12301844319</v>
+        <v>8921.329806762371</v>
       </c>
       <c r="K25" s="5">
-        <v>-666.3846878017066</v>
+        <v>-688.7067610661616</v>
       </c>
       <c r="L25" s="4">
-        <v>-0.06950551782791803</v>
+        <v>-0.07166536320701855</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1811,25 +1811,25 @@
         <v>42243.5</v>
       </c>
       <c r="F26" s="3">
-        <v>238505139.0114396</v>
+        <v>239065581.7697045</v>
       </c>
       <c r="G26" s="3">
-        <v>255896775.8316411</v>
+        <v>255902707.4238914</v>
       </c>
       <c r="H26" s="4">
-        <v>0.6097560975609756</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="I26" s="5">
-        <v>6290.107180363673</v>
+        <v>6304.887763425978</v>
       </c>
       <c r="J26" s="5">
-        <v>6057.660369799876</v>
+        <v>6057.800784118063</v>
       </c>
       <c r="K26" s="5">
-        <v>-232.446810563797</v>
+        <v>-247.0869793079146</v>
       </c>
       <c r="L26" s="4">
-        <v>-0.03695434813725351</v>
+        <v>-0.0391897506473059</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1849,25 +1849,25 @@
         <v>53225</v>
       </c>
       <c r="F27" s="3">
-        <v>296315563.6806276</v>
+        <v>297011850.1946808</v>
       </c>
       <c r="G27" s="3">
-        <v>309551167.7012634</v>
+        <v>309558342.9823951</v>
       </c>
       <c r="H27" s="4">
-        <v>0.6095890410958904</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="I27" s="5">
-        <v>5993.255942490168</v>
+        <v>6007.338980303606</v>
       </c>
       <c r="J27" s="5">
-        <v>5815.897937083389</v>
+        <v>5816.032747438142</v>
       </c>
       <c r="K27" s="5">
-        <v>-177.3580054067797</v>
+        <v>-191.3062328654642</v>
       </c>
       <c r="L27" s="4">
-        <v>-0.02959293030510701</v>
+        <v>-0.03184541999256307</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1887,25 +1887,25 @@
         <v>49967.5</v>
       </c>
       <c r="F28" s="3">
-        <v>306907244.4215935</v>
+        <v>307628419.4172691</v>
       </c>
       <c r="G28" s="3">
-        <v>307682557.3973693</v>
+        <v>307689689.3648082</v>
       </c>
       <c r="H28" s="4">
         <v>0.7662337662337663</v>
       </c>
       <c r="I28" s="5">
-        <v>6561.141693405738</v>
+        <v>6576.559157210759</v>
       </c>
       <c r="J28" s="5">
-        <v>6157.653622802208</v>
+        <v>6157.796354926866</v>
       </c>
       <c r="K28" s="5">
-        <v>-403.4880706035301</v>
+        <v>-418.7628022838926</v>
       </c>
       <c r="L28" s="4">
-        <v>-0.06149662504759723</v>
+        <v>-0.06367506051013727</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1925,25 +1925,25 @@
         <v>270</v>
       </c>
       <c r="F29" s="3">
-        <v>2494580.3336082</v>
+        <v>2500442.133855674</v>
       </c>
       <c r="G29" s="3">
-        <v>2733464.54514622</v>
+        <v>2733527.905839449</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>10459.45632540126</v>
+        <v>10484.03410421666</v>
       </c>
       <c r="J29" s="5">
-        <v>10123.94275980082</v>
+        <v>10124.177429035</v>
       </c>
       <c r="K29" s="5">
-        <v>-335.5135656004422</v>
+        <v>-359.8566751816652</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.0320775339714009</v>
+        <v>-0.03432425644599257</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1963,25 +1963,25 @@
         <v>67204.5</v>
       </c>
       <c r="F30" s="3">
-        <v>400661634.9951108</v>
+        <v>401603115.3874346</v>
       </c>
       <c r="G30" s="3">
-        <v>408145102.2414246</v>
+        <v>408154562.8933516</v>
       </c>
       <c r="H30" s="4">
-        <v>0.4471544715447154</v>
+        <v>0.459349593495935</v>
       </c>
       <c r="I30" s="5">
-        <v>6171.003134238113</v>
+        <v>6185.503844923638</v>
       </c>
       <c r="J30" s="5">
-        <v>6073.18114473621</v>
+        <v>6073.321918820191</v>
       </c>
       <c r="K30" s="5">
-        <v>-97.82198950190286</v>
+        <v>-112.181926103447</v>
       </c>
       <c r="L30" s="4">
-        <v>-0.01585187811024835</v>
+        <v>-0.01813626325614737</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2001,25 +2001,25 @@
         <v>68676.5</v>
       </c>
       <c r="F31" s="3">
-        <v>447635736.2542725</v>
+        <v>448687597.055948</v>
       </c>
       <c r="G31" s="3">
-        <v>454299690.6739057</v>
+        <v>454310221.1720557</v>
       </c>
       <c r="H31" s="4">
-        <v>0.6324110671936759</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="I31" s="5">
-        <v>6807.061020738475</v>
+        <v>6823.056349266626</v>
       </c>
       <c r="J31" s="5">
-        <v>6615.067609355539</v>
+        <v>6615.220944166573</v>
       </c>
       <c r="K31" s="5">
-        <v>-191.9934113829358</v>
+        <v>-207.8354051000533</v>
       </c>
       <c r="L31" s="4">
-        <v>-0.02820503750414549</v>
+        <v>-0.03046074874090587</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2039,25 +2039,25 @@
         <v>55230.5</v>
       </c>
       <c r="F32" s="3">
-        <v>345568089.814211</v>
+        <v>346380110.6127</v>
       </c>
       <c r="G32" s="3">
-        <v>351738908.2962069</v>
+        <v>351747061.4735015</v>
       </c>
       <c r="H32" s="4">
         <v>0.8782608695652174</v>
       </c>
       <c r="I32" s="5">
-        <v>6828.396775462352</v>
+        <v>6844.442239049547</v>
       </c>
       <c r="J32" s="5">
-        <v>6368.562810334995</v>
+        <v>6368.710431256308</v>
       </c>
       <c r="K32" s="5">
-        <v>-459.8339651273573</v>
+        <v>-475.7318077932396</v>
       </c>
       <c r="L32" s="4">
-        <v>-0.06734142438526092</v>
+        <v>-0.06950629301523659</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2077,25 +2077,25 @@
         <v>53478</v>
       </c>
       <c r="F33" s="3">
-        <v>370025941.050149</v>
+        <v>370895433.254348</v>
       </c>
       <c r="G33" s="3">
-        <v>383244013.0133125</v>
+        <v>383252896.4672365</v>
       </c>
       <c r="H33" s="4">
-        <v>0.4818181818181818</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="I33" s="5">
-        <v>7101.61197305701</v>
+        <v>7118.299441590419</v>
       </c>
       <c r="J33" s="5">
-        <v>7166.386420833099</v>
+        <v>7166.55253500947</v>
       </c>
       <c r="K33" s="5">
-        <v>64.77444777608889</v>
+        <v>48.25309341905177</v>
       </c>
       <c r="L33" s="4">
-        <v>0.009121090820202182</v>
+        <v>0.006778738912993854</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2115,25 +2115,25 @@
         <v>66135</v>
       </c>
       <c r="F34" s="3">
-        <v>415977975.9169489</v>
+        <v>416955446.8643951</v>
       </c>
       <c r="G34" s="3">
-        <v>415555525.7543927</v>
+        <v>415565158.1771855</v>
       </c>
       <c r="H34" s="4">
-        <v>0.5163398692810458</v>
+        <v>0.5261437908496732</v>
       </c>
       <c r="I34" s="5">
-        <v>6376.949417335933</v>
+        <v>6391.934063518317</v>
       </c>
       <c r="J34" s="5">
-        <v>6283.443347008282</v>
+        <v>6283.588994892046</v>
       </c>
       <c r="K34" s="5">
-        <v>-93.50607032765038</v>
+        <v>-108.3450686262713</v>
       </c>
       <c r="L34" s="4">
-        <v>-0.01466313502086924</v>
+        <v>-0.01695027945370187</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2153,25 +2153,25 @@
         <v>14772.5</v>
       </c>
       <c r="F35" s="3">
-        <v>98256948.66528298</v>
+        <v>98487834.23679282</v>
       </c>
       <c r="G35" s="3">
-        <v>97033684.56034958</v>
+        <v>97035933.76512937</v>
       </c>
       <c r="H35" s="4">
-        <v>0.6486486486486487</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="I35" s="5">
-        <v>6724.17099505786</v>
+        <v>6739.97154742808</v>
       </c>
       <c r="J35" s="5">
-        <v>6568.535086163452</v>
+        <v>6568.687342367871</v>
       </c>
       <c r="K35" s="5">
-        <v>-155.6359088944082</v>
+        <v>-171.2842050602094</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.02314573930508279</v>
+        <v>-0.02541319408470943</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2191,25 +2191,25 @@
         <v>37090</v>
       </c>
       <c r="F36" s="3">
-        <v>225775182.952067</v>
+        <v>226305712.6790402</v>
       </c>
       <c r="G36" s="3">
-        <v>237115182.7752098</v>
+        <v>237120679.0171064</v>
       </c>
       <c r="H36" s="4">
         <v>0.4222222222222222</v>
       </c>
       <c r="I36" s="5">
-        <v>6345.118610329992</v>
+        <v>6360.028460030639</v>
       </c>
       <c r="J36" s="5">
-        <v>6392.967990703957</v>
+        <v>6393.116177328294</v>
       </c>
       <c r="K36" s="5">
-        <v>47.84938037396478</v>
+        <v>33.08771729765522</v>
       </c>
       <c r="L36" s="4">
-        <v>0.007541132532347783</v>
+        <v>0.00520244799305436</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2229,25 +2229,25 @@
         <v>105958.5</v>
       </c>
       <c r="F37" s="3">
-        <v>660210307.1216162</v>
+        <v>661761678.6647698</v>
       </c>
       <c r="G37" s="3">
-        <v>647506206.7892385</v>
+        <v>647521215.742695</v>
       </c>
       <c r="H37" s="4">
-        <v>0.538083538083538</v>
+        <v>0.542997542997543</v>
       </c>
       <c r="I37" s="5">
-        <v>6375.640326807944</v>
+        <v>6390.621896870845</v>
       </c>
       <c r="J37" s="5">
-        <v>6110.941611944661</v>
+        <v>6111.083261302255</v>
       </c>
       <c r="K37" s="5">
-        <v>-264.6987148632825</v>
+        <v>-279.5386355685905</v>
       </c>
       <c r="L37" s="4">
-        <v>-0.04151719690809597</v>
+        <v>-0.04374200822387353</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2267,25 +2267,25 @@
         <v>83279.5</v>
       </c>
       <c r="F38" s="3">
-        <v>524160039.4459019</v>
+        <v>525391718.1405283</v>
       </c>
       <c r="G38" s="3">
-        <v>524993882.6185985</v>
+        <v>525006051.7818687</v>
       </c>
       <c r="H38" s="4">
-        <v>0.6074074074074074</v>
+        <v>0.6185185185185185</v>
       </c>
       <c r="I38" s="5">
-        <v>6466.920075826186</v>
+        <v>6482.116136337909</v>
       </c>
       <c r="J38" s="5">
-        <v>6303.998974760878</v>
+        <v>6304.145099116454</v>
       </c>
       <c r="K38" s="5">
-        <v>-162.921101065308</v>
+        <v>-177.9710372214549</v>
       </c>
       <c r="L38" s="4">
-        <v>-0.02519299746324666</v>
+        <v>-0.02745570018774768</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2305,25 +2305,25 @@
         <v>45605.5</v>
       </c>
       <c r="F39" s="3">
-        <v>300543624.6525341</v>
+        <v>301249846.3242236</v>
       </c>
       <c r="G39" s="3">
-        <v>288032744.8355402</v>
+        <v>288039421.3276196</v>
       </c>
       <c r="H39" s="4">
-        <v>0.5901639344262295</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="I39" s="5">
-        <v>6550.146014417691</v>
+        <v>6565.537640420273</v>
       </c>
       <c r="J39" s="5">
-        <v>6315.745794598024</v>
+        <v>6315.892191240521</v>
       </c>
       <c r="K39" s="5">
-        <v>-234.4002198196667</v>
+        <v>-249.6454491797513</v>
       </c>
       <c r="L39" s="4">
-        <v>-0.03578549536204578</v>
+        <v>-0.03802361099003171</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2343,25 +2343,25 @@
         <v>47340.5</v>
       </c>
       <c r="F40" s="3">
-        <v>285430006.426269</v>
+        <v>286100713.9035006</v>
       </c>
       <c r="G40" s="3">
-        <v>283820783.7527903</v>
+        <v>283827362.613176</v>
       </c>
       <c r="H40" s="4">
         <v>0.5743243243243243</v>
       </c>
       <c r="I40" s="5">
-        <v>6044.876614595318</v>
+        <v>6059.080951396182</v>
       </c>
       <c r="J40" s="5">
-        <v>5995.306001262985</v>
+        <v>5995.444970230058</v>
       </c>
       <c r="K40" s="5">
-        <v>-49.57061333233287</v>
+        <v>-63.63598116612411</v>
       </c>
       <c r="L40" s="4">
-        <v>-0.008200434267367052</v>
+        <v>-0.0105025797933036</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2381,25 +2381,25 @@
         <v>44124.5</v>
       </c>
       <c r="F41" s="3">
-        <v>281294547.9222397</v>
+        <v>281955537.8404273</v>
       </c>
       <c r="G41" s="3">
-        <v>278146954.6183066</v>
+        <v>278153401.9614394</v>
       </c>
       <c r="H41" s="4">
         <v>0.8163265306122449</v>
       </c>
       <c r="I41" s="5">
-        <v>6568.005695391793</v>
+        <v>6583.439288326032</v>
       </c>
       <c r="J41" s="5">
-        <v>6303.685132257739</v>
+        <v>6303.831249338563</v>
       </c>
       <c r="K41" s="5">
-        <v>-264.3205631340543</v>
+        <v>-279.6080389874687</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.04024365620138015</v>
+        <v>-0.04247142363464618</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2419,25 +2419,25 @@
         <v>50811.5</v>
       </c>
       <c r="F42" s="3">
-        <v>360132551.5323048</v>
+        <v>360978796.1095009</v>
       </c>
       <c r="G42" s="3">
-        <v>359970841.5725284</v>
+        <v>359979185.56298</v>
       </c>
       <c r="H42" s="4">
         <v>0.5402298850574713</v>
       </c>
       <c r="I42" s="5">
-        <v>7172.097893619279</v>
+        <v>7188.950990968492</v>
       </c>
       <c r="J42" s="5">
-        <v>7084.436428220549</v>
+        <v>7084.600642826525</v>
       </c>
       <c r="K42" s="5">
-        <v>-87.66146539872989</v>
+        <v>-104.3503481419666</v>
       </c>
       <c r="L42" s="4">
-        <v>-0.0122225695603958</v>
+        <v>-0.01451537898548239</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,25 +2457,25 @@
         <v>44222</v>
       </c>
       <c r="F43" s="3">
-        <v>266626401.1955708</v>
+        <v>267252923.6945479</v>
       </c>
       <c r="G43" s="3">
-        <v>264886180.4530164</v>
+        <v>264892320.4163279</v>
       </c>
       <c r="H43" s="4">
-        <v>0.4863013698630137</v>
+        <v>0.5</v>
       </c>
       <c r="I43" s="5">
-        <v>6007.669975790785</v>
+        <v>6021.7868839041</v>
       </c>
       <c r="J43" s="5">
-        <v>5989.918602799882</v>
+        <v>5990.057446889058</v>
       </c>
       <c r="K43" s="5">
-        <v>-17.75137299090238</v>
+        <v>-31.72943701504209</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.002954784976943681</v>
+        <v>-0.005269106600210849</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2495,25 +2495,25 @@
         <v>64556.5</v>
       </c>
       <c r="F44" s="3">
-        <v>387595665.9687381</v>
+        <v>388506443.7617347</v>
       </c>
       <c r="G44" s="3">
-        <v>392439789.4287359</v>
+        <v>392448886.0373431</v>
       </c>
       <c r="H44" s="4">
-        <v>0.5786516853932584</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="I44" s="5">
-        <v>6244.241265757592</v>
+        <v>6258.914072443267</v>
       </c>
       <c r="J44" s="5">
-        <v>6079.01279388963</v>
+        <v>6079.153703149073</v>
       </c>
       <c r="K44" s="5">
-        <v>-165.2284718679621</v>
+        <v>-179.7603692941939</v>
       </c>
       <c r="L44" s="4">
-        <v>-0.02646093653908732</v>
+        <v>-0.02872069614849682</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2533,25 +2533,25 @@
         <v>50941</v>
       </c>
       <c r="F45" s="3">
-        <v>379603515.2888858</v>
+        <v>380495513.0128653</v>
       </c>
       <c r="G45" s="3">
-        <v>367106633.015144</v>
+        <v>367115142.4105919</v>
       </c>
       <c r="H45" s="4">
-        <v>0.7764705882352941</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="I45" s="5">
-        <v>7622.637080470403</v>
+        <v>7640.54886119068</v>
       </c>
       <c r="J45" s="5">
-        <v>7206.506213367307</v>
+        <v>7206.673257505583</v>
       </c>
       <c r="K45" s="5">
-        <v>-416.1308671030956</v>
+        <v>-433.8756036850973</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.05459145735394444</v>
+        <v>-0.05678592095509272</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2571,25 +2571,25 @@
         <v>201161.5</v>
       </c>
       <c r="F46" s="3">
-        <v>1163863504.955263</v>
+        <v>1166598367.925784</v>
       </c>
       <c r="G46" s="3">
-        <v>1199135830.918321</v>
+        <v>1199163626.441645</v>
       </c>
       <c r="H46" s="4">
-        <v>0.6717850287907869</v>
+        <v>0.6852207293666027</v>
       </c>
       <c r="I46" s="5">
-        <v>6171.821086109459</v>
+        <v>6186.323718829888</v>
       </c>
       <c r="J46" s="5">
-        <v>5961.060296917258</v>
+        <v>5961.198472081612</v>
       </c>
       <c r="K46" s="5">
-        <v>-210.7607891922007</v>
+        <v>-225.1252467482764</v>
       </c>
       <c r="L46" s="4">
-        <v>-0.03414888186997955</v>
+        <v>-0.03639079637281861</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2609,25 +2609,25 @@
         <v>28415.5</v>
       </c>
       <c r="F47" s="3">
-        <v>180393659.8353937</v>
+        <v>180817551.4157207</v>
       </c>
       <c r="G47" s="3">
-        <v>183398353.8102703</v>
+        <v>183402604.9160163</v>
       </c>
       <c r="H47" s="4">
-        <v>0.7023809523809523</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I47" s="5">
-        <v>6648.251633942424</v>
+        <v>6663.873789921159</v>
       </c>
       <c r="J47" s="5">
-        <v>6454.165994273207</v>
+        <v>6454.315599444541</v>
       </c>
       <c r="K47" s="5">
-        <v>-194.085639669217</v>
+        <v>-209.5581904766186</v>
       </c>
       <c r="L47" s="4">
-        <v>-0.02919348579983339</v>
+        <v>-0.03144690266997052</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2647,25 +2647,25 @@
         <v>88165.5</v>
       </c>
       <c r="F48" s="3">
-        <v>512679926.4743629</v>
+        <v>513884629.0367113</v>
       </c>
       <c r="G48" s="3">
-        <v>538777532.2404956</v>
+        <v>538790020.9036467</v>
       </c>
       <c r="H48" s="4">
-        <v>0.5229681978798587</v>
+        <v>0.5335689045936396</v>
       </c>
       <c r="I48" s="5">
-        <v>6155.249052716818</v>
+        <v>6169.712744238143</v>
       </c>
       <c r="J48" s="5">
-        <v>6110.979149899854</v>
+        <v>6111.120800127564</v>
       </c>
       <c r="K48" s="5">
-        <v>-44.26990281696453</v>
+        <v>-58.59194411057979</v>
       </c>
       <c r="L48" s="4">
-        <v>-0.007192219589786442</v>
+        <v>-0.009496705363681412</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2685,25 +2685,25 @@
         <v>41837.5</v>
       </c>
       <c r="F49" s="3">
-        <v>329046747.5509762</v>
+        <v>329819946.2651002</v>
       </c>
       <c r="G49" s="3">
-        <v>329610939.662201</v>
+        <v>329618579.9213989</v>
       </c>
       <c r="H49" s="4">
         <v>0.7411764705882353</v>
       </c>
       <c r="I49" s="5">
-        <v>8258.687269899634</v>
+        <v>8278.09365037586</v>
       </c>
       <c r="J49" s="5">
-        <v>7878.361270683024</v>
+        <v>7878.543888172067</v>
       </c>
       <c r="K49" s="5">
-        <v>-380.3259992166104</v>
+        <v>-399.5497622037929</v>
       </c>
       <c r="L49" s="4">
-        <v>-0.04605162864112577</v>
+        <v>-0.0482659147236939</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2723,25 +2723,25 @@
         <v>27816.5</v>
       </c>
       <c r="F50" s="3">
-        <v>278155497.4672889</v>
+        <v>278809111.2001975</v>
       </c>
       <c r="G50" s="3">
-        <v>260754092.863437</v>
+        <v>260760137.0464924</v>
       </c>
       <c r="H50" s="4">
         <v>0.8032786885245902</v>
       </c>
       <c r="I50" s="5">
-        <v>10138.34004473279</v>
+        <v>10162.16325995763</v>
       </c>
       <c r="J50" s="5">
-        <v>9374.079875736956</v>
+        <v>9374.297163427909</v>
       </c>
       <c r="K50" s="5">
-        <v>-764.2601689958374</v>
+        <v>-787.8660965297204</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.07538316584605942</v>
+        <v>-0.07752936814488898</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2761,25 +2761,25 @@
         <v>19130.5</v>
       </c>
       <c r="F51" s="3">
-        <v>136156177.7573099</v>
+        <v>136476119.4748485</v>
       </c>
       <c r="G51" s="3">
-        <v>130179800.4178342</v>
+        <v>130182817.9372725</v>
       </c>
       <c r="H51" s="4">
         <v>0.578125</v>
       </c>
       <c r="I51" s="5">
-        <v>7253.925293410223</v>
+        <v>7270.970669943982</v>
       </c>
       <c r="J51" s="5">
-        <v>6804.830005375406</v>
+        <v>6804.987738808317</v>
       </c>
       <c r="K51" s="5">
-        <v>-449.0952880348177</v>
+        <v>-465.9829311356652</v>
       </c>
       <c r="L51" s="4">
-        <v>-0.06191065800509343</v>
+        <v>-0.06408813242252498</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2799,25 +2799,25 @@
         <v>19696</v>
       </c>
       <c r="F52" s="3">
-        <v>186397375.7264118</v>
+        <v>186835374.9234876</v>
       </c>
       <c r="G52" s="3">
-        <v>170033816.8159373</v>
+        <v>170037758.136678</v>
       </c>
       <c r="H52" s="4">
         <v>0.75</v>
       </c>
       <c r="I52" s="5">
-        <v>9573.322499494716</v>
+        <v>9595.818028478347</v>
       </c>
       <c r="J52" s="5">
-        <v>8632.911089355059</v>
+        <v>8633.111197028737</v>
       </c>
       <c r="K52" s="5">
-        <v>-940.4114101396572</v>
+        <v>-962.70683144961</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.09823250080515855</v>
+        <v>-0.1003256656798306</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2837,25 +2837,25 @@
         <v>180439.5</v>
       </c>
       <c r="F53" s="3">
-        <v>1009831595.524058</v>
+        <v>1012204512.129227</v>
       </c>
       <c r="G53" s="3">
-        <v>1060573096.402934</v>
+        <v>1060597680.093522</v>
       </c>
       <c r="H53" s="4">
-        <v>0.5794573643410853</v>
+        <v>0.5872093023255814</v>
       </c>
       <c r="I53" s="5">
-        <v>5974.079974467247</v>
+        <v>5988.117952319052</v>
       </c>
       <c r="J53" s="5">
-        <v>5877.721321567252</v>
+        <v>5877.857564965108</v>
       </c>
       <c r="K53" s="5">
-        <v>-96.35865289999492</v>
+        <v>-110.2603873539438</v>
       </c>
       <c r="L53" s="4">
-        <v>-0.01612945479669248</v>
+        <v>-0.018413195637077</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2875,25 +2875,25 @@
         <v>37243.5</v>
       </c>
       <c r="F54" s="3">
-        <v>306693456.2539949</v>
+        <v>307414128.8872022</v>
       </c>
       <c r="G54" s="3">
-        <v>298598124.7184312</v>
+        <v>298605046.1120934</v>
       </c>
       <c r="H54" s="4">
-        <v>0.7439024390243902</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="I54" s="5">
-        <v>8512.759871042812</v>
+        <v>8532.763274920608</v>
       </c>
       <c r="J54" s="5">
-        <v>8017.456058598982</v>
+        <v>8017.641900253559</v>
       </c>
       <c r="K54" s="5">
-        <v>-495.3038124438299</v>
+        <v>-515.1213746670483</v>
       </c>
       <c r="L54" s="4">
-        <v>-0.05818369364894993</v>
+        <v>-0.06036981902229566</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2913,25 +2913,25 @@
         <v>34298</v>
       </c>
       <c r="F55" s="3">
-        <v>219495954.703439</v>
+        <v>220011729.410818</v>
       </c>
       <c r="G55" s="3">
-        <v>226220016.3281282</v>
+        <v>226225260.0241119</v>
       </c>
       <c r="H55" s="4">
         <v>0.6538461538461539</v>
       </c>
       <c r="I55" s="5">
-        <v>6878.163534201522</v>
+        <v>6894.32594042423</v>
       </c>
       <c r="J55" s="5">
-        <v>6595.720343114124</v>
+        <v>6595.873229462707</v>
       </c>
       <c r="K55" s="5">
-        <v>-282.4431910873982</v>
+        <v>-298.4527109615228</v>
       </c>
       <c r="L55" s="4">
-        <v>-0.04106375047393906</v>
+        <v>-0.04328961432060729</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2951,25 +2951,25 @@
         <v>14630</v>
       </c>
       <c r="F56" s="3">
-        <v>101912195.9622565</v>
+        <v>102151670.6857055</v>
       </c>
       <c r="G56" s="3">
-        <v>98053037.4674055</v>
+        <v>98055310.30040722</v>
       </c>
       <c r="H56" s="4">
         <v>0.7567567567567568</v>
       </c>
       <c r="I56" s="5">
-        <v>7035.219933884891</v>
+        <v>7051.751393463035</v>
       </c>
       <c r="J56" s="5">
-        <v>6702.189847396138</v>
+        <v>6702.3452016683</v>
       </c>
       <c r="K56" s="5">
-        <v>-333.0300864887531</v>
+        <v>-349.4061917947356</v>
       </c>
       <c r="L56" s="4">
-        <v>-0.04733755157883912</v>
+        <v>-0.04954885280252996</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2989,25 +2989,25 @@
         <v>34555.5</v>
       </c>
       <c r="F57" s="3">
-        <v>222613161.1561811</v>
+        <v>223136260.7194927</v>
       </c>
       <c r="G57" s="3">
-        <v>222914355.371369</v>
+        <v>222919522.4433591</v>
       </c>
       <c r="H57" s="4">
-        <v>0.5857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="I57" s="5">
-        <v>6725.574741497036</v>
+        <v>6741.378592410541</v>
       </c>
       <c r="J57" s="5">
-        <v>6450.908115100896</v>
+        <v>6451.057644755802</v>
       </c>
       <c r="K57" s="5">
-        <v>-274.6666263961397</v>
+        <v>-290.320947654739</v>
       </c>
       <c r="L57" s="4">
-        <v>-0.04083913077367751</v>
+        <v>-0.04306551600314856</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3027,25 +3027,25 @@
         <v>23428.5</v>
       </c>
       <c r="F58" s="3">
-        <v>145536361.0183616</v>
+        <v>145878344.4235623</v>
       </c>
       <c r="G58" s="3">
-        <v>144739707.4099641</v>
+        <v>144743062.4226406</v>
       </c>
       <c r="H58" s="4">
-        <v>0.6288659793814433</v>
+        <v>0.6391752577319587</v>
       </c>
       <c r="I58" s="5">
-        <v>6379.256641464085</v>
+        <v>6394.246709194454</v>
       </c>
       <c r="J58" s="5">
-        <v>6177.933175831323</v>
+        <v>6178.076378028493</v>
       </c>
       <c r="K58" s="5">
-        <v>-201.3234656327622</v>
+        <v>-216.1703311659603</v>
       </c>
       <c r="L58" s="4">
-        <v>-0.03155907920747281</v>
+        <v>-0.0338070051090027</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3065,25 +3065,25 @@
         <v>190562.5</v>
       </c>
       <c r="F59" s="3">
-        <v>1130410712.394587</v>
+        <v>1133066967.518701</v>
       </c>
       <c r="G59" s="3">
-        <v>1143386695.216489</v>
+        <v>1143413198.495548</v>
       </c>
       <c r="H59" s="4">
-        <v>0.6086956521739131</v>
+        <v>0.6245059288537549</v>
       </c>
       <c r="I59" s="5">
-        <v>6256.683847262795</v>
+        <v>6271.385891702949</v>
       </c>
       <c r="J59" s="5">
-        <v>6000.061372077345</v>
+        <v>6000.200451272147</v>
       </c>
       <c r="K59" s="5">
-        <v>-256.6224751854497</v>
+        <v>-271.1854404308024</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.04101573316633511</v>
+        <v>-0.04324170846982656</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3103,25 +3103,25 @@
         <v>50764</v>
       </c>
       <c r="F60" s="3">
-        <v>346990342.2231408</v>
+        <v>347805705.0505119</v>
       </c>
       <c r="G60" s="3">
-        <v>353977951.4233233</v>
+        <v>353986156.5008064</v>
       </c>
       <c r="H60" s="4">
         <v>0.5306122448979592</v>
       </c>
       <c r="I60" s="5">
-        <v>7037.058999840614</v>
+        <v>7053.594780882027</v>
       </c>
       <c r="J60" s="5">
-        <v>6973.011414059634</v>
+        <v>6973.173045875155</v>
       </c>
       <c r="K60" s="5">
-        <v>-64.04758578097972</v>
+        <v>-80.42173500687204</v>
       </c>
       <c r="L60" s="4">
-        <v>-0.009101470626071251</v>
+        <v>-0.01140152468424271</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3141,25 +3141,25 @@
         <v>41024</v>
       </c>
       <c r="F61" s="3">
-        <v>285303150.5186953</v>
+        <v>285973559.9081163</v>
       </c>
       <c r="G61" s="3">
-        <v>296258621.8793414</v>
+        <v>296265489.0441967</v>
       </c>
       <c r="H61" s="4">
-        <v>0.6619718309859155</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="I61" s="5">
-        <v>7325.514501141189</v>
+        <v>7342.728099010598</v>
       </c>
       <c r="J61" s="5">
-        <v>7221.592772019827</v>
+        <v>7221.760165858928</v>
       </c>
       <c r="K61" s="5">
-        <v>-103.9217291213618</v>
+        <v>-120.96793315167</v>
       </c>
       <c r="L61" s="4">
-        <v>-0.01418627034390174</v>
+        <v>-0.01647452166558772</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3179,25 +3179,25 @@
         <v>16696.5</v>
       </c>
       <c r="F62" s="3">
-        <v>99849972.42594895</v>
+        <v>100084601.3072847</v>
       </c>
       <c r="G62" s="3">
-        <v>102757625.9892685</v>
+        <v>102760007.8728853</v>
       </c>
       <c r="H62" s="4">
         <v>0.7173913043478261</v>
       </c>
       <c r="I62" s="5">
-        <v>6592.497849329787</v>
+        <v>6607.988994274707</v>
       </c>
       <c r="J62" s="5">
-        <v>6154.441109769621</v>
+        <v>6154.583767429421</v>
       </c>
       <c r="K62" s="5">
-        <v>-438.0567395601656</v>
+        <v>-453.4052268452861</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.06644776374173555</v>
+        <v>-0.06861470671911307</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3217,25 +3217,25 @@
         <v>259</v>
       </c>
       <c r="F63" s="3">
-        <v>3273730.729603073</v>
+        <v>3281423.388501411</v>
       </c>
       <c r="G63" s="3">
-        <v>3094924.366432226</v>
+        <v>3094996.105629904</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>11733.8018982189</v>
+        <v>11761.37415233481</v>
       </c>
       <c r="J63" s="5">
-        <v>11949.51492830975</v>
+        <v>11949.79191362897</v>
       </c>
       <c r="K63" s="5">
-        <v>215.7130300908557</v>
+        <v>188.4177612941658</v>
       </c>
       <c r="L63" s="4">
-        <v>0.01838389909442739</v>
+        <v>0.01602004653994982</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3255,25 +3255,25 @@
         <v>22923</v>
       </c>
       <c r="F64" s="3">
-        <v>225524124.3073771</v>
+        <v>226054064.0931864</v>
       </c>
       <c r="G64" s="3">
-        <v>210090678.1615465</v>
+        <v>210095547.9854603</v>
       </c>
       <c r="H64" s="4">
         <v>0.7142857142857143</v>
       </c>
       <c r="I64" s="5">
-        <v>9437.735366060308</v>
+        <v>9459.912290474826</v>
       </c>
       <c r="J64" s="5">
-        <v>9165.060339464575</v>
+        <v>9165.272782160288</v>
       </c>
       <c r="K64" s="5">
-        <v>-272.6750265957326</v>
+        <v>-294.639508314538</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.02889199749934901</v>
+        <v>-0.03114611417816315</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3293,25 +3293,25 @@
         <v>13174</v>
       </c>
       <c r="F65" s="3">
-        <v>125367615.8628999</v>
+        <v>125662206.4646896</v>
       </c>
       <c r="G65" s="3">
-        <v>115496162.741261</v>
+        <v>115498839.8994299</v>
       </c>
       <c r="H65" s="4">
         <v>0.7837837837837838</v>
       </c>
       <c r="I65" s="5">
-        <v>10092.38575615037</v>
+        <v>10116.10098733614</v>
       </c>
       <c r="J65" s="5">
-        <v>8766.977587768406</v>
+        <v>8767.180803053734</v>
       </c>
       <c r="K65" s="5">
-        <v>-1325.408168381962</v>
+        <v>-1348.92018428241</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.1313275374530992</v>
+        <v>-0.1333438827835999</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3331,25 +3331,25 @@
         <v>228814</v>
       </c>
       <c r="F66" s="3">
-        <v>1343244020.951736</v>
+        <v>1346400394.802823</v>
       </c>
       <c r="G66" s="3">
-        <v>1424976616.468885</v>
+        <v>1425009646.897767</v>
       </c>
       <c r="H66" s="4">
-        <v>0.5669724770642202</v>
+        <v>0.5743119266055046</v>
       </c>
       <c r="I66" s="5">
-        <v>6299.936078529639</v>
+        <v>6314.739757676262</v>
       </c>
       <c r="J66" s="5">
-        <v>6227.663589067473</v>
+        <v>6227.807943997162</v>
       </c>
       <c r="K66" s="5">
-        <v>-72.27248946216514</v>
+        <v>-86.93181367910074</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.01147194012149932</v>
+        <v>-0.01376649189278556</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3369,25 +3369,25 @@
         <v>37557.5</v>
       </c>
       <c r="F67" s="3">
-        <v>236431402.7232679</v>
+        <v>236986972.5865922</v>
       </c>
       <c r="G67" s="3">
-        <v>256511389.6939416</v>
+        <v>256517335.5327129</v>
       </c>
       <c r="H67" s="4">
-        <v>0.611764705882353</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="I67" s="5">
-        <v>6935.200936399629</v>
+        <v>6951.49736991896</v>
       </c>
       <c r="J67" s="5">
-        <v>6829.831317152143</v>
+        <v>6829.989630106181</v>
       </c>
       <c r="K67" s="5">
-        <v>-105.3696192474854</v>
+        <v>-121.5077398127796</v>
       </c>
       <c r="L67" s="4">
-        <v>-0.01519344864176164</v>
+        <v>-0.01747936212111323</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3407,25 +3407,25 @@
         <v>24667</v>
       </c>
       <c r="F68" s="3">
-        <v>148041625.4974075</v>
+        <v>148389495.8086121</v>
       </c>
       <c r="G68" s="3">
-        <v>164571866.7421874</v>
+        <v>164575681.4569535</v>
       </c>
       <c r="H68" s="4">
-        <v>0.6808510638297872</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="I68" s="5">
-        <v>6606.789043731227</v>
+        <v>6622.31377032744</v>
       </c>
       <c r="J68" s="5">
-        <v>6671.742276814665</v>
+        <v>6671.896925323447</v>
       </c>
       <c r="K68" s="5">
-        <v>64.95323308343814</v>
+        <v>49.58315499600758</v>
       </c>
       <c r="L68" s="4">
-        <v>0.009831286068543221</v>
+        <v>0.007487285670179977</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3445,25 +3445,25 @@
         <v>63406.5</v>
       </c>
       <c r="F69" s="3">
-        <v>402790372.8724791</v>
+        <v>403736855.4032578</v>
       </c>
       <c r="G69" s="3">
-        <v>402531762.9272217</v>
+        <v>402541093.4640276</v>
       </c>
       <c r="H69" s="4">
-        <v>0.6785714285714286</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I69" s="5">
-        <v>6524.717296623833</v>
+        <v>6540.049169864706</v>
       </c>
       <c r="J69" s="5">
-        <v>6348.430569850437</v>
+        <v>6348.577724113894</v>
       </c>
       <c r="K69" s="5">
-        <v>-176.2867267733964</v>
+        <v>-191.4714457508117</v>
       </c>
       <c r="L69" s="4">
-        <v>-0.02701829347680929</v>
+        <v>-0.02927675936032337</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3483,25 +3483,25 @@
         <v>20097.5</v>
       </c>
       <c r="F70" s="3">
-        <v>137334726.3963032</v>
+        <v>137657437.4841487</v>
       </c>
       <c r="G70" s="3">
-        <v>144093327.069955</v>
+        <v>144096667.099775</v>
       </c>
       <c r="H70" s="4">
-        <v>0.576271186440678</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="I70" s="5">
-        <v>7200.667264192069</v>
+        <v>7217.587494253437</v>
       </c>
       <c r="J70" s="5">
-        <v>7169.713997758675</v>
+        <v>7169.88018906705</v>
       </c>
       <c r="K70" s="5">
-        <v>-30.95326643339376</v>
+        <v>-47.7073051863872</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.004298666401004292</v>
+        <v>-0.006609868633303151</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3521,25 +3521,25 @@
         <v>36379.5</v>
       </c>
       <c r="F71" s="3">
-        <v>346125115.2854891</v>
+        <v>346938444.9903306</v>
       </c>
       <c r="G71" s="3">
-        <v>320842399.5329115</v>
+        <v>320849836.5406048</v>
       </c>
       <c r="H71" s="4">
-        <v>0.7528089887640449</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="I71" s="5">
-        <v>9509.454236097838</v>
+        <v>9531.799686530321</v>
       </c>
       <c r="J71" s="5">
-        <v>8819.318559433514</v>
+        <v>8819.522987963133</v>
       </c>
       <c r="K71" s="5">
-        <v>-690.1356766643239</v>
+        <v>-712.2766985671879</v>
       </c>
       <c r="L71" s="4">
-        <v>-0.07257363667039618</v>
+        <v>-0.07472636039275227</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3550,34 +3550,34 @@
         <v>888</v>
       </c>
       <c r="C72" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D72" s="2">
-        <v>166019</v>
+        <v>166056</v>
       </c>
       <c r="E72" s="2">
-        <v>175055</v>
+        <v>175078</v>
       </c>
       <c r="F72" s="3">
-        <v>1065990732.515613</v>
+        <v>1068932338.451988</v>
       </c>
       <c r="G72" s="3">
-        <v>1081403321.19724</v>
+        <v>1081834859.736677</v>
       </c>
       <c r="H72" s="4">
-        <v>0.7402597402597403</v>
+        <v>0.7471636952998379</v>
       </c>
       <c r="I72" s="5">
-        <v>6420.895996937781</v>
+        <v>6437.179857710578</v>
       </c>
       <c r="J72" s="5">
-        <v>6177.50604779778</v>
+        <v>6179.159344615982</v>
       </c>
       <c r="K72" s="5">
-        <v>-243.3899491400016</v>
+        <v>-258.020513094596</v>
       </c>
       <c r="L72" s="4">
-        <v>-0.03790591675306343</v>
+        <v>-0.04008284975687515</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3597,25 +3597,25 @@
         <v>120207</v>
       </c>
       <c r="F73" s="3">
-        <v>715079065.2026104</v>
+        <v>716759368.1316822</v>
       </c>
       <c r="G73" s="3">
-        <v>763933837.1505518</v>
+        <v>763951544.8532505</v>
       </c>
       <c r="H73" s="4">
-        <v>0.6022727272727273</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="I73" s="5">
-        <v>6456.346068859569</v>
+        <v>6471.517282419753</v>
       </c>
       <c r="J73" s="5">
-        <v>6355.15267123006</v>
+        <v>6355.299981309329</v>
       </c>
       <c r="K73" s="5">
-        <v>-101.1933976295086</v>
+        <v>-116.2173011104233</v>
       </c>
       <c r="L73" s="4">
-        <v>-0.01567347793167218</v>
+        <v>-0.01795827717653387</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3635,25 +3635,25 @@
         <v>53836.5</v>
       </c>
       <c r="F74" s="3">
-        <v>332071428.7175155</v>
+        <v>332851734.8703423</v>
       </c>
       <c r="G74" s="3">
-        <v>360949167.0518218</v>
+        <v>360957533.7194945</v>
       </c>
       <c r="H74" s="4">
-        <v>0.4622641509433962</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="I74" s="5">
-        <v>6651.072629663322</v>
+        <v>6666.701414457809</v>
       </c>
       <c r="J74" s="5">
-        <v>6704.543702726251</v>
+        <v>6704.699111559898</v>
       </c>
       <c r="K74" s="5">
-        <v>53.47107306292855</v>
+        <v>37.99769710208966</v>
       </c>
       <c r="L74" s="4">
-        <v>0.008039466119261984</v>
+        <v>0.005699624857907315</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3673,25 +3673,25 @@
         <v>93955.5</v>
       </c>
       <c r="F75" s="3">
-        <v>506538767.9573826</v>
+        <v>507729039.9383509</v>
       </c>
       <c r="G75" s="3">
-        <v>547935962.4066032</v>
+        <v>547948663.3587649</v>
       </c>
       <c r="H75" s="4">
-        <v>0.5597014925373134</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="I75" s="5">
-        <v>5873.253730156909</v>
+        <v>5887.054785069869</v>
       </c>
       <c r="J75" s="5">
-        <v>5831.86681361499</v>
+        <v>5832.001994122375</v>
       </c>
       <c r="K75" s="5">
-        <v>-41.38691654191916</v>
+        <v>-55.05279094749403</v>
       </c>
       <c r="L75" s="4">
-        <v>-0.007046676074866864</v>
+        <v>-0.00935149968148985</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3711,25 +3711,25 @@
         <v>36845.5</v>
       </c>
       <c r="F76" s="3">
-        <v>322195852.1729792</v>
+        <v>322952952.5559808</v>
       </c>
       <c r="G76" s="3">
-        <v>295500312.5845512</v>
+        <v>295507162.1720784</v>
       </c>
       <c r="H76" s="4">
-        <v>0.8048780487804879</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="I76" s="5">
-        <v>8474.712368267534</v>
+        <v>8494.626367583698</v>
       </c>
       <c r="J76" s="5">
-        <v>8019.983785931828</v>
+        <v>8020.169686178187</v>
       </c>
       <c r="K76" s="5">
-        <v>-454.7285823357061</v>
+        <v>-474.4566814055115</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.05365711101162307</v>
+        <v>-0.05585374339901317</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3740,34 +3740,34 @@
         <v>925</v>
       </c>
       <c r="C77" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D77" s="2">
-        <v>95491.5</v>
+        <v>95649</v>
       </c>
       <c r="E77" s="2">
-        <v>99788</v>
+        <v>99878</v>
       </c>
       <c r="F77" s="3">
-        <v>600215029.6857222</v>
+        <v>602582207.1917388</v>
       </c>
       <c r="G77" s="3">
-        <v>634044452.0887105</v>
+        <v>634877576.5983788</v>
       </c>
       <c r="H77" s="4">
-        <v>0.3869047619047619</v>
+        <v>0.3976261127596439</v>
       </c>
       <c r="I77" s="5">
-        <v>6285.533578231803</v>
+        <v>6299.93211838847</v>
       </c>
       <c r="J77" s="5">
-        <v>6353.914820306154</v>
+        <v>6356.530733478632</v>
       </c>
       <c r="K77" s="5">
-        <v>68.38124207435067</v>
+        <v>56.59861509016173</v>
       </c>
       <c r="L77" s="4">
-        <v>0.01087914673006751</v>
+        <v>0.008984003958544262</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3787,25 +3787,25 @@
         <v>70695</v>
       </c>
       <c r="F78" s="3">
-        <v>473767622.1602097</v>
+        <v>474880888.0380042</v>
       </c>
       <c r="G78" s="3">
-        <v>472507211.5128249</v>
+        <v>472518164.0545471</v>
       </c>
       <c r="H78" s="4">
         <v>0.7975460122699386</v>
       </c>
       <c r="I78" s="5">
-        <v>7221.902276018226</v>
+        <v>7238.872404411548</v>
       </c>
       <c r="J78" s="5">
-        <v>6683.743001808118</v>
+        <v>6683.897928489245</v>
       </c>
       <c r="K78" s="5">
-        <v>-538.1592742101084</v>
+        <v>-554.9744759223031</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.0745176621950665</v>
+        <v>-0.07666587348384368</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3825,25 +3825,25 @@
         <v>38622.5</v>
       </c>
       <c r="F79" s="3">
-        <v>259682818.2140457</v>
+        <v>260293024.5832548</v>
       </c>
       <c r="G79" s="3">
-        <v>248935209.5724192</v>
+        <v>248940979.7981482</v>
       </c>
       <c r="H79" s="4">
         <v>0.8529411764705882</v>
       </c>
       <c r="I79" s="5">
-        <v>7041.959465080626</v>
+        <v>7058.506761304756</v>
       </c>
       <c r="J79" s="5">
-        <v>6445.341693893954</v>
+        <v>6445.491094521281</v>
       </c>
       <c r="K79" s="5">
-        <v>-596.6177711866721</v>
+        <v>-613.0156667834744</v>
       </c>
       <c r="L79" s="4">
-        <v>-0.08472326120949081</v>
+        <v>-0.08684778346378741</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3863,25 +3863,25 @@
         <v>81963.5</v>
       </c>
       <c r="F80" s="3">
-        <v>554118438.7721024</v>
+        <v>555420514.1383529</v>
       </c>
       <c r="G80" s="3">
-        <v>584625973.8205718</v>
+        <v>584639525.233575</v>
       </c>
       <c r="H80" s="4">
         <v>0.6904761904761905</v>
       </c>
       <c r="I80" s="5">
-        <v>7319.878188018604</v>
+        <v>7337.078541599499</v>
       </c>
       <c r="J80" s="5">
-        <v>7132.759994638733</v>
+        <v>7132.925329367035</v>
       </c>
       <c r="K80" s="5">
-        <v>-187.1181933798716</v>
+        <v>-204.1532122324634</v>
       </c>
       <c r="L80" s="4">
-        <v>-0.0255630201177599</v>
+        <v>-0.02782486395299755</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3901,25 +3901,25 @@
         <v>40490.5</v>
       </c>
       <c r="F81" s="3">
-        <v>244696962.4409763</v>
+        <v>245271954.833752</v>
       </c>
       <c r="G81" s="3">
-        <v>251255991.6407596</v>
+        <v>251261815.6613551</v>
       </c>
       <c r="H81" s="4">
-        <v>0.7023809523809523</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I81" s="5">
-        <v>6562.967518431957</v>
+        <v>6578.389272586518</v>
       </c>
       <c r="J81" s="5">
-        <v>6205.307211339934</v>
+        <v>6205.451048057078</v>
       </c>
       <c r="K81" s="5">
-        <v>-357.6603070920228</v>
+        <v>-372.93822452944</v>
       </c>
       <c r="L81" s="4">
-        <v>-0.05449673582682546</v>
+        <v>-0.05669141929370902</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3939,25 +3939,25 @@
         <v>26966.5</v>
       </c>
       <c r="F82" s="3">
-        <v>191607928.2329461</v>
+        <v>192058171.2602008</v>
       </c>
       <c r="G82" s="3">
-        <v>194547061.6818042</v>
+        <v>194551571.2104594</v>
       </c>
       <c r="H82" s="4">
         <v>0.3214285714285715</v>
       </c>
       <c r="I82" s="5">
-        <v>6985.596566879804</v>
+        <v>7002.01142076637</v>
       </c>
       <c r="J82" s="5">
-        <v>7214.397926382891</v>
+        <v>7214.565153448143</v>
       </c>
       <c r="K82" s="5">
-        <v>228.801359503087</v>
+        <v>212.553732681773</v>
       </c>
       <c r="L82" s="4">
-        <v>0.03275330278703503</v>
+        <v>0.03035609625705371</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3977,25 +3977,25 @@
         <v>20050.5</v>
       </c>
       <c r="F83" s="3">
-        <v>141784936.5824891</v>
+        <v>142118104.8373455</v>
       </c>
       <c r="G83" s="3">
-        <v>144598436.7492086</v>
+        <v>144601788.4872835</v>
       </c>
       <c r="H83" s="4">
         <v>0.813953488372093</v>
       </c>
       <c r="I83" s="5">
-        <v>7658.048371951127</v>
+        <v>7676.043362626349</v>
       </c>
       <c r="J83" s="5">
-        <v>7211.712263993844</v>
+        <v>7211.87942880644</v>
       </c>
       <c r="K83" s="5">
-        <v>-446.3361079572824</v>
+        <v>-464.1639338199093</v>
       </c>
       <c r="L83" s="4">
-        <v>-0.05828327091691698</v>
+        <v>-0.06046916515347778</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4015,25 +4015,25 @@
         <v>46389.5</v>
       </c>
       <c r="F84" s="3">
-        <v>288492718.6215647</v>
+        <v>289170622.9033499</v>
       </c>
       <c r="G84" s="3">
-        <v>299105400.2232704</v>
+        <v>299112333.3753907</v>
       </c>
       <c r="H84" s="4">
         <v>0.4716981132075472</v>
       </c>
       <c r="I84" s="5">
-        <v>6504.615769786361</v>
+        <v>6519.900408174375</v>
       </c>
       <c r="J84" s="5">
-        <v>6447.696142947658</v>
+        <v>6447.845598150243</v>
       </c>
       <c r="K84" s="5">
-        <v>-56.91962683870315</v>
+        <v>-72.05481002413217</v>
       </c>
       <c r="L84" s="4">
-        <v>-0.008750651668480103</v>
+        <v>-0.01105152004067311</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4053,25 +4053,25 @@
         <v>38977.5</v>
       </c>
       <c r="F85" s="3">
-        <v>241266197.927942</v>
+        <v>241833128.6616079</v>
       </c>
       <c r="G85" s="3">
-        <v>253759430.1790876</v>
+        <v>253765312.2284589</v>
       </c>
       <c r="H85" s="4">
-        <v>0.5913978494623656</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="I85" s="5">
-        <v>6691.522733783805</v>
+        <v>6707.246568806641</v>
       </c>
       <c r="J85" s="5">
-        <v>6510.408060524344</v>
+        <v>6510.558969365889</v>
       </c>
       <c r="K85" s="5">
-        <v>-181.1146732594607</v>
+        <v>-196.6875994407519</v>
       </c>
       <c r="L85" s="4">
-        <v>-0.02706628677282352</v>
+        <v>-0.02932464125524858</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4091,25 +4091,25 @@
         <v>58405</v>
       </c>
       <c r="F86" s="3">
-        <v>483213837.8564166</v>
+        <v>484349300.5858262</v>
       </c>
       <c r="G86" s="3">
-        <v>489589790.527406</v>
+        <v>489601139.0369672</v>
       </c>
       <c r="H86" s="4">
-        <v>0.5578947368421052</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="I86" s="5">
-        <v>8701.068476751898</v>
+        <v>8721.514370862091</v>
       </c>
       <c r="J86" s="5">
-        <v>8382.669129824604</v>
+        <v>8382.863436982572</v>
       </c>
       <c r="K86" s="5">
-        <v>-318.3993469272937</v>
+        <v>-338.6509338795186</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.03659313195592184</v>
+        <v>-0.03882937291382849</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4129,25 +4129,25 @@
         <v>106174.5</v>
       </c>
       <c r="F87" s="3">
-        <v>662791514.6539793</v>
+        <v>664348951.5551994</v>
       </c>
       <c r="G87" s="3">
-        <v>661618176.3043414</v>
+        <v>661633512.3680121</v>
       </c>
       <c r="H87" s="4">
-        <v>0.7565982404692082</v>
+        <v>0.7624633431085044</v>
       </c>
       <c r="I87" s="5">
-        <v>6596.942501495273</v>
+        <v>6612.444090546876</v>
       </c>
       <c r="J87" s="5">
-        <v>6231.42257608316</v>
+        <v>6231.567018144772</v>
       </c>
       <c r="K87" s="5">
-        <v>-365.5199254121135</v>
+        <v>-380.8770724021042</v>
       </c>
       <c r="L87" s="4">
-        <v>-0.05540747480052532</v>
+        <v>-0.05760004427812171</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4167,25 +4167,25 @@
         <v>21535</v>
       </c>
       <c r="F88" s="3">
-        <v>147273626.9064624</v>
+        <v>147619692.5636858</v>
       </c>
       <c r="G88" s="3">
-        <v>142016138.7508277</v>
+        <v>142019430.6321938</v>
       </c>
       <c r="H88" s="4">
         <v>0.7413793103448276</v>
       </c>
       <c r="I88" s="5">
-        <v>7081.484199954915</v>
+        <v>7098.12437196162</v>
       </c>
       <c r="J88" s="5">
-        <v>6594.666299086495</v>
+        <v>6594.819161002731</v>
       </c>
       <c r="K88" s="5">
-        <v>-486.8179008684201</v>
+        <v>-503.3052109588889</v>
       </c>
       <c r="L88" s="4">
-        <v>-0.06874517927633295</v>
+        <v>-0.07090678953823359</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4205,25 +4205,25 @@
         <v>22510.5</v>
       </c>
       <c r="F89" s="3">
-        <v>134906749.0215622</v>
+        <v>135223754.8137375</v>
       </c>
       <c r="G89" s="3">
-        <v>139100165.8528908</v>
+        <v>139103390.1430878</v>
       </c>
       <c r="H89" s="4">
         <v>0.7424242424242424</v>
       </c>
       <c r="I89" s="5">
-        <v>6384.153941819665</v>
+        <v>6399.155517295862</v>
       </c>
       <c r="J89" s="5">
-        <v>6179.345898709081</v>
+        <v>6179.489133652643</v>
       </c>
       <c r="K89" s="5">
-        <v>-204.8080431105845</v>
+        <v>-219.6663836432199</v>
       </c>
       <c r="L89" s="4">
-        <v>-0.03208068680314569</v>
+        <v>-0.03432740195944572</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4243,25 +4243,25 @@
         <v>52585.5</v>
       </c>
       <c r="F90" s="3">
-        <v>315728348.0694249</v>
+        <v>316470251.0195583</v>
       </c>
       <c r="G90" s="3">
-        <v>318241345.547105</v>
+        <v>318248722.2633326</v>
       </c>
       <c r="H90" s="4">
         <v>0.5970149253731343</v>
       </c>
       <c r="I90" s="5">
-        <v>6256.134663630191</v>
+        <v>6270.835417590866</v>
       </c>
       <c r="J90" s="5">
-        <v>6051.883989828089</v>
+        <v>6052.024270251925</v>
       </c>
       <c r="K90" s="5">
-        <v>-204.250673802102</v>
+        <v>-218.8111473389408</v>
       </c>
       <c r="L90" s="4">
-        <v>-0.03264806222754535</v>
+        <v>-0.03489346040323982</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4281,25 +4281,25 @@
         <v>29434</v>
       </c>
       <c r="F91" s="3">
-        <v>171860581.5676262</v>
+        <v>172264421.9996186</v>
       </c>
       <c r="G91" s="3">
-        <v>176795996.6124118</v>
+        <v>176800094.6779694</v>
       </c>
       <c r="H91" s="4">
-        <v>0.5342465753424658</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="I91" s="5">
-        <v>6021.849771987114</v>
+        <v>6035.999999986636</v>
       </c>
       <c r="J91" s="5">
-        <v>6006.522953469177</v>
+        <v>6006.662182441033</v>
       </c>
       <c r="K91" s="5">
-        <v>-15.32681851793677</v>
+        <v>-29.33781754560277</v>
       </c>
       <c r="L91" s="4">
-        <v>-0.002545201075794923</v>
+        <v>-0.004860473417108602</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4319,25 +4319,25 @@
         <v>28998.5</v>
       </c>
       <c r="F92" s="3">
-        <v>178533684.749496</v>
+        <v>178953205.7339869</v>
       </c>
       <c r="G92" s="3">
-        <v>181909316.092855</v>
+        <v>181913532.6832596</v>
       </c>
       <c r="H92" s="4">
-        <v>0.4545454545454545</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="I92" s="5">
-        <v>6306.048240096638</v>
+        <v>6320.866281687192</v>
       </c>
       <c r="J92" s="5">
-        <v>6273.059506279807</v>
+        <v>6273.204913469995</v>
       </c>
       <c r="K92" s="5">
-        <v>-32.98873381683097</v>
+        <v>-47.66136821719738</v>
       </c>
       <c r="L92" s="4">
-        <v>-0.005231284722351792</v>
+        <v>-0.007540322179458547</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4357,25 +4357,25 @@
         <v>77168.5</v>
       </c>
       <c r="F93" s="3">
-        <v>480336005.7178634</v>
+        <v>481464706.0764982</v>
       </c>
       <c r="G93" s="3">
-        <v>474168140.7909439</v>
+        <v>474179131.8323902</v>
       </c>
       <c r="H93" s="4">
-        <v>0.4854368932038835</v>
+        <v>0.511326860841424</v>
       </c>
       <c r="I93" s="5">
-        <v>6284.529359202205</v>
+        <v>6299.296835421236</v>
       </c>
       <c r="J93" s="5">
-        <v>6144.581542869744</v>
+        <v>6144.723971988444</v>
       </c>
       <c r="K93" s="5">
-        <v>-139.9478163324611</v>
+        <v>-154.5728634327925</v>
       </c>
       <c r="L93" s="4">
-        <v>-0.02226862320685008</v>
+        <v>-0.02453811393100613</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4395,25 +4395,25 @@
         <v>42967</v>
       </c>
       <c r="F94" s="3">
-        <v>277291569.850198</v>
+        <v>277943153.5137394</v>
       </c>
       <c r="G94" s="3">
-        <v>267125704.1841845</v>
+        <v>267131896.0588245</v>
       </c>
       <c r="H94" s="4">
-        <v>0.6455696202531646</v>
+        <v>0.6518987341772152</v>
       </c>
       <c r="I94" s="5">
-        <v>6493.415524493263</v>
+        <v>6508.673844386043</v>
       </c>
       <c r="J94" s="5">
-        <v>6216.996862340506</v>
+        <v>6217.140970019423</v>
       </c>
       <c r="K94" s="5">
-        <v>-276.418662152757</v>
+        <v>-291.5328743666205</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.04256907033133817</v>
+        <v>-0.04479144005934144</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4433,25 +4433,25 @@
         <v>42803</v>
       </c>
       <c r="F95" s="3">
-        <v>307967935.5807944</v>
+        <v>308691603.0035991</v>
       </c>
       <c r="G95" s="3">
-        <v>305586882.3948109</v>
+        <v>305593965.7852813</v>
       </c>
       <c r="H95" s="4">
-        <v>0.71875</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="I95" s="5">
-        <v>7398.984589789165</v>
+        <v>7416.370828714872</v>
       </c>
       <c r="J95" s="5">
-        <v>7139.380005953108</v>
+        <v>7139.545494130815</v>
       </c>
       <c r="K95" s="5">
-        <v>-259.6045838360569</v>
+        <v>-276.8253345840567</v>
       </c>
       <c r="L95" s="4">
-        <v>-0.0350865150056292</v>
+        <v>-0.03732625309298698</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4471,25 +4471,25 @@
         <v>117131</v>
       </c>
       <c r="F96" s="3">
-        <v>676307532.6140501</v>
+        <v>677896729.6459655</v>
       </c>
       <c r="G96" s="3">
-        <v>704097292.427597</v>
+        <v>704113613.141407</v>
       </c>
       <c r="H96" s="4">
-        <v>0.5634674922600619</v>
+        <v>0.5851393188854489</v>
       </c>
       <c r="I96" s="5">
-        <v>6169.788467140291</v>
+        <v>6184.286323583833</v>
       </c>
       <c r="J96" s="5">
-        <v>6011.195092909623</v>
+        <v>6011.334430179944</v>
       </c>
       <c r="K96" s="5">
-        <v>-158.5933742306679</v>
+        <v>-172.9518934038888</v>
       </c>
       <c r="L96" s="4">
-        <v>-0.02570483170943727</v>
+        <v>-0.02796634637441275</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4509,25 +4509,25 @@
         <v>42665</v>
       </c>
       <c r="F97" s="3">
-        <v>276599983.7315866</v>
+        <v>277249942.2962579</v>
       </c>
       <c r="G97" s="3">
-        <v>281380592.2933321</v>
+        <v>281387114.5909856</v>
       </c>
       <c r="H97" s="4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I97" s="5">
-        <v>6799.075358428459</v>
+        <v>6815.051922134062</v>
       </c>
       <c r="J97" s="5">
-        <v>6595.115253564563</v>
+        <v>6595.268125887393</v>
       </c>
       <c r="K97" s="5">
-        <v>-203.960104863896</v>
+        <v>-219.7837962466692</v>
       </c>
       <c r="L97" s="4">
-        <v>-0.02999821212616172</v>
+        <v>-0.03224976108147481</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4547,25 +4547,25 @@
         <v>87105.5</v>
       </c>
       <c r="F98" s="3">
-        <v>496355975.7141911</v>
+        <v>497522320.0255274</v>
       </c>
       <c r="G98" s="3">
-        <v>516682550.2384503</v>
+        <v>516694526.7481225</v>
       </c>
       <c r="H98" s="4">
-        <v>0.5343511450381679</v>
+        <v>0.5458015267175572</v>
       </c>
       <c r="I98" s="5">
-        <v>6004.645129735442</v>
+        <v>6018.75493002259</v>
       </c>
       <c r="J98" s="5">
-        <v>5931.68686522034</v>
+        <v>5931.824359519462</v>
       </c>
       <c r="K98" s="5">
-        <v>-72.95826451510129</v>
+        <v>-86.93057050312837</v>
       </c>
       <c r="L98" s="4">
-        <v>-0.01215030412934925</v>
+        <v>-0.01444328129552241</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4585,25 +4585,25 @@
         <v>37458</v>
       </c>
       <c r="F99" s="3">
-        <v>229180442.2633575</v>
+        <v>229718973.7169557</v>
       </c>
       <c r="G99" s="3">
-        <v>241683844.2490368</v>
+        <v>241689446.39081</v>
       </c>
       <c r="H99" s="4">
-        <v>0.5540540540540541</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="I99" s="5">
-        <v>6617.40081030686</v>
+        <v>6632.950472582673</v>
       </c>
       <c r="J99" s="5">
-        <v>6452.128897673041</v>
+        <v>6452.278455625233</v>
       </c>
       <c r="K99" s="5">
-        <v>-165.2719126338188</v>
+        <v>-180.6720169574401</v>
       </c>
       <c r="L99" s="4">
-        <v>-0.02497535170854415</v>
+        <v>-0.02723855962806421</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4623,25 +4623,25 @@
         <v>35846.5</v>
       </c>
       <c r="F100" s="3">
-        <v>233607097.0105989</v>
+        <v>234156030.2803035</v>
       </c>
       <c r="G100" s="3">
-        <v>236392524.1503553</v>
+        <v>236398003.6412933</v>
       </c>
       <c r="H100" s="4">
-        <v>0.4782608695652174</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="I100" s="5">
-        <v>6657.369535782242</v>
+        <v>6673.013117136035</v>
       </c>
       <c r="J100" s="5">
-        <v>6594.577550119408</v>
+        <v>6594.730409978472</v>
       </c>
       <c r="K100" s="5">
-        <v>-62.79198566283412</v>
+        <v>-78.28270715756298</v>
       </c>
       <c r="L100" s="4">
-        <v>-0.009431951362371849</v>
+        <v>-0.01173123831519773</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4661,25 +4661,25 @@
         <v>22284.5</v>
       </c>
       <c r="F101" s="3">
-        <v>141449085.859506</v>
+        <v>141781464.9275703</v>
       </c>
       <c r="G101" s="3">
-        <v>153562683.1985838</v>
+        <v>153566242.7245629</v>
       </c>
       <c r="H101" s="4">
-        <v>0.5208333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="I101" s="5">
-        <v>6885.177465902744</v>
+        <v>6901.356353561638</v>
       </c>
       <c r="J101" s="5">
-        <v>6891.008692076725</v>
+        <v>6891.168423099596</v>
       </c>
       <c r="K101" s="5">
-        <v>5.831226173981122</v>
+        <v>-10.18793046204155</v>
       </c>
       <c r="L101" s="4">
-        <v>0.0008469246003983688</v>
+        <v>-0.001476221475910866</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4699,25 +4699,25 @@
         <v>21871.5</v>
       </c>
       <c r="F102" s="3">
-        <v>130829370.6133354</v>
+        <v>131136795.3238994</v>
       </c>
       <c r="G102" s="3">
-        <v>142698476.3530125</v>
+        <v>142701784.0507109</v>
       </c>
       <c r="H102" s="4">
         <v>0.7192982456140351</v>
       </c>
       <c r="I102" s="5">
-        <v>6771.881809225674</v>
+        <v>6787.794473143683</v>
       </c>
       <c r="J102" s="5">
-        <v>6524.40282344661</v>
+        <v>6524.554056681565</v>
       </c>
       <c r="K102" s="5">
-        <v>-247.4789857790638</v>
+        <v>-263.2404164621175</v>
       </c>
       <c r="L102" s="4">
-        <v>-0.03654508344222884</v>
+        <v>-0.0387814359293942</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4737,25 +4737,25 @@
         <v>55843</v>
       </c>
       <c r="F103" s="3">
-        <v>346103040.3980339</v>
+        <v>346916318.230992</v>
       </c>
       <c r="G103" s="3">
-        <v>355166040.8912101</v>
+        <v>355174273.5081658</v>
       </c>
       <c r="H103" s="4">
         <v>0.6216216216216216</v>
       </c>
       <c r="I103" s="5">
-        <v>6498.001246607098</v>
+        <v>6513.270342094738</v>
       </c>
       <c r="J103" s="5">
-        <v>6360.081673463283</v>
+        <v>6360.229097794992</v>
       </c>
       <c r="K103" s="5">
-        <v>-137.9195731438149</v>
+        <v>-153.0412442997458</v>
       </c>
       <c r="L103" s="4">
-        <v>-0.02122492254304031</v>
+        <v>-0.02349683588452522</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4775,25 +4775,25 @@
         <v>19868</v>
       </c>
       <c r="F104" s="3">
-        <v>132678058.4810921</v>
+        <v>132989827.2646269</v>
       </c>
       <c r="G104" s="3">
-        <v>129397353.1988689</v>
+        <v>129400352.5814712</v>
       </c>
       <c r="H104" s="4">
         <v>0.6071428571428571</v>
       </c>
       <c r="I104" s="5">
-        <v>6709.553135659164</v>
+        <v>6725.319338776046</v>
       </c>
       <c r="J104" s="5">
-        <v>6512.852486353377</v>
+        <v>6513.003451855807</v>
       </c>
       <c r="K104" s="5">
-        <v>-196.700649305787</v>
+        <v>-212.3158869202389</v>
       </c>
       <c r="L104" s="4">
-        <v>-0.0293165051872657</v>
+        <v>-0.03156963650723521</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4813,25 +4813,25 @@
         <v>26069.5</v>
       </c>
       <c r="F105" s="3">
-        <v>156827907.442178</v>
+        <v>157196423.8833084</v>
       </c>
       <c r="G105" s="3">
-        <v>166676141.8642285</v>
+        <v>166680005.3553106</v>
       </c>
       <c r="H105" s="4">
         <v>0.4339622641509434</v>
       </c>
       <c r="I105" s="5">
-        <v>6374.470376676274</v>
+        <v>6389.44919757376</v>
       </c>
       <c r="J105" s="5">
-        <v>6393.530442249697</v>
+        <v>6393.678641911451</v>
       </c>
       <c r="K105" s="5">
-        <v>19.06006557342334</v>
+        <v>4.229444337690438</v>
       </c>
       <c r="L105" s="4">
-        <v>0.002990062616521572</v>
+        <v>0.000661941930659049</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4851,25 +4851,25 @@
         <v>35919.5</v>
       </c>
       <c r="F106" s="3">
-        <v>213475297.7464501</v>
+        <v>213976925.0287232</v>
       </c>
       <c r="G106" s="3">
-        <v>222978864.0358743</v>
+        <v>222984032.6031512</v>
       </c>
       <c r="H106" s="4">
-        <v>0.8823529411764706</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="I106" s="5">
-        <v>6634.097230960115</v>
+        <v>6649.686126721979</v>
       </c>
       <c r="J106" s="5">
-        <v>6207.73852742589</v>
+        <v>6207.882420500039</v>
       </c>
       <c r="K106" s="5">
-        <v>-426.3587035342243</v>
+        <v>-441.80370622194</v>
       </c>
       <c r="L106" s="4">
-        <v>-0.06426778033105796</v>
+        <v>-0.066439783442791</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4889,25 +4889,25 @@
         <v>40369</v>
       </c>
       <c r="F107" s="3">
-        <v>267680832.6240777</v>
+        <v>268309832.8409802</v>
       </c>
       <c r="G107" s="3">
-        <v>267217591.7428589</v>
+        <v>267223785.7474184</v>
       </c>
       <c r="H107" s="4">
-        <v>0.6869565217391305</v>
+        <v>0.7043478260869566</v>
       </c>
       <c r="I107" s="5">
-        <v>6770.901821826217</v>
+        <v>6786.812182955941</v>
       </c>
       <c r="J107" s="5">
-        <v>6619.376049514701</v>
+        <v>6619.529484193773</v>
       </c>
       <c r="K107" s="5">
-        <v>-151.5257723115164</v>
+        <v>-167.2826987621684</v>
       </c>
       <c r="L107" s="4">
-        <v>-0.02237896461931677</v>
+        <v>-0.02464819922117101</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4927,25 +4927,25 @@
         <v>5657</v>
       </c>
       <c r="F108" s="3">
-        <v>33217372.31363973</v>
+        <v>33295426.96621005</v>
       </c>
       <c r="G108" s="3">
-        <v>34751974.5403176</v>
+        <v>34752780.07818413</v>
       </c>
       <c r="H108" s="4">
         <v>0.55</v>
       </c>
       <c r="I108" s="5">
-        <v>6210.015388603426</v>
+        <v>6224.607770837549</v>
       </c>
       <c r="J108" s="5">
-        <v>6143.180933413045</v>
+        <v>6143.323330066135</v>
       </c>
       <c r="K108" s="5">
-        <v>-66.83445519038105</v>
+        <v>-81.28444077141376</v>
       </c>
       <c r="L108" s="4">
-        <v>-0.01076236547062914</v>
+        <v>-0.01305856429255403</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4965,25 +4965,25 @@
         <v>36234.5</v>
       </c>
       <c r="F109" s="3">
-        <v>233669861.5098815</v>
+        <v>234218942.2644967</v>
       </c>
       <c r="G109" s="3">
-        <v>244710955.7981095</v>
+        <v>244716628.1072044</v>
       </c>
       <c r="H109" s="4">
-        <v>0.7291666666666666</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="I109" s="5">
-        <v>6893.7296881603</v>
+        <v>6909.928671952347</v>
       </c>
       <c r="J109" s="5">
-        <v>6753.53477481708</v>
+        <v>6753.691319245593</v>
       </c>
       <c r="K109" s="5">
-        <v>-140.1949133432199</v>
+        <v>-156.2373527067539</v>
       </c>
       <c r="L109" s="4">
-        <v>-0.02033658406769256</v>
+        <v>-0.02261055940286716</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5003,25 +5003,25 @@
         <v>56784</v>
       </c>
       <c r="F110" s="3">
-        <v>368902443.7890691</v>
+        <v>369769295.9834696</v>
       </c>
       <c r="G110" s="3">
-        <v>370508754.5195593</v>
+        <v>370517342.7749205</v>
       </c>
       <c r="H110" s="4">
-        <v>0.7798165137614679</v>
+        <v>0.7889908256880734</v>
       </c>
       <c r="I110" s="5">
-        <v>6940.845046314059</v>
+        <v>6957.154742442913</v>
       </c>
       <c r="J110" s="5">
-        <v>6524.879447019571</v>
+        <v>6525.030691302489</v>
       </c>
       <c r="K110" s="5">
-        <v>-415.9655992944881</v>
+        <v>-432.1240511404239</v>
       </c>
       <c r="L110" s="4">
-        <v>-0.05993010887274985</v>
+        <v>-0.06211218050163558</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5041,25 +5041,25 @@
         <v>39212.5</v>
       </c>
       <c r="F111" s="3">
-        <v>249476520.3328438</v>
+        <v>250062743.7985401</v>
       </c>
       <c r="G111" s="3">
-        <v>241582245.1740104</v>
+        <v>241587844.9607547</v>
       </c>
       <c r="H111" s="4">
         <v>0.79</v>
       </c>
       <c r="I111" s="5">
-        <v>6485.215704611403</v>
+        <v>6500.454756451126</v>
       </c>
       <c r="J111" s="5">
-        <v>6160.847820822707</v>
+        <v>6160.990626987687</v>
       </c>
       <c r="K111" s="5">
-        <v>-324.3678837886955</v>
+        <v>-339.4641294634384</v>
       </c>
       <c r="L111" s="4">
-        <v>-0.05001651426305664</v>
+        <v>-0.0522215971315777</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5079,25 +5079,25 @@
         <v>69406.5</v>
       </c>
       <c r="F112" s="3">
-        <v>433099062.8102157</v>
+        <v>434116765.130465</v>
       </c>
       <c r="G112" s="3">
-        <v>443169849.6187485</v>
+        <v>443180122.1313154</v>
       </c>
       <c r="H112" s="4">
-        <v>0.4967741935483871</v>
+        <v>0.5290322580645161</v>
       </c>
       <c r="I112" s="5">
-        <v>6519.336215588874</v>
+        <v>6534.655444289209</v>
       </c>
       <c r="J112" s="5">
-        <v>6385.13467209481</v>
+        <v>6385.282677145733</v>
       </c>
       <c r="K112" s="5">
-        <v>-134.201543494064</v>
+        <v>-149.3727671434763</v>
       </c>
       <c r="L112" s="4">
-        <v>-0.02058515453968524</v>
+        <v>-0.0228585528979981</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5117,25 +5117,25 @@
         <v>35557</v>
       </c>
       <c r="F113" s="3">
-        <v>203044991.4975249</v>
+        <v>203522109.4982456</v>
       </c>
       <c r="G113" s="3">
-        <v>206532281.6207489</v>
+        <v>206537068.962352</v>
       </c>
       <c r="H113" s="4">
-        <v>0.647887323943662</v>
+        <v>0.6549295774647887</v>
       </c>
       <c r="I113" s="5">
-        <v>6003.962076896518</v>
+        <v>6018.070272136422</v>
       </c>
       <c r="J113" s="5">
-        <v>5808.484450902745</v>
+        <v>5808.619089415643</v>
       </c>
       <c r="K113" s="5">
-        <v>-195.4776259937726</v>
+        <v>-209.4511827207798</v>
       </c>
       <c r="L113" s="4">
-        <v>-0.03255810471321563</v>
+        <v>-0.03480371169651109</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5155,25 +5155,25 @@
         <v>31430</v>
       </c>
       <c r="F114" s="3">
-        <v>193148819.0897619</v>
+        <v>193602682.9242058</v>
       </c>
       <c r="G114" s="3">
-        <v>205389316.1086934</v>
+        <v>205394076.9567803</v>
       </c>
       <c r="H114" s="4">
         <v>0.6530612244897959</v>
       </c>
       <c r="I114" s="5">
-        <v>6963.07794404131</v>
+        <v>6979.439883348562</v>
       </c>
       <c r="J114" s="5">
-        <v>6534.81756629632</v>
+        <v>6534.969040941149</v>
       </c>
       <c r="K114" s="5">
-        <v>-428.2603777449895</v>
+        <v>-444.4708424074133</v>
       </c>
       <c r="L114" s="4">
-        <v>-0.06150446414454913</v>
+        <v>-0.06368288141113232</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5193,25 +5193,25 @@
         <v>36877</v>
       </c>
       <c r="F115" s="3">
-        <v>205638685.6979215</v>
+        <v>206121898.3980598</v>
       </c>
       <c r="G115" s="3">
-        <v>221551219.3429058</v>
+        <v>221556354.8179089</v>
       </c>
       <c r="H115" s="4">
         <v>0.4594594594594595</v>
       </c>
       <c r="I115" s="5">
-        <v>5934.224618299182</v>
+        <v>5948.168943469823</v>
       </c>
       <c r="J115" s="5">
-        <v>6007.842811044982</v>
+        <v>6007.982070610649</v>
       </c>
       <c r="K115" s="5">
-        <v>73.61819274580012</v>
+        <v>59.81312714082651</v>
       </c>
       <c r="L115" s="4">
-        <v>0.0124056970339117</v>
+        <v>0.0100557209637584</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5222,34 +5222,34 @@
         <v>933</v>
       </c>
       <c r="C116" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D116" s="2">
-        <v>66775.5</v>
+        <v>66822.5</v>
       </c>
       <c r="E116" s="2">
-        <v>68437</v>
+        <v>68477</v>
       </c>
       <c r="F116" s="3">
-        <v>398930593.3808069</v>
+        <v>400171133.7166945</v>
       </c>
       <c r="G116" s="3">
-        <v>423304948.0997292</v>
+        <v>423701118.8317737</v>
       </c>
       <c r="H116" s="4">
-        <v>0.3705179282868526</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="I116" s="5">
-        <v>5974.206009401754</v>
+        <v>5988.568726352569</v>
       </c>
       <c r="J116" s="5">
-        <v>6185.322970026874</v>
+        <v>6187.495346346564</v>
       </c>
       <c r="K116" s="5">
-        <v>211.1169606251196</v>
+        <v>198.9266199939957</v>
       </c>
       <c r="L116" s="4">
-        <v>0.03533807844806147</v>
+        <v>0.03321772348017382</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5269,25 +5269,25 @@
         <v>35895</v>
       </c>
       <c r="F117" s="3">
-        <v>211549924.7841179</v>
+        <v>212047027.7976974</v>
       </c>
       <c r="G117" s="3">
-        <v>213191194.729001</v>
+        <v>213196136.4217375</v>
       </c>
       <c r="H117" s="4">
-        <v>0.5555555555555556</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="I117" s="5">
-        <v>5980.548010745991</v>
+        <v>5994.601187281187</v>
       </c>
       <c r="J117" s="5">
-        <v>5939.300591419445</v>
+        <v>5939.438262201908</v>
       </c>
       <c r="K117" s="5">
-        <v>-41.24741932654615</v>
+        <v>-55.16292507927847</v>
       </c>
       <c r="L117" s="4">
-        <v>-0.006896929721562639</v>
+        <v>-0.009202100916457678</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5307,25 +5307,25 @@
         <v>20964</v>
       </c>
       <c r="F118" s="3">
-        <v>134829245.4127029</v>
+        <v>135146069.0857989</v>
       </c>
       <c r="G118" s="3">
-        <v>137890010.0300166</v>
+        <v>137893206.269251</v>
       </c>
       <c r="H118" s="4">
-        <v>0.5161290322580645</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="I118" s="5">
-        <v>6790.352810873434</v>
+        <v>6806.308878213082</v>
       </c>
       <c r="J118" s="5">
-        <v>6577.4666108575</v>
+        <v>6577.619074091345</v>
       </c>
       <c r="K118" s="5">
-        <v>-212.8862000159343</v>
+        <v>-228.6898041217364</v>
       </c>
       <c r="L118" s="4">
-        <v>-0.03135127230429591</v>
+        <v>-0.03359968056309781</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5345,25 +5345,25 @@
         <v>30114</v>
       </c>
       <c r="F119" s="3">
-        <v>184600557.8780812</v>
+        <v>185034334.8870935</v>
       </c>
       <c r="G119" s="3">
-        <v>191074449.8568541</v>
+        <v>191078878.8916565</v>
       </c>
       <c r="H119" s="4">
-        <v>0.7313432835820896</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="I119" s="5">
-        <v>6608.809017384094</v>
+        <v>6624.33849054304</v>
       </c>
       <c r="J119" s="5">
-        <v>6345.037187250254</v>
+        <v>6345.184262856362</v>
       </c>
       <c r="K119" s="5">
-        <v>-263.77183013384</v>
+        <v>-279.1542276866785</v>
       </c>
       <c r="L119" s="4">
-        <v>-0.0399121580666052</v>
+        <v>-0.04214069496678063</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5383,25 +5383,25 @@
         <v>29875.5</v>
       </c>
       <c r="F120" s="3">
-        <v>182781777.3043614</v>
+        <v>183211280.5169867</v>
       </c>
       <c r="G120" s="3">
-        <v>182908437.0194393</v>
+        <v>182912676.769096</v>
       </c>
       <c r="H120" s="4">
         <v>0.68</v>
       </c>
       <c r="I120" s="5">
-        <v>6661.022113458625</v>
+        <v>6676.67427769125</v>
       </c>
       <c r="J120" s="5">
-        <v>6122.355676706306</v>
+        <v>6122.497590637679</v>
       </c>
       <c r="K120" s="5">
-        <v>-538.666436752319</v>
+        <v>-554.1766870535712</v>
       </c>
       <c r="L120" s="4">
-        <v>-0.08086843544085243</v>
+        <v>-0.08300190544044361</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5421,25 +5421,25 @@
         <v>40356.5</v>
       </c>
       <c r="F121" s="3">
-        <v>387322973.7906579</v>
+        <v>388233110.8077067</v>
       </c>
       <c r="G121" s="3">
-        <v>359970751.4592687</v>
+        <v>359979095.4476315</v>
       </c>
       <c r="H121" s="4">
         <v>0.7647058823529411</v>
       </c>
       <c r="I121" s="5">
-        <v>9663.867408292466</v>
+        <v>9686.575700986956</v>
       </c>
       <c r="J121" s="5">
-        <v>8919.77132455165</v>
+        <v>8919.97808153907</v>
       </c>
       <c r="K121" s="5">
-        <v>-744.0960837408165</v>
+        <v>-766.5976194478862</v>
       </c>
       <c r="L121" s="4">
-        <v>-0.07699775382910523</v>
+        <v>-0.07914020837825886</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5459,25 +5459,25 @@
         <v>26613</v>
       </c>
       <c r="F122" s="3">
-        <v>163885650.0619086</v>
+        <v>164270750.8867439</v>
       </c>
       <c r="G122" s="3">
-        <v>166817320.3401553</v>
+        <v>166821187.103702</v>
       </c>
       <c r="H122" s="4">
-        <v>0.6865671641791045</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="I122" s="5">
-        <v>6544.823388586835</v>
+        <v>6560.202507407756</v>
       </c>
       <c r="J122" s="5">
-        <v>6268.264394850459</v>
+        <v>6268.409690891745</v>
       </c>
       <c r="K122" s="5">
-        <v>-276.5589937363757</v>
+        <v>-291.7928165160101</v>
       </c>
       <c r="L122" s="4">
-        <v>-0.04225614310978232</v>
+        <v>-0.04447923919825936</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5497,25 +5497,25 @@
         <v>112285.5</v>
       </c>
       <c r="F123" s="3">
-        <v>668360904.1427194</v>
+        <v>669931428.0743493</v>
       </c>
       <c r="G123" s="3">
-        <v>694224910.4419316</v>
+        <v>694241002.3175915</v>
       </c>
       <c r="H123" s="4">
-        <v>0.3651226158038147</v>
+        <v>0.3760217983651226</v>
       </c>
       <c r="I123" s="5">
-        <v>6025.20478819697</v>
+        <v>6039.362899861164</v>
       </c>
       <c r="J123" s="5">
-        <v>6182.676395811851</v>
+        <v>6182.819707955093</v>
       </c>
       <c r="K123" s="5">
-        <v>157.4716076148807</v>
+        <v>143.4568080939289</v>
       </c>
       <c r="L123" s="4">
-        <v>0.02613547807094596</v>
+        <v>0.02375363270473896</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5535,25 +5535,25 @@
         <v>39956.5</v>
       </c>
       <c r="F124" s="3">
-        <v>224506071.997425</v>
+        <v>225033619.5494778</v>
       </c>
       <c r="G124" s="3">
-        <v>230001511.5483803</v>
+        <v>230006842.8980193</v>
       </c>
       <c r="H124" s="4">
-        <v>0.6111111111111112</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="I124" s="5">
-        <v>5949.465940491714</v>
+        <v>5963.446079937401</v>
       </c>
       <c r="J124" s="5">
-        <v>5756.297762526256</v>
+        <v>5756.431191371097</v>
       </c>
       <c r="K124" s="5">
-        <v>-193.1681779654582</v>
+        <v>-207.0148885663039</v>
       </c>
       <c r="L124" s="4">
-        <v>-0.03246815426755656</v>
+        <v>-0.03471397004204602</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5573,25 +5573,25 @@
         <v>30690.5</v>
       </c>
       <c r="F125" s="3">
-        <v>188473604.1628329</v>
+        <v>188916482.1109348</v>
       </c>
       <c r="G125" s="3">
-        <v>196130327.8310761</v>
+        <v>196134874.0592526</v>
       </c>
       <c r="H125" s="4">
-        <v>0.4805194805194805</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="I125" s="5">
-        <v>6474.531231976397</v>
+        <v>6489.745177290787</v>
       </c>
       <c r="J125" s="5">
-        <v>6390.587570455878</v>
+        <v>6390.735701902953</v>
       </c>
       <c r="K125" s="5">
-        <v>-83.94366152051953</v>
+        <v>-99.00947538783385</v>
       </c>
       <c r="L125" s="4">
-        <v>-0.01296521068675038</v>
+        <v>-0.01525629630794945</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5611,25 +5611,25 @@
         <v>38987</v>
       </c>
       <c r="F126" s="3">
-        <v>241766245.0818999</v>
+        <v>242334350.8334602</v>
       </c>
       <c r="G126" s="3">
-        <v>249656295.8762602</v>
+        <v>249662082.8165018</v>
       </c>
       <c r="H126" s="4">
-        <v>0.4886363636363636</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="I126" s="5">
-        <v>6706.414565378638</v>
+        <v>6722.173393438564</v>
       </c>
       <c r="J126" s="5">
-        <v>6403.578010010007</v>
+        <v>6403.726442570646</v>
       </c>
       <c r="K126" s="5">
-        <v>-302.8365553686308</v>
+        <v>-318.4469508679176</v>
       </c>
       <c r="L126" s="4">
-        <v>-0.04515625337747564</v>
+        <v>-0.04737261778738855</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5649,25 +5649,25 @@
         <v>96491.5</v>
       </c>
       <c r="F127" s="3">
-        <v>565204602.0723436</v>
+        <v>566532727.8623475</v>
       </c>
       <c r="G127" s="3">
-        <v>587396479.0585785</v>
+        <v>587410094.690865</v>
       </c>
       <c r="H127" s="4">
-        <v>0.426056338028169</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="I127" s="5">
-        <v>6002.948367548483</v>
+        <v>6017.054180759788</v>
       </c>
       <c r="J127" s="5">
-        <v>6087.546354430997</v>
+        <v>6087.687461495209</v>
       </c>
       <c r="K127" s="5">
-        <v>84.59798688251431</v>
+        <v>70.63328073542107</v>
       </c>
       <c r="L127" s="4">
-        <v>0.01409273938450739</v>
+        <v>0.01173884738503417</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5687,25 +5687,25 @@
         <v>39827</v>
       </c>
       <c r="F128" s="3">
-        <v>258180902.8199055</v>
+        <v>258787579.9670206</v>
       </c>
       <c r="G128" s="3">
-        <v>254138000.1260795</v>
+        <v>254143890.9505616</v>
       </c>
       <c r="H128" s="4">
-        <v>0.6396396396396397</v>
+        <v>0.6576576576576577</v>
       </c>
       <c r="I128" s="5">
-        <v>6608.669793429379</v>
+        <v>6624.198939437905</v>
       </c>
       <c r="J128" s="5">
-        <v>6381.048035907285</v>
+        <v>6381.195946231493</v>
       </c>
       <c r="K128" s="5">
-        <v>-227.6217575220935</v>
+        <v>-243.0029932064126</v>
       </c>
       <c r="L128" s="4">
-        <v>-0.03444290071027678</v>
+        <v>-0.03668413274240112</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5725,25 +5725,25 @@
         <v>150293</v>
       </c>
       <c r="F129" s="3">
-        <v>867199069.073383</v>
+        <v>869236825.7450035</v>
       </c>
       <c r="G129" s="3">
-        <v>900076430.9246472</v>
+        <v>900097294.3621203</v>
       </c>
       <c r="H129" s="4">
-        <v>0.5350140056022409</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="I129" s="5">
-        <v>6101.299616722187</v>
+        <v>6115.636537093672</v>
       </c>
       <c r="J129" s="5">
-        <v>5988.811394573581</v>
+        <v>5988.950212998079</v>
       </c>
       <c r="K129" s="5">
-        <v>-112.4882221486059</v>
+        <v>-126.6863240955927</v>
       </c>
       <c r="L129" s="4">
-        <v>-0.01843676416747386</v>
+        <v>-0.02071514932700658</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5763,25 +5763,25 @@
         <v>38258</v>
       </c>
       <c r="F130" s="3">
-        <v>227058172.9238411</v>
+        <v>227591717.4388461</v>
       </c>
       <c r="G130" s="3">
-        <v>248609859.2736441</v>
+        <v>248615621.957874</v>
       </c>
       <c r="H130" s="4">
         <v>0.7413793103448276</v>
       </c>
       <c r="I130" s="5">
-        <v>6571.776759347653</v>
+        <v>6587.219213581458</v>
       </c>
       <c r="J130" s="5">
-        <v>6498.245053940197</v>
+        <v>6498.39568084777</v>
       </c>
       <c r="K130" s="5">
-        <v>-73.53170540745577</v>
+        <v>-88.8235327336879</v>
       </c>
       <c r="L130" s="4">
-        <v>-0.0111890144933583</v>
+        <v>-0.01348422298601393</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5801,25 +5801,25 @@
         <v>32251</v>
       </c>
       <c r="F131" s="3">
-        <v>194035690.6059577</v>
+        <v>194491638.4236684</v>
       </c>
       <c r="G131" s="3">
-        <v>203810397.147362</v>
+        <v>203815121.3966937</v>
       </c>
       <c r="H131" s="4">
-        <v>0.6052631578947368</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="I131" s="5">
-        <v>6443.58551475966</v>
+        <v>6458.726743388848</v>
       </c>
       <c r="J131" s="5">
-        <v>6319.506283444295</v>
+        <v>6319.652767253533</v>
       </c>
       <c r="K131" s="5">
-        <v>-124.0792313153652</v>
+        <v>-139.0739761353152</v>
       </c>
       <c r="L131" s="4">
-        <v>-0.01925624033872908</v>
+        <v>-0.02153272334638889</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5839,25 +5839,25 @@
         <v>34735</v>
       </c>
       <c r="F132" s="3">
-        <v>219460083.2953951</v>
+        <v>219975773.7116309</v>
       </c>
       <c r="G132" s="3">
-        <v>217450909.6246657</v>
+        <v>217455950.0560121</v>
       </c>
       <c r="H132" s="4">
         <v>0.7391304347826086</v>
       </c>
       <c r="I132" s="5">
-        <v>6564.371957866568</v>
+        <v>6579.797012192835</v>
       </c>
       <c r="J132" s="5">
-        <v>6260.282413262292</v>
+        <v>6260.42752428421</v>
       </c>
       <c r="K132" s="5">
-        <v>-304.0895446042759</v>
+        <v>-319.3694879086243</v>
       </c>
       <c r="L132" s="4">
-        <v>-0.04632424039284722</v>
+        <v>-0.04853789369441186</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5877,25 +5877,25 @@
         <v>28821.5</v>
       </c>
       <c r="F133" s="3">
-        <v>171560743.8114775</v>
+        <v>171963879.6804579</v>
       </c>
       <c r="G133" s="3">
-        <v>188021406.4046898</v>
+        <v>188025764.6710785</v>
       </c>
       <c r="H133" s="4">
-        <v>0.3943661971830986</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="I133" s="5">
-        <v>6345.875487755779</v>
+        <v>6360.78711597773</v>
       </c>
       <c r="J133" s="5">
-        <v>6523.650969057466</v>
+        <v>6523.802184864718</v>
       </c>
       <c r="K133" s="5">
-        <v>177.7754813016873</v>
+        <v>163.015068886988</v>
       </c>
       <c r="L133" s="4">
-        <v>0.02801433492426719</v>
+        <v>0.02562812839271245</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5915,25 +5915,25 @@
         <v>28995.5</v>
       </c>
       <c r="F134" s="3">
-        <v>179254893.3095948</v>
+        <v>179676109.0001888</v>
       </c>
       <c r="G134" s="3">
-        <v>179793817.2089549</v>
+        <v>179797984.762881</v>
       </c>
       <c r="H134" s="4">
         <v>0.8653846153846154</v>
       </c>
       <c r="I134" s="5">
-        <v>6734.854723083662</v>
+        <v>6750.680380229515</v>
       </c>
       <c r="J134" s="5">
-        <v>6200.748985496194</v>
+        <v>6200.89271655536</v>
       </c>
       <c r="K134" s="5">
-        <v>-534.105737587468</v>
+        <v>-549.7876636741548</v>
       </c>
       <c r="L134" s="4">
-        <v>-0.0793047154761668</v>
+        <v>-0.08144181515159554</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5953,25 +5953,25 @@
         <v>18220.5</v>
       </c>
       <c r="F135" s="3">
-        <v>109171824.3628322</v>
+        <v>109428357.8640571</v>
       </c>
       <c r="G135" s="3">
-        <v>119197068.7411884</v>
+        <v>119199831.6849843</v>
       </c>
       <c r="H135" s="4">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I135" s="5">
-        <v>6380.212983626452</v>
+        <v>6395.205298583198</v>
       </c>
       <c r="J135" s="5">
-        <v>6541.920844169391</v>
+        <v>6542.072483465562</v>
       </c>
       <c r="K135" s="5">
-        <v>161.7078605429388</v>
+        <v>146.8671848823642</v>
       </c>
       <c r="L135" s="4">
-        <v>0.02534521354662145</v>
+        <v>0.02296520252679013</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5991,25 +5991,25 @@
         <v>44503.5</v>
       </c>
       <c r="F136" s="3">
-        <v>432701834.6710508</v>
+        <v>433718603.5789851</v>
       </c>
       <c r="G136" s="3">
-        <v>403005515.2636813</v>
+        <v>403014856.7818905</v>
       </c>
       <c r="H136" s="4">
         <v>0.8350515463917526</v>
       </c>
       <c r="I136" s="5">
-        <v>10178.82462176078</v>
+        <v>10202.74296821889</v>
       </c>
       <c r="J136" s="5">
-        <v>9055.591476258751</v>
+        <v>9055.801381506859</v>
       </c>
       <c r="K136" s="5">
-        <v>-1123.23314550203</v>
+        <v>-1146.941586712033</v>
       </c>
       <c r="L136" s="4">
-        <v>-0.1103499851152488</v>
+        <v>-0.112415023125125</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6029,25 +6029,25 @@
         <v>39928</v>
       </c>
       <c r="F137" s="3">
-        <v>215668728.6997319</v>
+        <v>216175510.1371675</v>
       </c>
       <c r="G137" s="3">
-        <v>233704555.4077095</v>
+        <v>233709972.5925301</v>
       </c>
       <c r="H137" s="4">
         <v>0.3882352941176471</v>
       </c>
       <c r="I137" s="5">
-        <v>5836.772089302623</v>
+        <v>5850.487419138498</v>
       </c>
       <c r="J137" s="5">
-        <v>5853.149554390641</v>
+        <v>5853.285228224056</v>
       </c>
       <c r="K137" s="5">
-        <v>16.37746508801774</v>
+        <v>2.797809085557674</v>
       </c>
       <c r="L137" s="4">
-        <v>0.002805911356044577</v>
+        <v>0.0004782181184435075</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6067,25 +6067,25 @@
         <v>51224</v>
       </c>
       <c r="F138" s="3">
-        <v>311778757.6502022</v>
+        <v>312511379.7967532</v>
       </c>
       <c r="G138" s="3">
-        <v>311563010.4419334</v>
+        <v>311570232.3568333</v>
       </c>
       <c r="H138" s="4">
         <v>0.8382352941176471</v>
       </c>
       <c r="I138" s="5">
-        <v>6445.372011994464</v>
+        <v>6460.517438560199</v>
       </c>
       <c r="J138" s="5">
-        <v>6082.363939597325</v>
+        <v>6082.504926535088</v>
       </c>
       <c r="K138" s="5">
-        <v>-363.0080723971387</v>
+        <v>-378.0125120251114</v>
       </c>
       <c r="L138" s="4">
-        <v>-0.05632073241414171</v>
+        <v>-0.0585111820562404</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6105,25 +6105,25 @@
         <v>49939</v>
       </c>
       <c r="F139" s="3">
-        <v>311135144.9821966</v>
+        <v>311866254.7585716</v>
       </c>
       <c r="G139" s="3">
-        <v>327662695.131378</v>
+        <v>327670290.2309908</v>
       </c>
       <c r="H139" s="4">
-        <v>0.5431034482758621</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="I139" s="5">
-        <v>6685.902204362141</v>
+        <v>6701.612832185225</v>
       </c>
       <c r="J139" s="5">
-        <v>6561.258638166122</v>
+        <v>6561.410725705176</v>
       </c>
       <c r="K139" s="5">
-        <v>-124.6435661960186</v>
+        <v>-140.2021064800492</v>
       </c>
       <c r="L139" s="4">
-        <v>-0.01864274444736813</v>
+        <v>-0.02092065148955091</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6143,25 +6143,25 @@
         <v>40579.5</v>
       </c>
       <c r="F140" s="3">
-        <v>319982512.086436</v>
+        <v>320734411.5315114</v>
       </c>
       <c r="G140" s="3">
-        <v>297312085.2446419</v>
+        <v>297318976.8283868</v>
       </c>
       <c r="H140" s="4">
         <v>0.7183098591549296</v>
       </c>
       <c r="I140" s="5">
-        <v>7875.329479619897</v>
+        <v>7893.835040523525</v>
       </c>
       <c r="J140" s="5">
-        <v>7326.657185146241</v>
+        <v>7326.827014339428</v>
       </c>
       <c r="K140" s="5">
-        <v>-548.6722944736557</v>
+        <v>-567.0080261840967</v>
       </c>
       <c r="L140" s="4">
-        <v>-0.06966975742329673</v>
+        <v>-0.07182922157269866</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6181,25 +6181,25 @@
         <v>33188</v>
       </c>
       <c r="F141" s="3">
-        <v>291507709.2666157</v>
+        <v>292192698.2161791</v>
       </c>
       <c r="G141" s="3">
-        <v>284179856.0905874</v>
+        <v>284186443.2741364</v>
       </c>
       <c r="H141" s="4">
         <v>0.6707317073170732</v>
       </c>
       <c r="I141" s="5">
-        <v>9033.956528654262</v>
+        <v>9055.184647830019</v>
       </c>
       <c r="J141" s="5">
-        <v>8562.729181950928</v>
+        <v>8562.927662834049</v>
       </c>
       <c r="K141" s="5">
-        <v>-471.2273467033338</v>
+        <v>-492.2569849959709</v>
       </c>
       <c r="L141" s="4">
-        <v>-0.05216179037486801</v>
+        <v>-0.0543618936709297</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6219,25 +6219,25 @@
         <v>31755.5</v>
       </c>
       <c r="F142" s="3">
-        <v>190003559.3159565</v>
+        <v>190450032.3743759</v>
       </c>
       <c r="G142" s="3">
-        <v>190653274.9821633</v>
+        <v>190657694.2542884</v>
       </c>
       <c r="H142" s="4">
         <v>0.611764705882353</v>
       </c>
       <c r="I142" s="5">
-        <v>6115.338246409929</v>
+        <v>6129.708154952555</v>
       </c>
       <c r="J142" s="5">
-        <v>6003.787532306634</v>
+        <v>6003.926697872444</v>
       </c>
       <c r="K142" s="5">
-        <v>-111.5507141032949</v>
+        <v>-125.7814570801102</v>
       </c>
       <c r="L142" s="4">
-        <v>-0.01824113558539164</v>
+        <v>-0.02051997483411727</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6257,25 +6257,25 @@
         <v>79463.5</v>
       </c>
       <c r="F143" s="3">
-        <v>449463805.6064635</v>
+        <v>450519962.0314294</v>
       </c>
       <c r="G143" s="3">
-        <v>467491878.2907445</v>
+        <v>467502714.5789052</v>
       </c>
       <c r="H143" s="4">
-        <v>0.5646551724137931</v>
+        <v>0.5732758620689655</v>
       </c>
       <c r="I143" s="5">
-        <v>6039.637802261029</v>
+        <v>6053.829828826367</v>
       </c>
       <c r="J143" s="5">
-        <v>5883.102031633952</v>
+        <v>5883.23839975467</v>
       </c>
       <c r="K143" s="5">
-        <v>-156.535770627077</v>
+        <v>-170.5914290716964</v>
       </c>
       <c r="L143" s="4">
-        <v>-0.02591807253217659</v>
+        <v>-0.0281790922267745</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6295,25 +6295,25 @@
         <v>23547.5</v>
       </c>
       <c r="F144" s="3">
-        <v>144222683.0166007</v>
+        <v>144561579.5226014</v>
       </c>
       <c r="G144" s="3">
-        <v>145623855.2108461</v>
+        <v>145627230.7177402</v>
       </c>
       <c r="H144" s="4">
         <v>0.6060606060606061</v>
       </c>
       <c r="I144" s="5">
-        <v>6376.033202175144</v>
+        <v>6391.015695422153</v>
       </c>
       <c r="J144" s="5">
-        <v>6184.259696819031</v>
+        <v>6184.403045662607</v>
       </c>
       <c r="K144" s="5">
-        <v>-191.7735053561128</v>
+        <v>-206.612649759546</v>
       </c>
       <c r="L144" s="4">
-        <v>-0.03007724384036936</v>
+        <v>-0.03232860934883031</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6333,25 +6333,25 @@
         <v>61592.5</v>
       </c>
       <c r="F145" s="3">
-        <v>366164666.5529871</v>
+        <v>367025085.4796095</v>
       </c>
       <c r="G145" s="3">
-        <v>372915528.4606661</v>
+        <v>372924172.5041531</v>
       </c>
       <c r="H145" s="4">
-        <v>0.5348837209302325</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="I145" s="5">
-        <v>6130.382249189883</v>
+        <v>6144.787508343608</v>
       </c>
       <c r="J145" s="5">
-        <v>6054.560676391867</v>
+        <v>6054.701018860302</v>
       </c>
       <c r="K145" s="5">
-        <v>-75.82157279801595</v>
+        <v>-90.08648948330665</v>
       </c>
       <c r="L145" s="4">
-        <v>-0.01236816396041795</v>
+        <v>-0.01466063543466456</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6371,25 +6371,25 @@
         <v>107674.5</v>
       </c>
       <c r="F146" s="3">
-        <v>577542443.5808789</v>
+        <v>578899561.0058409</v>
       </c>
       <c r="G146" s="3">
-        <v>617840276.4136544</v>
+        <v>617854597.7218596</v>
       </c>
       <c r="H146" s="4">
-        <v>0.4925925925925926</v>
+        <v>0.4962962962962963</v>
       </c>
       <c r="I146" s="5">
-        <v>5831.347054057197</v>
+        <v>5845.049636068304</v>
       </c>
       <c r="J146" s="5">
-        <v>5738.037106405458</v>
+        <v>5738.170111975069</v>
       </c>
       <c r="K146" s="5">
-        <v>-93.30994765173909</v>
+        <v>-106.879524093235</v>
       </c>
       <c r="L146" s="4">
-        <v>-0.01600143959650246</v>
+        <v>-0.01828547758323706</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6409,25 +6409,25 @@
         <v>21902</v>
       </c>
       <c r="F147" s="3">
-        <v>202097502.5792167</v>
+        <v>202572394.1570394</v>
       </c>
       <c r="G147" s="3">
-        <v>189311539.2991937</v>
+        <v>189315927.4703838</v>
       </c>
       <c r="H147" s="4">
         <v>0.6896551724137931</v>
       </c>
       <c r="I147" s="5">
-        <v>9235.576491681328</v>
+        <v>9257.278380305695</v>
       </c>
       <c r="J147" s="5">
-        <v>8643.573157665678</v>
+        <v>8643.773512482139</v>
       </c>
       <c r="K147" s="5">
-        <v>-592.0033340156497</v>
+        <v>-613.5048678235562</v>
       </c>
       <c r="L147" s="4">
-        <v>-0.06410031193492671</v>
+        <v>-0.06627270377098637</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6447,25 +6447,25 @@
         <v>47285.5</v>
       </c>
       <c r="F148" s="3">
-        <v>298889412.9293899</v>
+        <v>299591747.5109114</v>
       </c>
       <c r="G148" s="3">
-        <v>293249914.1509322</v>
+        <v>293256711.5750595</v>
       </c>
       <c r="H148" s="4">
-        <v>0.78125</v>
+        <v>0.7890625</v>
       </c>
       <c r="I148" s="5">
-        <v>6634.246999154096</v>
+        <v>6649.836246843381</v>
       </c>
       <c r="J148" s="5">
-        <v>6201.687920206664</v>
+        <v>6201.831673029988</v>
       </c>
       <c r="K148" s="5">
-        <v>-432.5590789474318</v>
+        <v>-448.0045738133931</v>
       </c>
       <c r="L148" s="4">
-        <v>-0.0652009307164152</v>
+        <v>-0.06737076781793794</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6485,25 +6485,25 @@
         <v>66039.5</v>
       </c>
       <c r="F149" s="3">
-        <v>379059567.6212713</v>
+        <v>379950287.1693069</v>
       </c>
       <c r="G149" s="3">
-        <v>391240376.7636693</v>
+        <v>391249445.5703362</v>
       </c>
       <c r="H149" s="4">
-        <v>0.4545454545454545</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="I149" s="5">
-        <v>5955.654903157592</v>
+        <v>5969.64958551553</v>
       </c>
       <c r="J149" s="5">
-        <v>5924.338869368624</v>
+        <v>5924.476193343927</v>
       </c>
       <c r="K149" s="5">
-        <v>-31.31603378896853</v>
+        <v>-45.17339217160315</v>
       </c>
       <c r="L149" s="4">
-        <v>-0.005258201540919605</v>
+        <v>-0.007567176519239882</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6523,25 +6523,25 @@
         <v>20560.5</v>
       </c>
       <c r="F150" s="3">
-        <v>121904184.282536</v>
+        <v>122190636.4636779</v>
       </c>
       <c r="G150" s="3">
-        <v>128609446.3593094</v>
+        <v>128612427.4785237</v>
       </c>
       <c r="H150" s="4">
         <v>0.6885245901639344</v>
       </c>
       <c r="I150" s="5">
-        <v>6314.315978583654</v>
+        <v>6329.153447823364</v>
       </c>
       <c r="J150" s="5">
-        <v>6255.171146582495</v>
+        <v>6255.316139127145</v>
       </c>
       <c r="K150" s="5">
-        <v>-59.14483200115956</v>
+        <v>-73.83730869621922</v>
       </c>
       <c r="L150" s="4">
-        <v>-0.009366783702583481</v>
+        <v>-0.01166622192129219</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6561,25 +6561,25 @@
         <v>49208</v>
       </c>
       <c r="F151" s="3">
-        <v>310226439.0061201</v>
+        <v>310955413.492305</v>
       </c>
       <c r="G151" s="3">
-        <v>317646918.0907541</v>
+        <v>317654281.0283742</v>
       </c>
       <c r="H151" s="4">
-        <v>0.6229508196721312</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="I151" s="5">
-        <v>6589.836521536651</v>
+        <v>6605.321412855778</v>
       </c>
       <c r="J151" s="5">
-        <v>6455.188548422087</v>
+        <v>6455.33817729585</v>
       </c>
       <c r="K151" s="5">
-        <v>-134.6479731145637</v>
+        <v>-149.9832355599283</v>
       </c>
       <c r="L151" s="4">
-        <v>-0.02043267274909055</v>
+        <v>-0.02270642504511888</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6599,25 +6599,25 @@
         <v>25807</v>
       </c>
       <c r="F152" s="3">
-        <v>145883180.2750449</v>
+        <v>146225978.6410536</v>
       </c>
       <c r="G152" s="3">
-        <v>146435386.2254223</v>
+        <v>146438780.543304</v>
       </c>
       <c r="H152" s="4">
-        <v>0.5573770491803278</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="I152" s="5">
-        <v>5959.523684588621</v>
+        <v>5973.527457864031</v>
       </c>
       <c r="J152" s="5">
-        <v>5674.250638409048</v>
+        <v>5674.382165432014</v>
       </c>
       <c r="K152" s="5">
-        <v>-285.2730461795727</v>
+        <v>-299.1452924320174</v>
       </c>
       <c r="L152" s="4">
-        <v>-0.04786843064610868</v>
+        <v>-0.05007849960381427</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6637,25 +6637,25 @@
         <v>39132.5</v>
       </c>
       <c r="F153" s="3">
-        <v>243395277.3864517</v>
+        <v>243967211.0612251</v>
       </c>
       <c r="G153" s="3">
-        <v>265197134.3817216</v>
+        <v>265203281.5528296</v>
       </c>
       <c r="H153" s="4">
-        <v>0.7021276595744681</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="I153" s="5">
-        <v>7093.280411105009</v>
+        <v>7109.948302015974</v>
       </c>
       <c r="J153" s="5">
-        <v>6776.902431015693</v>
+        <v>6777.059517097799</v>
       </c>
       <c r="K153" s="5">
-        <v>-316.3779800893162</v>
+        <v>-332.8887849181747</v>
       </c>
       <c r="L153" s="4">
-        <v>-0.04460249161925212</v>
+        <v>-0.04682014140999968</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6675,25 +6675,25 @@
         <v>79722</v>
       </c>
       <c r="F154" s="3">
-        <v>468639011.4348475</v>
+        <v>469740226.0304231</v>
       </c>
       <c r="G154" s="3">
-        <v>482232305.9650297</v>
+        <v>482243483.9308305</v>
       </c>
       <c r="H154" s="4">
-        <v>0.5107296137339056</v>
+        <v>0.5236051502145923</v>
       </c>
       <c r="I154" s="5">
-        <v>6143.104479594787</v>
+        <v>6157.539633625954</v>
       </c>
       <c r="J154" s="5">
-        <v>6048.92383488911</v>
+        <v>6049.064046697656</v>
       </c>
       <c r="K154" s="5">
-        <v>-94.18064470567697</v>
+        <v>-108.4755869282981</v>
       </c>
       <c r="L154" s="4">
-        <v>-0.01533111556518563</v>
+        <v>-0.01761670949479877</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6713,25 +6713,25 @@
         <v>25567.5</v>
       </c>
       <c r="F155" s="3">
-        <v>144040455.2750498</v>
+        <v>144378923.5797191</v>
       </c>
       <c r="G155" s="3">
-        <v>152252408.4368678</v>
+        <v>152255937.5911644</v>
       </c>
       <c r="H155" s="4">
         <v>0.3492063492063492</v>
       </c>
       <c r="I155" s="5">
-        <v>5893.997392436107</v>
+        <v>5907.847191100888</v>
       </c>
       <c r="J155" s="5">
-        <v>5954.919661166238</v>
+        <v>5955.057693992938</v>
       </c>
       <c r="K155" s="5">
-        <v>60.92226873013078</v>
+        <v>47.21050289204959</v>
       </c>
       <c r="L155" s="4">
-        <v>0.01033632434386789</v>
+        <v>0.007991151660653006</v>
       </c>
     </row>
   </sheetData>

--- a/output/Local Authority.xlsx
+++ b/output/Local Authority.xlsx
@@ -975,25 +975,25 @@
         <v>38060.5</v>
       </c>
       <c r="F4" s="3">
-        <v>282414249.2745076</v>
+        <v>290775479.9544936</v>
       </c>
       <c r="G4" s="3">
-        <v>277838998.8329501</v>
+        <v>288603682.34452</v>
       </c>
       <c r="H4" s="4">
-        <v>0.6415094339622641</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="I4" s="5">
-        <v>7556.335182397293</v>
+        <v>7780.050032896589</v>
       </c>
       <c r="J4" s="5">
-        <v>7299.93034334678</v>
+        <v>7582.761191905518</v>
       </c>
       <c r="K4" s="5">
-        <v>-256.4048390505131</v>
+        <v>-197.2888409910711</v>
       </c>
       <c r="L4" s="4">
-        <v>-0.03393243323136541</v>
+        <v>-0.02535829977402071</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1013,25 +1013,25 @@
         <v>53960</v>
       </c>
       <c r="F5" s="3">
-        <v>371589830.256014</v>
+        <v>382591216.684244</v>
       </c>
       <c r="G5" s="3">
-        <v>370502713.0142123</v>
+        <v>384857589.2645906</v>
       </c>
       <c r="H5" s="4">
-        <v>0.7105263157894737</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="I5" s="5">
-        <v>7230.851248912988</v>
+        <v>7444.929736312748</v>
       </c>
       <c r="J5" s="5">
-        <v>6866.247461345668</v>
+        <v>7132.27556087084</v>
       </c>
       <c r="K5" s="5">
-        <v>-364.6037875673201</v>
+        <v>-312.6541754419077</v>
       </c>
       <c r="L5" s="4">
-        <v>-0.0504233561189813</v>
+        <v>-0.04199558444681251</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1051,25 +1051,25 @@
         <v>29476.5</v>
       </c>
       <c r="F6" s="3">
-        <v>173332558.0817372</v>
+        <v>178464287.4693177</v>
       </c>
       <c r="G6" s="3">
-        <v>183001035.3861624</v>
+        <v>190091286.3462376</v>
       </c>
       <c r="H6" s="4">
-        <v>0.5921052631578947</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="I6" s="5">
-        <v>6262.693141660482</v>
+        <v>6448.108085027918</v>
       </c>
       <c r="J6" s="5">
-        <v>6208.370579484078</v>
+        <v>6448.909685554175</v>
       </c>
       <c r="K6" s="5">
-        <v>-54.32256217640406</v>
+        <v>0.8016005262570616</v>
       </c>
       <c r="L6" s="4">
-        <v>-0.008673993910868982</v>
+        <v>0.000124315615632753</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1089,25 +1089,25 @@
         <v>24640</v>
       </c>
       <c r="F7" s="3">
-        <v>139831616.0913932</v>
+        <v>143971507.7629319</v>
       </c>
       <c r="G7" s="3">
-        <v>149422021.1871439</v>
+        <v>155211276.02356</v>
       </c>
       <c r="H7" s="4">
-        <v>0.3943661971830986</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="I7" s="5">
-        <v>5862.592125920518</v>
+        <v>6036.161573189607</v>
       </c>
       <c r="J7" s="5">
-        <v>6064.205405322397</v>
+        <v>6299.158929527597</v>
       </c>
       <c r="K7" s="5">
-        <v>201.6132794018795</v>
+        <v>262.9973563379899</v>
       </c>
       <c r="L7" s="4">
-        <v>0.03438978442837226</v>
+        <v>0.04357029763850706</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1127,25 +1127,25 @@
         <v>25688.5</v>
       </c>
       <c r="F8" s="3">
-        <v>149227001.6308213</v>
+        <v>153645055.5623179</v>
       </c>
       <c r="G8" s="3">
-        <v>161284207.996472</v>
+        <v>167533055.2129856</v>
       </c>
       <c r="H8" s="4">
-        <v>0.6031746031746031</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="I8" s="5">
-        <v>6605.302834225446</v>
+        <v>6800.861170428378</v>
       </c>
       <c r="J8" s="5">
-        <v>6278.45954401666</v>
+        <v>6521.714199466128</v>
       </c>
       <c r="K8" s="5">
-        <v>-326.8432902087852</v>
+        <v>-279.1469709622497</v>
       </c>
       <c r="L8" s="4">
-        <v>-0.04948195388033438</v>
+        <v>-0.0410458269867412</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1165,25 +1165,25 @@
         <v>42833</v>
       </c>
       <c r="F9" s="3">
-        <v>283776021.7786229</v>
+        <v>292177569.4541914</v>
       </c>
       <c r="G9" s="3">
-        <v>279200500.8781666</v>
+        <v>290017934.8627757</v>
       </c>
       <c r="H9" s="4">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I9" s="5">
-        <v>6653.911596760056</v>
+        <v>6850.909056794959</v>
       </c>
       <c r="J9" s="5">
-        <v>6518.350357858815</v>
+        <v>6770.89942013811</v>
       </c>
       <c r="K9" s="5">
-        <v>-135.5612389012404</v>
+        <v>-80.00963665684867</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.02037316500676811</v>
+        <v>-0.01167868906061342</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1203,25 +1203,25 @@
         <v>192417</v>
       </c>
       <c r="F10" s="3">
-        <v>1358667412.421833</v>
+        <v>1398892477.841943</v>
       </c>
       <c r="G10" s="3">
-        <v>1334214778.994491</v>
+        <v>1385908025.416566</v>
       </c>
       <c r="H10" s="4">
-        <v>0.7914691943127962</v>
+        <v>0.7606635071090048</v>
       </c>
       <c r="I10" s="5">
-        <v>7425.061275422077</v>
+        <v>7644.889596040874</v>
       </c>
       <c r="J10" s="5">
-        <v>6933.975579052218</v>
+        <v>7202.627758548184</v>
       </c>
       <c r="K10" s="5">
-        <v>-491.0856963698589</v>
+        <v>-442.2618374926897</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.06613894190953229</v>
+        <v>-0.05785065067803308</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1232,34 +1232,34 @@
         <v>889</v>
       </c>
       <c r="C11" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
-        <v>24086.5</v>
+        <v>24123</v>
       </c>
       <c r="E11" s="2">
-        <v>24925.5</v>
+        <v>24977</v>
       </c>
       <c r="F11" s="3">
-        <v>162339952.5606516</v>
+        <v>167649790.1733005</v>
       </c>
       <c r="G11" s="3">
-        <v>162202563.1545123</v>
+        <v>168843053.4194927</v>
       </c>
       <c r="H11" s="4">
-        <v>0.6285714285714286</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="I11" s="5">
-        <v>6739.873064191625</v>
+        <v>6949.790248862101</v>
       </c>
       <c r="J11" s="5">
-        <v>6507.494860865871</v>
+        <v>6759.941282759848</v>
       </c>
       <c r="K11" s="5">
-        <v>-232.3782033257539</v>
+        <v>-189.8489661022531</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.03447812757192115</v>
+        <v>-0.0273172224346393</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1279,25 +1279,25 @@
         <v>17979</v>
       </c>
       <c r="F12" s="3">
-        <v>126154705.4734332</v>
+        <v>129889674.9253598</v>
       </c>
       <c r="G12" s="3">
-        <v>126259322.0341001</v>
+        <v>131151153.8064268</v>
       </c>
       <c r="H12" s="4">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="I12" s="5">
-        <v>6934.244240830717</v>
+        <v>7139.541302993449</v>
       </c>
       <c r="J12" s="5">
-        <v>7022.599812787149</v>
+        <v>7294.685678092596</v>
       </c>
       <c r="K12" s="5">
-        <v>88.35557195643196</v>
+        <v>155.1443750991475</v>
       </c>
       <c r="L12" s="4">
-        <v>0.01274191806457736</v>
+        <v>0.02173030010122634</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1317,25 +1317,25 @@
         <v>47866</v>
       </c>
       <c r="F13" s="3">
-        <v>293227389.6462874</v>
+        <v>301908757.0093755</v>
       </c>
       <c r="G13" s="3">
-        <v>301001906.1835229</v>
+        <v>312664020.8256544</v>
       </c>
       <c r="H13" s="4">
-        <v>0.6554621848739496</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="I13" s="5">
-        <v>6568.125384067005</v>
+        <v>6762.583034884317</v>
       </c>
       <c r="J13" s="5">
-        <v>6288.428240996174</v>
+        <v>6532.069126846914</v>
       </c>
       <c r="K13" s="5">
-        <v>-279.6971430708309</v>
+        <v>-230.5139080374038</v>
       </c>
       <c r="L13" s="4">
-        <v>-0.04258401396375922</v>
+        <v>-0.03408666582699449</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1346,34 +1346,34 @@
         <v>839</v>
       </c>
       <c r="C14" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
-        <v>42333.5</v>
+        <v>42746.5</v>
       </c>
       <c r="E14" s="2">
-        <v>44041.5</v>
+        <v>44451.5</v>
       </c>
       <c r="F14" s="3">
-        <v>261976782.476</v>
+        <v>271669737.2370586</v>
       </c>
       <c r="G14" s="3">
-        <v>265649092.5397329</v>
+        <v>277367107.3056548</v>
       </c>
       <c r="H14" s="4">
-        <v>0.5679012345679012</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="I14" s="5">
-        <v>6188.403568710361</v>
+        <v>6355.367977192485</v>
       </c>
       <c r="J14" s="5">
-        <v>6031.79030096007</v>
+        <v>6239.769350992762</v>
       </c>
       <c r="K14" s="5">
-        <v>-156.613267750291</v>
+        <v>-115.5986261997232</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.02530753949890319</v>
+        <v>-0.01818913186688353</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1393,25 +1393,25 @@
         <v>16298</v>
       </c>
       <c r="F15" s="3">
-        <v>88825478.80108114</v>
+        <v>91455269.33191989</v>
       </c>
       <c r="G15" s="3">
-        <v>95852226.19499271</v>
+        <v>99565955.66854611</v>
       </c>
       <c r="H15" s="4">
-        <v>0.4411764705882353</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I15" s="5">
-        <v>5753.131824287129</v>
+        <v>5923.460561023342</v>
       </c>
       <c r="J15" s="5">
-        <v>5881.226297398006</v>
+        <v>6109.090420207763</v>
       </c>
       <c r="K15" s="5">
-        <v>128.0944731108766</v>
+        <v>185.6298591844206</v>
       </c>
       <c r="L15" s="4">
-        <v>0.02226517260913785</v>
+        <v>0.03133807632752283</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1431,25 +1431,25 @@
         <v>91875.5</v>
       </c>
       <c r="F16" s="3">
-        <v>643390254.325991</v>
+        <v>662438635.7284654</v>
       </c>
       <c r="G16" s="3">
-        <v>602082856.9931546</v>
+        <v>625410148.8078285</v>
       </c>
       <c r="H16" s="4">
-        <v>0.8979591836734694</v>
+        <v>0.8826530612244898</v>
       </c>
       <c r="I16" s="5">
-        <v>7038.202620233126</v>
+        <v>7246.577501569403</v>
       </c>
       <c r="J16" s="5">
-        <v>6553.247133274427</v>
+        <v>6807.148247441685</v>
       </c>
       <c r="K16" s="5">
-        <v>-484.9554869586991</v>
+        <v>-439.4292541277182</v>
       </c>
       <c r="L16" s="4">
-        <v>-0.06890331425875262</v>
+        <v>-0.06063955764394302</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1469,25 +1469,25 @@
         <v>44958</v>
       </c>
       <c r="F17" s="3">
-        <v>361508481.7800624</v>
+        <v>372211397.1488849</v>
       </c>
       <c r="G17" s="3">
-        <v>338982591.1124167</v>
+        <v>352116241.6243485</v>
       </c>
       <c r="H17" s="4">
-        <v>0.7875</v>
+        <v>0.75</v>
       </c>
       <c r="I17" s="5">
-        <v>8043.800006231571</v>
+        <v>8281.946868751958</v>
       </c>
       <c r="J17" s="5">
-        <v>7539.983787366358</v>
+        <v>7832.1153437508</v>
       </c>
       <c r="K17" s="5">
-        <v>-503.8162188652132</v>
+        <v>-449.8315250011583</v>
       </c>
       <c r="L17" s="4">
-        <v>-0.06263410558130533</v>
+        <v>-0.05431470789777537</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1507,25 +1507,25 @@
         <v>31767.5</v>
       </c>
       <c r="F18" s="3">
-        <v>189838052.0028335</v>
+        <v>195458447.3926286</v>
       </c>
       <c r="G18" s="3">
-        <v>194512982.1609561</v>
+        <v>202049255.688609</v>
       </c>
       <c r="H18" s="4">
-        <v>0.5147058823529411</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I18" s="5">
-        <v>6009.910629294294</v>
+        <v>6187.841626992594</v>
       </c>
       <c r="J18" s="5">
-        <v>6123.018246980598</v>
+        <v>6360.250434834626</v>
       </c>
       <c r="K18" s="5">
-        <v>113.1076176863035</v>
+        <v>172.4088078420318</v>
       </c>
       <c r="L18" s="4">
-        <v>0.01882018297160348</v>
+        <v>0.02786251139491847</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1536,34 +1536,34 @@
         <v>801</v>
       </c>
       <c r="C19" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2">
-        <v>51702.5</v>
+        <v>51928</v>
       </c>
       <c r="E19" s="2">
-        <v>56065</v>
+        <v>56251.5</v>
       </c>
       <c r="F19" s="3">
-        <v>372319585.4354846</v>
+        <v>384560643.5099076</v>
       </c>
       <c r="G19" s="3">
-        <v>380486788.2375999</v>
+        <v>396121521.1616388</v>
       </c>
       <c r="H19" s="4">
-        <v>0.6691729323308271</v>
+        <v>0.6492537313432836</v>
       </c>
       <c r="I19" s="5">
-        <v>7201.191150050473</v>
+        <v>7405.650968839694</v>
       </c>
       <c r="J19" s="5">
-        <v>6786.529710828501</v>
+        <v>7041.972590271172</v>
       </c>
       <c r="K19" s="5">
-        <v>-414.6614392219717</v>
+        <v>-363.678378568522</v>
       </c>
       <c r="L19" s="4">
-        <v>-0.05758234027978348</v>
+        <v>-0.04910822561024675</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1583,25 +1583,25 @@
         <v>44245</v>
       </c>
       <c r="F20" s="3">
-        <v>288925709.2248356</v>
+        <v>297479719.9038764</v>
       </c>
       <c r="G20" s="3">
-        <v>282413909.5874779</v>
+        <v>293355844.9124109</v>
       </c>
       <c r="H20" s="4">
-        <v>0.8953488372093024</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="I20" s="5">
-        <v>6873.619194576666</v>
+        <v>7077.121375645344</v>
       </c>
       <c r="J20" s="5">
-        <v>6382.956482935425</v>
+        <v>6630.259801387974</v>
       </c>
       <c r="K20" s="5">
-        <v>-490.662711641241</v>
+        <v>-446.8615742573693</v>
       </c>
       <c r="L20" s="4">
-        <v>-0.07138345866299622</v>
+        <v>-0.06314171405836899</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1621,25 +1621,25 @@
         <v>84335</v>
       </c>
       <c r="F21" s="3">
-        <v>472236954.2608776</v>
+        <v>486218125.9628451</v>
       </c>
       <c r="G21" s="3">
-        <v>503915775.6938283</v>
+        <v>523439650.5444314</v>
       </c>
       <c r="H21" s="4">
-        <v>0.5919282511210763</v>
+        <v>0.5560538116591929</v>
       </c>
       <c r="I21" s="5">
-        <v>5934.190606326764</v>
+        <v>6109.87981707291</v>
       </c>
       <c r="J21" s="5">
-        <v>5975.167791472441</v>
+        <v>6206.67161373607</v>
       </c>
       <c r="K21" s="5">
-        <v>40.97718514567623</v>
+        <v>96.79179666316031</v>
       </c>
       <c r="L21" s="4">
-        <v>0.006905269456964902</v>
+        <v>0.01584184952258694</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1659,25 +1659,25 @@
         <v>26556</v>
       </c>
       <c r="F22" s="3">
-        <v>163487606.0143966</v>
+        <v>168327863.1569331</v>
       </c>
       <c r="G22" s="3">
-        <v>165090580.8776738</v>
+        <v>171486903.4290586</v>
       </c>
       <c r="H22" s="4">
-        <v>0.5324675324675324</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="I22" s="5">
-        <v>6251.318459588821</v>
+        <v>6436.396641121617</v>
       </c>
       <c r="J22" s="5">
-        <v>6216.69607160995</v>
+        <v>6457.557743224077</v>
       </c>
       <c r="K22" s="5">
-        <v>-34.62238797887039</v>
+        <v>21.16110210246006</v>
       </c>
       <c r="L22" s="4">
-        <v>-0.005538413728669256</v>
+        <v>0.003287724993090713</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1697,25 +1697,25 @@
         <v>35845</v>
       </c>
       <c r="F23" s="3">
-        <v>218975209.7783727</v>
+        <v>225458247.5388916</v>
       </c>
       <c r="G23" s="3">
-        <v>225563494.3373872</v>
+        <v>234302798.8932807</v>
       </c>
       <c r="H23" s="4">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I23" s="5">
-        <v>6434.39144858876</v>
+        <v>6624.889737273495</v>
       </c>
       <c r="J23" s="5">
-        <v>6292.746389660683</v>
+        <v>6536.554579251798</v>
       </c>
       <c r="K23" s="5">
-        <v>-141.6450589280767</v>
+        <v>-88.33515802169768</v>
       </c>
       <c r="L23" s="4">
-        <v>-0.02201374598667649</v>
+        <v>-0.01333383067867522</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1735,25 +1735,25 @@
         <v>84081</v>
       </c>
       <c r="F24" s="3">
-        <v>490057834.4238932</v>
+        <v>504566615.799757</v>
       </c>
       <c r="G24" s="3">
-        <v>512851837.381492</v>
+        <v>532721933.8795658</v>
       </c>
       <c r="H24" s="4">
-        <v>0.5144032921810699</v>
+        <v>0.4609053497942387</v>
       </c>
       <c r="I24" s="5">
-        <v>6092.177875869658</v>
+        <v>6272.544499347431</v>
       </c>
       <c r="J24" s="5">
-        <v>6099.497358279421</v>
+        <v>6335.818245258332</v>
       </c>
       <c r="K24" s="5">
-        <v>7.319482409762713</v>
+        <v>63.2737459109012</v>
       </c>
       <c r="L24" s="4">
-        <v>0.001201455794446638</v>
+        <v>0.01008741283820047</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1773,25 +1773,25 @@
         <v>21994.5</v>
       </c>
       <c r="F25" s="3">
-        <v>211257433.8705746</v>
+        <v>217511977.1239387</v>
       </c>
       <c r="G25" s="3">
-        <v>196220188.434835</v>
+        <v>203822606.5113253</v>
       </c>
       <c r="H25" s="4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="I25" s="5">
-        <v>9610.036567828532</v>
+        <v>9894.55384269384</v>
       </c>
       <c r="J25" s="5">
-        <v>8921.329806762371</v>
+        <v>9266.980677502344</v>
       </c>
       <c r="K25" s="5">
-        <v>-688.7067610661616</v>
+        <v>-627.5731651914957</v>
       </c>
       <c r="L25" s="4">
-        <v>-0.07166536320701855</v>
+        <v>-0.0634261205880341</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1811,25 +1811,25 @@
         <v>42243.5</v>
       </c>
       <c r="F26" s="3">
-        <v>239065581.7697045</v>
+        <v>246143420.3771984</v>
       </c>
       <c r="G26" s="3">
-        <v>255902707.4238914</v>
+        <v>265817484.2073632</v>
       </c>
       <c r="H26" s="4">
-        <v>0.6260162601626016</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="I26" s="5">
-        <v>6304.887763425978</v>
+        <v>6491.551931883653</v>
       </c>
       <c r="J26" s="5">
-        <v>6057.800784118063</v>
+        <v>6292.506165619876</v>
       </c>
       <c r="K26" s="5">
-        <v>-247.0869793079146</v>
+        <v>-199.0457662637773</v>
       </c>
       <c r="L26" s="4">
-        <v>-0.0391897506473059</v>
+        <v>-0.03066227742647365</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1840,34 +1840,34 @@
         <v>895</v>
       </c>
       <c r="C27" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2">
-        <v>49441.5</v>
+        <v>49489.5</v>
       </c>
       <c r="E27" s="2">
-        <v>53225</v>
+        <v>53313</v>
       </c>
       <c r="F27" s="3">
-        <v>297011850.1946808</v>
+        <v>307627317.0241704</v>
       </c>
       <c r="G27" s="3">
-        <v>309558342.9823951</v>
+        <v>323226134.0770969</v>
       </c>
       <c r="H27" s="4">
-        <v>0.636986301369863</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I27" s="5">
-        <v>6007.338980303606</v>
+        <v>6216.011821177632</v>
       </c>
       <c r="J27" s="5">
-        <v>5816.032747438142</v>
+        <v>6062.801457001048</v>
       </c>
       <c r="K27" s="5">
-        <v>-191.3062328654642</v>
+        <v>-153.2103641765834</v>
       </c>
       <c r="L27" s="4">
-        <v>-0.03184541999256307</v>
+        <v>-0.02464769511129361</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1887,25 +1887,25 @@
         <v>49967.5</v>
       </c>
       <c r="F28" s="3">
-        <v>307628419.4172691</v>
+        <v>316736147.4624181</v>
       </c>
       <c r="G28" s="3">
-        <v>307689689.3648082</v>
+        <v>319610917.6290118</v>
       </c>
       <c r="H28" s="4">
-        <v>0.7662337662337663</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="I28" s="5">
-        <v>6576.559157210759</v>
+        <v>6771.266500538051</v>
       </c>
       <c r="J28" s="5">
-        <v>6157.796354926866</v>
+        <v>6396.375996978272</v>
       </c>
       <c r="K28" s="5">
-        <v>-418.7628022838926</v>
+        <v>-374.8905035597791</v>
       </c>
       <c r="L28" s="4">
-        <v>-0.06367506051013727</v>
+        <v>-0.05536490160740093</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1925,25 +1925,25 @@
         <v>270</v>
       </c>
       <c r="F29" s="3">
-        <v>2500442.133855674</v>
+        <v>2574470.882535426</v>
       </c>
       <c r="G29" s="3">
-        <v>2733527.905839449</v>
+        <v>2839436.590005483</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>10484.03410421666</v>
+        <v>10794.42718044204</v>
       </c>
       <c r="J29" s="5">
-        <v>10124.177429035</v>
+        <v>10516.43181483512</v>
       </c>
       <c r="K29" s="5">
-        <v>-359.8566751816652</v>
+        <v>-277.9953656069174</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.03432425644599257</v>
+        <v>-0.02575360053478382</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1954,34 +1954,34 @@
         <v>908</v>
       </c>
       <c r="C30" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D30" s="2">
-        <v>64926.5</v>
+        <v>64499</v>
       </c>
       <c r="E30" s="2">
-        <v>67204.5</v>
+        <v>66860</v>
       </c>
       <c r="F30" s="3">
-        <v>401603115.3874346</v>
+        <v>411019122.2529787</v>
       </c>
       <c r="G30" s="3">
-        <v>408154562.8933516</v>
+        <v>422275780.423585</v>
       </c>
       <c r="H30" s="4">
-        <v>0.459349593495935</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="I30" s="5">
-        <v>6185.503844923638</v>
+        <v>6372.488290562314</v>
       </c>
       <c r="J30" s="5">
-        <v>6073.321918820191</v>
+        <v>6315.820825958495</v>
       </c>
       <c r="K30" s="5">
-        <v>-112.181926103447</v>
+        <v>-56.66746460381819</v>
       </c>
       <c r="L30" s="4">
-        <v>-0.01813626325614737</v>
+        <v>-0.008892517650874732</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1992,34 +1992,34 @@
         <v>840</v>
       </c>
       <c r="C31" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2">
-        <v>65760.5</v>
+        <v>64997.5</v>
       </c>
       <c r="E31" s="2">
-        <v>68676.5</v>
+        <v>68377.5</v>
       </c>
       <c r="F31" s="3">
-        <v>448687597.055948</v>
+        <v>455138635.6367419</v>
       </c>
       <c r="G31" s="3">
-        <v>454310221.1720557</v>
+        <v>467892251.5165331</v>
       </c>
       <c r="H31" s="4">
-        <v>0.6521739130434783</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="I31" s="5">
-        <v>6823.056349266626</v>
+        <v>7002.40217911061</v>
       </c>
       <c r="J31" s="5">
-        <v>6615.220944166573</v>
+        <v>6842.780907704041</v>
       </c>
       <c r="K31" s="5">
-        <v>-207.8354051000533</v>
+        <v>-159.6212714065687</v>
       </c>
       <c r="L31" s="4">
-        <v>-0.03046074874090587</v>
+        <v>-0.02279521617349356</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2039,25 +2039,25 @@
         <v>55230.5</v>
       </c>
       <c r="F32" s="3">
-        <v>346380110.6127</v>
+        <v>356635131.438426</v>
       </c>
       <c r="G32" s="3">
-        <v>351747061.4735015</v>
+        <v>365375262.7295949</v>
       </c>
       <c r="H32" s="4">
-        <v>0.8782608695652174</v>
+        <v>0.8608695652173913</v>
       </c>
       <c r="I32" s="5">
-        <v>6844.442239049547</v>
+        <v>7047.080599484779</v>
       </c>
       <c r="J32" s="5">
-        <v>6368.710431256308</v>
+        <v>6615.461796101699</v>
       </c>
       <c r="K32" s="5">
-        <v>-475.7318077932396</v>
+        <v>-431.6188033830795</v>
       </c>
       <c r="L32" s="4">
-        <v>-0.06950629301523659</v>
+        <v>-0.06124788801402892</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2077,25 +2077,25 @@
         <v>53478</v>
       </c>
       <c r="F33" s="3">
-        <v>370895433.254348</v>
+        <v>381876261.1819734</v>
       </c>
       <c r="G33" s="3">
-        <v>383252896.4672365</v>
+        <v>398101769.9252165</v>
       </c>
       <c r="H33" s="4">
-        <v>0.509090909090909</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I33" s="5">
-        <v>7118.299441590419</v>
+        <v>7329.045690525259</v>
       </c>
       <c r="J33" s="5">
-        <v>7166.55253500947</v>
+        <v>7444.215750873565</v>
       </c>
       <c r="K33" s="5">
-        <v>48.25309341905177</v>
+        <v>115.170060348305</v>
       </c>
       <c r="L33" s="4">
-        <v>0.006778738912993854</v>
+        <v>0.0157141959828675</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2106,34 +2106,34 @@
         <v>909</v>
       </c>
       <c r="C34" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="2">
-        <v>65231.5</v>
+        <v>65202.5</v>
       </c>
       <c r="E34" s="2">
-        <v>66135</v>
+        <v>66106.5</v>
       </c>
       <c r="F34" s="3">
-        <v>416955446.8643951</v>
+        <v>429083276.5734251</v>
       </c>
       <c r="G34" s="3">
-        <v>415565158.1771855</v>
+        <v>431345318.0823028</v>
       </c>
       <c r="H34" s="4">
-        <v>0.5261437908496732</v>
+        <v>0.4885245901639344</v>
       </c>
       <c r="I34" s="5">
-        <v>6391.934063518317</v>
+        <v>6580.77951878264</v>
       </c>
       <c r="J34" s="5">
-        <v>6283.588994892046</v>
+        <v>6525.006135286285</v>
       </c>
       <c r="K34" s="5">
-        <v>-108.3450686262713</v>
+        <v>-55.77338349635556</v>
       </c>
       <c r="L34" s="4">
-        <v>-0.01695027945370187</v>
+        <v>-0.008475194061306701</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2153,25 +2153,25 @@
         <v>14772.5</v>
       </c>
       <c r="F35" s="3">
-        <v>98487834.23679282</v>
+        <v>101403691.0086854</v>
       </c>
       <c r="G35" s="3">
-        <v>97035933.76512937</v>
+        <v>100795525.1854083</v>
       </c>
       <c r="H35" s="4">
-        <v>0.6756756756756757</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="I35" s="5">
-        <v>6739.97154742808</v>
+        <v>6939.516921039207</v>
       </c>
       <c r="J35" s="5">
-        <v>6568.687342367871</v>
+        <v>6823.186676961133</v>
       </c>
       <c r="K35" s="5">
-        <v>-171.2842050602094</v>
+        <v>-116.3302440780735</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.02541319408470943</v>
+        <v>-0.01676344987723621</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2191,25 +2191,25 @@
         <v>37090</v>
       </c>
       <c r="F36" s="3">
-        <v>226305712.6790402</v>
+        <v>233005779.2400188</v>
       </c>
       <c r="G36" s="3">
-        <v>237120679.0171064</v>
+        <v>246307758.8525125</v>
       </c>
       <c r="H36" s="4">
         <v>0.4222222222222222</v>
       </c>
       <c r="I36" s="5">
-        <v>6360.028460030639</v>
+        <v>6548.325138481525</v>
       </c>
       <c r="J36" s="5">
-        <v>6393.116177328294</v>
+        <v>6640.813126247303</v>
       </c>
       <c r="K36" s="5">
-        <v>33.08771729765522</v>
+        <v>92.4879877657786</v>
       </c>
       <c r="L36" s="4">
-        <v>0.00520244799305436</v>
+        <v>0.01412391501794397</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2229,25 +2229,25 @@
         <v>105958.5</v>
       </c>
       <c r="F37" s="3">
-        <v>661761678.6647698</v>
+        <v>681353969.2970766</v>
       </c>
       <c r="G37" s="3">
-        <v>647521215.742695</v>
+        <v>672608985.9397362</v>
       </c>
       <c r="H37" s="4">
-        <v>0.542997542997543</v>
+        <v>0.5061425061425061</v>
       </c>
       <c r="I37" s="5">
-        <v>6390.621896870845</v>
+        <v>6579.824332674179</v>
       </c>
       <c r="J37" s="5">
-        <v>6111.083261302255</v>
+        <v>6347.853036233396</v>
       </c>
       <c r="K37" s="5">
-        <v>-279.5386355685905</v>
+        <v>-231.9712964407827</v>
       </c>
       <c r="L37" s="4">
-        <v>-0.04374200822387353</v>
+        <v>-0.03525493762635223</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2258,34 +2258,34 @@
         <v>878</v>
       </c>
       <c r="C38" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D38" s="2">
-        <v>81052.5</v>
+        <v>81086.5</v>
       </c>
       <c r="E38" s="2">
-        <v>83279.5</v>
+        <v>83311.5</v>
       </c>
       <c r="F38" s="3">
-        <v>525391718.1405283</v>
+        <v>543019586.2244613</v>
       </c>
       <c r="G38" s="3">
-        <v>525006051.7818687</v>
+        <v>546322932.927147</v>
       </c>
       <c r="H38" s="4">
-        <v>0.6185185185185185</v>
+        <v>0.5682656826568265</v>
       </c>
       <c r="I38" s="5">
-        <v>6482.116136337909</v>
+        <v>6696.793994369733</v>
       </c>
       <c r="J38" s="5">
-        <v>6304.145099116454</v>
+        <v>6557.593284566321</v>
       </c>
       <c r="K38" s="5">
-        <v>-177.9710372214549</v>
+        <v>-139.2007098034119</v>
       </c>
       <c r="L38" s="4">
-        <v>-0.02745570018774768</v>
+        <v>-0.02078617169953911</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2305,25 +2305,25 @@
         <v>45605.5</v>
       </c>
       <c r="F39" s="3">
-        <v>301249846.3242236</v>
+        <v>310168728.6536306</v>
       </c>
       <c r="G39" s="3">
-        <v>288039421.3276196</v>
+        <v>299199313.2883295</v>
       </c>
       <c r="H39" s="4">
-        <v>0.6065573770491803</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="I39" s="5">
-        <v>6565.537640420273</v>
+        <v>6759.91867781731</v>
       </c>
       <c r="J39" s="5">
-        <v>6315.892191240521</v>
+        <v>6560.597149210721</v>
       </c>
       <c r="K39" s="5">
-        <v>-249.6454491797513</v>
+        <v>-199.3215286065888</v>
       </c>
       <c r="L39" s="4">
-        <v>-0.03802361099003171</v>
+        <v>-0.02948578793716305</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2343,25 +2343,25 @@
         <v>47340.5</v>
       </c>
       <c r="F40" s="3">
-        <v>286100713.9035006</v>
+        <v>294571087.0266734</v>
       </c>
       <c r="G40" s="3">
-        <v>283827362.613176</v>
+        <v>294824061.2166408</v>
       </c>
       <c r="H40" s="4">
-        <v>0.5743243243243243</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="I40" s="5">
-        <v>6059.080951396182</v>
+        <v>6238.467698606973</v>
       </c>
       <c r="J40" s="5">
-        <v>5995.444970230058</v>
+        <v>6227.73441802771</v>
       </c>
       <c r="K40" s="5">
-        <v>-63.63598116612411</v>
+        <v>-10.73328057926301</v>
       </c>
       <c r="L40" s="4">
-        <v>-0.0105025797933036</v>
+        <v>-0.001720499503693795</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2381,25 +2381,25 @@
         <v>44124.5</v>
       </c>
       <c r="F41" s="3">
-        <v>281955537.8404273</v>
+        <v>290303187.7888256</v>
       </c>
       <c r="G41" s="3">
-        <v>278153401.9614394</v>
+        <v>288930266.8089176</v>
       </c>
       <c r="H41" s="4">
-        <v>0.8163265306122449</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="I41" s="5">
-        <v>6583.439288326032</v>
+        <v>6778.350326628037</v>
       </c>
       <c r="J41" s="5">
-        <v>6303.831249338563</v>
+        <v>6548.068914297444</v>
       </c>
       <c r="K41" s="5">
-        <v>-279.6080389874687</v>
+        <v>-230.2814123305925</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.04247142363464618</v>
+        <v>-0.03397307622563506</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2419,25 +2419,25 @@
         <v>50811.5</v>
       </c>
       <c r="F42" s="3">
-        <v>360978796.1095009</v>
+        <v>371666029.4647889</v>
       </c>
       <c r="G42" s="3">
-        <v>359979185.56298</v>
+        <v>373926334.8818843</v>
       </c>
       <c r="H42" s="4">
-        <v>0.5402298850574713</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I42" s="5">
-        <v>7188.950990968492</v>
+        <v>7401.788968290858</v>
       </c>
       <c r="J42" s="5">
-        <v>7084.600642826525</v>
+        <v>7359.08868822775</v>
       </c>
       <c r="K42" s="5">
-        <v>-104.3503481419666</v>
+        <v>-42.70028006310804</v>
       </c>
       <c r="L42" s="4">
-        <v>-0.01451537898548239</v>
+        <v>-0.005768913467546155</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,25 +2457,25 @@
         <v>44222</v>
       </c>
       <c r="F43" s="3">
-        <v>267252923.6945479</v>
+        <v>275165284.1744144</v>
       </c>
       <c r="G43" s="3">
-        <v>264892320.4163279</v>
+        <v>275155393.6562425</v>
       </c>
       <c r="H43" s="4">
-        <v>0.5</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="I43" s="5">
-        <v>6021.7868839041</v>
+        <v>6200.069493125761</v>
       </c>
       <c r="J43" s="5">
-        <v>5990.057446889058</v>
+        <v>6222.13815875</v>
       </c>
       <c r="K43" s="5">
-        <v>-31.72943701504209</v>
+        <v>22.06866562423875</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.005269106600210849</v>
+        <v>0.003559422301428583</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2495,25 +2495,25 @@
         <v>64556.5</v>
       </c>
       <c r="F44" s="3">
-        <v>388506443.7617347</v>
+        <v>400008667.9069315</v>
       </c>
       <c r="G44" s="3">
-        <v>392448886.0373431</v>
+        <v>407654051.8722523</v>
       </c>
       <c r="H44" s="4">
-        <v>0.5842696629213483</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="I44" s="5">
-        <v>6258.914072443267</v>
+        <v>6444.217131691675</v>
       </c>
       <c r="J44" s="5">
-        <v>6079.153703149073</v>
+        <v>6314.686389011987</v>
       </c>
       <c r="K44" s="5">
-        <v>-179.7603692941939</v>
+        <v>-129.530742679688</v>
       </c>
       <c r="L44" s="4">
-        <v>-0.02872069614849682</v>
+        <v>-0.02010030699348653</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2533,25 +2533,25 @@
         <v>50941</v>
       </c>
       <c r="F45" s="3">
-        <v>380495513.0128653</v>
+        <v>391760563.4314359</v>
       </c>
       <c r="G45" s="3">
-        <v>367115142.4105919</v>
+        <v>381338769.5362096</v>
       </c>
       <c r="H45" s="4">
-        <v>0.788235294117647</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="I45" s="5">
-        <v>7640.54886119068</v>
+        <v>7866.756964054578</v>
       </c>
       <c r="J45" s="5">
-        <v>7206.673257505583</v>
+        <v>7485.89092354311</v>
       </c>
       <c r="K45" s="5">
-        <v>-433.8756036850973</v>
+        <v>-380.8660405114679</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.05678592095509272</v>
+        <v>-0.04841461891498011</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2571,25 +2571,25 @@
         <v>201161.5</v>
       </c>
       <c r="F46" s="3">
-        <v>1166598367.925784</v>
+        <v>1201136986.604478</v>
       </c>
       <c r="G46" s="3">
-        <v>1199163626.441645</v>
+        <v>1245624407.582713</v>
       </c>
       <c r="H46" s="4">
-        <v>0.6852207293666027</v>
+        <v>0.6429942418426103</v>
       </c>
       <c r="I46" s="5">
-        <v>6186.323718829888</v>
+        <v>6369.477648941697</v>
       </c>
       <c r="J46" s="5">
-        <v>5961.198472081612</v>
+        <v>6192.161062542846</v>
       </c>
       <c r="K46" s="5">
-        <v>-225.1252467482764</v>
+        <v>-177.3165863988515</v>
       </c>
       <c r="L46" s="4">
-        <v>-0.03639079637281861</v>
+        <v>-0.02783848161054669</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2609,25 +2609,25 @@
         <v>28415.5</v>
       </c>
       <c r="F47" s="3">
-        <v>180817551.4157207</v>
+        <v>186170883.4882378</v>
       </c>
       <c r="G47" s="3">
-        <v>183402604.9160163</v>
+        <v>190508414.4150832</v>
       </c>
       <c r="H47" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="I47" s="5">
-        <v>6663.873789921159</v>
+        <v>6861.166193271828</v>
       </c>
       <c r="J47" s="5">
-        <v>6454.315599444541</v>
+        <v>6704.383678453069</v>
       </c>
       <c r="K47" s="5">
-        <v>-209.5581904766186</v>
+        <v>-156.7825148187585</v>
       </c>
       <c r="L47" s="4">
-        <v>-0.03144690266997052</v>
+        <v>-0.02285070939871736</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2647,25 +2647,25 @@
         <v>88165.5</v>
       </c>
       <c r="F48" s="3">
-        <v>513884629.0367113</v>
+        <v>529098832.7722263</v>
       </c>
       <c r="G48" s="3">
-        <v>538790020.9036467</v>
+        <v>559665074.7246801</v>
       </c>
       <c r="H48" s="4">
-        <v>0.5335689045936396</v>
+        <v>0.5017667844522968</v>
       </c>
       <c r="I48" s="5">
-        <v>6169.712744238143</v>
+        <v>6352.374885459216</v>
       </c>
       <c r="J48" s="5">
-        <v>6111.120800127564</v>
+        <v>6347.892029475022</v>
       </c>
       <c r="K48" s="5">
-        <v>-58.59194411057979</v>
+        <v>-4.48285598419352</v>
       </c>
       <c r="L48" s="4">
-        <v>-0.009496705363681412</v>
+        <v>-0.000705697643011427</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2685,25 +2685,25 @@
         <v>41837.5</v>
       </c>
       <c r="F49" s="3">
-        <v>329819946.2651002</v>
+        <v>339584682.5015588</v>
       </c>
       <c r="G49" s="3">
-        <v>329618579.9213989</v>
+        <v>342389428.1726923</v>
       </c>
       <c r="H49" s="4">
-        <v>0.7411764705882353</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="I49" s="5">
-        <v>8278.09365037586</v>
+        <v>8523.177072260998</v>
       </c>
       <c r="J49" s="5">
-        <v>7878.543888172067</v>
+        <v>8183.792725968146</v>
       </c>
       <c r="K49" s="5">
-        <v>-399.5497622037929</v>
+        <v>-339.3843462928526</v>
       </c>
       <c r="L49" s="4">
-        <v>-0.0482659147236939</v>
+        <v>-0.0398189951253497</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2723,25 +2723,25 @@
         <v>27816.5</v>
       </c>
       <c r="F50" s="3">
-        <v>278809111.2001975</v>
+        <v>287063607.2124041</v>
       </c>
       <c r="G50" s="3">
-        <v>260760137.0464924</v>
+        <v>270863111.6451979</v>
       </c>
       <c r="H50" s="4">
-        <v>0.8032786885245902</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="I50" s="5">
-        <v>10162.16325995763</v>
+        <v>10463.02694315513</v>
       </c>
       <c r="J50" s="5">
-        <v>9374.297163427909</v>
+        <v>9737.497947088883</v>
       </c>
       <c r="K50" s="5">
-        <v>-787.8660965297204</v>
+        <v>-725.5289960662449</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.07752936814488898</v>
+        <v>-0.0693421702924012</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2761,25 +2761,25 @@
         <v>19130.5</v>
       </c>
       <c r="F51" s="3">
-        <v>136476119.4748485</v>
+        <v>140516667.4293867</v>
       </c>
       <c r="G51" s="3">
-        <v>130182817.9372725</v>
+        <v>135226662.8964952</v>
       </c>
       <c r="H51" s="4">
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
       <c r="I51" s="5">
-        <v>7270.970669943982</v>
+        <v>7486.23694349423</v>
       </c>
       <c r="J51" s="5">
-        <v>6804.987738808317</v>
+        <v>7068.642371945073</v>
       </c>
       <c r="K51" s="5">
-        <v>-465.9829311356652</v>
+        <v>-417.5945715491571</v>
       </c>
       <c r="L51" s="4">
-        <v>-0.06408813242252498</v>
+        <v>-0.05578163965436056</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2799,25 +2799,25 @@
         <v>19696</v>
       </c>
       <c r="F52" s="3">
-        <v>186835374.9234876</v>
+        <v>192366872.2644681</v>
       </c>
       <c r="G52" s="3">
-        <v>170037758.136678</v>
+        <v>176625755.7145799</v>
       </c>
       <c r="H52" s="4">
         <v>0.75</v>
       </c>
       <c r="I52" s="5">
-        <v>9595.818028478347</v>
+        <v>9879.914345521076</v>
       </c>
       <c r="J52" s="5">
-        <v>8633.111197028737</v>
+        <v>8967.595233274773</v>
       </c>
       <c r="K52" s="5">
-        <v>-962.70683144961</v>
+        <v>-912.3191122463031</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.1003256656798306</v>
+        <v>-0.09234079166484788</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2831,31 +2831,31 @@
         <v>516</v>
       </c>
       <c r="D53" s="2">
-        <v>169035.5</v>
+        <v>169090.5</v>
       </c>
       <c r="E53" s="2">
         <v>180439.5</v>
       </c>
       <c r="F53" s="3">
-        <v>1012204512.129227</v>
+        <v>1042325779.853539</v>
       </c>
       <c r="G53" s="3">
-        <v>1060597680.093522</v>
+        <v>1101689817.65257</v>
       </c>
       <c r="H53" s="4">
-        <v>0.5872093023255814</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="I53" s="5">
-        <v>5988.117952319052</v>
+        <v>6164.307160092018</v>
       </c>
       <c r="J53" s="5">
-        <v>5877.857564965108</v>
+        <v>6105.591168522245</v>
       </c>
       <c r="K53" s="5">
-        <v>-110.2603873539438</v>
+        <v>-58.715991569773</v>
       </c>
       <c r="L53" s="4">
-        <v>-0.018413195637077</v>
+        <v>-0.009525156687502978</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2875,25 +2875,25 @@
         <v>37243.5</v>
       </c>
       <c r="F54" s="3">
-        <v>307414128.8872022</v>
+        <v>316515512.590453</v>
       </c>
       <c r="G54" s="3">
-        <v>298605046.1120934</v>
+        <v>310174296.0368925</v>
       </c>
       <c r="H54" s="4">
-        <v>0.7560975609756098</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="I54" s="5">
-        <v>8532.763274920608</v>
+        <v>8785.386512815294</v>
       </c>
       <c r="J54" s="5">
-        <v>8017.641900253559</v>
+        <v>8328.279996157518</v>
       </c>
       <c r="K54" s="5">
-        <v>-515.1213746670483</v>
+        <v>-457.1065166577755</v>
       </c>
       <c r="L54" s="4">
-        <v>-0.06036981902229566</v>
+        <v>-0.0520303251303732</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2913,25 +2913,25 @@
         <v>34298</v>
       </c>
       <c r="F55" s="3">
-        <v>220011729.410818</v>
+        <v>226525454.6446975</v>
       </c>
       <c r="G55" s="3">
-        <v>226225260.0241119</v>
+        <v>234990204.2425666</v>
       </c>
       <c r="H55" s="4">
         <v>0.6538461538461539</v>
       </c>
       <c r="I55" s="5">
-        <v>6894.32594042423</v>
+        <v>7098.441170866681</v>
       </c>
       <c r="J55" s="5">
-        <v>6595.873229462707</v>
+        <v>6851.425862807355</v>
       </c>
       <c r="K55" s="5">
-        <v>-298.4527109615228</v>
+        <v>-247.0153080593263</v>
       </c>
       <c r="L55" s="4">
-        <v>-0.04328961432060729</v>
+        <v>-0.03479852859429522</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2951,25 +2951,25 @@
         <v>14630</v>
       </c>
       <c r="F56" s="3">
-        <v>102151670.6857055</v>
+        <v>105175999.9649231</v>
       </c>
       <c r="G56" s="3">
-        <v>98055310.30040722</v>
+        <v>101854396.7729556</v>
       </c>
       <c r="H56" s="4">
-        <v>0.7567567567567568</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="I56" s="5">
-        <v>7051.751393463035</v>
+        <v>7260.527403349657</v>
       </c>
       <c r="J56" s="5">
-        <v>6702.3452016683</v>
+        <v>6962.023019340779</v>
       </c>
       <c r="K56" s="5">
-        <v>-349.4061917947356</v>
+        <v>-298.5043840088783</v>
       </c>
       <c r="L56" s="4">
-        <v>-0.04954885280252996</v>
+        <v>-0.04111331965652565</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2989,25 +2989,25 @@
         <v>34555.5</v>
       </c>
       <c r="F57" s="3">
-        <v>223136260.7194927</v>
+        <v>229742491.6506087</v>
       </c>
       <c r="G57" s="3">
-        <v>222919522.4433591</v>
+        <v>231556388.1020057</v>
       </c>
       <c r="H57" s="4">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I57" s="5">
-        <v>6741.378592410541</v>
+        <v>6940.965623366176</v>
       </c>
       <c r="J57" s="5">
-        <v>6451.057644755802</v>
+        <v>6700.999496520255</v>
       </c>
       <c r="K57" s="5">
-        <v>-290.320947654739</v>
+        <v>-239.9661268459213</v>
       </c>
       <c r="L57" s="4">
-        <v>-0.04306551600314856</v>
+        <v>-0.03457244133843507</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3027,25 +3027,25 @@
         <v>23428.5</v>
       </c>
       <c r="F58" s="3">
-        <v>145878344.4235623</v>
+        <v>150197257.1274119</v>
       </c>
       <c r="G58" s="3">
-        <v>144743062.4226406</v>
+        <v>150351034.1761377</v>
       </c>
       <c r="H58" s="4">
-        <v>0.6391752577319587</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="I58" s="5">
-        <v>6394.246709194454</v>
+        <v>6583.556462146573</v>
       </c>
       <c r="J58" s="5">
-        <v>6178.076378028493</v>
+        <v>6417.441755816107</v>
       </c>
       <c r="K58" s="5">
-        <v>-216.1703311659603</v>
+        <v>-166.1147063304661</v>
       </c>
       <c r="L58" s="4">
-        <v>-0.0338070051090027</v>
+        <v>-0.02523175844022518</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3056,34 +3056,34 @@
         <v>919</v>
       </c>
       <c r="C59" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D59" s="2">
-        <v>180672.5</v>
+        <v>180928.5</v>
       </c>
       <c r="E59" s="2">
-        <v>190562.5</v>
+        <v>190818.5</v>
       </c>
       <c r="F59" s="3">
-        <v>1133066967.518701</v>
+        <v>1167822086.475952</v>
       </c>
       <c r="G59" s="3">
-        <v>1143413198.495548</v>
+        <v>1188534909.581752</v>
       </c>
       <c r="H59" s="4">
-        <v>0.6245059288537549</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="I59" s="5">
-        <v>6271.385891702949</v>
+        <v>6454.605473852666</v>
       </c>
       <c r="J59" s="5">
-        <v>6000.200451272147</v>
+        <v>6228.614676154316</v>
       </c>
       <c r="K59" s="5">
-        <v>-271.1854404308024</v>
+        <v>-225.9907976983504</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.04324170846982656</v>
+        <v>-0.03501233322684549</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3103,25 +3103,25 @@
         <v>50764</v>
       </c>
       <c r="F60" s="3">
-        <v>347805705.0505119</v>
+        <v>358102932.4008068</v>
       </c>
       <c r="G60" s="3">
-        <v>353986156.5008064</v>
+        <v>367701109.974632</v>
       </c>
       <c r="H60" s="4">
-        <v>0.5306122448979592</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="I60" s="5">
-        <v>7053.594780882027</v>
+        <v>7262.425366582303</v>
       </c>
       <c r="J60" s="5">
-        <v>6973.173045875155</v>
+        <v>7243.343904629894</v>
       </c>
       <c r="K60" s="5">
-        <v>-80.42173500687204</v>
+        <v>-19.08146195240897</v>
       </c>
       <c r="L60" s="4">
-        <v>-0.01140152468424271</v>
+        <v>-0.002627422794623357</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3132,34 +3132,34 @@
         <v>313</v>
       </c>
       <c r="C61" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2">
-        <v>38946.5</v>
+        <v>39020.5</v>
       </c>
       <c r="E61" s="2">
-        <v>41024</v>
+        <v>41205</v>
       </c>
       <c r="F61" s="3">
-        <v>285973559.9081163</v>
+        <v>295571230.0613662</v>
       </c>
       <c r="G61" s="3">
-        <v>296265489.0441967</v>
+        <v>309136361.1717314</v>
       </c>
       <c r="H61" s="4">
-        <v>0.6901408450704225</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="I61" s="5">
-        <v>7342.728099010598</v>
+        <v>7574.767879995546</v>
       </c>
       <c r="J61" s="5">
-        <v>7221.760165858928</v>
+        <v>7502.399251831851</v>
       </c>
       <c r="K61" s="5">
-        <v>-120.96793315167</v>
+        <v>-72.36862816369467</v>
       </c>
       <c r="L61" s="4">
-        <v>-0.01647452166558772</v>
+        <v>-0.009553907038500231</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3179,25 +3179,25 @@
         <v>16696.5</v>
       </c>
       <c r="F62" s="3">
-        <v>100084601.3072847</v>
+        <v>103047732.3858133</v>
       </c>
       <c r="G62" s="3">
-        <v>102760007.8728853</v>
+        <v>106741374.6610054</v>
       </c>
       <c r="H62" s="4">
-        <v>0.7173913043478261</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="I62" s="5">
-        <v>6607.988994274707</v>
+        <v>6803.626857639862</v>
       </c>
       <c r="J62" s="5">
-        <v>6154.583767429421</v>
+        <v>6393.038939957797</v>
       </c>
       <c r="K62" s="5">
-        <v>-453.4052268452861</v>
+        <v>-410.5879176820645</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.06861470671911307</v>
+        <v>-0.0603483886276055</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3217,25 +3217,25 @@
         <v>259</v>
       </c>
       <c r="F63" s="3">
-        <v>3281423.388501411</v>
+        <v>3378574.073994241</v>
       </c>
       <c r="G63" s="3">
-        <v>3094996.105629904</v>
+        <v>3214909.629960873</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>11761.37415233481</v>
+        <v>12109.58449460301</v>
       </c>
       <c r="J63" s="5">
-        <v>11949.79191362897</v>
+        <v>12412.77849405742</v>
       </c>
       <c r="K63" s="5">
-        <v>188.4177612941658</v>
+        <v>303.19399945441</v>
       </c>
       <c r="L63" s="4">
-        <v>0.01602004653994982</v>
+        <v>0.02503752292983608</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3255,25 +3255,25 @@
         <v>22923</v>
       </c>
       <c r="F64" s="3">
-        <v>226054064.0931864</v>
+        <v>232746680.2798231</v>
       </c>
       <c r="G64" s="3">
-        <v>210095547.9854603</v>
+        <v>218235557.4540844</v>
       </c>
       <c r="H64" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="I64" s="5">
-        <v>9459.912290474826</v>
+        <v>9739.984946427148</v>
       </c>
       <c r="J64" s="5">
-        <v>9165.272782160288</v>
+        <v>9520.375057980387</v>
       </c>
       <c r="K64" s="5">
-        <v>-294.639508314538</v>
+        <v>-219.609888446761</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.03114611417816315</v>
+        <v>-0.02254725132068292</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3293,25 +3293,25 @@
         <v>13174</v>
       </c>
       <c r="F65" s="3">
-        <v>125662206.4646896</v>
+        <v>129382594.8611901</v>
       </c>
       <c r="G65" s="3">
-        <v>115498839.8994299</v>
+        <v>119973764.0918338</v>
       </c>
       <c r="H65" s="4">
         <v>0.7837837837837838</v>
       </c>
       <c r="I65" s="5">
-        <v>10116.10098733614</v>
+        <v>10415.60093875303</v>
       </c>
       <c r="J65" s="5">
-        <v>8767.180803053734</v>
+        <v>9106.859275226489</v>
       </c>
       <c r="K65" s="5">
-        <v>-1348.92018428241</v>
+        <v>-1308.74166352654</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.1333438827835999</v>
+        <v>-0.125652055145195</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3322,34 +3322,34 @@
         <v>886</v>
       </c>
       <c r="C66" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D66" s="2">
-        <v>213215.5</v>
+        <v>213251.5</v>
       </c>
       <c r="E66" s="2">
-        <v>228814</v>
+        <v>228853</v>
       </c>
       <c r="F66" s="3">
-        <v>1346400394.802823</v>
+        <v>1386732609.623607</v>
       </c>
       <c r="G66" s="3">
-        <v>1425009646.897767</v>
+        <v>1480379918.042588</v>
       </c>
       <c r="H66" s="4">
-        <v>0.5743119266055046</v>
+        <v>0.5402930402930403</v>
       </c>
       <c r="I66" s="5">
-        <v>6314.739757676262</v>
+        <v>6502.803542407003</v>
       </c>
       <c r="J66" s="5">
-        <v>6227.807943997162</v>
+        <v>6468.693519606858</v>
       </c>
       <c r="K66" s="5">
-        <v>-86.93181367910074</v>
+        <v>-34.11002280014509</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.01376649189278556</v>
+        <v>-0.005245433385416276</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3369,25 +3369,25 @@
         <v>37557.5</v>
       </c>
       <c r="F67" s="3">
-        <v>236986972.5865922</v>
+        <v>244003271.3428988</v>
       </c>
       <c r="G67" s="3">
-        <v>256517335.5327129</v>
+        <v>266455925.6652703</v>
       </c>
       <c r="H67" s="4">
-        <v>0.6235294117647059</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="I67" s="5">
-        <v>6951.49736991896</v>
+        <v>7157.305232767663</v>
       </c>
       <c r="J67" s="5">
-        <v>6829.989630106181</v>
+        <v>7094.612944558884</v>
       </c>
       <c r="K67" s="5">
-        <v>-121.5077398127796</v>
+        <v>-62.69228820877925</v>
       </c>
       <c r="L67" s="4">
-        <v>-0.01747936212111323</v>
+        <v>-0.008759202824236256</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3407,25 +3407,25 @@
         <v>24667</v>
       </c>
       <c r="F68" s="3">
-        <v>148389495.8086121</v>
+        <v>152782754.3220542</v>
       </c>
       <c r="G68" s="3">
-        <v>164575681.4569535</v>
+        <v>170952054.5796129</v>
       </c>
       <c r="H68" s="4">
-        <v>0.7021276595744681</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="I68" s="5">
-        <v>6622.31377032744</v>
+        <v>6818.375736786978</v>
       </c>
       <c r="J68" s="5">
-        <v>6671.896925323447</v>
+        <v>6930.395045186397</v>
       </c>
       <c r="K68" s="5">
-        <v>49.58315499600758</v>
+        <v>112.0193083994191</v>
       </c>
       <c r="L68" s="4">
-        <v>0.007487285670179977</v>
+        <v>0.01642903130067253</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3445,25 +3445,25 @@
         <v>63406.5</v>
       </c>
       <c r="F69" s="3">
-        <v>403736855.4032578</v>
+        <v>415689995.1287163</v>
       </c>
       <c r="G69" s="3">
-        <v>402541093.4640276</v>
+        <v>418137275.0286855</v>
       </c>
       <c r="H69" s="4">
-        <v>0.6904761904761905</v>
+        <v>0.6488095238095238</v>
       </c>
       <c r="I69" s="5">
-        <v>6540.049169864706</v>
+        <v>6733.675588886274</v>
       </c>
       <c r="J69" s="5">
-        <v>6348.577724113894</v>
+        <v>6594.549060879966</v>
       </c>
       <c r="K69" s="5">
-        <v>-191.4714457508117</v>
+        <v>-139.126528006308</v>
       </c>
       <c r="L69" s="4">
-        <v>-0.02927675936032337</v>
+        <v>-0.02066130542967237</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3483,25 +3483,25 @@
         <v>20097.5</v>
       </c>
       <c r="F70" s="3">
-        <v>137657437.4841487</v>
+        <v>141732959.8509467</v>
       </c>
       <c r="G70" s="3">
-        <v>144096667.099775</v>
+        <v>149679594.7050308</v>
       </c>
       <c r="H70" s="4">
-        <v>0.5932203389830508</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I70" s="5">
-        <v>7217.587494253437</v>
+        <v>7431.273291437759</v>
       </c>
       <c r="J70" s="5">
-        <v>7169.88018906705</v>
+        <v>7447.672332629967</v>
       </c>
       <c r="K70" s="5">
-        <v>-47.7073051863872</v>
+        <v>16.39904119220773</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.006609868633303151</v>
+        <v>0.002206760611415337</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3521,25 +3521,25 @@
         <v>36379.5</v>
       </c>
       <c r="F71" s="3">
-        <v>346938444.9903306</v>
+        <v>357209996.0107616</v>
       </c>
       <c r="G71" s="3">
-        <v>320849836.5406048</v>
+        <v>333280945.7787111</v>
       </c>
       <c r="H71" s="4">
-        <v>0.7640449438202247</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="I71" s="5">
-        <v>9531.799686530321</v>
+        <v>9814.000659672553</v>
       </c>
       <c r="J71" s="5">
-        <v>8819.522987963133</v>
+        <v>9161.229422578956</v>
       </c>
       <c r="K71" s="5">
-        <v>-712.2766985671879</v>
+        <v>-652.7712370935969</v>
       </c>
       <c r="L71" s="4">
-        <v>-0.07472636039275227</v>
+        <v>-0.06651428502302315</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3550,34 +3550,34 @@
         <v>888</v>
       </c>
       <c r="C72" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D72" s="2">
-        <v>166056</v>
+        <v>166019</v>
       </c>
       <c r="E72" s="2">
-        <v>175078</v>
+        <v>175055</v>
       </c>
       <c r="F72" s="3">
-        <v>1068932338.451988</v>
+        <v>1100129775.313578</v>
       </c>
       <c r="G72" s="3">
-        <v>1081834859.736677</v>
+        <v>1123327596.918453</v>
       </c>
       <c r="H72" s="4">
-        <v>0.7471636952998379</v>
+        <v>0.6996753246753247</v>
       </c>
       <c r="I72" s="5">
-        <v>6437.179857710578</v>
+        <v>6626.529344915809</v>
       </c>
       <c r="J72" s="5">
-        <v>6179.159344615982</v>
+        <v>6416.998068712424</v>
       </c>
       <c r="K72" s="5">
-        <v>-258.020513094596</v>
+        <v>-209.5312762033846</v>
       </c>
       <c r="L72" s="4">
-        <v>-0.04008284975687515</v>
+        <v>-0.0316200631276381</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3597,25 +3597,25 @@
         <v>120207</v>
       </c>
       <c r="F73" s="3">
-        <v>716759368.1316822</v>
+        <v>737979934.850201</v>
       </c>
       <c r="G73" s="3">
-        <v>763951544.8532505</v>
+        <v>793550329.1602174</v>
       </c>
       <c r="H73" s="4">
-        <v>0.6136363636363636</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I73" s="5">
-        <v>6471.517282419753</v>
+        <v>6663.114728323531</v>
       </c>
       <c r="J73" s="5">
-        <v>6355.299981309329</v>
+        <v>6601.531767369765</v>
       </c>
       <c r="K73" s="5">
-        <v>-116.2173011104233</v>
+        <v>-61.58296095376591</v>
       </c>
       <c r="L73" s="4">
-        <v>-0.01795827717653387</v>
+        <v>-0.009242368391465527</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3635,25 +3635,25 @@
         <v>53836.5</v>
       </c>
       <c r="F74" s="3">
-        <v>332851734.8703423</v>
+        <v>342706231.0391222</v>
       </c>
       <c r="G74" s="3">
-        <v>360957533.7194945</v>
+        <v>374942588.473969</v>
       </c>
       <c r="H74" s="4">
-        <v>0.4716981132075472</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="I74" s="5">
-        <v>6666.701414457809</v>
+        <v>6864.077533205591</v>
       </c>
       <c r="J74" s="5">
-        <v>6704.699111559898</v>
+        <v>6964.468129874138</v>
       </c>
       <c r="K74" s="5">
-        <v>37.99769710208966</v>
+        <v>100.390596668547</v>
       </c>
       <c r="L74" s="4">
-        <v>0.005699624857907315</v>
+        <v>0.01462550447352884</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3664,34 +3664,34 @@
         <v>855</v>
       </c>
       <c r="C75" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D75" s="2">
-        <v>86245</v>
+        <v>84428</v>
       </c>
       <c r="E75" s="2">
-        <v>93955.5</v>
+        <v>92074.5</v>
       </c>
       <c r="F75" s="3">
-        <v>507729039.9383509</v>
+        <v>511020408.9183019</v>
       </c>
       <c r="G75" s="3">
-        <v>547948663.3587649</v>
+        <v>559516618.6333406</v>
       </c>
       <c r="H75" s="4">
-        <v>0.5671641791044776</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="I75" s="5">
-        <v>5887.054785069869</v>
+        <v>6052.736164759343</v>
       </c>
       <c r="J75" s="5">
-        <v>5832.001994122375</v>
+        <v>6076.781504470191</v>
       </c>
       <c r="K75" s="5">
-        <v>-55.05279094749403</v>
+        <v>24.04533971084766</v>
       </c>
       <c r="L75" s="4">
-        <v>-0.00935149968148985</v>
+        <v>0.003972639655243304</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3711,25 +3711,25 @@
         <v>36845.5</v>
       </c>
       <c r="F76" s="3">
-        <v>322952952.5559808</v>
+        <v>332514382.7672391</v>
       </c>
       <c r="G76" s="3">
-        <v>295507162.1720784</v>
+        <v>306956386.6853628</v>
       </c>
       <c r="H76" s="4">
-        <v>0.8170731707317073</v>
+        <v>0.6951219512195121</v>
       </c>
       <c r="I76" s="5">
-        <v>8494.626367583698</v>
+        <v>8746.120514150718</v>
       </c>
       <c r="J76" s="5">
-        <v>8020.169686178187</v>
+        <v>8330.905719432843</v>
       </c>
       <c r="K76" s="5">
-        <v>-474.4566814055115</v>
+        <v>-415.2147947178746</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.05585374339901317</v>
+        <v>-0.04747416800924265</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3740,34 +3740,34 @@
         <v>925</v>
       </c>
       <c r="C77" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D77" s="2">
-        <v>95649</v>
+        <v>95491.5</v>
       </c>
       <c r="E77" s="2">
-        <v>99878</v>
+        <v>99788</v>
       </c>
       <c r="F77" s="3">
-        <v>602582207.1917388</v>
+        <v>619437304.2903677</v>
       </c>
       <c r="G77" s="3">
-        <v>634877576.5983788</v>
+        <v>658625340.5581892</v>
       </c>
       <c r="H77" s="4">
-        <v>0.3976261127596439</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="I77" s="5">
-        <v>6299.93211838847</v>
+        <v>6486.831857184857</v>
       </c>
       <c r="J77" s="5">
-        <v>6356.530733478632</v>
+        <v>6600.245926947019</v>
       </c>
       <c r="K77" s="5">
-        <v>56.59861509016173</v>
+        <v>113.4140697621624</v>
       </c>
       <c r="L77" s="4">
-        <v>0.008984003958544262</v>
+        <v>0.01748373817282545</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3787,25 +3787,25 @@
         <v>70695</v>
       </c>
       <c r="F78" s="3">
-        <v>474880888.0380042</v>
+        <v>488940336.7400523</v>
       </c>
       <c r="G78" s="3">
-        <v>472518164.0545471</v>
+        <v>490825559.7437084</v>
       </c>
       <c r="H78" s="4">
-        <v>0.7975460122699386</v>
+        <v>0.7852760736196319</v>
       </c>
       <c r="I78" s="5">
-        <v>7238.872404411548</v>
+        <v>7453.188368254571</v>
       </c>
       <c r="J78" s="5">
-        <v>6683.897928489245</v>
+        <v>6942.861019077847</v>
       </c>
       <c r="K78" s="5">
-        <v>-554.9744759223031</v>
+        <v>-510.3273491767241</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.07666587348384368</v>
+        <v>-0.06847101186256954</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3825,25 +3825,25 @@
         <v>38622.5</v>
       </c>
       <c r="F79" s="3">
-        <v>260293024.5832548</v>
+        <v>267999328.4561037</v>
       </c>
       <c r="G79" s="3">
-        <v>248940979.7981482</v>
+        <v>258586029.1679034</v>
       </c>
       <c r="H79" s="4">
         <v>0.8529411764705882</v>
       </c>
       <c r="I79" s="5">
-        <v>7058.506761304756</v>
+        <v>7267.482772391732</v>
       </c>
       <c r="J79" s="5">
-        <v>6445.491094521281</v>
+        <v>6695.21727407349</v>
       </c>
       <c r="K79" s="5">
-        <v>-613.0156667834744</v>
+        <v>-572.2654983182429</v>
       </c>
       <c r="L79" s="4">
-        <v>-0.08684778346378741</v>
+        <v>-0.07874328928473129</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3854,34 +3854,34 @@
         <v>352</v>
       </c>
       <c r="C80" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D80" s="2">
-        <v>75700.5</v>
+        <v>75748.5</v>
       </c>
       <c r="E80" s="2">
-        <v>81963.5</v>
+        <v>82314.5</v>
       </c>
       <c r="F80" s="3">
-        <v>555420514.1383529</v>
+        <v>572421774.9268091</v>
       </c>
       <c r="G80" s="3">
-        <v>584639525.233575</v>
+        <v>609340653.2736946</v>
       </c>
       <c r="H80" s="4">
-        <v>0.6904761904761905</v>
+        <v>0.6686390532544378</v>
       </c>
       <c r="I80" s="5">
-        <v>7337.078541599499</v>
+        <v>7556.872742388417</v>
       </c>
       <c r="J80" s="5">
-        <v>7132.925329367035</v>
+        <v>7402.591928198491</v>
       </c>
       <c r="K80" s="5">
-        <v>-204.1532122324634</v>
+        <v>-154.2808141899268</v>
       </c>
       <c r="L80" s="4">
-        <v>-0.02782486395299755</v>
+        <v>-0.0204159603382662</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3901,25 +3901,25 @@
         <v>40490.5</v>
       </c>
       <c r="F81" s="3">
-        <v>245271954.833752</v>
+        <v>252533540.9575554</v>
       </c>
       <c r="G81" s="3">
-        <v>251261815.6613551</v>
+        <v>260996784.2420731</v>
       </c>
       <c r="H81" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I81" s="5">
-        <v>6578.389272586518</v>
+        <v>6773.150798791867</v>
       </c>
       <c r="J81" s="5">
-        <v>6205.451048057078</v>
+        <v>6445.877038862774</v>
       </c>
       <c r="K81" s="5">
-        <v>-372.93822452944</v>
+        <v>-327.2737599290931</v>
       </c>
       <c r="L81" s="4">
-        <v>-0.05669141929370902</v>
+        <v>-0.04831927852358897</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3939,25 +3939,25 @@
         <v>26966.5</v>
       </c>
       <c r="F82" s="3">
-        <v>192058171.2602008</v>
+        <v>197744296.0857293</v>
       </c>
       <c r="G82" s="3">
-        <v>194551571.2104594</v>
+        <v>202089339.8446545</v>
       </c>
       <c r="H82" s="4">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I82" s="5">
-        <v>7002.01142076637</v>
+        <v>7209.314815914882</v>
       </c>
       <c r="J82" s="5">
-        <v>7214.565153448143</v>
+        <v>7494.088585639757</v>
       </c>
       <c r="K82" s="5">
-        <v>212.553732681773</v>
+        <v>284.7737697248749</v>
       </c>
       <c r="L82" s="4">
-        <v>0.03035609625705371</v>
+        <v>0.03950080929968891</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3977,25 +3977,25 @@
         <v>20050.5</v>
       </c>
       <c r="F83" s="3">
-        <v>142118104.8373455</v>
+        <v>146325690.897185</v>
       </c>
       <c r="G83" s="3">
-        <v>144601788.4872835</v>
+        <v>150204286.6780017</v>
       </c>
       <c r="H83" s="4">
-        <v>0.813953488372093</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="I83" s="5">
-        <v>7676.043362626349</v>
+        <v>7903.302325052527</v>
       </c>
       <c r="J83" s="5">
-        <v>7211.87942880644</v>
+        <v>7491.298804418927</v>
       </c>
       <c r="K83" s="5">
-        <v>-464.1639338199093</v>
+        <v>-412.0035206335997</v>
       </c>
       <c r="L83" s="4">
-        <v>-0.06046916515347778</v>
+        <v>-0.05213055298765401</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4015,25 +4015,25 @@
         <v>46389.5</v>
       </c>
       <c r="F84" s="3">
-        <v>289170622.9033499</v>
+        <v>297731884.5612911</v>
       </c>
       <c r="G84" s="3">
-        <v>299112333.3753907</v>
+        <v>310701237.8010403</v>
       </c>
       <c r="H84" s="4">
-        <v>0.4716981132075472</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="I84" s="5">
-        <v>6519.900408174375</v>
+        <v>6712.930297648158</v>
       </c>
       <c r="J84" s="5">
-        <v>6447.845598150243</v>
+        <v>6697.663001348156</v>
       </c>
       <c r="K84" s="5">
-        <v>-72.05481002413217</v>
+        <v>-15.26729630000136</v>
       </c>
       <c r="L84" s="4">
-        <v>-0.01105152004067311</v>
+        <v>-0.002274311757020642</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4053,25 +4053,25 @@
         <v>38977.5</v>
       </c>
       <c r="F85" s="3">
-        <v>241833128.6616079</v>
+        <v>248992903.9916303</v>
       </c>
       <c r="G85" s="3">
-        <v>253765312.2284589</v>
+        <v>263597277.0851869</v>
       </c>
       <c r="H85" s="4">
-        <v>0.6021505376344086</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="I85" s="5">
-        <v>6707.246568806641</v>
+        <v>6905.823078077695</v>
       </c>
       <c r="J85" s="5">
-        <v>6510.558969365889</v>
+        <v>6762.806159584039</v>
       </c>
       <c r="K85" s="5">
-        <v>-196.6875994407519</v>
+        <v>-143.0169184936558</v>
       </c>
       <c r="L85" s="4">
-        <v>-0.02932464125524858</v>
+        <v>-0.02070961229048252</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4091,25 +4091,25 @@
         <v>58405</v>
       </c>
       <c r="F86" s="3">
-        <v>484349300.5858262</v>
+        <v>498689073.6046854</v>
       </c>
       <c r="G86" s="3">
-        <v>489601139.0369672</v>
+        <v>508570403.0019799</v>
       </c>
       <c r="H86" s="4">
-        <v>0.5684210526315789</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="I86" s="5">
-        <v>8721.514370862091</v>
+        <v>8979.725823439008</v>
       </c>
       <c r="J86" s="5">
-        <v>8382.863436982572</v>
+        <v>8707.65179354473</v>
       </c>
       <c r="K86" s="5">
-        <v>-338.6509338795186</v>
+        <v>-272.0740298942783</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.03882937291382849</v>
+        <v>-0.03029870123474221</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4120,34 +4120,34 @@
         <v>926</v>
       </c>
       <c r="C87" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" s="2">
-        <v>100469.5</v>
+        <v>100513.5</v>
       </c>
       <c r="E87" s="2">
-        <v>106174.5</v>
+        <v>106237</v>
       </c>
       <c r="F87" s="3">
-        <v>664348951.5551994</v>
+        <v>684439631.2806654</v>
       </c>
       <c r="G87" s="3">
-        <v>661633512.3680121</v>
+        <v>687624190.1641985</v>
       </c>
       <c r="H87" s="4">
-        <v>0.7624633431085044</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="I87" s="5">
-        <v>6612.444090546876</v>
+        <v>6809.429890319861</v>
       </c>
       <c r="J87" s="5">
-        <v>6231.567018144772</v>
+        <v>6472.54901930776</v>
       </c>
       <c r="K87" s="5">
-        <v>-380.8770724021042</v>
+        <v>-336.8808710121011</v>
       </c>
       <c r="L87" s="4">
-        <v>-0.05760004427812171</v>
+        <v>-0.04947269836657009</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4167,25 +4167,25 @@
         <v>21535</v>
       </c>
       <c r="F88" s="3">
-        <v>147619692.5636858</v>
+        <v>151990160.0794161</v>
       </c>
       <c r="G88" s="3">
-        <v>142019430.6321938</v>
+        <v>147521877.1198018</v>
       </c>
       <c r="H88" s="4">
-        <v>0.7413793103448276</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="I88" s="5">
-        <v>7098.12437196162</v>
+        <v>7308.273312468917</v>
       </c>
       <c r="J88" s="5">
-        <v>6594.819161002731</v>
+        <v>6850.330955180023</v>
       </c>
       <c r="K88" s="5">
-        <v>-503.3052109588889</v>
+        <v>-457.9423572888936</v>
       </c>
       <c r="L88" s="4">
-        <v>-0.07090678953823359</v>
+        <v>-0.06266081435509274</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4199,31 +4199,31 @@
         <v>66</v>
       </c>
       <c r="D89" s="2">
-        <v>21131.5</v>
+        <v>21182</v>
       </c>
       <c r="E89" s="2">
         <v>22510.5</v>
       </c>
       <c r="F89" s="3">
-        <v>135223754.8137375</v>
+        <v>139429025.8613869</v>
       </c>
       <c r="G89" s="3">
-        <v>139103390.1430878</v>
+        <v>144492856.6203158</v>
       </c>
       <c r="H89" s="4">
-        <v>0.7424242424242424</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="I89" s="5">
-        <v>6399.155517295862</v>
+        <v>6582.429697922146</v>
       </c>
       <c r="J89" s="5">
-        <v>6179.489133652643</v>
+        <v>6418.909247698442</v>
       </c>
       <c r="K89" s="5">
-        <v>-219.6663836432199</v>
+        <v>-163.5204502237048</v>
       </c>
       <c r="L89" s="4">
-        <v>-0.03432740195944572</v>
+        <v>-0.02484195923510168</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4243,25 +4243,25 @@
         <v>52585.5</v>
       </c>
       <c r="F90" s="3">
-        <v>316470251.0195583</v>
+        <v>325839752.6609418</v>
       </c>
       <c r="G90" s="3">
-        <v>318248722.2633326</v>
+        <v>330579053.0934768</v>
       </c>
       <c r="H90" s="4">
-        <v>0.5970149253731343</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="I90" s="5">
-        <v>6270.835417590866</v>
+        <v>6456.49142332498</v>
       </c>
       <c r="J90" s="5">
-        <v>6052.024270251925</v>
+        <v>6286.505844643044</v>
       </c>
       <c r="K90" s="5">
-        <v>-218.8111473389408</v>
+        <v>-169.9855786819362</v>
       </c>
       <c r="L90" s="4">
-        <v>-0.03489346040323982</v>
+        <v>-0.02632785634436674</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4281,25 +4281,25 @@
         <v>29434</v>
       </c>
       <c r="F91" s="3">
-        <v>172264421.9996186</v>
+        <v>177364527.8688987</v>
       </c>
       <c r="G91" s="3">
-        <v>176800094.6779694</v>
+        <v>183650094.3972969</v>
       </c>
       <c r="H91" s="4">
-        <v>0.547945205479452</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="I91" s="5">
-        <v>6035.999999986636</v>
+        <v>6214.703406468183</v>
       </c>
       <c r="J91" s="5">
-        <v>6006.662182441033</v>
+        <v>6239.386233515556</v>
       </c>
       <c r="K91" s="5">
-        <v>-29.33781754560277</v>
+        <v>24.68282704737339</v>
       </c>
       <c r="L91" s="4">
-        <v>-0.004860473417108602</v>
+        <v>0.003971682224075845</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4319,25 +4319,25 @@
         <v>28998.5</v>
       </c>
       <c r="F92" s="3">
-        <v>178953205.7339869</v>
+        <v>184251341.4969968</v>
       </c>
       <c r="G92" s="3">
-        <v>181913532.6832596</v>
+        <v>188961649.0889204</v>
       </c>
       <c r="H92" s="4">
-        <v>0.4805194805194805</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I92" s="5">
-        <v>6320.866281687192</v>
+        <v>6508.003514366839</v>
       </c>
       <c r="J92" s="5">
-        <v>6273.204913469995</v>
+        <v>6516.255981823902</v>
       </c>
       <c r="K92" s="5">
-        <v>-47.66136821719738</v>
+        <v>8.252467457063176</v>
       </c>
       <c r="L92" s="4">
-        <v>-0.007540322179458547</v>
+        <v>0.001268049016698525</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4357,25 +4357,25 @@
         <v>77168.5</v>
       </c>
       <c r="F93" s="3">
-        <v>481464706.0764982</v>
+        <v>495719077.0302255</v>
       </c>
       <c r="G93" s="3">
-        <v>474179131.8323902</v>
+        <v>492550880.59123</v>
       </c>
       <c r="H93" s="4">
-        <v>0.511326860841424</v>
+        <v>0.459546925566343</v>
       </c>
       <c r="I93" s="5">
-        <v>6299.296835421236</v>
+        <v>6485.7954773912</v>
       </c>
       <c r="J93" s="5">
-        <v>6144.723971988444</v>
+        <v>6382.797133431775</v>
       </c>
       <c r="K93" s="5">
-        <v>-154.5728634327925</v>
+        <v>-102.9983439594243</v>
       </c>
       <c r="L93" s="4">
-        <v>-0.02453811393100613</v>
+        <v>-0.01588060313009654</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4395,25 +4395,25 @@
         <v>42967</v>
       </c>
       <c r="F94" s="3">
-        <v>277943153.5137394</v>
+        <v>286172011.7545012</v>
       </c>
       <c r="G94" s="3">
-        <v>267131896.0588245</v>
+        <v>277481740.1375809</v>
       </c>
       <c r="H94" s="4">
-        <v>0.6518987341772152</v>
+        <v>0.6392405063291139</v>
       </c>
       <c r="I94" s="5">
-        <v>6508.673844386043</v>
+        <v>6701.371357254116</v>
       </c>
       <c r="J94" s="5">
-        <v>6217.140970019423</v>
+        <v>6458.019878920587</v>
       </c>
       <c r="K94" s="5">
-        <v>-291.5328743666205</v>
+        <v>-243.3514783335295</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.04479144005934144</v>
+        <v>-0.03631368347765207</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4433,25 +4433,25 @@
         <v>42803</v>
       </c>
       <c r="F95" s="3">
-        <v>308691603.0035991</v>
+        <v>317830807.9421535</v>
       </c>
       <c r="G95" s="3">
-        <v>305593965.7852813</v>
+        <v>317433996.6612272</v>
       </c>
       <c r="H95" s="4">
-        <v>0.7291666666666666</v>
+        <v>0.71875</v>
       </c>
       <c r="I95" s="5">
-        <v>7416.370828714872</v>
+        <v>7635.941857678531</v>
       </c>
       <c r="J95" s="5">
-        <v>7139.545494130815</v>
+        <v>7416.162340518824</v>
       </c>
       <c r="K95" s="5">
-        <v>-276.8253345840567</v>
+        <v>-219.7795171597072</v>
       </c>
       <c r="L95" s="4">
-        <v>-0.03732625309298698</v>
+        <v>-0.02878224078391878</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4471,25 +4471,25 @@
         <v>117131</v>
       </c>
       <c r="F96" s="3">
-        <v>677896729.6459655</v>
+        <v>697966718.8491969</v>
       </c>
       <c r="G96" s="3">
-        <v>704113613.141407</v>
+        <v>731394017.3808855</v>
       </c>
       <c r="H96" s="4">
-        <v>0.5851393188854489</v>
+        <v>0.5139318885448917</v>
       </c>
       <c r="I96" s="5">
-        <v>6184.286323583833</v>
+        <v>6367.379934035149</v>
       </c>
       <c r="J96" s="5">
-        <v>6011.334430179944</v>
+        <v>6244.239504323241</v>
       </c>
       <c r="K96" s="5">
-        <v>-172.9518934038888</v>
+        <v>-123.1404297119079</v>
       </c>
       <c r="L96" s="4">
-        <v>-0.02796634637441275</v>
+        <v>-0.01933926214355342</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4509,25 +4509,25 @@
         <v>42665</v>
       </c>
       <c r="F97" s="3">
-        <v>277249942.2962579</v>
+        <v>285458277.1430542</v>
       </c>
       <c r="G97" s="3">
-        <v>281387114.5909856</v>
+        <v>292289267.4404026</v>
       </c>
       <c r="H97" s="4">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="I97" s="5">
-        <v>6815.051922134062</v>
+        <v>7016.820145102361</v>
       </c>
       <c r="J97" s="5">
-        <v>6595.268125887393</v>
+        <v>6850.79731490455</v>
       </c>
       <c r="K97" s="5">
-        <v>-219.7837962466692</v>
+        <v>-166.0228301978104</v>
       </c>
       <c r="L97" s="4">
-        <v>-0.03224976108147481</v>
+        <v>-0.02366069341447952</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4538,34 +4538,34 @@
         <v>931</v>
       </c>
       <c r="C98" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="2">
-        <v>82662</v>
+        <v>83550</v>
       </c>
       <c r="E98" s="2">
-        <v>87105.5</v>
+        <v>87899.5</v>
       </c>
       <c r="F98" s="3">
-        <v>497522320.0255274</v>
+        <v>517733395.3782675</v>
       </c>
       <c r="G98" s="3">
-        <v>516694526.7481225</v>
+        <v>541002203.6925462</v>
       </c>
       <c r="H98" s="4">
-        <v>0.5458015267175572</v>
+        <v>0.5095057034220533</v>
       </c>
       <c r="I98" s="5">
-        <v>6018.75493002259</v>
+        <v>6196.68935222343</v>
       </c>
       <c r="J98" s="5">
-        <v>5931.824359519462</v>
+        <v>6154.781354757948</v>
       </c>
       <c r="K98" s="5">
-        <v>-86.93057050312837</v>
+        <v>-41.90799746548146</v>
       </c>
       <c r="L98" s="4">
-        <v>-0.01444328129552241</v>
+        <v>-0.006762965687548084</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4576,34 +4576,34 @@
         <v>874</v>
       </c>
       <c r="C99" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2">
-        <v>34633</v>
+        <v>34006</v>
       </c>
       <c r="E99" s="2">
-        <v>37458</v>
+        <v>36846</v>
       </c>
       <c r="F99" s="3">
-        <v>229718973.7169557</v>
+        <v>233239132.9310285</v>
       </c>
       <c r="G99" s="3">
-        <v>241689446.39081</v>
+        <v>248575649.4971054</v>
       </c>
       <c r="H99" s="4">
-        <v>0.5675675675675675</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="I99" s="5">
-        <v>6632.950472582673</v>
+        <v>6858.764127831221</v>
       </c>
       <c r="J99" s="5">
-        <v>6452.278455625233</v>
+        <v>6746.340158961772</v>
       </c>
       <c r="K99" s="5">
-        <v>-180.6720169574401</v>
+        <v>-112.4239688694497</v>
       </c>
       <c r="L99" s="4">
-        <v>-0.02723855962806421</v>
+        <v>-0.01639128664787581</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4614,34 +4614,34 @@
         <v>879</v>
       </c>
       <c r="C100" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="2">
-        <v>35090</v>
+        <v>34075</v>
       </c>
       <c r="E100" s="2">
-        <v>35846.5</v>
+        <v>34829.5</v>
       </c>
       <c r="F100" s="3">
-        <v>234156030.2803035</v>
+        <v>233570801.7355972</v>
       </c>
       <c r="G100" s="3">
-        <v>236398003.6412933</v>
+        <v>239395173.7854671</v>
       </c>
       <c r="H100" s="4">
-        <v>0.4891304347826087</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="I100" s="5">
-        <v>6673.013117136035</v>
+        <v>6854.609001778346</v>
       </c>
       <c r="J100" s="5">
-        <v>6594.730409978472</v>
+        <v>6873.345117945049</v>
       </c>
       <c r="K100" s="5">
-        <v>-78.28270715756298</v>
+        <v>18.73611616670223</v>
       </c>
       <c r="L100" s="4">
-        <v>-0.01173123831519773</v>
+        <v>0.00273336030718041</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4661,25 +4661,25 @@
         <v>22284.5</v>
       </c>
       <c r="F101" s="3">
-        <v>141781464.9275703</v>
+        <v>145979084.3375366</v>
       </c>
       <c r="G101" s="3">
-        <v>153566242.7245629</v>
+        <v>159516062.6128241</v>
       </c>
       <c r="H101" s="4">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I101" s="5">
-        <v>6901.356353561638</v>
+        <v>7105.679728267944</v>
       </c>
       <c r="J101" s="5">
-        <v>6891.168423099596</v>
+        <v>7158.162068380446</v>
       </c>
       <c r="K101" s="5">
-        <v>-10.18793046204155</v>
+        <v>52.48234011250224</v>
       </c>
       <c r="L101" s="4">
-        <v>-0.001476221475910866</v>
+        <v>0.007385970395445307</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4699,25 +4699,25 @@
         <v>21871.5</v>
       </c>
       <c r="F102" s="3">
-        <v>131136795.3238994</v>
+        <v>135019265.8407162</v>
       </c>
       <c r="G102" s="3">
-        <v>142701784.0507109</v>
+        <v>148230667.8585807</v>
       </c>
       <c r="H102" s="4">
-        <v>0.7192982456140351</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="I102" s="5">
-        <v>6787.794473143683</v>
+        <v>6988.755704894855</v>
       </c>
       <c r="J102" s="5">
-        <v>6524.554056681565</v>
+        <v>6777.343477062876</v>
       </c>
       <c r="K102" s="5">
-        <v>-263.2404164621175</v>
+        <v>-211.4122278319783</v>
       </c>
       <c r="L102" s="4">
-        <v>-0.0387814359293942</v>
+        <v>-0.03025033879548933</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4737,25 +4737,25 @@
         <v>55843</v>
       </c>
       <c r="F103" s="3">
-        <v>346916318.230992</v>
+        <v>357187214.1607554</v>
       </c>
       <c r="G103" s="3">
-        <v>355174273.5081658</v>
+        <v>368935259.7693707</v>
       </c>
       <c r="H103" s="4">
-        <v>0.6216216216216216</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="I103" s="5">
-        <v>6513.270342094738</v>
+        <v>6706.103940085151</v>
       </c>
       <c r="J103" s="5">
-        <v>6360.229097794992</v>
+        <v>6606.651859129536</v>
       </c>
       <c r="K103" s="5">
-        <v>-153.0412442997458</v>
+        <v>-99.4520809556152</v>
       </c>
       <c r="L103" s="4">
-        <v>-0.02349683588452522</v>
+        <v>-0.01483008343505521</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4775,25 +4775,25 @@
         <v>19868</v>
       </c>
       <c r="F104" s="3">
-        <v>132989827.2646269</v>
+        <v>136927159.1333536</v>
       </c>
       <c r="G104" s="3">
-        <v>129400352.5814712</v>
+        <v>134413881.4513423</v>
       </c>
       <c r="H104" s="4">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I104" s="5">
-        <v>6725.319338776046</v>
+        <v>6924.430915236975</v>
       </c>
       <c r="J104" s="5">
-        <v>6513.003451855807</v>
+        <v>6765.345351889586</v>
       </c>
       <c r="K104" s="5">
-        <v>-212.3158869202389</v>
+        <v>-159.0855633473893</v>
       </c>
       <c r="L104" s="4">
-        <v>-0.03156963650723521</v>
+        <v>-0.02297453253484372</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4813,25 +4813,25 @@
         <v>26069.5</v>
       </c>
       <c r="F105" s="3">
-        <v>157196423.8833084</v>
+        <v>161850422.6299497</v>
       </c>
       <c r="G105" s="3">
-        <v>166680005.3553106</v>
+        <v>173137909.0797459</v>
       </c>
       <c r="H105" s="4">
-        <v>0.4339622641509434</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="I105" s="5">
-        <v>6389.44919757376</v>
+        <v>6578.616914132697</v>
       </c>
       <c r="J105" s="5">
-        <v>6393.678641911451</v>
+        <v>6641.397383139144</v>
       </c>
       <c r="K105" s="5">
-        <v>4.229444337690438</v>
+        <v>62.78046900644676</v>
       </c>
       <c r="L105" s="4">
-        <v>0.000661941930659049</v>
+        <v>0.009543110630378271</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4851,25 +4851,25 @@
         <v>35919.5</v>
       </c>
       <c r="F106" s="3">
-        <v>213976925.0287232</v>
+        <v>220311982.2538994</v>
       </c>
       <c r="G106" s="3">
-        <v>222984032.6031512</v>
+        <v>231623397.6641724</v>
       </c>
       <c r="H106" s="4">
-        <v>0.8941176470588236</v>
+        <v>0.8470588235294118</v>
       </c>
       <c r="I106" s="5">
-        <v>6649.686126721979</v>
+        <v>6846.558486377531</v>
       </c>
       <c r="J106" s="5">
-        <v>6207.882420500039</v>
+        <v>6448.402613181486</v>
       </c>
       <c r="K106" s="5">
-        <v>-441.80370622194</v>
+        <v>-398.1558731960449</v>
       </c>
       <c r="L106" s="4">
-        <v>-0.066439783442791</v>
+        <v>-0.05815416226827652</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4880,34 +4880,34 @@
         <v>372</v>
       </c>
       <c r="C107" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D107" s="2">
-        <v>39534</v>
+        <v>40283</v>
       </c>
       <c r="E107" s="2">
-        <v>40369</v>
+        <v>41242</v>
       </c>
       <c r="F107" s="3">
-        <v>268309832.8409802</v>
+        <v>282652745.9261187</v>
       </c>
       <c r="G107" s="3">
-        <v>267223785.7474184</v>
+        <v>282315631.1310048</v>
       </c>
       <c r="H107" s="4">
-        <v>0.7043478260869566</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I107" s="5">
-        <v>6786.812182955941</v>
+        <v>7016.675667803259</v>
       </c>
       <c r="J107" s="5">
-        <v>6619.529484193773</v>
+        <v>6845.342881795373</v>
       </c>
       <c r="K107" s="5">
-        <v>-167.2826987621684</v>
+        <v>-171.3327860078862</v>
       </c>
       <c r="L107" s="4">
-        <v>-0.02464819922117101</v>
+        <v>-0.02441794292902322</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4927,25 +4927,25 @@
         <v>5657</v>
       </c>
       <c r="F108" s="3">
-        <v>33295426.96621005</v>
+        <v>34281180.15029429</v>
       </c>
       <c r="G108" s="3">
-        <v>34752780.07818413</v>
+        <v>36099252.96449687</v>
       </c>
       <c r="H108" s="4">
         <v>0.55</v>
       </c>
       <c r="I108" s="5">
-        <v>6224.607770837549</v>
+        <v>6408.895148680929</v>
       </c>
       <c r="J108" s="5">
-        <v>6143.323330066135</v>
+        <v>6381.34222458845</v>
       </c>
       <c r="K108" s="5">
-        <v>-81.28444077141376</v>
+        <v>-27.55292409247886</v>
       </c>
       <c r="L108" s="4">
-        <v>-0.01305856429255403</v>
+        <v>-0.004299169116247725</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4965,25 +4965,25 @@
         <v>36234.5</v>
       </c>
       <c r="F109" s="3">
-        <v>234218942.2644967</v>
+        <v>241153289.9857133</v>
       </c>
       <c r="G109" s="3">
-        <v>244716628.1072044</v>
+        <v>254198007.8366802</v>
       </c>
       <c r="H109" s="4">
-        <v>0.7395833333333334</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="I109" s="5">
-        <v>6909.928671952347</v>
+        <v>7114.505840975728</v>
       </c>
       <c r="J109" s="5">
-        <v>6753.691319245593</v>
+        <v>7015.358507408139</v>
       </c>
       <c r="K109" s="5">
-        <v>-156.2373527067539</v>
+        <v>-99.14733356758916</v>
       </c>
       <c r="L109" s="4">
-        <v>-0.02261055940286716</v>
+        <v>-0.01393594098926076</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4994,34 +4994,34 @@
         <v>333</v>
       </c>
       <c r="C110" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="2">
-        <v>53149.5</v>
+        <v>52468</v>
       </c>
       <c r="E110" s="2">
-        <v>56784</v>
+        <v>55993</v>
       </c>
       <c r="F110" s="3">
-        <v>369769295.9834696</v>
+        <v>376465632.4062257</v>
       </c>
       <c r="G110" s="3">
-        <v>370517342.7749205</v>
+        <v>380773453.2851604</v>
       </c>
       <c r="H110" s="4">
-        <v>0.7889908256880734</v>
+        <v>0.75</v>
       </c>
       <c r="I110" s="5">
-        <v>6957.154742442913</v>
+        <v>7175.147373755922</v>
       </c>
       <c r="J110" s="5">
-        <v>6525.030691302489</v>
+        <v>6800.375998520537</v>
       </c>
       <c r="K110" s="5">
-        <v>-432.1240511404239</v>
+        <v>-374.7713752353848</v>
       </c>
       <c r="L110" s="4">
-        <v>-0.06211218050163558</v>
+        <v>-0.05223187144645447</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5041,25 +5041,25 @@
         <v>39212.5</v>
       </c>
       <c r="F111" s="3">
-        <v>250062743.7985401</v>
+        <v>257466167.2828047</v>
       </c>
       <c r="G111" s="3">
-        <v>241587844.9607547</v>
+        <v>250948002.1099257</v>
       </c>
       <c r="H111" s="4">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="I111" s="5">
-        <v>6500.454756451126</v>
+        <v>6692.908932836079</v>
       </c>
       <c r="J111" s="5">
-        <v>6160.990626987687</v>
+        <v>6399.694028942958</v>
       </c>
       <c r="K111" s="5">
-        <v>-339.4641294634384</v>
+        <v>-293.2149038931211</v>
       </c>
       <c r="L111" s="4">
-        <v>-0.0522215971315777</v>
+        <v>-0.04380978537666624</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5079,25 +5079,25 @@
         <v>69406.5</v>
       </c>
       <c r="F112" s="3">
-        <v>434116765.130465</v>
+        <v>446969340.4683938</v>
       </c>
       <c r="G112" s="3">
-        <v>443180122.1313154</v>
+        <v>460350835.2903803</v>
       </c>
       <c r="H112" s="4">
-        <v>0.5290322580645161</v>
+        <v>0.4645161290322581</v>
       </c>
       <c r="I112" s="5">
-        <v>6534.655444289209</v>
+        <v>6728.122175250159</v>
       </c>
       <c r="J112" s="5">
-        <v>6385.282677145733</v>
+        <v>6632.676122414764</v>
       </c>
       <c r="K112" s="5">
-        <v>-149.3727671434763</v>
+        <v>-95.44605283539477</v>
       </c>
       <c r="L112" s="4">
-        <v>-0.0228585528979981</v>
+        <v>-0.01418613549951564</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5108,34 +5108,34 @@
         <v>893</v>
       </c>
       <c r="C113" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D113" s="2">
-        <v>33818.5</v>
+        <v>35052</v>
       </c>
       <c r="E113" s="2">
-        <v>35557</v>
+        <v>36805</v>
       </c>
       <c r="F113" s="3">
-        <v>203522109.4982456</v>
+        <v>224266154.0979769</v>
       </c>
       <c r="G113" s="3">
-        <v>206537068.962352</v>
+        <v>222565503.8314299</v>
       </c>
       <c r="H113" s="4">
-        <v>0.6549295774647887</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="I113" s="5">
-        <v>6018.070272136422</v>
+        <v>6398.098656224377</v>
       </c>
       <c r="J113" s="5">
-        <v>5808.619089415643</v>
+        <v>6047.154023405241</v>
       </c>
       <c r="K113" s="5">
-        <v>-209.4511827207798</v>
+        <v>-350.9446328191361</v>
       </c>
       <c r="L113" s="4">
-        <v>-0.03480371169651109</v>
+        <v>-0.05485139440257303</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5155,25 +5155,25 @@
         <v>31430</v>
       </c>
       <c r="F114" s="3">
-        <v>193602682.9242058</v>
+        <v>199334534.9690366</v>
       </c>
       <c r="G114" s="3">
-        <v>205394076.9567803</v>
+        <v>213351931.1200834</v>
       </c>
       <c r="H114" s="4">
         <v>0.6530612244897959</v>
       </c>
       <c r="I114" s="5">
-        <v>6979.439883348562</v>
+        <v>7186.075019612696</v>
       </c>
       <c r="J114" s="5">
-        <v>6534.969040941149</v>
+        <v>6788.161982821617</v>
       </c>
       <c r="K114" s="5">
-        <v>-444.4708424074133</v>
+        <v>-397.9130367910793</v>
       </c>
       <c r="L114" s="4">
-        <v>-0.06368288141113232</v>
+        <v>-0.0553727919211906</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5184,34 +5184,34 @@
         <v>334</v>
       </c>
       <c r="C115" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D115" s="2">
-        <v>34653</v>
+        <v>34722</v>
       </c>
       <c r="E115" s="2">
-        <v>36877</v>
+        <v>36963</v>
       </c>
       <c r="F115" s="3">
-        <v>206121898.3980598</v>
+        <v>214795450.6688438</v>
       </c>
       <c r="G115" s="3">
-        <v>221556354.8179089</v>
+        <v>232823800.5912591</v>
       </c>
       <c r="H115" s="4">
-        <v>0.4594594594594595</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="I115" s="5">
-        <v>5948.168943469823</v>
+        <v>6186.148570613555</v>
       </c>
       <c r="J115" s="5">
-        <v>6007.982070610649</v>
+        <v>6298.833985100212</v>
       </c>
       <c r="K115" s="5">
-        <v>59.81312714082651</v>
+        <v>112.6854144866575</v>
       </c>
       <c r="L115" s="4">
-        <v>0.0100557209637584</v>
+        <v>0.01821576271574754</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5222,34 +5222,34 @@
         <v>933</v>
       </c>
       <c r="C116" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D116" s="2">
-        <v>66822.5</v>
+        <v>66626.5</v>
       </c>
       <c r="E116" s="2">
-        <v>68477</v>
+        <v>68253</v>
       </c>
       <c r="F116" s="3">
-        <v>400171133.7166945</v>
+        <v>410868079.7845737</v>
       </c>
       <c r="G116" s="3">
-        <v>423701118.8317737</v>
+        <v>439184288.8274965</v>
       </c>
       <c r="H116" s="4">
-        <v>0.373015873015873</v>
+        <v>0.348</v>
       </c>
       <c r="I116" s="5">
-        <v>5988.568726352569</v>
+        <v>6166.736655603607</v>
       </c>
       <c r="J116" s="5">
-        <v>6187.495346346564</v>
+        <v>6434.651792998059</v>
       </c>
       <c r="K116" s="5">
-        <v>198.9266199939957</v>
+        <v>267.9151373944524</v>
       </c>
       <c r="L116" s="4">
-        <v>0.03321772348017382</v>
+        <v>0.04344520487201331</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5269,25 +5269,25 @@
         <v>35895</v>
       </c>
       <c r="F117" s="3">
-        <v>212047027.7976974</v>
+        <v>218324947.9769252</v>
       </c>
       <c r="G117" s="3">
-        <v>213196136.4217375</v>
+        <v>221456276.0857496</v>
       </c>
       <c r="H117" s="4">
-        <v>0.5648148148148148</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="I117" s="5">
-        <v>5994.601187281187</v>
+        <v>6172.078929605213</v>
       </c>
       <c r="J117" s="5">
-        <v>5939.438262201908</v>
+        <v>6169.557768094431</v>
       </c>
       <c r="K117" s="5">
-        <v>-55.16292507927847</v>
+        <v>-2.521161510782804</v>
       </c>
       <c r="L117" s="4">
-        <v>-0.009202100916457678</v>
+        <v>-0.0004084784947725462</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5307,25 +5307,25 @@
         <v>20964</v>
       </c>
       <c r="F118" s="3">
-        <v>135146069.0857989</v>
+        <v>139147239.2180515</v>
       </c>
       <c r="G118" s="3">
-        <v>137893206.269251</v>
+        <v>143235784.9933291</v>
       </c>
       <c r="H118" s="4">
-        <v>0.5483870967741935</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="I118" s="5">
-        <v>6806.308878213082</v>
+        <v>7007.818252319275</v>
       </c>
       <c r="J118" s="5">
-        <v>6577.619074091345</v>
+        <v>6832.464462570555</v>
       </c>
       <c r="K118" s="5">
-        <v>-228.6898041217364</v>
+        <v>-175.3537897487195</v>
       </c>
       <c r="L118" s="4">
-        <v>-0.03359968056309781</v>
+        <v>-0.02502259382806982</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5345,25 +5345,25 @@
         <v>30114</v>
       </c>
       <c r="F119" s="3">
-        <v>185034334.8870935</v>
+        <v>190512510.1621837</v>
       </c>
       <c r="G119" s="3">
-        <v>191078878.8916565</v>
+        <v>198482100.4179871</v>
       </c>
       <c r="H119" s="4">
-        <v>0.7761194029850746</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="I119" s="5">
-        <v>6624.33849054304</v>
+        <v>6820.460401402798</v>
       </c>
       <c r="J119" s="5">
-        <v>6345.184262856362</v>
+        <v>6591.024122268283</v>
       </c>
       <c r="K119" s="5">
-        <v>-279.1542276866785</v>
+        <v>-229.4362791345147</v>
       </c>
       <c r="L119" s="4">
-        <v>-0.04214069496678063</v>
+        <v>-0.0336394122436845</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5383,25 +5383,25 @@
         <v>29875.5</v>
       </c>
       <c r="F120" s="3">
-        <v>183211280.5169867</v>
+        <v>188635481.964022</v>
       </c>
       <c r="G120" s="3">
-        <v>182912676.769096</v>
+        <v>189999504.3344992</v>
       </c>
       <c r="H120" s="4">
         <v>0.68</v>
       </c>
       <c r="I120" s="5">
-        <v>6676.67427769125</v>
+        <v>6874.345655655762</v>
       </c>
       <c r="J120" s="5">
-        <v>6122.497590637679</v>
+        <v>6359.709606014934</v>
       </c>
       <c r="K120" s="5">
-        <v>-554.1766870535712</v>
+        <v>-514.6360496408279</v>
       </c>
       <c r="L120" s="4">
-        <v>-0.08300190544044361</v>
+        <v>-0.07486327796412429</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5421,25 +5421,25 @@
         <v>40356.5</v>
       </c>
       <c r="F121" s="3">
-        <v>388233110.8077067</v>
+        <v>399727242.5854435</v>
       </c>
       <c r="G121" s="3">
-        <v>359979095.4476315</v>
+        <v>373926241.2750779</v>
       </c>
       <c r="H121" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="I121" s="5">
-        <v>9686.575700986956</v>
+        <v>9973.359013596564</v>
       </c>
       <c r="J121" s="5">
-        <v>8919.97808153907</v>
+        <v>9265.576580602328</v>
       </c>
       <c r="K121" s="5">
-        <v>-766.5976194478862</v>
+        <v>-707.7824329942359</v>
       </c>
       <c r="L121" s="4">
-        <v>-0.07914020837825886</v>
+        <v>-0.07096730720606015</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5459,25 +5459,25 @@
         <v>26613</v>
       </c>
       <c r="F122" s="3">
-        <v>164270750.8867439</v>
+        <v>169134194.0227293</v>
       </c>
       <c r="G122" s="3">
-        <v>166821187.103702</v>
+        <v>173284560.8191947</v>
       </c>
       <c r="H122" s="4">
-        <v>0.7014925373134329</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="I122" s="5">
-        <v>6560.202507407756</v>
+        <v>6754.42559145102</v>
       </c>
       <c r="J122" s="5">
-        <v>6268.409690891745</v>
+        <v>6511.274971600148</v>
       </c>
       <c r="K122" s="5">
-        <v>-291.7928165160101</v>
+        <v>-243.1506198508723</v>
       </c>
       <c r="L122" s="4">
-        <v>-0.04447923919825936</v>
+        <v>-0.03599871174221303</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5488,34 +5488,34 @@
         <v>860</v>
       </c>
       <c r="C123" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D123" s="2">
-        <v>110927.5</v>
+        <v>111090.5</v>
       </c>
       <c r="E123" s="2">
-        <v>112285.5</v>
+        <v>112400.5</v>
       </c>
       <c r="F123" s="3">
-        <v>669931428.0743493</v>
+        <v>690624293.3893048</v>
       </c>
       <c r="G123" s="3">
-        <v>694241002.3175915</v>
+        <v>721455225.3982508</v>
       </c>
       <c r="H123" s="4">
-        <v>0.3760217983651226</v>
+        <v>0.3451086956521739</v>
       </c>
       <c r="I123" s="5">
-        <v>6039.362899861164</v>
+        <v>6216.77185168223</v>
       </c>
       <c r="J123" s="5">
-        <v>6182.819707955093</v>
+        <v>6418.612242812539</v>
       </c>
       <c r="K123" s="5">
-        <v>143.4568080939289</v>
+        <v>201.8403911303094</v>
       </c>
       <c r="L123" s="4">
-        <v>0.02375363270473896</v>
+        <v>0.03246707390037029</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5535,25 +5535,25 @@
         <v>39956.5</v>
       </c>
       <c r="F124" s="3">
-        <v>225033619.5494778</v>
+        <v>231696024.1860672</v>
       </c>
       <c r="G124" s="3">
-        <v>230006842.8980193</v>
+        <v>238918301.9793313</v>
       </c>
       <c r="H124" s="4">
-        <v>0.6296296296296297</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="I124" s="5">
-        <v>5963.446079937401</v>
+        <v>6140.001435944062</v>
       </c>
       <c r="J124" s="5">
-        <v>5756.431191371097</v>
+        <v>5979.460212464336</v>
       </c>
       <c r="K124" s="5">
-        <v>-207.0148885663039</v>
+        <v>-160.5412234797259</v>
       </c>
       <c r="L124" s="4">
-        <v>-0.03471397004204602</v>
+        <v>-0.02614677295348899</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5573,25 +5573,25 @@
         <v>30690.5</v>
       </c>
       <c r="F125" s="3">
-        <v>188916482.1109348</v>
+        <v>194509593.2596772</v>
       </c>
       <c r="G125" s="3">
-        <v>196134874.0592526</v>
+        <v>203733986.688142</v>
       </c>
       <c r="H125" s="4">
-        <v>0.5194805194805194</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="I125" s="5">
-        <v>6489.745177290787</v>
+        <v>6681.882283053149</v>
       </c>
       <c r="J125" s="5">
-        <v>6390.735701902953</v>
+        <v>6638.340420916635</v>
       </c>
       <c r="K125" s="5">
-        <v>-99.00947538783385</v>
+        <v>-43.54186213651428</v>
       </c>
       <c r="L125" s="4">
-        <v>-0.01525629630794945</v>
+        <v>-0.006516406648908957</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5611,25 +5611,25 @@
         <v>38987</v>
       </c>
       <c r="F126" s="3">
-        <v>242334350.8334602</v>
+        <v>249508965.4791741</v>
       </c>
       <c r="G126" s="3">
-        <v>249662082.8165018</v>
+        <v>259335070.8334749</v>
       </c>
       <c r="H126" s="4">
-        <v>0.5227272727272727</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="I126" s="5">
-        <v>6722.173393438564</v>
+        <v>6921.191830212873</v>
       </c>
       <c r="J126" s="5">
-        <v>6403.726442570646</v>
+        <v>6651.834479018004</v>
       </c>
       <c r="K126" s="5">
-        <v>-318.4469508679176</v>
+        <v>-269.3573511948689</v>
       </c>
       <c r="L126" s="4">
-        <v>-0.04737261778738855</v>
+        <v>-0.03891776991631002</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5640,34 +5640,34 @@
         <v>935</v>
       </c>
       <c r="C127" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D127" s="2">
-        <v>94154.5</v>
+        <v>94082.5</v>
       </c>
       <c r="E127" s="2">
-        <v>96491.5</v>
+        <v>96429.5</v>
       </c>
       <c r="F127" s="3">
-        <v>566532727.8623475</v>
+        <v>582849510.1398083</v>
       </c>
       <c r="G127" s="3">
-        <v>587410094.690865</v>
+        <v>609579284.9978973</v>
       </c>
       <c r="H127" s="4">
-        <v>0.4366197183098591</v>
+        <v>0.4028268551236749</v>
       </c>
       <c r="I127" s="5">
-        <v>6017.054180759788</v>
+        <v>6195.089523979575</v>
       </c>
       <c r="J127" s="5">
-        <v>6087.687461495209</v>
+        <v>6321.502081809998</v>
       </c>
       <c r="K127" s="5">
-        <v>70.63328073542107</v>
+        <v>126.4125578304238</v>
       </c>
       <c r="L127" s="4">
-        <v>0.01173884738503417</v>
+        <v>0.0204052834654147</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5687,25 +5687,25 @@
         <v>39827</v>
       </c>
       <c r="F128" s="3">
-        <v>258787579.9670206</v>
+        <v>266449313.2498776</v>
       </c>
       <c r="G128" s="3">
-        <v>254143890.9505616</v>
+        <v>263990523.5830331</v>
       </c>
       <c r="H128" s="4">
-        <v>0.6576576576576577</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="I128" s="5">
-        <v>6624.198939437905</v>
+        <v>6820.316718710871</v>
       </c>
       <c r="J128" s="5">
-        <v>6381.195946231493</v>
+        <v>6628.431053883874</v>
       </c>
       <c r="K128" s="5">
-        <v>-243.0029932064126</v>
+        <v>-191.8856648269966</v>
       </c>
       <c r="L128" s="4">
-        <v>-0.03668413274240112</v>
+        <v>-0.02813442142658529</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5725,25 +5725,25 @@
         <v>150293</v>
       </c>
       <c r="F129" s="3">
-        <v>869236825.7450035</v>
+        <v>894971680.2513297</v>
       </c>
       <c r="G129" s="3">
-        <v>900097294.3621203</v>
+        <v>934823549.5448134</v>
       </c>
       <c r="H129" s="4">
-        <v>0.5490196078431373</v>
+        <v>0.4985994397759104</v>
       </c>
       <c r="I129" s="5">
-        <v>6115.636537093672</v>
+        <v>6296.697683876986</v>
       </c>
       <c r="J129" s="5">
-        <v>5988.950212998079</v>
+        <v>6220.007249471455</v>
       </c>
       <c r="K129" s="5">
-        <v>-126.6863240955927</v>
+        <v>-76.69043440553105</v>
       </c>
       <c r="L129" s="4">
-        <v>-0.02071514932700658</v>
+        <v>-0.01217946902578804</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5763,25 +5763,25 @@
         <v>38258</v>
       </c>
       <c r="F130" s="3">
-        <v>227591717.4388461</v>
+        <v>234329857.7956051</v>
       </c>
       <c r="G130" s="3">
-        <v>248615621.957874</v>
+        <v>258248065.5588447</v>
       </c>
       <c r="H130" s="4">
-        <v>0.7413793103448276</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="I130" s="5">
-        <v>6587.219213581458</v>
+        <v>6782.242161346583</v>
       </c>
       <c r="J130" s="5">
-        <v>6498.39568084777</v>
+        <v>6750.171612704395</v>
       </c>
       <c r="K130" s="5">
-        <v>-88.8235327336879</v>
+        <v>-32.07054864218844</v>
       </c>
       <c r="L130" s="4">
-        <v>-0.01348422298601393</v>
+        <v>-0.004728605655658469</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5792,34 +5792,34 @@
         <v>866</v>
       </c>
       <c r="C131" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D131" s="2">
-        <v>30113</v>
+        <v>30243</v>
       </c>
       <c r="E131" s="2">
-        <v>32251</v>
+        <v>32400</v>
       </c>
       <c r="F131" s="3">
-        <v>194491638.4236684</v>
+        <v>201075723.6543994</v>
       </c>
       <c r="G131" s="3">
-        <v>203815121.3966937</v>
+        <v>212327237.8522502</v>
       </c>
       <c r="H131" s="4">
-        <v>0.618421052631579</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="I131" s="5">
-        <v>6458.726743388848</v>
+        <v>6648.66989565848</v>
       </c>
       <c r="J131" s="5">
-        <v>6319.652767253533</v>
+        <v>6553.309810254635</v>
       </c>
       <c r="K131" s="5">
-        <v>-139.0739761353152</v>
+        <v>-95.36008540384501</v>
       </c>
       <c r="L131" s="4">
-        <v>-0.02153272334638889</v>
+        <v>-0.0143427312380352</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5830,34 +5830,34 @@
         <v>357</v>
       </c>
       <c r="C132" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D132" s="2">
-        <v>33432</v>
+        <v>32956</v>
       </c>
       <c r="E132" s="2">
-        <v>34735</v>
+        <v>34281</v>
       </c>
       <c r="F132" s="3">
-        <v>219975773.7116309</v>
+        <v>223631270.732482</v>
       </c>
       <c r="G132" s="3">
-        <v>217455950.0560121</v>
+        <v>223659316.580367</v>
       </c>
       <c r="H132" s="4">
-        <v>0.7391304347826086</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I132" s="5">
-        <v>6579.797012192835</v>
+        <v>6785.752844170471</v>
       </c>
       <c r="J132" s="5">
-        <v>6260.42752428421</v>
+        <v>6524.293823994838</v>
       </c>
       <c r="K132" s="5">
-        <v>-319.3694879086243</v>
+        <v>-261.4590201756328</v>
       </c>
       <c r="L132" s="4">
-        <v>-0.04853789369441186</v>
+        <v>-0.03853058403095955</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5877,25 +5877,25 @@
         <v>28821.5</v>
       </c>
       <c r="F133" s="3">
-        <v>171963879.6804579</v>
+        <v>177055087.6146443</v>
       </c>
       <c r="G133" s="3">
-        <v>188025764.6710785</v>
+        <v>195310695.3583</v>
       </c>
       <c r="H133" s="4">
-        <v>0.4084507042253521</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="I133" s="5">
-        <v>6360.78711597773</v>
+        <v>6549.106255396498</v>
       </c>
       <c r="J133" s="5">
-        <v>6523.802184864718</v>
+        <v>6776.562474482591</v>
       </c>
       <c r="K133" s="5">
-        <v>163.015068886988</v>
+        <v>227.4562190860934</v>
       </c>
       <c r="L133" s="4">
-        <v>0.02562812839271245</v>
+        <v>0.0347308793316139</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5915,25 +5915,25 @@
         <v>28995.5</v>
       </c>
       <c r="F134" s="3">
-        <v>179676109.0001888</v>
+        <v>184995647.2277823</v>
       </c>
       <c r="G134" s="3">
-        <v>179797984.762881</v>
+        <v>186764135.6996476</v>
       </c>
       <c r="H134" s="4">
-        <v>0.8653846153846154</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="I134" s="5">
-        <v>6750.680380229515</v>
+        <v>6950.542802366332</v>
       </c>
       <c r="J134" s="5">
-        <v>6200.89271655536</v>
+        <v>6441.14209789959</v>
       </c>
       <c r="K134" s="5">
-        <v>-549.7876636741548</v>
+        <v>-509.4007044667414</v>
       </c>
       <c r="L134" s="4">
-        <v>-0.08144181515159554</v>
+        <v>-0.0732893414156538</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5953,25 +5953,25 @@
         <v>18220.5</v>
       </c>
       <c r="F135" s="3">
-        <v>109428357.8640571</v>
+        <v>112668122.6612791</v>
       </c>
       <c r="G135" s="3">
-        <v>119199831.6849843</v>
+        <v>123818148.2932037</v>
       </c>
       <c r="H135" s="4">
-        <v>0.3888888888888889</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="I135" s="5">
-        <v>6395.205298583198</v>
+        <v>6584.543431785349</v>
       </c>
       <c r="J135" s="5">
-        <v>6542.072483465562</v>
+        <v>6795.540643407352</v>
       </c>
       <c r="K135" s="5">
-        <v>146.8671848823642</v>
+        <v>210.9972116220033</v>
       </c>
       <c r="L135" s="4">
-        <v>0.02296520252679013</v>
+        <v>0.03204431921634288</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5991,25 +5991,25 @@
         <v>44503.5</v>
       </c>
       <c r="F136" s="3">
-        <v>433718603.5789851</v>
+        <v>446559390.841105</v>
       </c>
       <c r="G136" s="3">
-        <v>403014856.7818905</v>
+        <v>418629393.9848772</v>
       </c>
       <c r="H136" s="4">
         <v>0.8350515463917526</v>
       </c>
       <c r="I136" s="5">
-        <v>10202.74296821889</v>
+        <v>10504.80806495189</v>
       </c>
       <c r="J136" s="5">
-        <v>9055.801381506859</v>
+        <v>9406.662262178868</v>
       </c>
       <c r="K136" s="5">
-        <v>-1146.941586712033</v>
+        <v>-1098.145802773026</v>
       </c>
       <c r="L136" s="4">
-        <v>-0.112415023125125</v>
+        <v>-0.1045374457089668</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6020,34 +6020,34 @@
         <v>358</v>
       </c>
       <c r="C137" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D137" s="2">
-        <v>36950</v>
+        <v>36568</v>
       </c>
       <c r="E137" s="2">
-        <v>39928</v>
+        <v>39452</v>
       </c>
       <c r="F137" s="3">
-        <v>216175510.1371675</v>
+        <v>220284534.5037543</v>
       </c>
       <c r="G137" s="3">
-        <v>233709972.5925301</v>
+        <v>241316691.2715808</v>
       </c>
       <c r="H137" s="4">
-        <v>0.3882352941176471</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="I137" s="5">
-        <v>5850.487419138498</v>
+        <v>6023.969987523363</v>
       </c>
       <c r="J137" s="5">
-        <v>5853.285228224056</v>
+        <v>6116.716295031452</v>
       </c>
       <c r="K137" s="5">
-        <v>2.797809085557674</v>
+        <v>92.74630750808956</v>
       </c>
       <c r="L137" s="4">
-        <v>0.0004782181184435075</v>
+        <v>0.0153962100907179</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6067,25 +6067,25 @@
         <v>51224</v>
       </c>
       <c r="F138" s="3">
-        <v>312511379.7967532</v>
+        <v>321763674.0535539</v>
       </c>
       <c r="G138" s="3">
-        <v>311570232.3568333</v>
+        <v>323641809.6265314</v>
       </c>
       <c r="H138" s="4">
-        <v>0.8382352941176471</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="I138" s="5">
-        <v>6460.517438560199</v>
+        <v>6651.789220188205</v>
       </c>
       <c r="J138" s="5">
-        <v>6082.504926535088</v>
+        <v>6318.167453274468</v>
       </c>
       <c r="K138" s="5">
-        <v>-378.0125120251114</v>
+        <v>-333.6217669137368</v>
       </c>
       <c r="L138" s="4">
-        <v>-0.0585111820562404</v>
+        <v>-0.05015519221523035</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6105,25 +6105,25 @@
         <v>49939</v>
       </c>
       <c r="F139" s="3">
-        <v>311866254.7585716</v>
+        <v>321099449.2735026</v>
       </c>
       <c r="G139" s="3">
-        <v>327670290.2309908</v>
+        <v>340365653.3200349</v>
       </c>
       <c r="H139" s="4">
-        <v>0.5689655172413793</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="I139" s="5">
-        <v>6701.612832185225</v>
+        <v>6900.022547565382</v>
       </c>
       <c r="J139" s="5">
-        <v>6561.410725705176</v>
+        <v>6815.62813272262</v>
       </c>
       <c r="K139" s="5">
-        <v>-140.2021064800492</v>
+        <v>-84.39441484276176</v>
       </c>
       <c r="L139" s="4">
-        <v>-0.02092065148955091</v>
+        <v>-0.01223103464676933</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6143,25 +6143,25 @@
         <v>40579.5</v>
       </c>
       <c r="F140" s="3">
-        <v>320734411.5315114</v>
+        <v>330230159.032615</v>
       </c>
       <c r="G140" s="3">
-        <v>297318976.8283868</v>
+        <v>308838398.8713149</v>
       </c>
       <c r="H140" s="4">
         <v>0.7183098591549296</v>
       </c>
       <c r="I140" s="5">
-        <v>7893.835040523525</v>
+        <v>8127.542000753489</v>
       </c>
       <c r="J140" s="5">
-        <v>7326.827014339428</v>
+        <v>7610.699956167889</v>
       </c>
       <c r="K140" s="5">
-        <v>-567.0080261840967</v>
+        <v>-516.8420445855991</v>
       </c>
       <c r="L140" s="4">
-        <v>-0.07182922157269866</v>
+        <v>-0.06359143324484617</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6181,25 +6181,25 @@
         <v>33188</v>
       </c>
       <c r="F141" s="3">
-        <v>292192698.2161791</v>
+        <v>300843432.2321469</v>
       </c>
       <c r="G141" s="3">
-        <v>284186443.2741364</v>
+        <v>295197054.2141942</v>
       </c>
       <c r="H141" s="4">
         <v>0.6707317073170732</v>
       </c>
       <c r="I141" s="5">
-        <v>9055.184647830019</v>
+        <v>9323.274830548746</v>
       </c>
       <c r="J141" s="5">
-        <v>8562.927662834049</v>
+        <v>8894.69248566332</v>
       </c>
       <c r="K141" s="5">
-        <v>-492.2569849959709</v>
+        <v>-428.5823448854262</v>
       </c>
       <c r="L141" s="4">
-        <v>-0.0543618936709297</v>
+        <v>-0.04596907767656155</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6219,25 +6219,25 @@
         <v>31755.5</v>
       </c>
       <c r="F142" s="3">
-        <v>190450032.3743759</v>
+        <v>196088546.2163072</v>
       </c>
       <c r="G142" s="3">
-        <v>190657694.2542884</v>
+        <v>198044597.2675944</v>
       </c>
       <c r="H142" s="4">
-        <v>0.611764705882353</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="I142" s="5">
-        <v>6129.708154952555</v>
+        <v>6311.185909762061</v>
       </c>
       <c r="J142" s="5">
-        <v>6003.926697872444</v>
+        <v>6236.544764453226</v>
       </c>
       <c r="K142" s="5">
-        <v>-125.7814570801102</v>
+        <v>-74.64114530883489</v>
       </c>
       <c r="L142" s="4">
-        <v>-0.02051997483411727</v>
+        <v>-0.01182680186831142</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6257,25 +6257,25 @@
         <v>79463.5</v>
       </c>
       <c r="F143" s="3">
-        <v>450519962.0314294</v>
+        <v>463858174.7390394</v>
       </c>
       <c r="G143" s="3">
-        <v>467502714.5789052</v>
+        <v>485615790.0808344</v>
       </c>
       <c r="H143" s="4">
-        <v>0.5732758620689655</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="I143" s="5">
-        <v>6053.829828826367</v>
+        <v>6233.061109918695</v>
       </c>
       <c r="J143" s="5">
-        <v>5883.23839975467</v>
+        <v>6111.180480105135</v>
       </c>
       <c r="K143" s="5">
-        <v>-170.5914290716964</v>
+        <v>-121.8806298135605</v>
       </c>
       <c r="L143" s="4">
-        <v>-0.0281790922267745</v>
+        <v>-0.01955389617785253</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6295,25 +6295,25 @@
         <v>23547.5</v>
       </c>
       <c r="F144" s="3">
-        <v>144561579.5226014</v>
+        <v>148841507.7378265</v>
       </c>
       <c r="G144" s="3">
-        <v>145627230.7177402</v>
+        <v>151269458.9719723</v>
       </c>
       <c r="H144" s="4">
-        <v>0.6060606060606061</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I144" s="5">
-        <v>6391.015695422153</v>
+        <v>6580.229790129159</v>
       </c>
       <c r="J144" s="5">
-        <v>6184.403045662607</v>
+        <v>6424.013545895416</v>
       </c>
       <c r="K144" s="5">
-        <v>-206.612649759546</v>
+        <v>-156.2162442337431</v>
       </c>
       <c r="L144" s="4">
-        <v>-0.03232860934883031</v>
+        <v>-0.02374024148337173</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6333,25 +6333,25 @@
         <v>61592.5</v>
       </c>
       <c r="F145" s="3">
-        <v>367025085.4796095</v>
+        <v>377891326.871182</v>
       </c>
       <c r="G145" s="3">
-        <v>372924172.5041531</v>
+        <v>387372866.5596446</v>
       </c>
       <c r="H145" s="4">
-        <v>0.5465116279069767</v>
+        <v>0.4941860465116279</v>
       </c>
       <c r="I145" s="5">
-        <v>6144.787508343608</v>
+        <v>6326.711706463005</v>
       </c>
       <c r="J145" s="5">
-        <v>6054.701018860302</v>
+        <v>6289.286302060228</v>
       </c>
       <c r="K145" s="5">
-        <v>-90.08648948330665</v>
+        <v>-37.42540440277662</v>
       </c>
       <c r="L145" s="4">
-        <v>-0.01466063543466456</v>
+        <v>-0.005915459110385046</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6362,34 +6362,34 @@
         <v>938</v>
       </c>
       <c r="C146" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D146" s="2">
-        <v>99041</v>
+        <v>98637.5</v>
       </c>
       <c r="E146" s="2">
-        <v>107674.5</v>
+        <v>107261.5</v>
       </c>
       <c r="F146" s="3">
-        <v>578899561.0058409</v>
+        <v>594319338.7681624</v>
       </c>
       <c r="G146" s="3">
-        <v>617854597.7218596</v>
+        <v>639934806.0248855</v>
       </c>
       <c r="H146" s="4">
-        <v>0.4962962962962963</v>
+        <v>0.449814126394052</v>
       </c>
       <c r="I146" s="5">
-        <v>5845.049636068304</v>
+        <v>6025.287935806994</v>
       </c>
       <c r="J146" s="5">
-        <v>5738.170111975069</v>
+        <v>5966.118374485584</v>
       </c>
       <c r="K146" s="5">
-        <v>-106.879524093235</v>
+        <v>-59.16956132140967</v>
       </c>
       <c r="L146" s="4">
-        <v>-0.01828547758323706</v>
+        <v>-0.009820204768933527</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6409,25 +6409,25 @@
         <v>21902</v>
       </c>
       <c r="F147" s="3">
-        <v>202572394.1570394</v>
+        <v>208569805.8361424</v>
       </c>
       <c r="G147" s="3">
-        <v>189315927.4703838</v>
+        <v>196650844.6399612</v>
       </c>
       <c r="H147" s="4">
-        <v>0.6896551724137931</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="I147" s="5">
-        <v>9257.278380305695</v>
+        <v>9531.351803319656</v>
       </c>
       <c r="J147" s="5">
-        <v>8643.773512482139</v>
+        <v>8978.670652906636</v>
       </c>
       <c r="K147" s="5">
-        <v>-613.5048678235562</v>
+        <v>-552.6811504130201</v>
       </c>
       <c r="L147" s="4">
-        <v>-0.06627270377098637</v>
+        <v>-0.05798559971530248</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6447,25 +6447,25 @@
         <v>47285.5</v>
       </c>
       <c r="F148" s="3">
-        <v>299591747.5109114</v>
+        <v>308461539.7299436</v>
       </c>
       <c r="G148" s="3">
-        <v>293256711.5750595</v>
+        <v>304618743.9067668</v>
       </c>
       <c r="H148" s="4">
-        <v>0.7890625</v>
+        <v>0.7734375</v>
       </c>
       <c r="I148" s="5">
-        <v>6649.836246843381</v>
+        <v>6846.713050994809</v>
       </c>
       <c r="J148" s="5">
-        <v>6201.831673029988</v>
+        <v>6442.117433605796</v>
       </c>
       <c r="K148" s="5">
-        <v>-448.0045738133931</v>
+        <v>-404.5956173890136</v>
       </c>
       <c r="L148" s="4">
-        <v>-0.06737076781793794</v>
+        <v>-0.05909340940325036</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6476,34 +6476,34 @@
         <v>865</v>
       </c>
       <c r="C149" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D149" s="2">
-        <v>63647</v>
+        <v>63589</v>
       </c>
       <c r="E149" s="2">
-        <v>66039.5</v>
+        <v>66005.5</v>
       </c>
       <c r="F149" s="3">
-        <v>379950287.1693069</v>
+        <v>390810029.9809616</v>
       </c>
       <c r="G149" s="3">
-        <v>391249445.5703362</v>
+        <v>406064730.9551647</v>
       </c>
       <c r="H149" s="4">
-        <v>0.4636363636363636</v>
+        <v>0.4337899543378995</v>
       </c>
       <c r="I149" s="5">
-        <v>5969.64958551553</v>
+        <v>6145.8747579135</v>
       </c>
       <c r="J149" s="5">
-        <v>5924.476193343927</v>
+        <v>6151.983258291577</v>
       </c>
       <c r="K149" s="5">
-        <v>-45.17339217160315</v>
+        <v>6.108500378077224</v>
       </c>
       <c r="L149" s="4">
-        <v>-0.007567176519239882</v>
+        <v>0.0009939187859648868</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6523,25 +6523,25 @@
         <v>20560.5</v>
       </c>
       <c r="F150" s="3">
-        <v>122190636.4636779</v>
+        <v>125808244.6439721</v>
       </c>
       <c r="G150" s="3">
-        <v>128612427.4785237</v>
+        <v>133595428.7248442</v>
       </c>
       <c r="H150" s="4">
         <v>0.6885245901639344</v>
       </c>
       <c r="I150" s="5">
-        <v>6329.153447823364</v>
+        <v>6516.536032527301</v>
       </c>
       <c r="J150" s="5">
-        <v>6255.316139127145</v>
+        <v>6497.674119055674</v>
       </c>
       <c r="K150" s="5">
-        <v>-73.83730869621922</v>
+        <v>-18.8619134716273</v>
       </c>
       <c r="L150" s="4">
-        <v>-0.01166622192129219</v>
+        <v>-0.002894469297411661</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6561,25 +6561,25 @@
         <v>49208</v>
       </c>
       <c r="F151" s="3">
-        <v>310955413.492305</v>
+        <v>320161641.4007005</v>
       </c>
       <c r="G151" s="3">
-        <v>317654281.0283742</v>
+        <v>329961580.6361647</v>
       </c>
       <c r="H151" s="4">
-        <v>0.6311475409836066</v>
+        <v>0.5983606557377049</v>
       </c>
       <c r="I151" s="5">
-        <v>6605.321412855778</v>
+        <v>6800.880299102535</v>
       </c>
       <c r="J151" s="5">
-        <v>6455.33817729585</v>
+        <v>6705.445875389463</v>
       </c>
       <c r="K151" s="5">
-        <v>-149.9832355599283</v>
+        <v>-95.43442371307174</v>
       </c>
       <c r="L151" s="4">
-        <v>-0.02270642504511888</v>
+        <v>-0.01403265746724958</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6599,25 +6599,25 @@
         <v>25807</v>
       </c>
       <c r="F152" s="3">
-        <v>146225978.6410536</v>
+        <v>150555183.4951478</v>
       </c>
       <c r="G152" s="3">
-        <v>146438780.543304</v>
+        <v>152112451.7449363</v>
       </c>
       <c r="H152" s="4">
-        <v>0.5737704918032787</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="I152" s="5">
-        <v>5973.527457864031</v>
+        <v>6150.381285802027</v>
       </c>
       <c r="J152" s="5">
-        <v>5674.382165432014</v>
+        <v>5894.232252680913</v>
       </c>
       <c r="K152" s="5">
-        <v>-299.1452924320174</v>
+        <v>-256.1490331211144</v>
       </c>
       <c r="L152" s="4">
-        <v>-0.05007849960381427</v>
+        <v>-0.04164766722876623</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6628,34 +6628,34 @@
         <v>336</v>
       </c>
       <c r="C153" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D153" s="2">
-        <v>34313.5</v>
+        <v>35365.5</v>
       </c>
       <c r="E153" s="2">
-        <v>39132.5</v>
+        <v>40423.5</v>
       </c>
       <c r="F153" s="3">
-        <v>243967211.0612251</v>
+        <v>258069847.5341149</v>
       </c>
       <c r="G153" s="3">
-        <v>265203281.5528296</v>
+        <v>280775256.8902509</v>
       </c>
       <c r="H153" s="4">
-        <v>0.7127659574468085</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="I153" s="5">
-        <v>7109.948302015974</v>
+        <v>7297.220385237445</v>
       </c>
       <c r="J153" s="5">
-        <v>6777.059517097799</v>
+        <v>6945.842316727916</v>
       </c>
       <c r="K153" s="5">
-        <v>-332.8887849181747</v>
+        <v>-351.3780685095289</v>
       </c>
       <c r="L153" s="4">
-        <v>-0.04682014140999968</v>
+        <v>-0.04815231690417077</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6675,25 +6675,25 @@
         <v>79722</v>
       </c>
       <c r="F154" s="3">
-        <v>469740226.0304231</v>
+        <v>483647478.9385135</v>
       </c>
       <c r="G154" s="3">
-        <v>482243483.9308305</v>
+        <v>500927680.5405132</v>
       </c>
       <c r="H154" s="4">
-        <v>0.5236051502145923</v>
+        <v>0.4721030042918455</v>
       </c>
       <c r="I154" s="5">
-        <v>6157.539633625954</v>
+        <v>6339.841374526636</v>
       </c>
       <c r="J154" s="5">
-        <v>6049.064046697656</v>
+        <v>6283.430929235508</v>
       </c>
       <c r="K154" s="5">
-        <v>-108.4755869282981</v>
+        <v>-56.41044529112787</v>
       </c>
       <c r="L154" s="4">
-        <v>-0.01761670949479877</v>
+        <v>-0.008897769196211103</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6713,25 +6713,25 @@
         <v>25567.5</v>
       </c>
       <c r="F155" s="3">
-        <v>144378923.5797191</v>
+        <v>148653444.0349696</v>
       </c>
       <c r="G155" s="3">
-        <v>152255937.5911644</v>
+        <v>158154990.5960007</v>
       </c>
       <c r="H155" s="4">
-        <v>0.3492063492063492</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I155" s="5">
-        <v>5907.847191100888</v>
+        <v>6082.756471754386</v>
       </c>
       <c r="J155" s="5">
-        <v>5955.057693992938</v>
+        <v>6185.782364173293</v>
       </c>
       <c r="K155" s="5">
-        <v>47.21050289204959</v>
+        <v>103.0258924189066</v>
       </c>
       <c r="L155" s="4">
-        <v>0.007991151660653006</v>
+        <v>0.01693736924983158</v>
       </c>
     </row>
   </sheetData>
